--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -533,22 +533,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1821115763442.3417121917196360</t>
+          <t>1826326360535.2846888113242888</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>11850783610.4813814546606804</t>
+          <t>12000555227.2434251676984459</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>91842.7241857579151540</t>
+          <t>92105.5056306594134932</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-4.5108360125378994</t>
+          <t>-4.5965225018589630</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="3">
@@ -594,22 +594,22 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>301134239303.0434299204475396</t>
+          <t>302603979423.2432562433851068</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8733409540.5256143320395159</t>
+          <t>8912217937.4613502280496253</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2497.5608650821498166</t>
+          <t>2509.7506626108133806</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-10.9493559907010916</t>
+          <t>-10.9203361036031003</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="4">
@@ -655,22 +655,22 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>142531531092.2505979216112867</t>
+          <t>142495914378.7286429053962307</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29373894470.5146597177772163</t>
+          <t>29828089547.4955667791736597</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0008354951098889</t>
+          <t>1.0005853997742199</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2146900260933370</t>
+          <t>0.1535502114464035</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="5">
@@ -720,22 +720,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>133468731745.4940282404701200</t>
+          <t>134607801659.1629191563631680</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2290630654.1711065945694960</t>
+          <t>2355308159.2843347471520250</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.3056450208479725</t>
+          <t>2.3253222204474740</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-10.2038235183190379</t>
+          <t>-9.9262988369516806</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="6">
@@ -785,22 +785,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>88384564691.7058239147880410</t>
+          <t>88755361920.1128574902757880</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>383784149.7233146736349538</t>
+          <t>390079389.0337296827168648</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>613.7525886217051227</t>
+          <t>616.3274472475566436</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-6.3227730362766702</t>
+          <t>-6.2535714759480550</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="7">
@@ -846,22 +846,22 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>69595027150.6449560499062076</t>
+          <t>70263225878.8006134673427109</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2107347321.5803945743422664</t>
+          <t>2155004353.3260754917891851</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>140.5131307527568276</t>
+          <t>141.8622313868427444</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-17.8517138597473554</t>
+          <t>-17.6534494157423208</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="8">
@@ -907,22 +907,22 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>56653904308.4370348672187421</t>
+          <t>56660592215.8489614217485191</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4893864613.8815665128599526</t>
+          <t>4937574883.7052423909917788</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9998416164858783</t>
+          <t>0.9999596462711027</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0087422227771052</t>
+          <t>-0.0166470332197609</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="9">
@@ -968,22 +968,22 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31005290358.2106875313085991</t>
+          <t>31278692137.6186374325275275</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>922719869.1079354586959014</t>
+          <t>942509535.2500636853703348</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2092337387491886</t>
+          <t>0.2110787424832387</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13.2829687305226248</t>
+          <t>-13.2225456802154234</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="10">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23977154537.4404661811187606</t>
+          <t>24200521285.0980179028107086</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>442629600.4075139712708268</t>
+          <t>449901702.3525636903258186</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6810225068152062</t>
+          <t>0.6873667868335617</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-11.5515467788172328</t>
+          <t>-11.3476349578226073</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="11">
@@ -1094,22 +1094,22 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23337352978.5278920112382232</t>
+          <t>23443264336.6730004723919565</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>273617.3826687655537788</t>
+          <t>274859.1339778031228438</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2479.6191135081629012</t>
+          <t>2490.8723103996805146</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-11.3516078222937491</t>
+          <t>-11.8024793302257740</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="12">
@@ -1155,22 +1155,22 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20629508790.8057899217237376</t>
+          <t>20698406095.4790636903468715</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>390148496.6968793591230688</t>
+          <t>393713548.1801813024261432</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2396525700251064</t>
+          <t>0.2404529485653900</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-2.3904986092867705</t>
+          <t>-2.1270712904180853</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="13">
@@ -1216,22 +1216,22 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11848729227.7883760536121210</t>
+          <t>11909893662.4141449207849740</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>42089653.1345950661825937</t>
+          <t>42255293.9201418315146104</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91636.9587173569669783</t>
+          <t>92109.9987086521556254</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-4.7253202823925034</t>
+          <t>-5.1237548260000169</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="14">
@@ -1277,22 +1277,22 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9701126127.1998622162267547</t>
+          <t>9774984236.7540156012864859</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>246089460.7166427661828057</t>
+          <t>249613705.6897104871824628</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15.2031446112057967</t>
+          <t>15.3188915364121162</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-13.3203667811955809</t>
+          <t>-13.2177264412390851</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="15">
@@ -1342,22 +1342,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9186814550.8160185438160531</t>
+          <t>9272538185.3306990359211296</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>117996934.9621143017169873</t>
+          <t>120797927.8470279121537470</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.2996931570397188</t>
+          <t>0.3024896417753709</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-9.5562024585248563</t>
+          <t>-9.1906764365796682</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="16">
@@ -1407,22 +1407,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8984255589.4728770750848882</t>
+          <t>9040238313.2537431252699161</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>159057858.7112987094427660</t>
+          <t>161837799.8690348481041693</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21.6994169415367027</t>
+          <t>21.8346304216905068</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-12.3937202369149634</t>
+          <t>-12.7273534114654214</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="17">
@@ -1472,22 +1472,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8843911705.2911996857643020</t>
+          <t>8989265798.5429540959196642</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>843705855.8595529753453046</t>
+          <t>862937978.4823026193031782</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.8623785842907189</t>
+          <t>2.9094232018227885</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-15.8311263643463260</t>
+          <t>-16.1426535361220004</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="18">
@@ -1537,22 +1537,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8691110058.9171174409601097</t>
+          <t>8799964928.5725014773380370</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>529577890.8663598815490765</t>
+          <t>548778646.9724575230774503</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>115.0249635016325147</t>
+          <t>116.4656341782440580</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-11.0227582902536356</t>
+          <t>-10.4111875165343125</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="19">
@@ -1598,22 +1598,22 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8402129916.3906289513999831</t>
+          <t>8442291196.0953341981341192</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1198616.7384269882536502</t>
+          <t>1204375.2323651679196326</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.0923221744614979</t>
+          <t>9.1357824991229269</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-7.6866527136794192</t>
+          <t>-7.1171084202422151</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="20">
@@ -1659,22 +1659,22 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8043726078.8190874948642595</t>
+          <t>8102544825.4846445433755354</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>116234450.5348973978388833</t>
+          <t>118511542.2477212130870491</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000136507011483</t>
+          <t>0.0000137505202029</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-11.3716848617606776</t>
+          <t>-11.2334599117693028</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="21">
@@ -1724,22 +1724,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7876273177.6623528841814587</t>
+          <t>7960186553.2821200434942591</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>244738850.3618968046244436</t>
+          <t>247080945.5639703808423692</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8.1083927179381126</t>
+          <t>8.1947790822077768</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-3.7290998005652304</t>
+          <t>-2.5990067495445918</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="22">
@@ -1785,22 +1785,22 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6654455240.7193299321703920</t>
+          <t>6693183549.4457284239671080</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>128911084.8452378321203153</t>
+          <t>130761617.4585747925371565</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.3714111771684332</t>
+          <t>4.3968523824234418</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-11.2025875457839534</t>
+          <t>-11.1719891615333043</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="23">
@@ -1850,22 +1850,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6544031282.7506612132239600</t>
+          <t>6658548472.2616779619376000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>85103860.3642011387239589</t>
+          <t>87024960.6714472077266359</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19.5971220001578220</t>
+          <t>19.9400615792943200</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-15.5955191461740211</t>
+          <t>-14.1689138634572872</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="24">
@@ -1915,22 +1915,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5778282739.4687130882292650</t>
+          <t>5806979536.4789030914963531</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>65804819.0751860526207177</t>
+          <t>66512504.0288216837526345</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>291.3352237248465432</t>
+          <t>292.7820874651831595</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-10.7994035590031847</t>
+          <t>-10.8586199324607978</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="25">
@@ -1976,22 +1976,22 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5360294573.4130802113547746</t>
+          <t>5360397487.3247521920145519</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>217816291.2993667476336644</t>
+          <t>216498948.8524415822964850</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.9990516744967205</t>
+          <t>0.9990708555910385</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.0190688629058309</t>
+          <t>0.0448939805525768</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="26">
@@ -2037,22 +2037,22 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4762195988.7992511520458148</t>
+          <t>4785259857.5525035337052696</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>89652341.2999884439785491</t>
+          <t>91075391.1456040701361149</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7.9301464564816180</t>
+          <t>7.9685530776069443</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-11.9180365170799426</t>
+          <t>-12.1533568131701434</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="27">
@@ -2098,22 +2098,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4212254038.6851563150833691</t>
+          <t>4220666909.5980159261689115</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>27263887.8924455542064715</t>
+          <t>27373266.1112185624378962</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>228.3467489901643457</t>
+          <t>228.8028116361924707</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-3.1779043061934232</t>
+          <t>-3.4618078417117421</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="28">
@@ -2159,22 +2159,22 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3597090039.4700902006739440</t>
+          <t>3624900573.7689367609885360</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>86786649.4395937385867951</t>
+          <t>87907801.7090378482978481</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.0306136719179786</t>
+          <t>3.0540445520306834</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-11.1477427340769896</t>
+          <t>-10.8045348736161593</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="29">
@@ -2224,22 +2224,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3338439989.5998560681964972</t>
+          <t>3351648096.8329426727492349</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>210201672.6115594299069417</t>
+          <t>213454283.1722123596062568</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>396.9036075304562052</t>
+          <t>398.4739054617631959</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-7.7222890051932815</t>
+          <t>-7.4224195757637094</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="30">
@@ -2289,22 +2289,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3295962332.7954957348447203</t>
+          <t>3330224501.6239680477891545</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>449121131.5271813892438252</t>
+          <t>460626283.0097744173614015</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0000078346600085</t>
+          <t>0.0000079161028215</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-15.9610909977969766</t>
+          <t>-15.6459383217617560</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="31">
@@ -2350,22 +2350,22 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3171820051.5084776582855938</t>
+          <t>3195470687.3677900377086798</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>95324464.1898921189851409</t>
+          <t>96938135.6935353365053358</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.3931666850236099</t>
+          <t>5.4333807637937489</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-2.8545643330397295</t>
+          <t>-2.2220314830068017</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2379,13 +2379,13 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2395,58 +2395,58 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>15080643.3775415300000000</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3164874759.1816033705884337</t>
+          <t>3193252088.2887604043529264</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>126942869.1767537349481249</t>
+          <t>268725607.5249920374127429</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>209.8633778380313499</t>
+          <t>1.0108082928407216</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-14.7900676329573580</t>
+          <t>-6.5622355731979537</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>228.0401848234080040</t>
+          <t>1.0551009565577929</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,52 +2456,52 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>15080643.3775415300000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3145332494.5781837284794483</t>
+          <t>3170960047.5617003328107222</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>259685402.6474356087142037</t>
+          <t>128415724.4734264573206162</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.9956395803892827</t>
+          <t>210.2668943344932532</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-7.5569460957426748</t>
+          <t>-15.1006618833093617</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1.0551009565577929</t>
+          <t>228.0401848234080040</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="34">
@@ -2533,22 +2533,22 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3084885266.8480098824621688</t>
+          <t>3111996273.5360274605220204</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>35882129.6114816704866001</t>
+          <t>36497228.0155096711941499</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6.4097172445724328</t>
+          <t>6.4660479901445230</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-8.7108856232013635</t>
+          <t>-8.4181419363071822</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="35">
@@ -2598,22 +2598,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2886681881.4275026273594904</t>
+          <t>2938382199.5033665334462340</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>224424753.7273559528726832</t>
+          <t>230194316.0156101350008658</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.1946153416113818</t>
+          <t>0.1981008919688655</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-7.3258047886935106</t>
+          <t>-6.3590952535621354</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="36">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2789322435.7301757237894805</t>
+          <t>2807985579.1001627891759374</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>61444710.7897745292552757</t>
+          <t>62200932.7881180021756505</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.4865303326994518</t>
+          <t>18.6102222951607467</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-10.3639880142492376</t>
+          <t>-10.0443240441611908</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="37">
@@ -2724,22 +2724,22 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2768893285.3270002900000000</t>
+          <t>2764306015.8916077540000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>362571.5775416085000573</t>
+          <t>382154.3876882520001399</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46.1482214221166715</t>
+          <t>46.0717669315267959</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-6.5515758499900422</t>
+          <t>-6.6617765347169485</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="38">
@@ -2789,22 +2789,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2728785383.4997387448238000</t>
+          <t>2730828983.7830047746861242</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>98464928.6130081321917711</t>
+          <t>99324037.9895054779596081</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13.6439557876494073</t>
+          <t>13.6541738106867299</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-16.2517429288076438</t>
+          <t>-16.3748346370822025</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="39">
@@ -2854,22 +2854,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2332948500.0067500047206737</t>
+          <t>2352752553.2491029407551144</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>35514458.0881974437315930</t>
+          <t>36269771.1496816233904953</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.0905649303178624</t>
+          <t>0.0913337225573395</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-7.9788052473455810</t>
+          <t>-7.4223695765536904</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="40">
@@ -2915,22 +2915,22 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2290663974.4462319541423248</t>
+          <t>2303229174.1209113590410884</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>54289413.3478191575443122</t>
+          <t>55200990.0317109528762674</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.2667684542300989</t>
+          <t>0.2682317849201086</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>8.0597295076527244</t>
+          <t>8.3685673219886562</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="41">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2265340143.4087014685197629</t>
+          <t>2288301090.4524843968212784</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>21222351.9578148608440134</t>
+          <t>21688123.1560390987595057</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.0279723281051077</t>
+          <t>0.0282558489468592</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-12.7925178401997386</t>
+          <t>-12.3775038611169516</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="42">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2202632619.2013860633307740</t>
+          <t>2202891754.5257099452278296</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1284613.9789060467248394</t>
+          <t>1283169.3988819475628866</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.7856346309050182</t>
+          <t>0.7857270592487669</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-9.3364030665823195</t>
+          <t>-10.0506943296415590</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="43">
@@ -3106,22 +3106,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1939434108.6643652358592944</t>
+          <t>1950765098.5273599029837676</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16175253.7061174647403244</t>
+          <t>16279763.2849560523661973</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.0767697050046932</t>
+          <t>0.0772182259136053</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-10.3898343424305061</t>
+          <t>-9.9863215775391802</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="44">
@@ -3167,22 +3167,22 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1921562452.4674376547760770</t>
+          <t>1934647282.5188697760914540</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>106631847.7130589814093934</t>
+          <t>108067209.9344678975755650</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.0123088556469309</t>
+          <t>3.0328210952506718</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-11.5105765487115107</t>
+          <t>-11.2497553714758532</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="45">
@@ -3232,22 +3232,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1916133176.6081313432100679</t>
+          <t>1923266768.3974250725396176</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>64401851.6263415923050722</t>
+          <t>65256307.0933377614080232</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2264438012560440</t>
+          <t>0.2272868311983761</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-12.3010713064634938</t>
+          <t>-12.1518908455678699</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="46">
@@ -3293,22 +3293,22 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1896376777.6702858488666975</t>
+          <t>1894725073.2364871925990754</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16651600.3493918953079248</t>
+          <t>16973994.9865841768443590</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>21.3714245395556023</t>
+          <t>21.3528104766308586</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-7.8375100947767255</t>
+          <t>-8.3456461065847695</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="47">
@@ -3350,22 +3350,22 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1804481810.1256673903392125</t>
+          <t>1814443423.2344687156423625</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>104786397.1139463921238222</t>
+          <t>106488342.9572053374832678</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.4083173025410637</t>
+          <t>0.4105714117100889</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-4.2264166998146869</t>
+          <t>-4.1832986137806797</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="48">
@@ -3411,22 +3411,22 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1744462807.4240897293033064</t>
+          <t>1756117541.5427468787626513</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>60128651.2878201262574252</t>
+          <t>60794784.2423058991459480</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.2325920911410125</t>
+          <t>3.2541889983241207</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-2.2221893112534834</t>
+          <t>-1.7331858673867526</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="49">
@@ -3472,22 +3472,22 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1705563177.3904653475881284</t>
+          <t>1709106509.7966643099863876</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>68922005.7954593057566356</t>
+          <t>69647999.8657789308854030</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.3627883156278271</t>
+          <t>4.3718520720603519</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-10.1316266851647423</t>
+          <t>-10.0041928162741515</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="50">
@@ -3537,22 +3537,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1666286509.3191261000000000</t>
+          <t>1678946937.0243685920000000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>68430889.6107299421160037</t>
+          <t>69659219.1854572948976575</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6612248052853675</t>
+          <t>0.6662487845334796</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-12.2923385871959311</t>
+          <t>-12.1440562124426631</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="51">
@@ -3598,22 +3598,22 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1585326353.6623543593381694</t>
+          <t>1589652127.6080171802618535</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2272102.8500156115558767</t>
+          <t>2337255.5595543540493999</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>18.9330344603777846</t>
+          <t>18.9846957646838895</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.5341101804530723</t>
+          <t>1.4586949178224513</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="52">
@@ -3663,22 +3663,22 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1472360654.1901400757266440</t>
+          <t>1472282583.4193255926180345</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2274307.6663438945333871</t>
+          <t>2275749.6480260835537018</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12.0087844923741882</t>
+          <t>12.0081477359794852</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.0827821832697991</t>
+          <t>-0.1571706834812127</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="53">
@@ -3724,22 +3724,22 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1240537859.8554470419240659</t>
+          <t>1251625689.4628915290671568</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>21651260.8441521059413358</t>
+          <t>22024170.0922960375409842</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.3820567446607521</t>
+          <t>1.3944094589055261</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-18.6939901485229916</t>
+          <t>-18.0043247874405911</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="54">
@@ -3789,22 +3789,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1221704729.3438640496516423</t>
+          <t>1220852521.5150356956442458</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>75720956.0638894452773197</t>
+          <t>75605174.2977798554542636</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1433.6452546050913999</t>
+          <t>1432.6452063279653505</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-7.7287015308466868</t>
+          <t>-7.9519422510137663</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="55">
@@ -3854,22 +3854,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1169429554.1956552634314893</t>
+          <t>1181073777.9127044626579166</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>21505257.1451092023929750</t>
+          <t>21685851.8041165043651015</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.7722098596712412</t>
+          <t>0.7798988943208809</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-14.8096404300511620</t>
+          <t>-14.9743971051940402</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="56">
@@ -3915,22 +3915,22 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1154680387.2496447862798674</t>
+          <t>1162405253.9200182377223103</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>16624409.4767294197345754</t>
+          <t>16813035.8337123556694767</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1209275359400853</t>
+          <t>0.1217365469029709</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-11.4378856433890327</t>
+          <t>-11.2146718726714706</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="57">
@@ -3980,22 +3980,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1140176778.5901577000000000</t>
+          <t>1148018632.1992327000000000</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>23424707.1899436791956317</t>
+          <t>23687353.0765304214479147</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.1401767785901577</t>
+          <t>1.1480186321992327</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-12.7004164258219296</t>
+          <t>-12.8775973903480919</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="58">
@@ -4045,22 +4045,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1039733059.0986282976998948</t>
+          <t>1047018080.2177443632371164</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>7851569.8737605782990683</t>
+          <t>7965936.5614721036865570</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>86.1223907202018546</t>
+          <t>86.7258181381675278</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-9.5792656896216811</t>
+          <t>-9.3801329878494042</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="59">
@@ -4110,22 +4110,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1001878540.5607491102293801</t>
+          <t>1010214453.8474412185026064</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>46295507.5376691227426201</t>
+          <t>47047354.8837565311278039</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>13.7233194070694088</t>
+          <t>13.8375013123120165</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-14.4419324466342810</t>
+          <t>-14.4934070318255087</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="60">
@@ -4171,22 +4171,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>953314110.6297802212891178</t>
+          <t>955414357.9331060257369110</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1937206.9847767981071060</t>
+          <t>1957577.6515188776232302</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.0775474944278581</t>
+          <t>0.0777183393930545</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-9.0299332429270990</t>
+          <t>-9.0290328999051816</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="61">
@@ -4236,22 +4236,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>880507824.0128054419435861</t>
+          <t>880170356.1484860336946311</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4213606.5066786171451642</t>
+          <t>4238740.1262729361209049</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.0095842714786733</t>
+          <t>0.0095805981625042</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-13.3698822624532327</t>
+          <t>-13.7379793141434338</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4265,13 +4265,13 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4281,58 +4281,58 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1548697010.4528000000000000</t>
+          <t>290847965.9593330000000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>865909433.1880359416007143</t>
+          <t>873641930.0823131393831360</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>43693746.7473637508296859</t>
+          <t>228414320.8083950359251604</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.5591212660343845</t>
+          <t>3.0037752789526734</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-12.5599245120263478</t>
+          <t>-28.7222895207630983</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.6041153140759282</t>
+          <t>3.1769999468394200</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4342,52 +4342,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>290847965.9593330000000000</t>
+          <t>1548697010.4528000000000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>861815950.2441920105662676</t>
+          <t>869709450.5307542963550479</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>224413185.5832858042300017</t>
+          <t>44836705.6782149523782970</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2.9631149298279535</t>
+          <t>0.5615749527898121</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-29.3548192321596484</t>
+          <t>-12.2592298273389800</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3.1769999468394200</t>
+          <t>0.6041153140759282</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="64">
@@ -4419,22 +4419,22 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>808534311.7122063463837115</t>
+          <t>811994625.3746192174043933</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1141700.0376570012737234</t>
+          <t>1150221.7806091990235148</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.2513186067164207</t>
+          <t>1.2566739204095191</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-6.1340385412564107</t>
+          <t>-6.1210158855121575</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="65">
@@ -4480,22 +4480,22 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>797815031.3149332824335978</t>
+          <t>801189756.9318082443930087</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>13474935.6427077737916254</t>
+          <t>13631683.4062626672107140</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.7731877083262391</t>
+          <t>0.7764582613536004</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-9.8724076144319543</t>
+          <t>-9.7471681194936927</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="66">
@@ -4541,22 +4541,22 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>749608985.2600897578305921</t>
+          <t>756457607.9569848842737121</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>37360086.4807029534042206</t>
+          <t>38153542.9429941603524782</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.3041803386706702</t>
+          <t>0.3069594093759745</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-12.9347711332070165</t>
+          <t>-12.4404006411577520</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="67">
@@ -4602,22 +4602,22 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>736562057.9013717434470896</t>
+          <t>739960513.1043231977823162</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10220949.3287062907171766</t>
+          <t>10348569.5767772910248035</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.4705923162750631</t>
+          <t>0.4727636023039290</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-8.9127717692141670</t>
+          <t>-8.8833725421745425</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="68">
@@ -4663,22 +4663,22 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>719229380.8647730831363479</t>
+          <t>727142530.2682808786342928</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>17269782.3009613950522729</t>
+          <t>17602108.8961251943189477</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.1970202601671151</t>
+          <t>0.1991879285017232</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-12.4065064409906010</t>
+          <t>-12.1704025081662352</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="69">
@@ -4724,22 +4724,22 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>700839181.8361679894290315</t>
+          <t>707046618.5072769160762954</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>52084518.2288249571443571</t>
+          <t>52878082.2892607360017597</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.0189460008872733</t>
+          <t>0.0191138084296119</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-14.6296578694534206</t>
+          <t>-14.4885643842495882</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="70">
@@ -4785,22 +4785,22 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>674976604.5055093822502638</t>
+          <t>675686212.0787240239716975</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>8592434.2660455609855479</t>
+          <t>8774848.5514156736882780</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>34.0388089662848098</t>
+          <t>34.0745942016017844</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-8.7913097103788086</t>
+          <t>-8.7728376886499501</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="71">
@@ -4846,22 +4846,22 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>662108667.7699770833131883</t>
+          <t>669072429.2308812180236108</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17258739.9759346747285514</t>
+          <t>17635457.2806900113195604</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9.3864423096262693</t>
+          <t>9.4851646922087668</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-11.4038245046196704</t>
+          <t>-11.2010347194602403</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="72">
@@ -4911,22 +4911,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>629260056.3154829186757838</t>
+          <t>633115198.3014109454791452</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>50144905.0157667587595324</t>
+          <t>51325386.5212456305828868</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.1644463430804102</t>
+          <t>2.1777067556709628</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-12.1930602065095925</t>
+          <t>-11.9825225666440891</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="73">
@@ -4976,22 +4976,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>598727222.2013659771617684</t>
+          <t>604824766.4415371588687093</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>921412.9018007176124082</t>
+          <t>947545.8110289184911090</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.3751154454521669</t>
+          <t>3.4094882198663026</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-9.6553939802395566</t>
+          <t>-9.3743033873115324</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="74">
@@ -5037,22 +5037,22 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>580217960.2367317078903484</t>
+          <t>583970061.6291590830155372</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16497895.8207768263373320</t>
+          <t>16671921.3048621861694027</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.6507988069691552</t>
+          <t>3.6744074647940737</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-10.6620714967788813</t>
+          <t>-10.4396390709221966</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="75">
@@ -5098,22 +5098,22 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>557955369.2037091432536997</t>
+          <t>556620088.2203189615718026</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>18809449.8470803580788773</t>
+          <t>18785753.1218088898477978</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.4333439329637663</t>
+          <t>0.4323068680928254</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-15.5189058921485564</t>
+          <t>-16.3824053467757261</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5127,7 +5127,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="76">
@@ -5159,22 +5159,22 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>549282971.6011032001793284</t>
+          <t>549833683.0877886703685978</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>181096207.7172628893637601</t>
+          <t>182674924.0664070329349778</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.5499201763435220</t>
+          <t>0.5504715266921223</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-12.7221571747765828</t>
+          <t>-12.6370645998893851</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="77">
@@ -5220,22 +5220,22 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>547681540.9609935306040739</t>
+          <t>549808845.6027870954257885</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>17047760.3771654085785610</t>
+          <t>17256433.6380080643499152</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.2819822778390976</t>
+          <t>0.2830775534028825</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-9.7786833013403302</t>
+          <t>-9.8085985272199666</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5249,7 +5249,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="78">
@@ -5281,22 +5281,22 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>540361720.7976395563347589</t>
+          <t>544522049.3475711251060353</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>22626790.2133918622025727</t>
+          <t>23020897.9097605194001068</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.1096912055578847</t>
+          <t>0.1105357351324172</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-10.0173514276250168</t>
+          <t>-9.8687404202198652</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="79">
@@ -5346,22 +5346,22 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>524466952.5619751943402978</t>
+          <t>527241225.9201719767832640</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15387973.1867632727368921</t>
+          <t>15596205.0948863622806934</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>33.0127061016156218</t>
+          <t>33.1873334457643840</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-6.9600869947811589</t>
+          <t>-6.7044343553927347</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="80">
@@ -5407,22 +5407,22 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>517327420.9670839218506416</t>
+          <t>523172582.4634192731292662</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>21717035.9003001466009018</t>
+          <t>22107723.6755339318981816</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.5729252730405356</t>
+          <t>1.5906973877013092</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-13.9467304100579917</t>
+          <t>-13.4556456081157886</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="81">
@@ -5472,22 +5472,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>510807774.8991138777455688</t>
+          <t>515988469.8915218317482712</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>24207955.1235913650999534</t>
+          <t>24594929.9212353563640752</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>7.7804811611968068</t>
+          <t>7.8593920583504332</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-15.4172676449573288</t>
+          <t>-15.0707526039507937</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="82">
@@ -5533,22 +5533,22 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>509194725.7119040964474136</t>
+          <t>510699558.7571728297610394</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2844558.2870538369922380</t>
+          <t>2886881.6327596475002238</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.2660670173555652</t>
+          <t>0.2668533303705183</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-10.6041647347585498</t>
+          <t>-10.2604720675545705</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="83">
@@ -5594,22 +5594,22 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>494275128.7243930086053828</t>
+          <t>494268109.1300829933343362</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>817426.5249479633913538</t>
+          <t>817969.8988385825670017</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.9974956326985516</t>
+          <t>0.9974814664695414</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.0930292400618326</t>
+          <t>-0.0881012857125115</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="84">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>486668816.1433037051676733</t>
+          <t>492760527.1863185009197758</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>8021500.7420530738296652</t>
+          <t>8111166.0938645371351766</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20.1231212164381159</t>
+          <t>20.3750055280435783</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-12.8985968063365298</t>
+          <t>-12.6456256225447963</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="85">
@@ -5720,22 +5720,22 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>486385779.7186913914272768</t>
+          <t>491606751.5165871974386080</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>221463738.9703336317932313</t>
+          <t>224447642.9068004097709226</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.3817919780638752</t>
+          <t>1.3966244366776995</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-2.2841602883122026</t>
+          <t>-2.2944864329162425</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5749,7 +5749,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="86">
@@ -5781,22 +5781,22 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>477615316.7307563305817956</t>
+          <t>484566531.9409110110102511</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>5391456.5351639536875278</t>
+          <t>5542749.1564102717429540</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.9100246037177097</t>
+          <t>2.9523771133184226</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-13.5852673293850647</t>
+          <t>-13.1537746207727117</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="87">
@@ -5846,22 +5846,22 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>469420563.3865793642997708</t>
+          <t>471456054.0846071462226673</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3901447.6367080272334585</t>
+          <t>3922825.6394529257805740</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.0000236726805876</t>
+          <t>0.0000237753295231</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-9.4280454302723204</t>
+          <t>-8.9295640411276351</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="88">
@@ -5907,22 +5907,22 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>451329503.1976741961079153</t>
+          <t>456444860.2361646612097719</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>45961037.5574196215403615</t>
+          <t>46666113.2732763381116106</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0071798704951079</t>
+          <t>0.0072612469635470</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-3.2050481222921994</t>
+          <t>-2.3661723155094148</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="89">
@@ -5968,22 +5968,22 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>450871572.1332697630703292</t>
+          <t>452863221.7162799061017205</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>25773698.9977514501958337</t>
+          <t>26144827.0853115942004103</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.0478222209127084</t>
+          <t>0.0480334675563785</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-8.0748068484776327</t>
+          <t>-8.0141448964084362</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="90">
@@ -6029,22 +6029,22 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>450757970.4095765226932890</t>
+          <t>450986685.9198993870480938</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>40695367.0487545772979798</t>
+          <t>40734590.6268344352971060</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>50.8187084392133306</t>
+          <t>50.8444939551611959</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-7.9698745057101293</t>
+          <t>-7.9852032986062795</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="91">
@@ -6090,22 +6090,22 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>443288864.9436527473906280</t>
+          <t>443562947.1461418113898846</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10145095.9505619793351988</t>
+          <t>10159082.2322254757421211</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>171.3247367000116070</t>
+          <t>171.4306655082652656</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-4.4703423016902468</t>
+          <t>-4.3728184249869099</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="92">
@@ -6151,22 +6151,22 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>434578686.6471958850201712</t>
+          <t>436182552.2792609369686544</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>6957107.7450423153904903</t>
+          <t>7023336.7844670030999533</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.4013271998829189</t>
+          <t>0.4028083468486643</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-8.2806787414678475</t>
+          <t>-8.3839869423815365</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6180,7 +6180,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="93">
@@ -6212,22 +6212,22 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>429988269.2778256946798316</t>
+          <t>432516626.0069117503073846</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>20253479.7110510280775453</t>
+          <t>20757295.7616205414261506</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.3709591715780829</t>
+          <t>0.3731404336837931</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-16.1680209582198531</t>
+          <t>-15.9551445080329580</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6241,13 +6241,13 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>akash-network</t>
+          <t>reserve-rights</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6257,62 +6257,62 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AKT</t>
+          <t>RSR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Akash Network</t>
+          <t>Reserve Rights</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>248285794.6611410000000000</t>
+          <t>55382047907.0000000000000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>388539008.0000000000000000</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>406995227.5178357222736881</t>
+          <t>411057366.1207687691520882</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2402008.5925807219425746</t>
+          <t>12782755.8141493214770978</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.6392207539432549</t>
+          <t>0.0074222131837926</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-9.5827093424312774</t>
+          <t>-15.5416050889373127</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>1.7185669222154095</t>
+          <t>0.0079025232542151</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://akash.bigdipper.live/</t>
+          <t>https://etherscan.io/token/0x8762db106b2c2a0bccb3a80d1ed41273552616e8</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>reserve-rights</t>
+          <t>akash-network</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6322,56 +6322,56 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RSR</t>
+          <t>AKT</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Reserve Rights</t>
+          <t>Akash Network</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>55382047907.0000000000000000</t>
+          <t>248285794.6611410000000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>100000000000.0000000000000000</t>
+          <t>388539008.0000000000000000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>406865867.2648976042500202</t>
+          <t>410888022.3644803640131711</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>12559672.8138586545332142</t>
+          <t>2434313.3858272044632670</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.0073465298348686</t>
+          <t>1.6548994392742361</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-15.8331171356253025</t>
+          <t>-8.9477737857031774</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.0079025232542151</t>
+          <t>1.7185669222154095</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8762db106b2c2a0bccb3a80d1ed41273552616e8</t>
+          <t>https://akash.bigdipper.live/</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="96">
@@ -6403,22 +6403,22 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>398133093.2385579337554000</t>
+          <t>400750581.1851098233641000</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2912996.3035269372435245</t>
+          <t>2959424.9846440410891024</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.9555578754214460</t>
+          <t>0.9618400992898590</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-7.9962526230888208</t>
+          <t>-8.1301493744106673</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="97">
@@ -6464,22 +6464,22 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>389820042.1340280170624823</t>
+          <t>389830810.5644376801453320</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2783320.7650033834162281</t>
+          <t>2783397.6517529759478780</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>59.1167776122978440</t>
+          <t>59.1184106604661131</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-2.6867867965854471</t>
+          <t>-2.6876888166122885</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="98">
@@ -6525,22 +6525,22 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>388408761.5500598679613936</t>
+          <t>386404325.3164122820865391</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1375686.9944247501976486</t>
+          <t>1384410.4402757807391799</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.0046112019872308</t>
+          <t>0.0045874052522988</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-12.0365523839702581</t>
+          <t>-12.5820551241710484</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6550,7 +6550,7 @@
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="99">
@@ -6582,22 +6582,22 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>373486661.6841267478815702</t>
+          <t>376195235.1408394149060943</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>11266419.1883141232005873</t>
+          <t>11467252.6323703482083863</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.3069555964565641</t>
+          <t>0.3091816780445990</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-14.2007520390766169</t>
+          <t>-14.0748943424224612</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6611,7 +6611,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="100">
@@ -6643,22 +6643,22 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>345561990.5490896795897447</t>
+          <t>346309553.2138050251887004</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>12075821.2530221709230723</t>
+          <t>12104274.2297777718836824</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.2468869556986034</t>
+          <t>0.2474210522587958</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-7.6231453243520635</t>
+          <t>-7.5073103128813161</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
     <row r="101">
@@ -6708,22 +6708,22 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>334427506.5477833000000000</t>
+          <t>336169926.1961606000000000</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1952372.1126764187698496</t>
+          <t>1938926.9283770359414185</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.3344275065477833</t>
+          <t>0.3361699261961606</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-6.8378807691129358</t>
+          <t>-9.9418286998426802</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1740444303792</v>
+        <v>1740444889583</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -533,22 +533,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1826326360535.2846888113242888</t>
+          <t>1823651057271.6802679267068646</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12000555227.2434251676984459</t>
+          <t>12039600829.0814346559110224</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>92105.5056306594134932</t>
+          <t>91970.5844220877881919</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-4.5965225018589630</t>
+          <t>-4.4996662347137461</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="3">
@@ -594,22 +594,22 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>302603979423.2432562433851068</t>
+          <t>301584660577.2982909939798171</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8912217937.4613502280496253</t>
+          <t>8910375725.0928548079069373</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2509.7506626108133806</t>
+          <t>2501.2965895550062171</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-10.9203361036031003</t>
+          <t>-10.9034799347469095</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="4">
@@ -655,22 +655,22 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>142495914378.7286429053962307</t>
+          <t>142586140798.8612055864709993</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29828089547.4955667791736597</t>
+          <t>29879840433.7422126524660024</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0005853997742199</t>
+          <t>1.0012189564558423</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1535502114464035</t>
+          <t>0.2750851146829892</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="5">
@@ -720,22 +720,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>134607801659.1629191563631680</t>
+          <t>133645449168.0847302184345680</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2355308159.2843347471520250</t>
+          <t>2356882603.0166599695988837</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.3253222204474740</t>
+          <t>2.3086977781504865</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-9.9262988369516806</t>
+          <t>-10.2812946374554460</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="6">
@@ -785,22 +785,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>88755361920.1128574902757880</t>
+          <t>88507941271.9140849869716200</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>390079389.0337296827168648</t>
+          <t>390341581.3963424725797930</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>616.3274472475566436</t>
+          <t>614.6093297929972140</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-6.2535714759480550</t>
+          <t>-6.3150270906109678</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="7">
@@ -846,22 +846,22 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>70263225878.8006134673427109</t>
+          <t>69937944855.6681770359785975</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2155004353.3260754917891851</t>
+          <t>2163165473.9534801870571833</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>141.8622313868427444</t>
+          <t>141.2054853978532856</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-17.6534494157423208</t>
+          <t>-17.5069941535207016</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="8">
@@ -907,22 +907,22 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>56660592215.8489614217485191</t>
+          <t>56659514892.4909908355605404</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4937574883.7052423909917788</t>
+          <t>4932360952.5041805945609562</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9999596462711027</t>
+          <t>0.9999406334115150</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.0166470332197609</t>
+          <t>0.0043916470668974</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="9">
@@ -968,22 +968,22 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31278692137.6186374325275275</t>
+          <t>31142929806.1870898400122186</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>942509535.2500636853703348</t>
+          <t>940941350.1655560937448867</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2110787424832387</t>
+          <t>0.2101625743113381</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13.2225456802154234</t>
+          <t>-13.2380238484486706</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="10">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24200521285.0980179028107086</t>
+          <t>24105825152.8915092309424761</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>449901702.3525636903258186</t>
+          <t>451473293.5378550794592378</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6873667868335617</t>
+          <t>0.6846771350135228</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-11.3476349578226073</t>
+          <t>-11.3334106263721773</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="11">
@@ -1094,22 +1094,22 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23443264336.6730004723919565</t>
+          <t>23443270311.1504611923680337</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>274859.1339778031228438</t>
+          <t>274710.2498230799228331</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2490.8723103996805146</t>
+          <t>2490.8729451944028833</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-11.8024793302257740</t>
+          <t>-11.0528980275510346</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="12">
@@ -1155,22 +1155,22 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20698406095.4790636903468715</t>
+          <t>20699969264.7987587985132293</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>393713548.1801813024261432</t>
+          <t>395774787.4948200913976446</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2404529485653900</t>
+          <t>0.2404711078705217</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-2.1270712904180853</t>
+          <t>-1.9037649663512604</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="13">
@@ -1216,22 +1216,22 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11909893662.4141449207849740</t>
+          <t>11910049148.4678446633227630</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>42255293.9201418315146104</t>
+          <t>42266037.3958876422026305</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>92109.9987086521556254</t>
+          <t>92111.2012231843125532</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-5.1237548260000169</t>
+          <t>-4.3127269288634547</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="14">
@@ -1277,22 +1277,22 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9774984236.7540156012864859</t>
+          <t>9707010501.9871416531511164</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>249613705.6897104871824628</t>
+          <t>250070442.7950347188054613</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15.3188915364121162</t>
+          <t>15.2123663241971074</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-13.2177264412390851</t>
+          <t>-13.5240885610590302</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="15">
@@ -1342,22 +1342,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9272538185.3306990359211296</t>
+          <t>9239794455.3879637823656759</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120797927.8470279121537470</t>
+          <t>120463489.1529802581329562</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.3024896417753709</t>
+          <t>0.3014214726351848</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-9.1906764365796682</t>
+          <t>-9.1095834171729602</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="16">
@@ -1407,22 +1407,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9040238313.2537431252699161</t>
+          <t>9000289226.9504194588566152</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>161837799.8690348481041693</t>
+          <t>161718468.6565426670788273</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21.8346304216905068</t>
+          <t>21.7381425300119805</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-12.7273534114654214</t>
+          <t>-12.9417900280837984</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="17">
@@ -1472,22 +1472,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8989265798.5429540959196642</t>
+          <t>8974341149.0962971389747307</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>862937978.4823026193031782</t>
+          <t>865111724.9905503996602534</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.9094232018227885</t>
+          <t>2.9045927604550170</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-16.1426535361220004</t>
+          <t>-15.2190175387614306</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="18">
@@ -1537,22 +1537,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8799964928.5725014773380370</t>
+          <t>8792511833.6228629869553546</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>548778646.9724575230774503</t>
+          <t>553283450.1017237971128070</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>116.4656341782440580</t>
+          <t>116.3669940771816185</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-10.4111875165343125</t>
+          <t>-10.1819642589314793</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="19">
@@ -1598,22 +1598,22 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8442291196.0953341981341192</t>
+          <t>8431219966.5886197203808249</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1204375.2323651679196326</t>
+          <t>1202282.2828427856584289</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.1357824991229269</t>
+          <t>9.1238018243959054</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-7.1171084202422151</t>
+          <t>-7.2774375835551982</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="20">
@@ -1659,22 +1659,22 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8102544825.4846445433755354</t>
+          <t>8068821381.5490614765584191</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>118511542.2477212130870491</t>
+          <t>118276517.4776440907770095</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000137505202029</t>
+          <t>0.0000136932894307</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-11.2334599117693028</t>
+          <t>-11.3559790809058558</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1688,7 +1688,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="21">
@@ -1724,22 +1724,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7960186553.2821200434942591</t>
+          <t>7970306787.4482947510553090</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>247080945.5639703808423692</t>
+          <t>249977958.3876416396592459</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8.1947790822077768</t>
+          <t>8.2051975670883627</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-2.5990067495445918</t>
+          <t>-2.2755095113586031</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="22">
@@ -1785,22 +1785,22 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6693183549.4457284239671080</t>
+          <t>6664505317.2895972844104760</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>130761617.4585747925371565</t>
+          <t>130802707.8112087808727414</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.3968523824234418</t>
+          <t>4.3780132227847046</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-11.1719891615333043</t>
+          <t>-11.3146075535464503</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="23">
@@ -1850,22 +1850,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6658548472.2616779619376000</t>
+          <t>6615719797.3372408553063940</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>87024960.6714472077266359</t>
+          <t>86931910.6195157828013820</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19.9400615792943200</t>
+          <t>19.8118044345261333</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-14.1689138634572872</t>
+          <t>-14.1310765421034428</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="24">
@@ -1915,22 +1915,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5806979536.4789030914963531</t>
+          <t>5805255204.5009597600839369</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>66512504.0288216837526345</t>
+          <t>68673837.9339042409145713</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>292.7820874651831595</t>
+          <t>292.6951483752804357</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-10.8586199324607978</t>
+          <t>-10.8137203238890384</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1944,7 +1944,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="25">
@@ -1976,22 +1976,22 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5360397487.3247521920145519</t>
+          <t>5361382775.4725319564331651</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>216498948.8524415822964850</t>
+          <t>216132915.3092764128935002</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.9990708555910385</t>
+          <t>0.9992544935908573</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.0448939805525768</t>
+          <t>0.0446704371266217</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="26">
@@ -2037,22 +2037,22 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4785259857.5525035337052696</t>
+          <t>4765807603.9965024013759341</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>91075391.1456040701361149</t>
+          <t>91158938.5909142434432011</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7.9685530776069443</t>
+          <t>7.9361606225356864</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-12.1533568131701434</t>
+          <t>-12.1140866495364132</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="27">
@@ -2098,22 +2098,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4220666909.5980159261689115</t>
+          <t>4226591733.5510195133424703</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>27373266.1112185624378962</t>
+          <t>27414107.9405630980424033</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>228.8028116361924707</t>
+          <t>229.1239969862645029</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-3.4618078417117421</t>
+          <t>-3.3193536791604411</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="28">
@@ -2159,22 +2159,22 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3624900573.7689367609885360</t>
+          <t>3600406973.8751583557254320</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>87907801.7090378482978481</t>
+          <t>87573701.3491683728613020</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.0540445520306834</t>
+          <t>3.0334082493810258</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-10.8045348736161593</t>
+          <t>-11.0287307536382263</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="29">
@@ -2224,22 +2224,22 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3351648096.8329426727492349</t>
+          <t>3318875320.2417584620781823</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>213454283.1722123596062568</t>
+          <t>212045388.3437686051133313</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>398.4739054617631959</t>
+          <t>394.5775846357627293</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-7.4224195757637094</t>
+          <t>-7.9590510911740779</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="30">
@@ -2289,22 +2289,22 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3330224501.6239680477891545</t>
+          <t>3307936316.1175445684937196</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>460626283.0097744173614015</t>
+          <t>458828602.4736272935442902</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0000079161028215</t>
+          <t>0.0000078631227392</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-15.6459383217617560</t>
+          <t>-15.8635871807546451</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="31">
@@ -2350,22 +2350,22 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3195470687.3677900377086798</t>
+          <t>3180601071.3444676619082317</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96938135.6935353365053358</t>
+          <t>96574818.9949620747331959</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.4333807637937489</t>
+          <t>5.4080973881754076</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-2.2220314830068017</t>
+          <t>-2.1155684297504855</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="32">
@@ -2411,22 +2411,22 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3193252088.2887604043529264</t>
+          <t>3178968384.0577187988179286</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>268725607.5249920374127429</t>
+          <t>268854130.7384835815108691</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.0108082928407216</t>
+          <t>1.0062868562957734</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-6.5622355731979537</t>
+          <t>-6.3896973366309711</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2440,7 +2440,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="33">
@@ -2472,22 +2472,22 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3170960047.5617003328107222</t>
+          <t>3154595956.5583106581039140</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>128415724.4734264573206162</t>
+          <t>128472697.6626670134008390</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>210.2668943344932532</t>
+          <t>209.1817887064562235</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-15.1006618833093617</t>
+          <t>-15.2531443621170755</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="34">
@@ -2533,22 +2533,22 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3111996273.5360274605220204</t>
+          <t>3107662395.0987905853269605</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>36497228.0155096711941499</t>
+          <t>36884337.8716094196106797</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6.4660479901445230</t>
+          <t>6.4570431381153190</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-8.4181419363071822</t>
+          <t>-8.3173728894713327</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="35">
@@ -2598,22 +2598,22 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2938382199.5033665334462340</t>
+          <t>2916984494.2242561825155356</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>230194316.0156101350008658</t>
+          <t>229147873.6059469066661556</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.1981008919688655</t>
+          <t>0.1966582938947977</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-6.3590952535621354</t>
+          <t>-6.5267316533780027</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="36">
@@ -2663,22 +2663,22 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2807985579.1001627891759374</t>
+          <t>2798568624.6846027154896843</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>62200932.7881180021756505</t>
+          <t>62165234.0587660790635799</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.6102222951607467</t>
+          <t>18.5478104308259131</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-10.0443240441611908</t>
+          <t>-10.1775630511251947</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="37">
@@ -2724,22 +2724,22 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2764306015.8916077540000000</t>
+          <t>2771744186.7357556200000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>382154.3876882520001399</t>
+          <t>389388.2510948904002961</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46.0717669315267959</t>
+          <t>46.1957364455959270</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-6.6617765347169485</t>
+          <t>-6.3971994262542166</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2753,7 +2753,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="38">
@@ -2789,22 +2789,22 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2730828983.7830047746861242</t>
+          <t>2720580167.5208298788437704</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>99324037.9895054779596081</t>
+          <t>100671284.5321105195274350</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13.6541738106867299</t>
+          <t>13.6029296209448766</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-16.3748346370822025</t>
+          <t>-16.5043642366147349</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="39">
@@ -2854,22 +2854,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2352752553.2491029407551144</t>
+          <t>2345292909.5749702308211813</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>36269771.1496816233904953</t>
+          <t>36235655.1324314629570899</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.0913337225573395</t>
+          <t>0.0910441396070335</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-7.4223695765536904</t>
+          <t>-7.6392656905461323</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2883,7 +2883,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="40">
@@ -2915,22 +2915,22 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2303229174.1209113590410884</t>
+          <t>2292034526.6676781806195446</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>55200990.0317109528762674</t>
+          <t>55252731.6528359022199389</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.2682317849201086</t>
+          <t>0.2669280673822834</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>8.3685673219886562</t>
+          <t>8.3152015080735345</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2944,7 +2944,7 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="41">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2288301090.4524843968212784</t>
+          <t>2275393808.7840848836789613</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>21688123.1560390987595057</t>
+          <t>21645563.1513537417589873</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.0282558489468592</t>
+          <t>0.0280964703569269</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-12.3775038611169516</t>
+          <t>-12.6291006269480736</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3009,7 +3009,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="42">
@@ -3045,22 +3045,22 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2202891754.5257099452278296</t>
+          <t>2192208424.1093578116036201</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1283169.3988819475628866</t>
+          <t>1290327.4178468224990543</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.7857270592487669</t>
+          <t>0.7819165307587592</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-10.0506943296415590</t>
+          <t>-11.6911814170018815</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="43">
@@ -3106,22 +3106,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1950765098.5273599029837676</t>
+          <t>1954396869.2365420976276604</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16279763.2849560523661973</t>
+          <t>16322675.4712920477604417</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.0772182259136053</t>
+          <t>0.0773619843247537</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-9.9863215775391802</t>
+          <t>-9.7957769185300415</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3135,7 +3135,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="44">
@@ -3167,22 +3167,22 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1934647282.5188697760914540</t>
+          <t>1925331963.7907908694113830</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>108067209.9344678975755650</t>
+          <t>108779736.6583269058004275</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.0328210952506718</t>
+          <t>3.0182180741197511</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-11.2497553714758532</t>
+          <t>-11.5418878843490394</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="45">
@@ -3232,22 +3232,22 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1923266768.3974250725396176</t>
+          <t>1921946803.4219298782184910</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>65256307.0933377614080232</t>
+          <t>65575192.4454808688354514</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2272868311983761</t>
+          <t>0.2271308410562373</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-12.1518908455678699</t>
+          <t>-11.9781169934297911</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="46">
@@ -3293,22 +3293,22 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1894725073.2364871925990754</t>
+          <t>1897667392.1873997985145382</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>16973994.9865841768443590</t>
+          <t>17113162.0717454840060209</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>21.3528104766308586</t>
+          <t>21.3859692603552531</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-8.3456461065847695</t>
+          <t>-8.4835385425107241</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="47">
@@ -3350,22 +3350,22 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1814443423.2344687156423625</t>
+          <t>1809851303.1016506653940375</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>106488342.9572053374832678</t>
+          <t>106818551.8308225654563155</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.4105714117100889</t>
+          <t>0.4095323089078023</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-4.1832986137806797</t>
+          <t>-4.1339495298947031</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="48">
@@ -3411,22 +3411,22 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1756117541.5427468787626513</t>
+          <t>1745243272.8700213534451455</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>60794784.2423058991459480</t>
+          <t>60466428.5739617928965702</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.2541889983241207</t>
+          <t>3.2340383394744194</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-1.7331858673867526</t>
+          <t>-2.0073444794746619</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="49">
@@ -3472,22 +3472,22 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1709106509.7966643099863876</t>
+          <t>1698387592.0364922898093752</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>69647999.8657789308854030</t>
+          <t>70606604.3053306515731610</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.3718520720603519</t>
+          <t>4.3444333462223538</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-10.0041928162741515</t>
+          <t>-10.4680535900071939</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="50">
@@ -3537,22 +3537,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1678946937.0243685920000000</t>
+          <t>1670983750.0799785440000000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>69659219.1854572948976575</t>
+          <t>69564965.4623624101700541</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6662487845334796</t>
+          <t>0.6630887897142772</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-12.1440562124426631</t>
+          <t>-12.3086063150126649</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="51">
@@ -3598,22 +3598,22 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1589652127.6080171802618535</t>
+          <t>1588611011.4722104306496740</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2337255.5595543540493999</t>
+          <t>2346654.9513762995948563</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>18.9846957646838895</t>
+          <t>18.9722620549742465</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.4586949178224513</t>
+          <t>1.9229599134725399</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="52">
@@ -3663,22 +3663,22 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1472282583.4193255926180345</t>
+          <t>1471379784.1180140600586152</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2275749.6480260835537018</t>
+          <t>2276451.6204551862718166</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12.0081477359794852</t>
+          <t>12.0007843755022389</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.1571706834812127</t>
+          <t>-0.0376016640784261</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="53">
@@ -3724,22 +3724,22 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1251625689.4628915290671568</t>
+          <t>1242734511.1578787277339155</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>22024170.0922960375409842</t>
+          <t>21991087.4610933385652476</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.3944094589055261</t>
+          <t>1.3845039869791343</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-18.0043247874405911</t>
+          <t>-18.2926720675102713</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3753,7 +3753,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="54">
@@ -3789,22 +3789,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1220852521.5150356956442458</t>
+          <t>1214320023.5050621457399918</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>75605174.2977798554542636</t>
+          <t>75098105.2559108271391529</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1432.6452063279653505</t>
+          <t>1424.9794549006580682</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-7.9519422510137663</t>
+          <t>-8.2860661272830502</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="55">
@@ -3854,22 +3854,22 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1181073777.9127044626579166</t>
+          <t>1178877958.9451689120985362</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>21685851.8041165043651015</t>
+          <t>21602452.5578908472813074</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.7798988943208809</t>
+          <t>0.7784489283518317</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-14.9743971051940402</t>
+          <t>-14.7866892494876325</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3883,7 +3883,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="56">
@@ -3915,22 +3915,22 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1162405253.9200182377223103</t>
+          <t>1158790550.1921206958899347</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>16813035.8337123556694767</t>
+          <t>16812758.2023650861512218</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1217365469029709</t>
+          <t>0.1213579856839575</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-11.2146718726714706</t>
+          <t>-11.3773227582406430</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="57">
@@ -3980,22 +3980,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1148018632.1992327000000000</t>
+          <t>1147450691.6136108000000000</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>23687353.0765304214479147</t>
+          <t>23781413.4310621959302073</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.1480186321992327</t>
+          <t>1.1474506916136108</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-12.8775973903480919</t>
+          <t>-12.7328023782462246</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4009,7 +4009,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="58">
@@ -4045,22 +4045,22 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1047018080.2177443632371164</t>
+          <t>1048244717.2957607075630682</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>7965936.5614721036865570</t>
+          <t>8094091.8061630332575488</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>86.7258181381675278</t>
+          <t>86.8274220227226589</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-9.3801329878494042</t>
+          <t>-9.1835960611826913</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="59">
@@ -4110,22 +4110,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1010214453.8474412185026064</t>
+          <t>1001305439.6496660824788650</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>47047354.8837565311278039</t>
+          <t>46757074.7455134465737501</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>13.8375013123120165</t>
+          <t>13.7154693069456224</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-14.4934070318255087</t>
+          <t>-15.2361273150493554</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="60">
@@ -4171,22 +4171,22 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>955414357.9331060257369110</t>
+          <t>957223097.5741594942785649</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1957577.6515188776232302</t>
+          <t>1984716.5700661025035605</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.0777183393930545</t>
+          <t>0.0778654716191194</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-9.0290328999051816</t>
+          <t>-8.7551085084379323</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="61">
@@ -4236,22 +4236,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>880170356.1484860336946311</t>
+          <t>881528878.1040634578505895</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4238740.1262729361209049</t>
+          <t>4244775.7373550644437128</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.0095805981625042</t>
+          <t>0.0095953855873026</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-13.7379793141434338</t>
+          <t>-14.0522721077330059</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4265,7 +4265,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="62">
@@ -4297,22 +4297,22 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>873641930.0823131393831360</t>
+          <t>872214729.5906931634125147</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>228414320.8083950359251604</t>
+          <t>228512053.0340510870670267</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>3.0037752789526734</t>
+          <t>2.9988682462116587</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-28.7222895207630983</t>
+          <t>-27.8874673346564061</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="63">
@@ -4358,22 +4358,22 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>869709450.5307542963550479</t>
+          <t>868561823.7980491350975036</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>44836705.6782149523782970</t>
+          <t>44908065.9618468034439635</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.5615749527898121</t>
+          <t>0.5608339255101316</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-12.2592298273389800</t>
+          <t>-12.2898436037466989</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4387,7 +4387,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="64">
@@ -4419,22 +4419,22 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>811994625.3746192174043933</t>
+          <t>812183234.7079955112342592</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1150221.7806091990235148</t>
+          <t>1154293.3486193981801612</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.2566739204095191</t>
+          <t>1.2569658194233709</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-6.1210158855121575</t>
+          <t>-5.6478099016026084</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4448,7 +4448,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="65">
@@ -4480,22 +4480,22 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>801189756.9318082443930087</t>
+          <t>795845342.1038290596769369</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>13631683.4062626672107140</t>
+          <t>13610633.2349986288123848</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.7764582613536004</t>
+          <t>0.7712788203917281</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-9.7471681194936927</t>
+          <t>-10.1233217898614570</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="66">
@@ -4541,22 +4541,22 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>756457607.9569848842737121</t>
+          <t>751815491.3892511731626309</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>38153542.9429941603524782</t>
+          <t>38064889.9514168441118718</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.3069594093759745</t>
+          <t>0.3050757065155665</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-12.4404006411577520</t>
+          <t>-12.8706422484288087</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4570,7 +4570,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="67">
@@ -4602,22 +4602,22 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>739960513.1043231977823162</t>
+          <t>738206222.6970743454483687</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10348569.5767772910248035</t>
+          <t>10337240.2668736548145138</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.4727636023039290</t>
+          <t>0.4716427794522625</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-8.8833725421745425</t>
+          <t>-9.1233257572470476</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="68">
@@ -4663,22 +4663,22 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>727142530.2682808786342928</t>
+          <t>722796239.8238320255572999</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>17602108.8961251943189477</t>
+          <t>17539889.2725745872048388</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.1991879285017232</t>
+          <t>0.1979973385496031</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-12.1704025081662352</t>
+          <t>-12.3744457244833419</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="69">
@@ -4724,22 +4724,22 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>707046618.5072769160762954</t>
+          <t>701759454.6277338792528646</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>52878082.2892607360017597</t>
+          <t>52620414.4231234440078030</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.0191138084296119</t>
+          <t>0.0189708789043383</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-14.4885643842495882</t>
+          <t>-15.0829280607950212</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="70">
@@ -4785,22 +4785,22 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>675686212.0787240239716975</t>
+          <t>676026000.3750219621202019</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>8774848.5514156736882780</t>
+          <t>8645903.0569936917966071</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>34.0745942016017844</t>
+          <t>34.0917295938945857</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-8.7728376886499501</t>
+          <t>-8.6930275470428755</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="71">
@@ -4846,22 +4846,22 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>669072429.2308812180236108</t>
+          <t>664946616.7133729898105246</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17635457.2806900113195604</t>
+          <t>17589049.6343164065739484</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9.4851646922087668</t>
+          <t>9.4266747447710466</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-11.2010347194602403</t>
+          <t>-11.2113282263042776</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4875,7 +4875,7 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="72">
@@ -4911,22 +4911,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>633115198.3014109454791452</t>
+          <t>630973510.9007282477815882</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>51325386.5212456305828868</t>
+          <t>51459129.6502774756870270</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.1777067556709628</t>
+          <t>2.1703400597939485</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-11.9825225666440891</t>
+          <t>-12.2589295386096626</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="73">
@@ -4976,22 +4976,22 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>604824766.4415371588687093</t>
+          <t>604524208.0025801075792382</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>947545.8110289184911090</t>
+          <t>949476.2786646688983228</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.4094882198663026</t>
+          <t>3.4077939267191576</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-9.3743033873115324</t>
+          <t>-9.2976391552627907</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="74">
@@ -5037,22 +5037,22 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>583970061.6291590830155372</t>
+          <t>581073464.8781751404956009</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16671921.3048621861694027</t>
+          <t>16660396.4699269578569994</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.6744074647940737</t>
+          <t>3.6561817415530208</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-10.4396390709221966</t>
+          <t>-10.3620186933551163</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="75">
@@ -5098,22 +5098,22 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>556620088.2203189615718026</t>
+          <t>557376608.9301890727759952</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>18785753.1218088898477978</t>
+          <t>18821318.4330241811039792</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.4323068680928254</t>
+          <t>0.4328944306074608</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-16.3824053467757261</t>
+          <t>-16.0172800808784066</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -5127,13 +5127,13 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5143,58 +5143,58 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>998841277.7529720000000000</t>
+          <t>1942255184.1130493000000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>549833683.0877886703685978</t>
+          <t>546396511.8880395298283455</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>182674924.0664070329349778</t>
+          <t>17230312.2114879453674996</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.5504715266921223</t>
+          <t>0.2813206608263255</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-12.6370645998893851</t>
+          <t>-10.1040092908197934</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.6055184405175544</t>
+          <t>0.2990868565581053</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
+          <t>https://etherscan.io/token/decentraland</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5204,52 +5204,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1942255184.1130493000000000</t>
+          <t>998841277.7529720000000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>549808845.6027870954257885</t>
+          <t>545203489.7575743008958308</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>17256433.6380080643499152</t>
+          <t>181688835.1632742946699717</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.2830775534028825</t>
+          <t>0.5458359620300064</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-9.8085985272199666</t>
+          <t>-12.8769215865001079</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.2990868565581053</t>
+          <t>0.6055184405175544</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/decentraland</t>
+          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="78">
@@ -5281,22 +5281,22 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>544522049.3475711251060353</t>
+          <t>539537243.1564447121442014</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>23020897.9097605194001068</t>
+          <t>22852373.1447092863674604</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.1105357351324172</t>
+          <t>0.1095238399897155</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-9.8687404202198652</t>
+          <t>-10.6268322289497999</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5310,7 +5310,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="79">
@@ -5346,22 +5346,22 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>527241225.9201719767832640</t>
+          <t>525059999.1537581637074592</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15596205.0948863622806934</t>
+          <t>15585060.3156439503696058</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>33.1873334457643840</t>
+          <t>33.0500355706001952</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-6.7044343553927347</t>
+          <t>-7.2322912666349490</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5375,7 +5375,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="80">
@@ -5407,22 +5407,22 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>523172582.4634192731292662</t>
+          <t>523276777.0700437177894567</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>22107723.6755339318981816</t>
+          <t>22272155.9093736916312426</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.5906973877013092</t>
+          <t>1.5910141896403360</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-13.4556456081157886</t>
+          <t>-13.1888928723691244</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="81">
@@ -5472,22 +5472,22 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>515988469.8915218317482712</t>
+          <t>511852913.6071141637547646</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>24594929.9212353563640752</t>
+          <t>24410340.7652247887181706</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>7.8593920583504332</t>
+          <t>7.7964004216858231</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-15.0707526039507937</t>
+          <t>-15.6026583162054812</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5501,7 +5501,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="82">
@@ -5533,22 +5533,22 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>510699558.7571728297610394</t>
+          <t>511585715.3976280070067786</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2886881.6327596475002238</t>
+          <t>2904303.3819802004451973</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.2668533303705183</t>
+          <t>0.2673163694444327</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-10.2604720675545705</t>
+          <t>-10.0709757182026644</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="83">
@@ -5594,22 +5594,22 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>494268109.1300829933343362</t>
+          <t>494221148.4347273231781455</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>817969.8988385825670017</t>
+          <t>818681.9195216526826138</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.9974814664695414</t>
+          <t>0.9973866951856885</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.0881012857125115</t>
+          <t>-0.0891579305200425</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5623,7 +5623,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="84">
@@ -5659,22 +5659,22 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>492760527.1863185009197758</t>
+          <t>489911595.2125637531691002</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>8111166.0938645371351766</t>
+          <t>8092111.1231616161402598</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20.3750055280435783</t>
+          <t>20.2572059042674538</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-12.6456256225447963</t>
+          <t>-12.7187451139806372</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="85">
@@ -5720,22 +5720,22 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>491606751.5165871974386080</t>
+          <t>486432662.6004769279339776</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>224447642.9068004097709226</t>
+          <t>222045509.5844186033910411</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.3966244366776995</t>
+          <t>1.3819251694371864</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-2.2944864329162425</t>
+          <t>-2.4196242355425282</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5749,7 +5749,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="86">
@@ -5781,22 +5781,22 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>484566531.9409110110102511</t>
+          <t>483630517.5845964069840552</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>5542749.1564102717429540</t>
+          <t>5611997.8102811866053333</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.9523771133184226</t>
+          <t>2.9466741454468039</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-13.1537746207727117</t>
+          <t>-12.8664460846752932</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="87">
@@ -5846,22 +5846,22 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>471456054.0846071462226673</t>
+          <t>470221710.6014272589570490</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3922825.6394529257805740</t>
+          <t>3916162.4163591129830100</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.0000237753295231</t>
+          <t>0.0000237130821030</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-8.9295640411276351</t>
+          <t>-8.9680762116805130</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5875,7 +5875,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="88">
@@ -5907,22 +5907,22 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>456444860.2361646612097719</t>
+          <t>452558349.9807736373796000</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>46666113.2732763381116106</t>
+          <t>46284600.1982327871494153</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0072612469635470</t>
+          <t>0.0071994193185251</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-2.3661723155094148</t>
+          <t>-2.1928930526814175</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="89">
@@ -5968,22 +5968,22 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>452863221.7162799061017205</t>
+          <t>451024947.2911433921299422</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>26144827.0853115942004103</t>
+          <t>26063907.4604280834433146</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.0480334675563785</t>
+          <t>0.0478384888283094</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-8.0141448964084362</t>
+          <t>-8.1240295412719275</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5997,7 +5997,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="90">
@@ -6029,22 +6029,22 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>450986685.9198993870480938</t>
+          <t>450664636.7841378916433338</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>40734590.6268344352971060</t>
+          <t>40737992.7113996218908474</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>50.8444939551611959</t>
+          <t>50.8081859535112347</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-7.9852032986062795</t>
+          <t>-8.0003332000506895</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -6058,7 +6058,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="91">
@@ -6090,22 +6090,22 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>443562947.1461418113898846</t>
+          <t>443123914.3587255482656521</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10159082.2322254757421211</t>
+          <t>10153147.2739307621456459</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>171.4306655082652656</t>
+          <t>171.2609856839901297</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-4.3728184249869099</t>
+          <t>-4.4405949591423354</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6119,7 +6119,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="92">
@@ -6151,22 +6151,22 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>436182552.2792609369686544</t>
+          <t>434909110.0512015217650160</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>7023336.7844670030999533</t>
+          <t>7025683.3344743692185120</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.4028083468486643</t>
+          <t>0.4016323411693645</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-8.3839869423815365</t>
+          <t>-8.5391093078920060</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -6180,7 +6180,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="93">
@@ -6212,22 +6212,22 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>432516626.0069117503073846</t>
+          <t>432979278.7912353036856212</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>20757295.7616205414261506</t>
+          <t>21386769.6859204611665319</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.3731404336837931</t>
+          <t>0.3735395731623868</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-15.9551445080329580</t>
+          <t>-15.8683610354899558</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -6241,13 +6241,13 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>reserve-rights</t>
+          <t>akash-network</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6257,62 +6257,62 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>RSR</t>
+          <t>AKT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Reserve Rights</t>
+          <t>Akash Network</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>55382047907.0000000000000000</t>
+          <t>248285794.6611410000000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>100000000000.0000000000000000</t>
+          <t>388539008.0000000000000000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>411057366.1207687691520882</t>
+          <t>409159412.2625928152880244</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>12782755.8141493214770978</t>
+          <t>2426223.6690690156203476</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.0074222131837926</t>
+          <t>1.6479372604502452</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-15.5416050889373127</t>
+          <t>-9.2177481915293007</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.0079025232542151</t>
+          <t>1.7185669222154095</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8762db106b2c2a0bccb3a80d1ed41273552616e8</t>
+          <t>https://akash.bigdipper.live/</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>akash-network</t>
+          <t>reserve-rights</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6322,56 +6322,56 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>AKT</t>
+          <t>RSR</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Akash Network</t>
+          <t>Reserve Rights</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>248285794.6611410000000000</t>
+          <t>55382047907.0000000000000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>388539008.0000000000000000</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>410888022.3644803640131711</t>
+          <t>408637332.2933842798350907</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2434313.3858272044632670</t>
+          <t>12671059.7028414175606854</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>1.6548994392742361</t>
+          <t>0.0073785161029001</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-8.9477737857031774</t>
+          <t>-15.4772244173467753</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>1.7185669222154095</t>
+          <t>0.0079025232542151</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://akash.bigdipper.live/</t>
+          <t>https://etherscan.io/token/0x8762db106b2c2a0bccb3a80d1ed41273552616e8</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="96">
@@ -6403,22 +6403,22 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>400750581.1851098233641000</t>
+          <t>398338341.0878295332188200</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2959424.9846440410891024</t>
+          <t>2943698.4106573136888232</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.9618400992898590</t>
+          <t>0.9560504900825118</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-8.1301493744106673</t>
+          <t>-8.2607736771104241</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>nxm</t>
+          <t>amp</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6448,58 +6448,54 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>NXM</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NXM</t>
+          <t>Amp</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>6594067.8412913900000000</t>
+          <t>84231565354.4628000000000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>389830810.5644376801453320</t>
+          <t>386316687.0578059380021398</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>2783397.6517529759478780</t>
+          <t>1392283.5527478841448478</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>59.1184106604661131</t>
+          <t>0.0045863648079210</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-2.6876888166122885</t>
+          <t>-12.3895829237309122</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>58.9525628919079986</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xd7c49cee7e9188cca6ad8ff264c1da2e69d4cf3b</t>
-        </is>
-      </c>
+          <t>0.0048733262670388</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>mina</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6509,54 +6505,58 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Amp</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>84231565354.4628000000000000</t>
+          <t>1216744916.8400393000000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>386404325.3164122820865391</t>
+          <t>375385251.6257291024168122</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>1384410.4402757807391799</t>
+          <t>11539151.1442826091975345</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.0045874052522988</t>
+          <t>0.3085159809836128</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-12.5820551241710484</t>
+          <t>-13.9530912881785337</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.0048733262670388</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
+          <t>0.3330488321884021</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://minaexplorer.com/</t>
+        </is>
+      </c>
       <c r="M98" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>mina</t>
+          <t>nxm</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6566,52 +6566,52 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>NXM</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>NXM</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>1216744916.8400393000000000</t>
+          <t>6594067.8412913900000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>376195235.1408394149060943</t>
+          <t>365747074.1927050467517760</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>11467252.6323703482083863</t>
+          <t>3927256.0865283712763750</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.3091816780445990</t>
+          <t>55.4660769339426010</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-14.0748943424224612</t>
+          <t>-2.6869362057577566</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.3330488321884021</t>
+          <t>58.9525628919079986</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://minaexplorer.com/</t>
+          <t>https://etherscan.io/token/0xd7c49cee7e9188cca6ad8ff264c1da2e69d4cf3b</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="100">
@@ -6643,22 +6643,22 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>346309553.2138050251887004</t>
+          <t>345729392.8044574766225925</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>12104274.2297777718836824</t>
+          <t>12101979.5739468793245689</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.2474210522587958</t>
+          <t>0.2470065563327448</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-7.5073103128813161</t>
+          <t>-7.5762373196413867</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
     <row r="101">
@@ -6708,22 +6708,22 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>336169926.1961606000000000</t>
+          <t>337183625.2633670000000000</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1938926.9283770359414185</t>
+          <t>1917757.6800161618139636</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.3361699261961606</t>
+          <t>0.3371836252633670</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-9.9418286998426802</t>
+          <t>-9.2924090799515493</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6737,7 +6737,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1740444889583</v>
+        <v>1740445305534</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19828634.0000000000000000</t>
+          <t>19830600.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1823651057271.6802679267068646</t>
+          <t>1690711530913.1534296183830000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12039600829.0814346559110224</t>
+          <t>21367979739.8367048554900224</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>91970.5844220877881919</t>
+          <t>85257.7093437996545550</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-4.4996662347137461</t>
+          <t>5.8431014764115204</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>94444.5761601360956618</t>
+          <t>81823.6925195771706978</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120571331.6192350400000000</t>
+          <t>120583070.3466749000000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>301584660577.2982909939798171</t>
+          <t>272865259185.5743796174836761</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8910375725.0928548079069373</t>
+          <t>9072037467.5572660069346664</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2501.2965895550062171</t>
+          <t>2262.8819982862435759</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-10.9034799347469095</t>
+          <t>5.0096837512678364</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2660.1539236270858583</t>
+          <t>2163.6569289652536285</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>142412546106.3918800000000000</t>
+          <t>142192589364.1964400000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>142586140798.8612055864709993</t>
+          <t>142253776220.0776023076447030</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>29879840433.7422126524660024</t>
+          <t>36793635643.7940236253855875</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0012189564558423</t>
+          <t>1.0004303097380444</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.2750851146829892</t>
+          <t>0.0430812056229932</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.9999986549016401</t>
+          <t>0.9993888600435023</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>57887806032.0000000000000000</t>
+          <t>57949738512.0000000000000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>133645449168.0847302184345680</t>
+          <t>126837016268.8376136744218352</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2356882603.0166599695988837</t>
+          <t>2156400821.1526607723505886</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.3086977781504865</t>
+          <t>2.1887418222357071</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-10.2812946374554460</t>
+          <t>7.9663947379935553</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.4362245812023707</t>
+          <t>2.0750796043822219</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>88507941271.9140849869716200</t>
+          <t>85335719768.2163195530388440</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>390341581.3963424725797930</t>
+          <t>442402636.5735355625481809</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>614.6093297929972140</t>
+          <t>592.5810586082362868</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-6.3150270906109678</t>
+          <t>2.2836962105588864</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>636.8541389882246973</t>
+          <t>579.0828723512173496</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>495291982.8759813000000000</t>
+          <t>507157476.5969980000000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>69937944855.6681770359785975</t>
+          <t>74479273807.2676064401301475</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2163165473.9534801870571833</t>
+          <t>2255649223.3830425564446562</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>141.2054853978532856</t>
+          <t>146.8563064612985912</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-17.5069941535207016</t>
+          <t>14.8851421976218780</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>153.7902736573923734</t>
+          <t>139.2466464969836279</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56662878774.2975600000000000</t>
+          <t>56375443832.7457350000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>56659514892.4909908355605404</t>
+          <t>56366465313.7808776355869836</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4932360952.5041805945609562</t>
+          <t>5855879673.2684450540671257</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9999406334115150</t>
+          <t>0.9998407370593570</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0043916470668974</t>
+          <t>0.0091857171313236</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.9998466102989777</t>
+          <t>0.9998680410590602</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="9">
@@ -962,33 +962,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148184946383.7051700000000000</t>
+          <t>148241406383.7052000000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>31142929806.1870898400122186</t>
+          <t>30501841039.1238149601437798</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>940941350.1655560937448867</t>
+          <t>891419560.2353211317328682</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2101625743113381</t>
+          <t>0.2057579038354064</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-13.2380238484486706</t>
+          <t>7.6762096046901060</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.2252924963657129</t>
+          <t>0.1923376920708550</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="10">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35207580215.7690050000000000</t>
+          <t>35212423444.4019850000000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24105825152.8915092309424761</t>
+          <t>22742182858.4830943460143302</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>451473293.5378550794592378</t>
+          <t>430576679.4155156130555544</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6846771350135228</t>
+          <t>0.6458567924014503</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-11.3334106263721773</t>
+          <t>6.7104316607260174</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.7236909007109963</t>
+          <t>0.6150646294565112</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9411668.4499621500000000</t>
+          <t>9391711.2126600400000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>23443270311.1504611923680337</t>
+          <t>21151769662.5132256758334485</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>274710.2498230799228331</t>
+          <t>196570.7500492294069703</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2490.8729451944028833</t>
+          <t>2252.1741973923357279</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-11.0528980275510346</t>
+          <t>4.4093851802911697</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2613.8853165742180140</t>
+          <t>2123.8916407919940958</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86080899481.4643900000000000</t>
+          <t>86066780568.0167200000000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20699969264.7987587985132293</t>
+          <t>20262148810.4675228777580806</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>395774787.4948200913976446</t>
+          <t>427140725.6630970494376931</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2404711078705217</t>
+          <t>0.2354235708219013</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-1.9037649663512604</t>
+          <t>7.0022161434434846</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.2456627172831215</t>
+          <t>0.2258201970572557</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11910049148.4678446633227630</t>
+          <t>11021350540.8139935426835848</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>42266037.3958876422026305</t>
+          <t>79379740.3676189617178581</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>92111.2012231843125532</t>
+          <t>85238.0896804919567166</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-4.3127269288634547</t>
+          <t>5.8313548188083076</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>94730.4180564059241739</t>
+          <t>81917.9985550338156903</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,58 +1261,62 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>638099970.4527867000000000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>75558468.3040892000000000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>84000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9707010501.9871416531511164</t>
+          <t>9695900507.5237197543321288</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>250070442.7950347188054613</t>
+          <t>787212429.1592820425112431</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>15.2123663241971074</t>
+          <t>128.3231479561236783</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-13.5240885610590302</t>
+          <t>4.2685930674949360</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>16.3246099817875248</t>
+          <t>122.6767313865547564</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1322,62 +1326,58 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>30654068453.0827500000000000</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>50001806812.0000000000000000</t>
-        </is>
-      </c>
+          <t>638099970.4527867000000000</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9239794455.3879637823656759</t>
+          <t>9465989012.1902706768964853</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>120463489.1529802581329562</t>
+          <t>219303984.5677634751496222</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.3014214726351848</t>
+          <t>14.8346488802896182</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-9.1095834171729602</t>
+          <t>5.7085623204557700</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.3159367477818202</t>
+          <t>14.1612334486975771</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1387,62 +1387,62 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>414032119.5578001000000000</t>
+          <t>41903956526.0000000000000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>50000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9000289226.9504194588566152</t>
+          <t>9426807527.5887159807215174</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>161718468.6565426670788273</t>
+          <t>199631416.7511340357361264</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21.7381425300119805</t>
+          <t>0.2249622305172949</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-12.9417900280837984</t>
+          <t>19.8260794688418993</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>23.3337029884094780</t>
+          <t>0.2009170758682810</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1452,62 +1452,62 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3089707194.5088880000000000</t>
+          <t>414076428.7336580000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8974341149.0962971389747307</t>
+          <t>9240688545.6945617669834081</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>865111724.9905503996602534</t>
+          <t>173676763.8793215281423502</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2.9045927604550170</t>
+          <t>22.3163838954917960</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-15.2190175387614306</t>
+          <t>7.6534225159504234</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>3.1224141302227216</t>
+          <t>21.4056977134548838</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1517,56 +1517,56 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>75558468.3040892000000000</t>
+          <t>30684385957.6441460000000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>84000000.0000000000000000</t>
+          <t>50001806812.0000000000000000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8792511833.6228629869553546</t>
+          <t>9000114470.6256219136693655</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>553283450.1017237971128070</t>
+          <t>97303735.5525373375477095</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>116.3669940771816185</t>
+          <t>0.2933125167650128</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-10.1819642589314793</t>
+          <t>9.8037356161686331</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>122.0379779010413200</t>
+          <t>0.2729644327738036</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="19">
@@ -1592,33 +1592,33 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>924090650.9000000000000000</t>
+          <t>924037111.9000000000000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8431219966.5886197203808249</t>
+          <t>8947735956.0121118098842178</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1202282.2828427856584289</t>
+          <t>205695.5016678840217881</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.1238018243959054</t>
+          <t>9.6833079978939662</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-7.2774375835551982</t>
+          <t>1.2996290041396344</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.4290232064950641</t>
+          <t>9.4724843841194178</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1627,13 +1627,13 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1643,58 +1643,62 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>589253694109391.5000000000000000</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
+          <t>3089707194.5088880000000000</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8068821381.5490614765584191</t>
+          <t>8914373526.0345880277924303</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>118276517.4776440907770095</t>
+          <t>633276547.1290671629157796</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000136932894307</t>
+          <t>2.8851839235373035</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-11.3559790809058558</t>
+          <t>11.7238238515468229</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0000143909686465</t>
+          <t>2.7017741505633089</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1704,62 +1708,58 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>971372928.2300000000000000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>888888888.0000000000000000</t>
-        </is>
-      </c>
+          <t>589253625793535.6000000000000000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7970306787.4482947510553090</t>
+          <t>8257163615.2551633098127623</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>249977958.3876416396592459</t>
+          <t>94058947.4045352845620118</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8.2051975670883627</t>
+          <t>0.0000140129194863</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-2.2755095113586031</t>
+          <t>4.1072156790656185</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>8.3608514113046313</t>
+          <t>0.0000135150965713</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,58 +1769,62 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>971372928.2300000000000000</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>888888888.0000000000000000</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6664505317.2895972844104760</t>
+          <t>7435846639.6849101854710228</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>130802707.8112087808727414</t>
+          <t>86970459.8189107057044176</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.3780132227847046</t>
+          <t>7.6549864872539080</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-11.3146075535464503</t>
+          <t>5.6365849232549107</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.6733177365950123</t>
+          <t>7.4284262284413855</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1830,62 +1834,58 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1522267060.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6615719797.3372408553063940</t>
+          <t>7222875095.7765546543015400</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>86931910.6195157828013820</t>
+          <t>151734102.1995970053241722</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>19.8118044345261333</t>
+          <t>4.7448146817133090</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-14.1310765421034428</t>
+          <t>1.7760628815137798</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>21.4676171378015449</t>
+          <t>4.6391350308846337</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1895,62 +1895,62 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>19833793.7500000000000000</t>
+          <t>333928180.0000000000000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>5805255204.5009597600839369</t>
+          <t>6797623735.0641684795985860</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>68673837.9339042409145713</t>
+          <t>50281800.3183334274999753</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>292.6951483752804357</t>
+          <t>20.3565441379166277</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-10.8137203238890384</t>
+          <t>6.5049378864318589</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>309.1034015088122975</t>
+          <t>19.4590246809043810</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,58 +1960,62 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>19835856.2500000000000000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5361382775.4725319564331651</t>
+          <t>6395953034.4601320208932600</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>216132915.3092764128935002</t>
+          <t>135417609.9308382839357942</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.9992544935908573</t>
+          <t>322.4440101727462368</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.0446704371266217</t>
+          <t>14.5280846197213478</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.9994343298627897</t>
+          <t>295.9597654456999333</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2021,58 +2025,58 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>600518037.7100000000000000</t>
+          <t>5365382702.6648720000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4765807603.9965024013759341</t>
+          <t>5356946577.1529507004006044</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>91158938.5909142434432011</t>
+          <t>132762164.7220856104369785</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>7.9361606225356864</t>
+          <t>0.9984276749713061</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-12.1140866495364132</t>
+          <t>-0.0414942732259364</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>8.4458418219062555</t>
+          <t>1.0004896971378271</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2082,58 +2086,58 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
+          <t>600518037.7100000000000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4226591733.5510195133424703</t>
+          <t>4560224562.4225504217696409</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>27414107.9405630980424033</t>
+          <t>117656742.3941086016099350</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>229.1239969862645029</t>
+          <t>7.5938177974010459</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-3.3193536791604411</t>
+          <t>3.0053147378262240</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>234.1044264664484596</t>
+          <t>7.3488634285094303</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2143,58 +2147,58 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1186918040.0000000000000000</t>
+          <t>18446744.0737095500000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3600406973.8751583557254320</t>
+          <t>4116315677.1048480541355854</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>87573701.3491683728613020</t>
+          <t>45784801.6445303484459530</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>3.0334082493810258</t>
+          <t>223.1459199876608418</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-11.0287307536382263</t>
+          <t>4.8086857973431491</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3.2884165612016902</t>
+          <t>212.6387580082184682</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2204,62 +2208,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8411211.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>589020934.8306800000000000</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3318875320.2417584620781823</t>
+          <t>3795734591.2924647232401857</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>212045388.3437686051133313</t>
+          <t>112934565.5467464136803698</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>394.5775846357627293</t>
+          <t>6.4441420785554708</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-7.9590510911740779</t>
+          <t>10.7414850429343429</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>422.2089128241230765</t>
+          <t>6.0972096819834598</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2269,62 +2269,58 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1187869401.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3307936316.1175445684937196</t>
+          <t>3748843165.4426349138883023</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>458828602.4736272935442902</t>
+          <t>96554823.4540214290559143</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.0000078631227392</t>
+          <t>3.1559388281966823</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-15.8635871807546451</t>
+          <t>9.9003464526894490</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.0000086802608513</t>
+          <t>2.9525881058622315</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2334,52 +2330,56 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>588118305.3949300000000000</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>420689899653543.5600000000000000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3180601071.3444676619082317</t>
+          <t>3352203944.6220023599761428</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>96574818.9949620747331959</t>
+          <t>419975971.2160754469999265</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.4080973881754076</t>
+          <t>0.0000079683490081</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-2.1155684297504855</t>
+          <t>5.7171955745436670</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.7005306625269499</t>
+          <t>0.0000076861507203</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="32">
@@ -2411,27 +2411,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3178968384.0577187988179286</t>
+          <t>3235998521.6968763749875183</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>268854130.7384835815108691</t>
+          <t>157677472.5500083949166791</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.0062868562957734</t>
+          <t>1.0243394667611127</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-6.3896973366309711</t>
+          <t>12.1534572178248819</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>1.0551009565577929</t>
+          <t>0.9494865655315244</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2440,13 +2440,13 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,58 +2456,58 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15080643.3775415300000000</t>
+          <t>481362215.3157382600000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3154595956.5583106581039140</t>
+          <t>3161955389.0780513298005162</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>128472697.6626670134008390</t>
+          <t>37272601.2405313846220181</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>209.1817887064562235</t>
+          <t>6.5687652426230439</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-15.2531443621170755</t>
+          <t>2.8987104832234967</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>228.0401848234080040</t>
+          <t>6.3316351618566807</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2517,58 +2517,62 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>481282582.2325007300000000</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr"/>
+          <t>150938131.7268803700000000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>210700000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3107662395.0987905853269605</t>
+          <t>2962791457.0583511809177510</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>36884337.8716094196106797</t>
+          <t>77889971.1679967910115603</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>6.4570431381153190</t>
+          <t>19.6291780159268502</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-8.3173728894713327</t>
+          <t>9.3916576708818567</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>6.7327056507194445</t>
+          <t>18.7084689495032923</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2578,62 +2582,58 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hedera-Hashgraph</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>14832756028.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>15082915.5764746100000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2916984494.2242561825155356</t>
+          <t>2929281802.3869791953320516</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>229147873.6059469066661556</t>
+          <t>135839684.5993396468066245</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.1966582938947977</t>
+          <t>194.2119073420983711</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-6.5267316533780027</t>
+          <t>2.4582339157607105</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.2112979000855860</t>
+          <t>186.8763525862411927</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://hash-hash.info/</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2643,62 +2643,62 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>150884042.8967003200000000</t>
+          <t>199999553.0519980000000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>210700000.0000000000000000</t>
+          <t>999999993.4500000000000000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2798568624.6846027154896843</t>
+          <t>2852591869.9368732562553652</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>62165234.0587660790635799</t>
+          <t>196005155.6883343773242378</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>18.5478104308259131</t>
+          <t>14.2629912237615163</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-10.1775630511251947</t>
+          <t>24.2817271669658762</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>19.6227016941102910</t>
+          <t>12.5383457770611989</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2708,58 +2708,62 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>8412071.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2771744186.7357556200000000</t>
+          <t>2786539828.2918271671924265</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>389388.2510948904002961</t>
+          <t>135531868.9199174078152351</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>46.1957364455959270</t>
+          <t>331.2549107457399215</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-6.3971994262542166</t>
+          <t>7.3822942000020358</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>47.3275624912192067</t>
+          <t>316.6237297181244749</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2769,62 +2773,58 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>199999576.8067390000000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>999999993.4500000000000000</t>
-        </is>
-      </c>
+          <t>60000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2720580167.5208298788437704</t>
+          <t>2711849333.0723612400000000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>100671284.5321105195274350</t>
+          <t>361340.2706519624753330</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>13.6029296209448766</t>
+          <t>45.1974888845393540</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-16.5043642366147349</t>
+          <t>0.8098828970384422</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>14.4191634562525628</t>
+          <t>43.5112934768988973</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2834,62 +2834,58 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>25759954673.6096300000000000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>28704026601.0000000000000000</t>
-        </is>
-      </c>
+          <t>8584830805.4362140000000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2345292909.5749702308211813</t>
+          <t>2349796215.0562715718382626</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>36235655.1324314629570899</t>
+          <t>32379270.6781132734568912</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.0910441396070335</t>
+          <t>0.2737149127701269</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-7.6392656905461323</t>
+          <t>4.1119016889009866</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.0953268624838226</t>
+          <t>0.2646808007994735</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2899,58 +2895,62 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8586712327.2020720000000000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>80985041177.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>86712634466.0000000000000000</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2292034526.6676781806195446</t>
+          <t>2315141803.8080825054558468</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>55252731.6528359022199389</t>
+          <t>24636319.8692953279665042</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.2669280673822834</t>
+          <t>0.0285872769854884</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>8.3152015080735345</t>
+          <t>9.0398943775239450</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.2802574096597422</t>
+          <t>0.0270164735665308</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2960,62 +2960,58 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>80985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>544477456.5816890000000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2275393808.7840848836789613</t>
+          <t>2273066777.8913869330508480</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>21645563.1513537417589873</t>
+          <t>112887240.2972462719714318</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.0280964703569269</t>
+          <t>4.1747674773571720</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-12.6291006269480736</t>
+          <t>20.1765509849763299</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.0301148152815998</t>
+          <t>3.8156479074820543</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3025,58 +3021,58 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2803634835.5265927000000000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3175000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>640716178.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2192208424.1093578116036201</t>
+          <t>2092952958.6493345835440610</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>1290327.4178468224990543</t>
+          <t>99148588.0469743016280984</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.7819165307587592</t>
+          <t>3.2665835989696745</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-11.6911814170018815</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr"/>
+          <t>5.6555465243902255</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>3.1583118896386840</t>
+        </is>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4e15361fd6b4bb609fa63c81a2be19d873717870</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3086,62 +3082,62 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>25263013692.0000000000000000</t>
+          <t>25783396947.7205200000000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>30263013692.0000000000000000</t>
+          <t>28704026601.0000000000000000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1954396869.2365420976276604</t>
+          <t>2071758020.3571661685771737</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>16322675.4712920477604417</t>
+          <t>51499689.0179118353105788</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.0773619843247537</t>
+          <t>0.0803524075806593</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-9.7957769185300415</t>
+          <t>3.7456291379175834</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.0861434753153056</t>
+          <t>0.0776537467960244</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3151,58 +3147,62 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>637903530.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>8462757937.6415620000000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1925331963.7907908694113830</t>
+          <t>2037926100.9810644190435703</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>108779736.6583269058004275</t>
+          <t>60761378.5730193653053219</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3.0182180741197511</t>
+          <t>0.2408111062608276</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-11.5418878843490394</t>
+          <t>7.7111288558886271</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>3.2105445670169994</t>
+          <t>0.2280919339709318</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3212,62 +3212,58 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8461848661.6974150000000000</t>
+          <t>2803634835.5265927000000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>3175000000.0000000000000000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1921946803.4219298782184910</t>
+          <t>2024757454.1459104928587627</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>65575192.4454808688354514</t>
+          <t>1059441.5167853314403205</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2271308410562373</t>
+          <t>0.7221901470508767</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-11.9781169934297911</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>0.2427530909069358</t>
-        </is>
-      </c>
+          <t>12.9886969383410787</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://etherscan.io/token/0x4e15361fd6b4bb609fa63c81a2be19d873717870</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3277,54 +3273,58 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>88734224.2516567000000000</t>
+          <t>4419312625.0000000000000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1897667392.1873997985145382</t>
+          <t>1877616723.2407616414815250</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>17113162.0717454840060209</t>
+          <t>83116815.3351660939636931</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>21.3859692603552531</t>
+          <t>0.4248662365769522</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-8.4835385425107241</t>
+          <t>7.1347621195220026</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22.4709161625584389</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>0.4020916760974468</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3334,58 +3334,62 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4419312625.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>25263013692.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1809851303.1016506653940375</t>
+          <t>1868990937.5394300465019416</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>106818551.8308225654563155</t>
+          <t>8654244.2151674381668004</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.4095323089078023</t>
+          <t>0.0739813135647898</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-4.1339495298947031</t>
+          <t>4.9737960169384088</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.4412389852595967</t>
+          <t>0.0714366196130717</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3395,52 +3399,48 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>539648294.0748470000000000</t>
+          <t>88734777.3366762300000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1745243272.8700213534451455</t>
+          <t>1865846663.0692306553251195</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>60466428.5739617928965702</t>
+          <t>23886287.5715441714375840</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3.2340383394744194</t>
+          <t>21.0272310256649632</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-2.0073444794746619</t>
+          <t>4.2441757498716383</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3.4897089933946395</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>20.2687523007150321</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="49">
@@ -3472,27 +3472,27 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1698387592.0364922898093752</t>
+          <t>1811560865.1842634290182516</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>70606604.3053306515731610</t>
+          <t>63644197.9776737416812292</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.3444333462223538</t>
+          <t>4.6339277726240179</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-10.4680535900071939</t>
+          <t>7.0913435028430719</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4.6097123463183749</t>
+          <t>4.4522687641763921</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="50">
@@ -3537,27 +3537,27 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1670983750.0799785440000000</t>
+          <t>1660780783.3002180480000000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>69564965.4623624101700541</t>
+          <t>57011142.3813625679170832</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6630887897142772</t>
+          <t>0.6590399933731024</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-12.3086063150126649</t>
+          <t>6.9492737389430763</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.7248540969030889</t>
+          <t>0.6299828026013376</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="51">
@@ -3598,27 +3598,27 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1588611011.4722104306496740</t>
+          <t>1564104321.7520103700602347</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>2346654.9513762995948563</t>
+          <t>3764226.0589200197261603</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>18.9722620549742465</t>
+          <t>18.6795866699278472</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>1.9229599134725399</t>
+          <t>7.3625895377592921</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>18.5681920968830075</t>
+          <t>18.0128446537946087</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="52">
@@ -3663,27 +3663,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1471379784.1180140600586152</t>
+          <t>1409821741.9157617467110010</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>2276451.6204551862718166</t>
+          <t>1661620.3737997592327848</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>12.0007843755022389</t>
+          <t>11.4987081617189150</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.0376016640784261</t>
+          <t>-0.7995455659829799</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>12.0013895788571495</t>
+          <t>11.4214243855026362</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3692,13 +3692,13 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3708,58 +3708,62 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>897602695.8719100000000000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>852333.8761361200000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1005577.0000000000000000</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1242734511.1578787277339155</t>
+          <t>1339143583.9274077760182721</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>21991087.4610933385652476</t>
+          <t>91710275.7749478500326398</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1.3845039869791343</t>
+          <t>1571.1490783378683443</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-18.2926720675102713</t>
+          <t>1.9901676162997856</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1.5287581739975078</t>
+          <t>1558.3715988845210470</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3769,62 +3773,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>852166.6886697100000000</t>
+          <t>1514960635.1613400000000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1005577.0000000000000000</t>
+          <t>1818000000.0000000000000000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1214320023.5050621457399918</t>
+          <t>1268766840.7311030759596992</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>75098105.2559108271391529</t>
+          <t>13949593.4567042641878106</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1424.9794549006580682</t>
+          <t>0.8374916227417237</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-8.2860661272830502</t>
+          <t>7.1069177721829693</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1488.5077142716562709</t>
+          <t>0.8055611779559908</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3834,62 +3838,62 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1514393450.8859100000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1818000000.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1178877958.9451689120985362</t>
+          <t>1168470248.2485626000000000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>21602452.5578908472813074</t>
+          <t>14576712.4742778576222269</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.7784489283518317</t>
+          <t>1.1684702482485626</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-14.7866892494876325</t>
+          <t>6.7707393091348184</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.8450353636060132</t>
+          <t>1.1276179164279417</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3899,58 +3903,62 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>9548531509.1654740000000000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>12072738.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>14881364.0000000000000000</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1158790550.1921206958899347</t>
+          <t>1158303106.5185196102639012</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>16812758.2023650861512218</t>
+          <t>9267398.1629942345131325</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1213579856839575</t>
+          <t>95.9436961622557874</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-11.3773227582406430</t>
+          <t>2.9489487616257871</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1297049399352987</t>
+          <t>92.2127416797394513</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3960,62 +3968,58 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>9548531509.1654740000000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1147450691.6136108000000000</t>
+          <t>1157949251.2972550181685981</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>23781413.4310621959302073</t>
+          <t>22381999.3556571167980595</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1.1474506916136108</t>
+          <t>0.1212698780106406</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-12.7328023782462246</t>
+          <t>5.5666313342591839</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1.2498961372597391</t>
+          <t>0.1169313792212618</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4025,62 +4029,58 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>897602695.8719100000000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1048244717.2957607075630682</t>
+          <t>1139596128.8566360249955446</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>8094091.8061630332575488</t>
+          <t>17887268.7636165345091695</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>86.8274220227226589</t>
+          <t>1.2695997172219490</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-9.1835960611826913</t>
+          <t>1.8568236651971478</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>90.5414825542030172</t>
+          <t>1.2328053716013721</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4090,62 +4090,58 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>XinFin Network</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>73005554.3300000000000000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>12293293518.5500000000000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1001305439.6496660824788650</t>
+          <t>994079136.4809905836263447</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>46757074.7455134465737501</t>
+          <t>3159801.5059761070244114</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>13.7154693069456224</t>
+          <t>0.0808635322162423</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-15.2361273150493554</t>
+          <t>3.0144386664974068</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>14.8771132595133776</t>
+          <t>0.0791116469298450</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4155,58 +4151,62 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>XinFin Network</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12293293518.5500000000000000</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>73005554.3300000000000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>957223097.5741594942785649</t>
+          <t>982345202.1331818034492802</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>1984716.5700661025035605</t>
+          <t>40005350.3377089564772633</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.0778654716191194</t>
+          <t>13.4557597863414758</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-8.7551085084379323</t>
+          <t>5.6204287326108252</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.0830804527821599</t>
+          <t>12.7889753436787217</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4216,62 +4216,58 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>91870083810.9700000000000000</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1549547482.1065000000000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>881528878.1040634578505895</t>
+          <t>871964781.2642437668946756</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>4244775.7373550644437128</t>
+          <t>42882632.6937606317963841</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.0095953855873026</t>
+          <t>0.5627222084726758</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-14.0522721077330059</t>
+          <t>6.8026377284049136</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.0105199205942781</t>
+          <t>0.5406991648145837</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>telcoin</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4281,58 +4277,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Telcoin</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>290847965.9593330000000000</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr"/>
+          <t>91870083810.9700000000000000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>100000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>872214729.5906931634125147</t>
+          <t>825394560.2311818148584135</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>228512053.0340510870670267</t>
+          <t>2847831.5282462387319472</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2.9988682462116587</t>
+          <t>0.0089843671192191</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-27.8874673346564061</t>
+          <t>12.2653531898709539</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>3.1769999468394200</t>
+          <t>0.0082674839354065</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4342,58 +4342,58 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1548697010.4528000000000000</t>
+          <t>1032398116.2970640000000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>868561823.7980491350975036</t>
+          <t>794070995.6380557995110272</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>44908065.9618468034439635</t>
+          <t>11723553.1648652952315005</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.5608339255101316</t>
+          <t>0.7691519222121173</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-12.2898436037466989</t>
+          <t>6.9337332567167201</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.6041153140759282</t>
+          <t>0.7371429302857374</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4403,58 +4403,58 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>2464357126.2233224000000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>812183234.7079955112342592</t>
+          <t>789218990.7393279008312058</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>1154293.3486193981801612</t>
+          <t>30975450.5430393164709909</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1.2569658194233709</t>
+          <t>0.3202534983023431</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-5.6478099016026084</t>
+          <t>8.0750920407143811</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1.3077238236409771</t>
+          <t>0.3060271467435993</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4464,58 +4464,58 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1031851674.2098840000000000</t>
+          <t>1566649989.8244228000000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>795845342.1038290596769369</t>
+          <t>755894738.5574088301798169</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>13610633.2349986288123848</t>
+          <t>9358507.2103895323732198</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.7712788203917281</t>
+          <t>0.4824911393527812</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-10.1233217898614570</t>
+          <t>6.1864484493903376</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.8204791593078083</t>
+          <t>0.4677348181238213</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4525,58 +4525,58 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2464357126.2233224000000000</t>
+          <t>37814997646.4756200000000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>751815491.3892511731626309</t>
+          <t>754601854.1152205600602164</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>38064889.9514168441118718</t>
+          <t>52136102.0967778417346029</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.3050757065155665</t>
+          <t>0.0199550945677647</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-12.8706422484288087</t>
+          <t>7.9400897245121214</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.3262083144943126</t>
+          <t>0.0190285891771456</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4586,58 +4586,58 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>1565180799.6602483000000000</t>
+          <t>3650535129.0000000000000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>738206222.6970743454483687</t>
+          <t>750447753.0307639477209231</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>10337240.2668736548145138</t>
+          <t>20363506.5556215734836411</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.4716427794522625</t>
+          <t>0.2055719850684839</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-9.1233257572470476</t>
+          <t>8.4816195140043643</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.4944578731377468</t>
+          <t>0.1931744793840251</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4647,58 +4647,58 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3650535129.0000000000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>722796239.8238320255572999</t>
+          <t>723482029.5341084078927384</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>17539889.2725745872048388</t>
+          <t>3136492.6484343329477662</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.1979973385496031</t>
+          <t>1.1196884437270834</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-12.3744457244833419</t>
+          <t>-3.1194865758714365</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.2066563173131331</t>
+          <t>1.1109280788628058</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4708,58 +4708,58 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>36991404466.0974600000000000</t>
+          <t>19831484.3750000000000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>701759454.6277338792528646</t>
+          <t>711718054.9126165472608438</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>52620414.4231234440078030</t>
+          <t>10683967.0316430180974624</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.0189708789043383</t>
+          <t>35.8882896234345316</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-15.0829280607950212</t>
+          <t>4.6233663206804980</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.0206494081861641</t>
+          <t>34.5459201609420930</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4769,52 +4769,52 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19829618.7500000000000000</t>
+          <t>290847965.9593330000000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>676026000.3750219621202019</t>
+          <t>693355200.0038159507620966</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>8645903.0569936917966071</t>
+          <t>83838510.6139910238432137</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>34.0917295938945857</t>
+          <t>2.3839093999397692</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-8.6930275470428755</t>
+          <t>13.7584667313449472</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>35.5234893910385078</t>
+          <t>2.3124141905291219</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="71">
@@ -4846,27 +4846,27 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>664946616.7133729898105246</t>
+          <t>681298033.3428582224806488</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>17589049.6343164065739484</t>
+          <t>18910151.3921929396022872</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9.4266747447710466</t>
+          <t>9.6584820542724648</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-11.2113282263042776</t>
+          <t>6.8856356522003855</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>10.0041016440521210</t>
+          <t>9.2690656475452502</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4875,13 +4875,13 @@
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4891,62 +4891,58 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>290725643.6858253000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>998841193.8587850000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>630973510.9007282477815882</t>
+          <t>655457071.5414186299552743</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>51459129.6502774756870270</t>
+          <t>206769334.8380471375225802</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2.1703400597939485</t>
+          <t>0.6562175004108675</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-12.2589295386096626</t>
+          <t>16.3496339486230887</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>2.3412911684166087</t>
+          <t>0.5958755711837848</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>axie-infinity</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4956,62 +4952,58 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>177394590.4600469200000000</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>223000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>159056007.4864567000000000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>604524208.0025801075792382</t>
+          <t>597628716.5797414461260582</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>949476.2786646688983228</t>
+          <t>15578458.7221130915926907</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.4077939267191576</t>
+          <t>3.7573476539742036</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-9.2976391552627907</t>
+          <t>9.3714486364620845</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3.5396074407368728</t>
+          <t>3.5954426152827383</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5021,58 +5013,62 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>158929042.9067552400000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>581073464.8781751404956009</t>
+          <t>592461403.9404148231917993</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>16660396.4699269578569994</t>
+          <t>17103380.0789525708515665</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>3.6561817415530208</t>
+          <t>37.2926341865634933</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-10.3620186933551163</t>
+          <t>2.2873406842318621</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>3.9023625705007829</t>
+          <t>36.3831380509383288</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5082,58 +5078,62 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1287557819.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>177394590.4600469200000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>223000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>557376608.9301890727759952</t>
+          <t>584753298.9477812026533830</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>18821318.4330241811039792</t>
+          <t>918020.7419095104118796</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.4328944306074608</t>
+          <t>3.2963423373357049</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-16.0172800808784066</t>
+          <t>7.8532073280306920</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.4694338687680098</t>
+          <t>3.2105344982957674</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5143,58 +5143,58 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1942255184.1130493000000000</t>
+          <t>1289347328.0000000000000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>546396511.8880395298283455</t>
+          <t>583783302.4848538087934208</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>17230312.2114879453674996</t>
+          <t>15021608.8793181925054449</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.2813206608263255</t>
+          <t>0.4527742756409961</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-10.1040092908197934</t>
+          <t>3.8394575988585641</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.2990868565581053</t>
+          <t>0.4399228796971527</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/decentraland</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5204,58 +5204,62 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>998841277.7529720000000000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>290093687.4036969500000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>450000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>545203489.7575743008958308</t>
+          <t>580087126.8455144646964774</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>181688835.1632742946699717</t>
+          <t>38268696.1152173577515755</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.5458359620300064</t>
+          <t>1.9996544290129970</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-12.8769215865001079</t>
+          <t>3.6961127761242103</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.6055184405175544</t>
+          <t>1.9372380374985308</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>conflux-network</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5265,58 +5269,58 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Conflux</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4926208241.1200000000000000</t>
+          <t>1942255184.1130493000000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>539537243.1564447121442014</t>
+          <t>575132044.4993281701202862</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>22852373.1447092863674604</t>
+          <t>16169260.7063069530008409</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.1095238399897155</t>
+          <t>0.2961155924328080</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-10.6268322289497999</t>
+          <t>5.5226133167505825</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.1182076278105936</t>
+          <t>0.2844125565961595</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>http://www.confluxscan.io/</t>
+          <t>https://etherscan.io/token/decentraland</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>pudgy-penguins</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5326,62 +5330,58 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>PENGU</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Pudgy Penguins</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>62860396090.0400000000000000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>525059999.1537581637074592</t>
+          <t>575074822.3720477699700759</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15585060.3156439503696058</t>
+          <t>65384171.2061092961395003</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>33.0500355706001952</t>
+          <t>0.0091484441419733</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-7.2322912666349490</t>
+          <t>17.2519489803757171</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>33.6620585770422138</t>
+          <t>0.0088769855445660</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/2zMMhcVQEXDtdE6vsFS7S7D5oUodfJHE8vd1gnBouauv</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ftx-token</t>
+          <t>conflux-network</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5391,58 +5391,58 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>CFX</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>FTX Token</t>
+          <t>Conflux</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>328895103.8132070000000000</t>
+          <t>4927732564.3700000000000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>523276777.0700437177894567</t>
+          <t>555430829.1147763497335436</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>22272155.9093736916312426</t>
+          <t>23774470.9300426703839072</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.5910141896403360</t>
+          <t>0.1127152948865006</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-13.1888928723691244</t>
+          <t>3.3237756528881391</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>1.7192234652249194</t>
+          <t>0.1087042848073163</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x50d1c9771902476076ecfc8b2a83ad6b9355a4c9</t>
+          <t>http://www.confluxscan.io/</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>arweave</t>
+          <t>ftx-token</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5452,62 +5452,58 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FTT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>FTX Token</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>65652466.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>66000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>328895103.8132070000000000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>511852913.6071141637547646</t>
+          <t>554321445.6928474401463567</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>24410340.7652247887181706</t>
+          <t>13480241.6688262395116548</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>7.7964004216858231</t>
+          <t>1.6854049794784093</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-15.6026583162054812</t>
+          <t>5.0470365984609183</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>8.4991180428651696</t>
+          <t>1.6240366884936029</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://viewblock.io/arweave</t>
+          <t>https://etherscan.io/token/0x50d1c9771902476076ecfc8b2a83ad6b9355a4c9</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>polygon</t>
+          <t>arweave</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5517,58 +5513,62 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Arweave</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1913783718.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>65652466.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>66000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>511585715.3976280070067786</t>
+          <t>544053137.3800089169569802</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>2904303.3819802004451973</t>
+          <t>19055939.5735484104392668</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.2673163694444327</t>
+          <t>8.2868652242249197</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-10.0709757182026644</t>
+          <t>5.7804473094769585</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.2817708496012509</t>
+          <t>7.9777754363937381</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x7D1AfA7B718fb893dB30A3aBc0Cfc608AaCfeBB0</t>
+          <t>https://viewblock.io/arweave</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>trueusd</t>
+          <t>elrond-egld</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5578,58 +5578,62 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>EGLD</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>MultiversX</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>495516083.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>24184559.1898415400000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>31415926.0000000000000000</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>494221148.4347273231781455</t>
+          <t>530227890.0260795500759161</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>818681.9195216526826138</t>
+          <t>9385091.8663733358272494</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.9973866951856885</t>
+          <t>21.9242321459717151</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.0891579305200425</t>
+          <t>5.3369009434466301</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.9982966440344627</t>
+          <t>21.0900926064696985</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8dd5fbce2f6a956c3022ba3663759011dd51e73e</t>
+          <t>https://explorer.elrond.com/</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>elrond-egld</t>
+          <t>polygon</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5639,62 +5643,58 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MultiversX</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>24184559.1898415400000000</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>31415926.0000000000000000</t>
-        </is>
-      </c>
+          <t>1913783718.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>489911595.2125637531691002</t>
+          <t>522706704.1801856875695918</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>8092111.1231616161402598</t>
+          <t>7113978.0971615082047369</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>20.2572059042674538</t>
+          <t>0.2731273650537901</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-12.7187451139806372</t>
+          <t>3.9828598510811620</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>21.9271811451089913</t>
+          <t>0.2626831773710435</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://explorer.elrond.com/</t>
+          <t>https://etherscan.io/token/0x7D1AfA7B718fb893dB30A3aBc0Cfc608AaCfeBB0</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>thorchain</t>
+          <t>trueusd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5704,58 +5704,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>TrueUSD</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>351996384.0000000000000000</t>
+          <t>495516083.0000000000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>486432662.6004769279339776</t>
+          <t>493984382.9721275061612999</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>222045509.5844186033910411</t>
+          <t>1345576.4273145312230362</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.3819251694371864</t>
+          <t>0.9969088792868253</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-2.4196242355425282</t>
+          <t>0.0660344565926404</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.4214040994769467</t>
+          <t>0.9913681355094769</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/RUNE-B1A</t>
+          <t>https://etherscan.io/token/0x8dd5fbce2f6a956c3022ba3663759011dd51e73e</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pendle</t>
+          <t>chiliz</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5765,58 +5765,58 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PENDLE</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Pendle</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>164127587.1415580500000000</t>
+          <t>9435234867.0000000000000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>483630517.5845964069840552</t>
+          <t>482422883.0636240663096184</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>5611997.8102811866053333</t>
+          <t>27799405.9622257063809555</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2.9466741454468039</t>
+          <t>0.0511299283869352</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-12.8664460846752932</t>
+          <t>6.1093588449302974</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>3.0622480693311268</t>
+          <t>0.0491379247725608</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x808507121b80c02388fad14726482e061b8da827</t>
+          <t>https://etherscan.io/token/0x3506424f91fd33084466f402d5d97f05f8e3b4af</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ecash</t>
+          <t>pendle</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5826,62 +5826,58 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>PENDLE</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>eCash</t>
+          <t>Pendle</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>19829632797583.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>21000000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>165486183.3441839000000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>470221710.6014272589570490</t>
+          <t>479278365.2493090356221353</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>3916162.4163591129830100</t>
+          <t>4315078.4938761318630470</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.0000237130821030</t>
+          <t>2.8961835699146513</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-8.9680762116805130</t>
+          <t>4.8274820686201509</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.0000250622876215</t>
+          <t>2.8236587490296371</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://explorer.bitcoinabc.org/</t>
+          <t>https://etherscan.io/token/0x808507121b80c02388fad14726482e061b8da827</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pudgy-penguins</t>
+          <t>melania-meme</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5891,58 +5887,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PENGU</t>
+          <t>MELANIA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>Official Melania</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>62860396090.0400000000000000</t>
+          <t>537313460.0546330000000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>452558349.9807736373796000</t>
+          <t>473114853.9599806899486238</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>46284600.1982327871494153</t>
+          <t>31112364.3086280477102465</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0071994193185251</t>
+          <t>0.8805192669319605</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-2.1928930526814175</t>
+          <t>7.3853256517879463</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.0080893598323499</t>
+          <t>0.8414526928971006</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/2zMMhcVQEXDtdE6vsFS7S7D5oUodfJHE8vd1gnBouauv</t>
+          <t>https://solscan.io/token/FUAfBo2jgks6gB4Z4LfZkqSZgzNucisEHqnNebaRxM1P</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>chiliz</t>
+          <t>kava</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5952,58 +5948,58 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>KAVA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>Kava</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9428076813.0000000000000000</t>
+          <t>1082853491.0000000000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>451024947.2911433921299422</t>
+          <t>472915919.9091707980510158</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>26063907.4604280834433146</t>
+          <t>20254129.7743690971797152</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.0478384888283094</t>
+          <t>0.4367312141852538</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-8.1240295412719275</t>
+          <t>5.2331278752833086</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.0499921350210692</t>
+          <t>0.4334540117684016</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3506424f91fd33084466f402d5d97f05f8e3b4af</t>
+          <t>https://www.mintscan.io/kava</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>ecash</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6013,58 +6009,62 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>XEC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Compound</t>
+          <t>eCash</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>8869921.8113492500000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>19831535922583.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>21000000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>450664636.7841378916433338</t>
+          <t>460927513.8625979547638990</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>40737992.7113996218908474</t>
+          <t>3451003.2509930324793315</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>50.8081859535112347</t>
+          <t>0.0000232421490530</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-8.0003332000506895</t>
+          <t>4.0307796824921966</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>52.7971221406332841</t>
+          <t>0.0000226308172203</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc00e94cb662c3520282e6f5717214004a7f26888</t>
+          <t>https://explorer.bitcoinabc.org/</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gnosis-gno</t>
+          <t>thorchain</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6074,58 +6074,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GNO</t>
+          <t>RUNE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Gnosis</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2587418.9184942300000000</t>
+          <t>351946316.0000000000000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>443123914.3587255482656521</t>
+          <t>450944766.2773891139677284</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>10153147.2739307621456459</t>
+          <t>100253797.8228146072728486</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>171.2609856839901297</t>
+          <t>1.2812884970712099</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-4.4405949591423354</t>
+          <t>-0.2109189546091215</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>177.8239300897956252</t>
+          <t>1.3100663457095621</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Gnosis</t>
+          <t>https://explorer.binance.org/asset/RUNE-B1A</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>kava</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6135,58 +6135,58 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>COMP</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>Compound</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1082853808.0000000000000000</t>
+          <t>8870002.4225412900000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>434909110.0512015217650160</t>
+          <t>448332338.4728200967849426</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>7025683.3344743692185120</t>
+          <t>51413667.5477083638062449</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.4016323411693645</t>
+          <t>50.5447819645996385</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-8.5391093078920060</t>
+          <t>3.0797385735403104</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.4089755777042403</t>
+          <t>49.3751705732528255</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/kava</t>
+          <t>https://etherscan.io/token/0xc00e94cb662c3520282e6f5717214004a7f26888</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>aioz-network</t>
+          <t>trust-wallet-token</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6196,58 +6196,58 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>AIOZ</t>
+          <t>TWT</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>AIOZ Network</t>
+          <t>Trust Wallet Token</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1159125591.7696533000000000</t>
+          <t>416649900.0000000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>432979278.7912353036856212</t>
+          <t>426354651.6857824554807000</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>21386769.6859204611665319</t>
+          <t>5780050.6314983966757167</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.3735395731623868</t>
+          <t>1.0232923413296930</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-15.8683610354899558</t>
+          <t>6.1603389256567522</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.4048330510627081</t>
+          <t>0.9767547482116363</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x626e8036deb333b408be468f951bdb42433cbf18</t>
+          <t>https://explorer.binance.org/asset/TWT-8C2</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>akash-network</t>
+          <t>aioz-network</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6257,56 +6257,52 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AKT</t>
+          <t>AIOZ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Akash Network</t>
+          <t>AIOZ Network</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>248285794.6611410000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>388539008.0000000000000000</t>
-        </is>
-      </c>
+          <t>1160020060.6824455000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>409159412.2625928152880244</t>
+          <t>423814884.1479437859095618</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>2426223.6690690156203476</t>
+          <t>18798647.9666265425297508</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.6479372604502452</t>
+          <t>0.3653513404747599</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-9.2177481915293007</t>
+          <t>8.1249326513938976</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>1.7185669222154095</t>
+          <t>0.3418197171401411</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://akash.bigdipper.live/</t>
+          <t>https://etherscan.io/token/0x626e8036deb333b408be468f951bdb42433cbf18</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="95">
@@ -6332,7 +6328,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>55382047907.0000000000000000</t>
+          <t>55555276903.0000000000000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -6342,27 +6338,27 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>408637332.2933842798350907</t>
+          <t>413584859.7810612155058859</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>12671059.7028414175606854</t>
+          <t>14043885.5951777737472192</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.0073785161029001</t>
+          <t>0.0074445648161053</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-15.4772244173467753</t>
+          <t>6.7635438924386638</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.0079025232542151</t>
+          <t>0.0070528158992651</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6371,13 +6367,13 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>trust-wallet-token</t>
+          <t>akash-network</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6387,58 +6383,62 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>AKT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Trust Wallet Token</t>
+          <t>Akash Network</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>416649900.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>248285794.6611410000000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>388539008.0000000000000000</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>398338341.0878295332188200</t>
+          <t>403935354.9432697262188877</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2943698.4106573136888232</t>
+          <t>2947536.0133530199740133</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.9560504900825118</t>
+          <t>1.6268967602216564</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-8.2607736771104241</t>
+          <t>8.3245401411805895</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1.0064990623619999</t>
+          <t>1.5364767419977094</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/TWT-8C2</t>
+          <t>https://akash.bigdipper.live/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>mina</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6448,54 +6448,58 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Amp</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>84231565354.4628000000000000</t>
+          <t>1217643029.8400393000000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>386316687.0578059380021398</t>
+          <t>392856289.3746578776071576</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1392283.5527478841448478</t>
+          <t>22204855.3980873952170454</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.0045863648079210</t>
+          <t>0.3226366675184492</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-12.3895829237309122</t>
+          <t>8.6776122247601937</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.0048733262670388</t>
-        </is>
-      </c>
-      <c r="L97" t="inlineStr"/>
+          <t>0.3175702804158027</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>https://minaexplorer.com/</t>
+        </is>
+      </c>
       <c r="M97" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>mina</t>
+          <t>gnosis-gno</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6505,58 +6509,58 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>GNO</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Gnosis</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1216744916.8400393000000000</t>
+          <t>2587568.9503621900000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>375385251.6257291024168122</t>
+          <t>388945305.7520989961864370</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>11539151.1442826091975345</t>
+          <t>9818754.0634260099449827</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3085159809836128</t>
+          <t>150.3130209139575288</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-13.9530912881785337</t>
+          <t>3.0193837357813211</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.3330488321884021</t>
+          <t>147.9992822294530326</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://minaexplorer.com/</t>
+          <t>https://etherscan.io/token/Gnosis</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>nxm</t>
+          <t>amp</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6566,58 +6570,54 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>NXM</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NXM</t>
+          <t>Amp</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>6594067.8412913900000000</t>
+          <t>84231565354.4628000000000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>365747074.1927050467517760</t>
+          <t>385533902.1867443608394621</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>3927256.0865283712763750</t>
+          <t>1206909.9007864867356901</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>55.4660769339426010</t>
+          <t>0.0045770715593892</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-2.6869362057577566</t>
+          <t>3.9883476039001884</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>58.9525628919079986</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xd7c49cee7e9188cca6ad8ff264c1da2e69d4cf3b</t>
-        </is>
-      </c>
+          <t>0.0044166662567754</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>1inch</t>
+          <t>golem-network-tokens</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6627,58 +6627,62 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1INCH</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1inch Network</t>
+          <t>Golem</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1399676988.0825440000000000</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>345729392.8044574766225925</t>
+          <t>344320986.4484203000000000</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>12101979.5739468793245689</t>
+          <t>1250344.5468313456582569</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.2470065563327448</t>
+          <t>0.3443209864484203</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-7.5762373196413867</t>
+          <t>0.0661495063686838</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.2576789213450091</t>
+          <t>0.3398441492171418</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x111111111117dc0aa78b770fa6a738034120c302</t>
+          <t>https://etherscan.io/token/Golem</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>golem-network-tokens</t>
+          <t>1inch</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6688,56 +6692,52 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>1INCH</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Golem</t>
+          <t>1inch Network</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1375843001.0825440000000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>337183625.2633670000000000</t>
+          <t>333200068.3458325736941915</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1917757.6800161618139636</t>
+          <t>14155800.2530961725599769</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.3371836252633670</t>
+          <t>0.2421788445946691</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-9.2924090799515493</t>
+          <t>3.2448442313829543</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.3438153899511814</t>
+          <t>0.2357523239509535</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Golem</t>
+          <t>https://etherscan.io/token/0x111111111117dc0aa78b770fa6a738034120c302</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1740445305534</v>
+        <v>1740800730039</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19830600.0000000000000000</t>
+          <t>19834662.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1690711530913.1534296183830000</t>
+          <t>1636123709996.3266247461112652</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21367979739.8367048554900224</t>
+          <t>10700047447.7969284810673110</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>85257.7093437996545550</t>
+          <t>82488.1064268363446146</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>5.8431014764115204</t>
+          <t>-4.2591990116595081</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>81823.6925195771706978</t>
+          <t>82719.4974864144116376</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120583070.3466749000000000</t>
+          <t>120604782.5989630500000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>272865259185.5743796174836761</t>
+          <t>248740291576.6520944844486328</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9072037467.5572660069346664</t>
+          <t>7277687510.8785768068331742</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2262.8819982862435759</t>
+          <t>2062.4413577674385116</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>5.0096837512678364</t>
+          <t>-5.7356956244023024</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2163.6569289652536285</t>
+          <t>2054.7690071519014837</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>142192589364.1964400000000000</t>
+          <t>142799794449.0176400000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>142253776220.0776023076447030</t>
+          <t>142990807000.9310274041573824</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>36793635643.7940236253855875</t>
+          <t>22555197962.3603230329288158</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0004303097380444</t>
+          <t>1.0013376248379796</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0430812056229932</t>
+          <t>0.0028863841702052</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.9993888600435023</t>
+          <t>0.9999035615227369</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>57949738512.0000000000000000</t>
+          <t>58043299826.0000000000000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>126837016268.8376136744218352</t>
+          <t>126831255060.1922136320065668</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2156400821.1526607723505886</t>
+          <t>2237106058.8918868124710194</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1887418222357071</t>
+          <t>2.1851144824708818</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>7.9663947379935553</t>
+          <t>-5.8472126221501750</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.0750796043822219</t>
+          <t>2.1933399449038870</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>85335719768.2163195530388440</t>
+          <t>80324774047.9399154413330120</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>442402636.5735355625481809</t>
+          <t>271990866.9539848579921069</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>592.5810586082362868</t>
+          <t>557.7844748609487164</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2.2836962105588864</t>
+          <t>-5.3034036461226850</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>579.0828723512173496</t>
+          <t>567.1147573961447505</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>507157476.5969980000000000</t>
+          <t>509020775.3255477000000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>74479273807.2676064401301475</t>
+          <t>65143155821.2309775047697321</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2255649223.3830425564446562</t>
+          <t>1088927399.4567767714264429</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>146.8563064612985912</t>
+          <t>127.9774008822493129</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>14.8851421976218780</t>
+          <t>-6.8883702558781997</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>139.2466464969836279</t>
+          <t>130.1032793012697103</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>56375443832.7457350000000000</t>
+          <t>58117219269.5413800000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>56366465313.7808776355869836</t>
+          <t>58106612630.6229115184650956</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5855879673.2684450540671257</t>
+          <t>4283431433.8962649579841514</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9998407370593570</t>
+          <t>0.9998174957602621</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0091857171313236</t>
+          <t>0.0024077577050593</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.9998680410590602</t>
+          <t>0.9998901115416290</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -952,58 +952,62 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148241406383.7052000000000000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
+          <t>35224212741.2669400000000000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>45000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>30501841039.1238149601437798</t>
+          <t>26317853086.2225462843116310</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>891419560.2353211317328682</t>
+          <t>806770429.4817662034412546</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.2057579038354064</t>
+          <t>0.7471523431775625</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>7.6762096046901060</t>
+          <t>-6.7605344625742906</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1923376920708550</t>
+          <t>0.7575084108650727</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>http://dogechain.info/chain/Dogecoin</t>
+          <t>https://cardanoexplorer.com/</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1013,62 +1017,58 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35212423444.4019850000000000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>45000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>148363886383.7052300000000000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22742182858.4830943460143302</t>
+          <t>25672328318.8293161035594147</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>430576679.4155156130555544</t>
+          <t>881975002.2321727188034392</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6458567924014503</t>
+          <t>0.1730362350608315</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>6.7104316607260174</t>
+          <t>-9.3698971651853592</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6150646294565112</t>
+          <t>0.1751432938938923</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>https://cardanoexplorer.com/</t>
+          <t>http://dogechain.info/chain/Dogecoin</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>steth</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1078,58 +1078,58 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>STETH</t>
+          <t>TRX</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Lido Staked ETH</t>
+          <t>TRON</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>9391711.2126600400000000</t>
+          <t>95044220544.2187300000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21151769662.5132256758334485</t>
+          <t>22276453256.9992501987633736</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>196570.7500492294069703</t>
+          <t>321789828.7167851032926206</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2252.1741973923357279</t>
+          <t>0.2343798826424724</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.4093851802911697</t>
+          <t>-2.9839404505791801</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2123.8916407919940958</t>
+          <t>0.2376426784409589</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
+          <t>https://tronscan.org/#/</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tron</t>
+          <t>steth</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1139,52 +1139,52 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TRX</t>
+          <t>STETH</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>Lido Staked ETH</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86066780568.0167200000000000</t>
+          <t>9355697.1403849800000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>20262148810.4675228777580806</t>
+          <t>18806976895.8169401178743179</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>427140725.6630970494376931</t>
+          <t>2319723.9162444189750785</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.2354235708219013</t>
+          <t>2010.2165144523956837</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>7.0022161434434846</t>
+          <t>-8.2394451664658696</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.2258201970572557</t>
+          <t>2072.8036948579214854</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/</t>
+          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="13">
@@ -1210,33 +1210,33 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>129300.7689652200000000</t>
+          <t>129177.5065218900000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11021350540.8139935426835848</t>
+          <t>10641713251.5407972566082972</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>79379740.3676189617178581</t>
+          <t>83239393.9327317006571833</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>85238.0896804919567166</t>
+          <t>82380.5439357779146314</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>5.8313548188083076</t>
+          <t>-4.2390507734212208</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>81917.9985550338156903</t>
+          <t>82376.2851701465185665</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,56 +1261,52 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>75558468.3040892000000000</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>84000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>923976944.9000000000000000</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9695900507.5237197543321288</t>
+          <t>9041960516.1332640028164843</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>787212429.1592820425112431</t>
+          <t>209140.2054783562817126</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>128.3231479561236783</t>
+          <t>9.7859157266222217</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>4.2685930674949360</t>
+          <t>-0.3283897742320692</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>122.6767313865547564</t>
+          <t>9.6845344061407695</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="15">
@@ -1342,27 +1338,27 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9465989012.1902706768964853</t>
+          <t>9009804075.5878675450388756</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>219303984.5677634751496222</t>
+          <t>279714843.5193009337679512</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14.8346488802896182</t>
+          <t>14.1197374906546982</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>5.7085623204557700</t>
+          <t>-6.6764269198908968</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.1612334486975771</t>
+          <t>14.2837372984743615</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1371,7 +1367,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="16">
@@ -1407,27 +1403,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9426807527.5887159807215174</t>
+          <t>8737905747.2784984694874290</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>199631416.7511340357361264</t>
+          <t>137313251.6482661194827803</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.2249622305172949</t>
+          <t>0.2085222129766415</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>19.8260794688418993</t>
+          <t>-7.4661944440506416</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.2009170758682810</t>
+          <t>0.2106097808644851</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1436,13 +1432,13 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1452,62 +1448,62 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>414076428.7336580000000000</t>
+          <t>30714492819.1940570000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>50001806812.0000000000000000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>9240688545.6945617669834081</t>
+          <t>8218346131.7300508985088218</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>173676763.8793215281423502</t>
+          <t>135421629.9555724409921638</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>22.3163838954917960</t>
+          <t>0.2675722558763612</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>7.6534225159504234</t>
+          <t>-2.6802303640236015</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21.4056977134548838</t>
+          <t>0.2684993387472274</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1517,62 +1513,62 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30684385957.6441460000000000</t>
+          <t>414197145.4935384400000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>50001806812.0000000000000000</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>9000114470.6256219136693655</t>
+          <t>7604985399.7821445227187646</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>97303735.5525373375477095</t>
+          <t>124166033.2764333420351280</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.2933125167650128</t>
+          <t>18.3607866025256899</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9.8037356161686331</t>
+          <t>-9.4635668843763902</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.2729644327738036</t>
+          <t>18.7761825048868631</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1582,58 +1578,62 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>924037111.9000000000000000</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
+          <t>3169845047.4838877000000000</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>8947735956.0121118098842178</t>
+          <t>7481823312.3871263622249697</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>205695.5016678840217881</t>
+          <t>463012136.6747533032297636</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>9.6833079978939662</t>
+          <t>2.3603120027352556</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1.2996290041396344</t>
+          <t>-4.7014185252176991</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>9.4724843841194178</t>
+          <t>2.3563808871345540</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1643,56 +1643,56 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3089707194.5088880000000000</t>
+          <t>75558468.3040892000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>84000000.0000000000000000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>8914373526.0345880277924303</t>
+          <t>7208539118.4161121398646777</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>633276547.1290671629157796</t>
+          <t>389224809.5626576075110395</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.8851839235373035</t>
+          <t>95.4034574841426255</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>11.7238238515468229</t>
+          <t>-5.8366802606034211</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.7017741505633089</t>
+          <t>98.0103707562782786</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="21">
@@ -1718,33 +1718,33 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>589253625793535.6000000000000000</t>
+          <t>589253499457136.6000000000000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>8257163615.2551633098127623</t>
+          <t>7170818948.9398104746236536</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>94058947.4045352845620118</t>
+          <t>132004713.3982837297285258</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.0000140129194863</t>
+          <t>0.0000121693277266</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>4.1072156790656185</t>
+          <t>-3.0372656114090139</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.0000135150965713</t>
+          <t>0.0000119777997011</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1753,13 +1753,13 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,62 +1769,62 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>971372928.2300000000000000</t>
+          <t>19840131.2500000000000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>888888888.0000000000000000</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7435846639.6849101854710228</t>
+          <t>7156927861.5144743397454856</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>86970459.8189107057044176</t>
+          <t>102810032.9788599933643174</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>7.6549864872539080</t>
+          <t>360.7298647036155237</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>5.6365849232549107</t>
+          <t>-4.9317126193705772</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>7.4284262284413855</t>
+          <t>368.2969816677148800</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>tontoken</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1834,58 +1834,62 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>2476378413.2700000000000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5047558527.7000000000000000</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>7222875095.7765546543015400</t>
+          <t>6645048551.2236109343274417</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>151734102.1995970053241722</t>
+          <t>81206951.1254847614107674</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.7448146817133090</t>
+          <t>2.6833736377345412</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.7760628815137798</t>
+          <t>-9.0220809743243395</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.6391350308846337</t>
+          <t>2.7833946009657509</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://tonscan.org/</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1895,62 +1899,58 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1522267060.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6797623735.0641684795985860</t>
+          <t>6331359181.4890104103103240</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>50281800.3183334274999753</t>
+          <t>98371093.7131355270053512</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>20.3565441379166277</t>
+          <t>4.1591645433679754</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>6.5049378864318589</t>
+          <t>-2.9569085112665325</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19.4590246809043810</t>
+          <t>4.1479419018945704</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,62 +1960,62 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>19835856.2500000000000000</t>
+          <t>974778351.8199997000000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>888888888.0000000000000000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6395953034.4601320208932600</t>
+          <t>5922800801.2886368121731450</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>135417609.9308382839357942</t>
+          <t>93320051.7049813417251358</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>322.4440101727462368</t>
+          <t>6.0760487655785850</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>14.5280846197213478</t>
+          <t>-6.5240950415162136</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>295.9597654456999333</t>
+          <t>6.1820874394871004</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2025,58 +2025,54 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
+          <t>5454795947.2492290000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5356946577.1529507004006044</t>
+          <t>5453513270.1930603405390907</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>132762164.7220856104369785</t>
+          <t>28037512.6964322717794790</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.9984276749713061</t>
+          <t>0.9997648533384983</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.0414942732259364</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1.0004896971378271</t>
-        </is>
-      </c>
+          <t>0.0267326338175892</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2086,58 +2082,58 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>600518037.7100000000000000</t>
+          <t>5365382702.6648720000000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4560224562.4225504217696409</t>
+          <t>5362322203.3083781601576715</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>117656742.3941086016099350</t>
+          <t>51188002.6421940646794807</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>7.5938177974010459</t>
+          <t>0.9994295841459783</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>3.0053147378262240</t>
+          <t>-0.0725441089974135</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>7.3488634285094303</t>
+          <t>0.9994614674007876</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2147,58 +2143,62 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>333928180.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4116315677.1048480541355854</t>
+          <t>4964076835.1912755897530660</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>45784801.6445303484459530</t>
+          <t>31654805.4427821602884356</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>223.1459199876608418</t>
+          <t>14.8657020656096637</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>4.8086857973431491</t>
+          <t>-3.2111815552012117</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>212.6387580082184682</t>
+          <t>14.8104226016017565</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,58 +2208,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>589020934.8306800000000000</t>
+          <t>600585117.7100000000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3795734591.2924647232401857</t>
+          <t>3962016088.1666150672875933</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>112934565.5467464136803698</t>
+          <t>58049449.2429079168748975</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>6.4441420785554708</t>
+          <t>6.5969268490594265</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10.7414850429343429</t>
+          <t>-7.2313579944262248</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6.0972096819834598</t>
+          <t>6.7199711473557092</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2269,58 +2269,58 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1187869401.0000000000000000</t>
+          <t>18446744.0737095500000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3748843165.4426349138883023</t>
+          <t>3886084190.4743423328046856</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>96554823.4540214290559143</t>
+          <t>24475579.0044982573990038</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.1559388281966823</t>
+          <t>210.6650460886927571</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9.9003464526894490</t>
+          <t>-3.9100173014103003</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.9525881058622315</t>
+          <t>211.8084233430713679</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2330,62 +2330,58 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>590280819.8744537000000000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3352203944.6220023599761428</t>
+          <t>3376540657.2618561116104564</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>419975971.2160754469999265</t>
+          <t>67339497.7942211511990160</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.0000079683490081</t>
+          <t>5.7202276333152914</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5.7171955745436670</t>
+          <t>-3.7913975095326301</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.0000076861507203</t>
+          <t>5.8619104943828259</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2395,58 +2391,58 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>1189708905.0000000000000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3235998521.6968763749875183</t>
+          <t>3053274267.0338386247336490</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>157677472.5500083949166791</t>
+          <t>74791228.3140834072677460</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>1.0243394667611127</t>
+          <t>2.5664044828124058</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>12.1534572178248819</t>
+          <t>-10.2949270584127144</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.9494865655315244</t>
+          <t>2.6601593935244421</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,58 +2452,58 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>481362215.3157382600000000</t>
+          <t>15086720.2179590700000000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3161955389.0780513298005162</t>
+          <t>2825095094.3599618374446877</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>37272601.2405313846220181</t>
+          <t>155700045.3458690038724880</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>6.5687652426230439</t>
+          <t>187.2570746686876930</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2.8987104832234967</t>
+          <t>-4.1246179665676920</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.3316351618566807</t>
+          <t>186.3511154389751268</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2517,62 +2513,58 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>150938131.7268803700000000</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>210700000.0000000000000000</t>
-        </is>
-      </c>
+          <t>3159107529.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2962791457.0583511809177510</t>
+          <t>2788919839.1201068795925334</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>77889971.1679967910115603</t>
+          <t>179542797.5849067666047202</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>19.6291780159268502</t>
+          <t>0.8828189017051046</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9.3916576708818567</t>
+          <t>-8.4136189271714469</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>18.7084689495032923</t>
+          <t>0.8815156330316947</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2582,58 +2574,62 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>15082915.5764746100000000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>151054757.2904190000000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>210700000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2929281802.3869791953320516</t>
+          <t>2744223159.1255763015321664</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>135839684.5993396468066245</t>
+          <t>51106805.9718288711071063</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>194.2119073420983711</t>
+          <t>18.1670753596294385</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>2.4582339157607105</t>
+          <t>-9.2079253308808813</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>186.8763525862411927</t>
+          <t>18.4892041261493614</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2643,62 +2639,58 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>199999553.0519980000000000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>999999993.4500000000000000</t>
-        </is>
-      </c>
+          <t>481422036.1042418000000000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2852591869.9368732562553652</t>
+          <t>2656543250.8942031091652658</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>196005155.6883343773242378</t>
+          <t>29004566.6694984098116297</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>14.2629912237615163</t>
+          <t>5.5181172685643011</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>24.2817271669658762</t>
+          <t>-6.9215767979589508</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>12.5383457770611989</t>
+          <t>5.5961559568415384</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2708,62 +2700,58 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>8412071.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>60000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2786539828.2918271671924265</t>
+          <t>2542309995.4631143500000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>135531868.9199174078152351</t>
+          <t>217016.8680476356879482</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>331.2549107457399215</t>
+          <t>42.3718332577185725</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>7.3822942000020358</t>
+          <t>-3.1042890332102443</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>316.6237297181244749</t>
+          <t>42.1331187516861129</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2773,58 +2761,62 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>420689899653543.5600000000000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2711849333.0723612400000000</t>
+          <t>2526155080.0216270880716448</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>361340.2706519624753330</t>
+          <t>276831181.8047165518194340</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>45.1974888845393540</t>
+          <t>0.0000060047913727</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>0.8098828970384422</t>
+          <t>-8.9668193649584332</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>43.5112934768988973</t>
+          <t>0.0000061346145055</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2834,52 +2826,56 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8584830805.4362140000000000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr"/>
+          <t>199999532.8234720000000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>999999993.4500000000000000</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2349796215.0562715718382626</t>
+          <t>2252508196.7596813747105565</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>32379270.6781132734568912</t>
+          <t>47148141.1768527248064220</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.2737149127701269</t>
+          <t>11.2625672918338257</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>4.1119016889009866</t>
+          <t>-7.9657268135363414</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.2646808007994735</t>
+          <t>11.1246373794048092</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="40">
@@ -2905,7 +2901,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>80985041177.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2915,27 +2911,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2315141803.8080825054558468</t>
+          <t>2151870473.1575630453246561</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>24636319.8692953279665042</t>
+          <t>29846415.5241802102811384</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.0285872769854884</t>
+          <t>0.0250261027232393</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>9.0398943775239450</t>
+          <t>-7.1040477713067012</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.0270164735665308</t>
+          <t>0.0256925473608792</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2944,13 +2940,13 @@
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2960,58 +2956,62 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>544477456.5816890000000000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>8447703.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2273066777.8913869330508480</t>
+          <t>2119142075.1137351520144537</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>112887240.2972462719714318</t>
+          <t>87811316.1800941089156297</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>4.1747674773571720</t>
+          <t>250.8542351824792079</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>20.1765509849763299</t>
+          <t>-7.9997576046892828</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3.8156479074820543</t>
+          <t>255.6582195772951639</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3021,58 +3021,62 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>640716178.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>25263013692.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2092952958.6493345835440610</t>
+          <t>2078109645.1996537249107396</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>99148588.0469743016280984</t>
+          <t>15930241.6279312762389342</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.2665835989696745</t>
+          <t>0.0822589763254463</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5.6555465243902255</t>
+          <t>-7.0359520075934944</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>3.1583118896386840</t>
+          <t>0.0861856370691734</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3082,62 +3086,58 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>25783396947.7205200000000000</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>28704026601.0000000000000000</t>
-        </is>
-      </c>
+          <t>8589324396.3932110000000000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2071758020.3571661685771737</t>
+          <t>1941055074.3262276570320287</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>51499689.0179118353105788</t>
+          <t>33418076.1606126291564653</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.0803524075806593</t>
+          <t>0.2259846042304918</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>3.7456291379175834</t>
+          <t>-7.7096954336592378</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.0776537467960244</t>
+          <t>0.2293011276072666</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3147,62 +3147,58 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>8462757937.6415620000000000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>642926946.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2037926100.9810644190435703</t>
+          <t>1839804151.9516071367889922</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>60761378.5730193653053219</t>
+          <t>74632827.3206211986485441</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.2408111062608276</t>
+          <t>2.8616068487999057</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>7.7111288558886271</t>
+          <t>-7.5369546028529589</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.2280919339709318</t>
+          <t>2.8983249218741509</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3212,58 +3208,62 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2803634835.5265927000000000</t>
+          <t>8475953510.1722380000000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>3175000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2024757454.1459104928587627</t>
+          <t>1747963632.2158314905302153</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>1059441.5167853314403205</t>
+          <t>50266430.8829919425631179</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.7221901470508767</t>
+          <t>0.2062261939164779</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>12.9886969383410787</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr"/>
+          <t>-7.4648421856290259</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.2108719666884290</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4e15361fd6b4bb609fa63c81a2be19d873717870</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3273,58 +3273,54 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4419312625.0000000000000000</t>
+          <t>85831054.9461785600000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1877616723.2407616414815250</t>
+          <t>1734325592.7441443569747091</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>83116815.3351660939636931</t>
+          <t>22164768.2210662431802878</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.4248662365769522</t>
+          <t>20.2062714227580563</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>7.1347621195220026</t>
+          <t>-4.8393253420006208</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.4020916760974468</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
-        </is>
-      </c>
+          <t>20.1273368462633640</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3334,62 +3330,58 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>25263013692.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>30263013692.0000000000000000</t>
-        </is>
-      </c>
+          <t>555343072.2220840000000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1868990937.5394300465019416</t>
+          <t>1724918204.0652316803331245</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>8654244.2151674381668004</t>
+          <t>49753084.4087550493921612</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.0739813135647898</t>
+          <t>3.1060407347179974</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.9737960169384088</t>
+          <t>-5.2668703867879699</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0714366196130717</t>
+          <t>3.1926295481683636</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3399,54 +3391,62 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>88734777.3366762300000000</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>25832738640.7616500000000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1865846663.0692306553251195</t>
+          <t>1624857594.5570977771174046</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>23886287.5715441714375840</t>
+          <t>38857748.8312612403466242</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>21.0272310256649632</t>
+          <t>0.0628991612988808</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>4.2441757498716383</t>
+          <t>-11.0518945824446084</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20.2687523007150321</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>0.0647558746440783</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://explorer.kaspa.org/</t>
+        </is>
+      </c>
       <c r="M48" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3456,58 +3456,58 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
+          <t>4419312625.0000000000000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1811560865.1842634290182516</t>
+          <t>1572936345.8567075410627625</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>63644197.9776737416812292</t>
+          <t>52649525.4057392121079540</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.6339277726240179</t>
+          <t>0.3559233028590521</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7.0913435028430719</t>
+          <t>-9.2019846259226009</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>4.4522687641763921</t>
+          <t>0.3612117355086463</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3517,56 +3517,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2630547141.0000000000000000</t>
-        </is>
-      </c>
+          <t>390934204.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1660780783.3002180480000000</t>
+          <t>1529102202.7477267924569544</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>57011142.3813625679170832</t>
+          <t>53346851.0652498774060537</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.6590399933731024</t>
+          <t>3.9114055181207086</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>6.9492737389430763</t>
+          <t>-4.4337545574528089</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.6299828026013376</t>
+          <t>3.8999118372472417</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="51">
@@ -3598,27 +3594,27 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1564104321.7520103700602347</t>
+          <t>1462866416.9275348414201836</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>3764226.0589200197261603</t>
+          <t>1830539.7111295085283874</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>18.6795866699278472</t>
+          <t>17.4705354633354206</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>7.3625895377592921</t>
+          <t>-7.0007785612677871</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>18.0128446537946087</t>
+          <t>18.2382555451676677</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3627,7 +3623,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="52">
@@ -3663,27 +3659,27 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1409821741.9157617467110010</t>
+          <t>1372297767.8980397650092181</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>1661620.3737997592327848</t>
+          <t>736388.0312253908170743</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11.4987081617189150</t>
+          <t>11.1926572522533058</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.7995455659829799</t>
+          <t>-0.9775762674079490</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11.4214243855026362</t>
+          <t>11.2073089265334395</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3692,13 +3688,13 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3708,62 +3704,62 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>852333.8761361200000000</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1005577.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1339143583.9274077760182721</t>
+          <t>1357027231.7413410480000000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>91710275.7749478500326398</t>
+          <t>76386003.9226664172316185</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>1571.1490783378683443</t>
+          <t>0.5385028697386274</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>1.9901676162997856</t>
+          <t>-9.1253829292695228</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1558.3715988845210470</t>
+          <t>0.5365952860585707</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3773,62 +3769,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1514960635.1613400000000000</t>
+          <t>2690911111.1000000000000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1818000000.0000000000000000</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1268766840.7311030759596992</t>
+          <t>1339602423.6772298104636127</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>13949593.4567042641878106</t>
+          <t>36127424.4253243480013238</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.8374916227417237</t>
+          <t>0.4978248512748615</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>7.1069177721829693</t>
+          <t>-8.9595726412651043</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.8055611779559908</t>
+          <t>0.5152880822654090</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3838,62 +3834,58 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>FTM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>Fantom</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>2803634835.5265927000000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>3175000000.0000000000000000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1168470248.2485626000000000</t>
+          <t>1260076555.4922645871508084</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>14576712.4742778576222269</t>
+          <t>359676.1023667608730309</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.1684702482485626</t>
+          <t>0.4494438931650636</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>6.7707393091348184</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>1.1276179164279417</t>
-        </is>
-      </c>
+          <t>-10.2787959876137019</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://etherscan.io/token/0x4e15361fd6b4bb609fa63c81a2be19d873717870</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3903,62 +3895,58 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>XDC Network</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>15692654414.5500000000000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1158303106.5185196102639012</t>
+          <t>1098300806.0109271491732946</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>9267398.1629942345131325</t>
+          <t>2132428.1122287720201974</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>95.9436961622557874</t>
+          <t>0.0699882108531364</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2.9489487616257871</t>
+          <t>-6.7442129490682153</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>92.2127416797394513</t>
+          <t>0.0717697318614908</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3968,58 +3956,62 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>9548531509.1654740000000000</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>852195.0179722100000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1005577.0000000000000000</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1157949251.2972550181685981</t>
+          <t>1027167468.4337496527192310</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>22381999.3556571167980595</t>
+          <t>37109508.1345933525269935</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.1212698780106406</t>
+          <t>1205.3197293712006751</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>5.5666313342591839</t>
+          <t>-12.0249779205429515</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.1169313792212618</t>
+          <t>1273.6148244186718255</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4029,58 +4021,62 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>897602695.8719100000000000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>98970935.4100000000000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1139596128.8566360249955446</t>
+          <t>967975236.3214871727912688</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>17887268.7636165345091695</t>
+          <t>81761671.1619741388134397</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>1.2695997172219490</t>
+          <t>9.7803989859398983</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.8568236651971478</t>
+          <t>-12.2104999229907434</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1.2328053716013721</t>
+          <t>10.0716848774117598</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4090,58 +4086,62 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>XinFin Network</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>12293293518.5500000000000000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>1516227294.5036400000000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>994079136.4809905836263447</t>
+          <t>952841853.6774260951258952</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>3159801.5059761070244114</t>
+          <t>12091388.7294566192990382</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.0808635322162423</t>
+          <t>0.6284294295001155</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3.0144386664974068</t>
+          <t>-8.1853005125723558</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.0791116469298450</t>
+          <t>0.6430901288744574</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4151,62 +4151,62 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>73005554.3300000000000000</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>14881364.0000000000000000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>982345202.1331818034492802</t>
+          <t>915336081.2292492250614810</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>40005350.3377089564772633</t>
+          <t>13806431.4928419876920711</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>13.4557597863414758</t>
+          <t>75.8184333354413245</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>5.6204287326108252</t>
+          <t>-10.5770045011098555</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>12.7889753436787217</t>
+          <t>78.3464217000606164</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4216,58 +4216,58 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1549547482.1065000000000000</t>
+          <t>897602695.8719100000000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>871964781.2642437668946756</t>
+          <t>909341696.7598637330678749</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>42882632.6937606317963841</t>
+          <t>8598866.7915120115113630</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.5627222084726758</t>
+          <t>1.0130781702661340</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>6.8026377284049136</t>
+          <t>-3.4641264728801333</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.5406991648145837</t>
+          <t>1.0256074231264108</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4277,62 +4277,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>91870083810.9700000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>100000000000.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>825394560.2311818148584135</t>
+          <t>904255904.6757770000000000</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>2847831.5282462387319472</t>
+          <t>22727193.6252791746735730</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.0089843671192191</t>
+          <t>0.9042559046757770</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>12.2653531898709539</t>
+          <t>-9.7040963068607450</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.0082674839354065</t>
+          <t>0.9311133285391960</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4342,58 +4342,58 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1032398116.2970640000000000</t>
+          <t>9548531509.1654740000000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>794070995.6380557995110272</t>
+          <t>894091156.9864477545808938</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>11723553.1648652952315005</t>
+          <t>15072594.9206629259717456</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7691519222121173</t>
+          <t>0.0936365090410211</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>6.9337332567167201</t>
+          <t>-6.8920542394632570</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7371429302857374</t>
+          <t>0.0941511211026450</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4403,58 +4403,58 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2464357126.2233224000000000</t>
+          <t>1551425752.4039000000000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>789218990.7393279008312058</t>
+          <t>768572140.5820264671822041</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>30975450.5430393164709909</t>
+          <t>39031859.7823741410031286</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.3202534983023431</t>
+          <t>0.4953973075354337</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>8.0750920407143811</t>
+          <t>-6.9572589371329853</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.3060271467435993</t>
+          <t>0.4995670777642650</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4464,58 +4464,58 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1566649989.8244228000000000</t>
+          <t>1033747407.3894870000000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>755894738.5574088301798169</t>
+          <t>711868583.4541790519216073</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9358507.2103895323732198</t>
+          <t>6114952.0251534783671210</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.4824911393527812</t>
+          <t>0.6886291354789023</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>6.1864484493903376</t>
+          <t>-6.3402363880866206</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.4677348181238213</t>
+          <t>0.7046237483512103</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4525,58 +4525,58 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>37814997646.4756200000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>754601854.1152205600602164</t>
+          <t>702536273.9261886602198019</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>52136102.0967778417346029</t>
+          <t>809138.1557322527827423</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.0199550945677647</t>
+          <t>1.0872719917048790</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>7.9400897245121214</t>
+          <t>-5.7237019569928971</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.0190285891771456</t>
+          <t>1.1063196811480821</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4586,58 +4586,58 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3650535129.0000000000000000</t>
+          <t>2469357126.2233224000000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>750447753.0307639477209231</t>
+          <t>677897900.4404595350977190</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>20363506.5556215734836411</t>
+          <t>20061694.5042549402554171</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.2055719850684839</t>
+          <t>0.2745240424082556</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>8.4816195140043643</t>
+          <t>-8.0893742800604330</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.1931744793840251</t>
+          <t>0.2826244634809218</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4647,52 +4647,52 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>3669672848.0000000000000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>723482029.5341084078927384</t>
+          <t>658863000.4114798785247808</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>3136492.6484343329477662</t>
+          <t>16232865.7468512048522990</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>1.1196884437270834</t>
+          <t>0.1795427079475396</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-3.1194865758714365</t>
+          <t>-7.3976358473777216</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>1.1109280788628058</t>
+          <t>0.1809654502051734</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="69">
@@ -4718,33 +4718,33 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>19831484.3750000000000000</t>
+          <t>19835500.0000000000000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>711718054.9126165472608438</t>
+          <t>646946927.5695741134556500</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10683967.0316430180974624</t>
+          <t>11064679.1751193300338817</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>35.8882896234345316</t>
+          <t>32.6156097688273103</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>4.6233663206804980</t>
+          <t>-7.7487857484709491</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>34.5459201609420930</t>
+          <t>33.2173423220562238</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4753,13 +4753,13 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4769,58 +4769,58 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>290847965.9593330000000000</t>
+          <t>1568120578.7790742000000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>693355200.0038159507620966</t>
+          <t>625191335.0574912528344368</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>83838510.6139910238432137</t>
+          <t>9666630.0309091312892127</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.3839093999397692</t>
+          <t>0.3986883046610230</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>13.7584667313449472</t>
+          <t>-7.0468940100744534</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>2.3124141905291219</t>
+          <t>0.4048391376876125</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4830,58 +4830,58 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Neo</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>70538831.0000000000000000</t>
+          <t>37870158415.5621400000000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>681298033.3428582224806488</t>
+          <t>616710576.8964661688494703</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>18910151.3921929396022872</t>
+          <t>29835017.0389037531874784</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>9.6584820542724648</t>
+          <t>0.0162848692136191</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>6.8856356522003855</t>
+          <t>-6.7974951623862970</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>9.2690656475452502</t>
+          <t>0.0165544887882865</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://neotracker.io</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>telcoin</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4891,58 +4891,62 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Telcoin</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>998841193.8587850000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>93880083810.9700000000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>100000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>655457071.5414186299552743</t>
+          <t>596698742.1152153807093228</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>206769334.8380471375225802</t>
+          <t>6768857.9071447405710172</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.6562175004108675</t>
+          <t>0.0063559672924524</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>16.3496339486230887</t>
+          <t>-12.3167489686779403</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.5958755711837848</t>
+          <t>0.0064730130921827</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
+          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4952,58 +4956,58 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Neo</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>159056007.4864567000000000</t>
+          <t>70538831.0000000000000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>597628716.5797414461260582</t>
+          <t>568383133.4972211277986976</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>15578458.7221130915926907</t>
+          <t>12747898.3979645404200849</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>3.7573476539742036</t>
+          <t>8.0577339522003296</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>9.3714486364620845</t>
+          <t>-7.3104070387720030</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>3.5954426152827383</t>
+          <t>8.2034381163573563</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
+          <t>https://neotracker.io</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5013,62 +5017,58 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1942255184.1130493000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>592461403.9404148231917993</t>
+          <t>510589984.2771030656316448</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>17103380.0789525708515665</t>
+          <t>13976219.8483049994923221</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>37.2926341865634933</t>
+          <t>0.2628851185228110</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>2.2873406842318621</t>
+          <t>-4.0731537140809298</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>36.3831380509383288</t>
+          <t>0.2636647016960536</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/decentraland</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5078,62 +5078,62 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>177394590.4600469200000000</t>
+          <t>1292866760.0000000000000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>3030303030.2990000000000000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>584753298.9477812026533830</t>
+          <t>501557641.6466746629299880</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>918020.7419095104118796</t>
+          <t>20657450.2439996626873216</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>3.2963423373357049</t>
+          <t>0.3879422514093213</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>7.8532073280306920</t>
+          <t>-7.0781553582106867</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>3.2105344982957674</t>
+          <t>0.3906241322272354</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>frax</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5143,58 +5143,58 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>FRAX</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Frax</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1289347328.0000000000000000</t>
+          <t>497136308.5928249400000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>583783302.4848538087934208</t>
+          <t>496078787.0737909719093683</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>15021608.8793181925054449</t>
+          <t>5615073.2877815023345631</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.4527742756409961</t>
+          <t>0.9978727735215572</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>3.8394575988585641</t>
+          <t>-0.0004388009494497</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.4399228796971527</t>
+          <t>0.9670629455241869</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://etherscan.io/token/0x853d955acef822db058eb8505911ed77f175b99e</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>axie-infinity</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5204,62 +5204,58 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>290093687.4036969500000000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>159302369.0003128300000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>580087126.8455144646964774</t>
+          <t>495724639.7997782148223712</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>38268696.1152173577515755</t>
+          <t>9792640.9161914158973172</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1.9996544290129970</t>
+          <t>3.1118472556977777</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>3.6961127761242103</t>
+          <t>-7.9032289403860840</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>1.9372380374985308</t>
+          <t>3.1777363372497471</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5269,58 +5265,58 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1942255184.1130493000000000</t>
+          <t>290847965.9593330000000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>575132044.4993281701202862</t>
+          <t>494708184.1619792085303940</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>16169260.7063069530008409</t>
+          <t>18335201.8834987257290281</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.2961155924328080</t>
+          <t>1.7009167746118960</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>5.5226133167505825</t>
+          <t>-10.4467517369864390</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.2844125565961595</t>
+          <t>1.7602237126589504</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/decentraland</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>pudgy-penguins</t>
+          <t>trueusd</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5330,58 +5326,58 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>PENGU</t>
+          <t>TUSD</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>TrueUSD</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>62860396090.0400000000000000</t>
+          <t>495516083.0000000000000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>575074822.3720477699700759</t>
+          <t>494284645.5540900011701264</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>65384171.2061092961395003</t>
+          <t>736339.9912205081935619</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.0091484441419733</t>
+          <t>0.9975148385932208</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>17.2519489803757171</t>
+          <t>0.0296118739252114</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.0088769855445660</t>
+          <t>0.9973974853888772</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/2zMMhcVQEXDtdE6vsFS7S7D5oUodfJHE8vd1gnBouauv</t>
+          <t>https://etherscan.io/token/0x8dd5fbce2f6a956c3022ba3663759011dd51e73e</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>conflux-network</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5391,58 +5387,62 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Conflux</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4927732564.3700000000000000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>555430829.1147763497335436</t>
+          <t>484588741.7041162796251143</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>23774470.9300426703839072</t>
+          <t>15312768.8324398686912346</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.1127152948865006</t>
+          <t>30.5025619476745083</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>3.3237756528881391</t>
+          <t>-3.2581369955819848</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.1087042848073163</t>
+          <t>29.8585109305562499</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>http://www.confluxscan.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ftx-token</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5452,58 +5452,62 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>FTX Token</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>328895103.8132070000000000</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr"/>
+          <t>179230182.9132615300000000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>223000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>554321445.6928474401463567</t>
+          <t>460725321.1294838407564469</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>13480241.6688262395116548</t>
+          <t>2170112.6663657950200995</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.6854049794784093</t>
+          <t>2.5705788703705777</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>5.0470365984609183</t>
+          <t>-15.0620856471774882</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>1.6240366884936029</t>
+          <t>2.5777064152101212</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x50d1c9771902476076ecfc8b2a83ad6b9355a4c9</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>arweave</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5513,62 +5517,58 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>65652466.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>66000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>998841015.1905990000000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>544053137.3800089169569802</t>
+          <t>451893455.6154194379208593</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>19055939.5735484104392668</t>
+          <t>137128854.0804709055045319</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>8.2868652242249197</t>
+          <t>0.4524178009742512</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>5.7804473094769585</t>
+          <t>-12.2510199388758219</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>7.9777754363937381</t>
+          <t>0.4742114727735581</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://viewblock.io/arweave</t>
+          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>elrond-egld</t>
+          <t>kava</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5578,62 +5578,58 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>KAVA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>MultiversX</t>
+          <t>Kava</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>24184559.1898415400000000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>31415926.0000000000000000</t>
-        </is>
-      </c>
+          <t>1082853486.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>530227890.0260795500759161</t>
+          <t>451336246.0006320172526274</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>9385091.8663733358272494</t>
+          <t>8305742.4566680234633118</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>21.9242321459717151</t>
+          <t>0.4168026901477159</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>5.3369009434466301</t>
+          <t>-0.2025792854993852</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>21.0900926064696985</t>
+          <t>0.4243513753130322</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://explorer.elrond.com/</t>
+          <t>https://www.mintscan.io/kava</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>polygon</t>
+          <t>elrond-egld</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5643,58 +5639,62 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>EGLD</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>MultiversX</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1913783718.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr"/>
+          <t>24184559.1898415400000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>31415926.0000000000000000</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>522706704.1801856875695918</t>
+          <t>449707210.7753183475067996</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>7113978.0971615082047369</t>
+          <t>7669704.9653536559316365</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.2731273650537901</t>
+          <t>18.5948070107563900</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>3.9828598510811620</t>
+          <t>-6.4118564385211939</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.2626831773710435</t>
+          <t>18.9562218804740379</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x7D1AfA7B718fb893dB30A3aBc0Cfc608AaCfeBB0</t>
+          <t>https://explorer.elrond.com/</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>trueusd</t>
+          <t>thorchain</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5704,58 +5704,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>RUNE</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>THORChain</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>495516083.0000000000000000</t>
+          <t>351819870.0000000000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>493984382.9721275061612999</t>
+          <t>448534583.4145680257416350</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>1345576.4273145312230362</t>
+          <t>75377849.5740535534805373</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.9969088792868253</t>
+          <t>1.2748983831259105</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.0660344565926404</t>
+          <t>-0.7661316865908127</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.9913681355094769</t>
+          <t>1.2338688715486558</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8dd5fbce2f6a956c3022ba3663759011dd51e73e</t>
+          <t>https://explorer.binance.org/asset/RUNE-B1A</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>chiliz</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5765,58 +5765,62 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>9435234867.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr"/>
+          <t>289277945.0352875600000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>450000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>482422883.0636240663096184</t>
+          <t>445637874.4389474339343094</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>27799405.9622257063809555</t>
+          <t>21187161.4438209179900237</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.0511299283869352</t>
+          <t>1.5405179761788833</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>6.1093588449302974</t>
+          <t>-8.4026357758041894</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.0491379247725608</t>
+          <t>1.5813557073760243</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3506424f91fd33084466f402d5d97f05f8e3b4af</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pendle</t>
+          <t>polygon</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5826,58 +5830,58 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PENDLE</t>
+          <t>MATIC</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Pendle</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>165486183.3441839000000000</t>
+          <t>1913783718.0000000000000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>479278365.2493090356221353</t>
+          <t>432389825.7212355436587588</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>4315078.4938761318630470</t>
+          <t>7037891.7471411565798539</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.8961835699146513</t>
+          <t>0.2259345304562966</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4.8274820686201509</t>
+          <t>-7.1760605953999027</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.8236587490296371</t>
+          <t>0.2322281128213795</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x808507121b80c02388fad14726482e061b8da827</t>
+          <t>https://etherscan.io/token/0x7D1AfA7B718fb893dB30A3aBc0Cfc608AaCfeBB0</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>melania-meme</t>
+          <t>arweave</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5887,58 +5891,62 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>MELANIA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Official Melania</t>
+          <t>Arweave</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>537313460.0546330000000000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>65652466.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>66000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>473114853.9599806899486238</t>
+          <t>427426505.7001995840842442</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>31112364.3086280477102465</t>
+          <t>16883965.4326950938604552</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.8805192669319605</t>
+          <t>6.5104409893788237</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>7.3853256517879463</t>
+          <t>-8.1779099774560777</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.8414526928971006</t>
+          <t>6.5998684537681850</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/FUAfBo2jgks6gB4Z4LfZkqSZgzNucisEHqnNebaRxM1P</t>
+          <t>https://viewblock.io/arweave</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>kava</t>
+          <t>chiliz</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5948,58 +5956,58 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>CHZ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>Chiliz</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1082853491.0000000000000000</t>
+          <t>9454344021.0000000000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>472915919.9091707980510158</t>
+          <t>416208453.5992045798364013</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>20254129.7743690971797152</t>
+          <t>16041595.2784405312494368</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.4367312141852538</t>
+          <t>0.0440229859072953</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>5.2331278752833086</t>
+          <t>-7.3003230493169030</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.4334540117684016</t>
+          <t>0.0447825990091396</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/kava</t>
+          <t>https://etherscan.io/token/0x3506424f91fd33084466f402d5d97f05f8e3b4af</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ecash</t>
+          <t>conflux-network</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6009,62 +6017,58 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>CFX</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>eCash</t>
+          <t>Conflux</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>19831535922583.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>21000000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5018538249.7500000000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>460927513.8625979547638990</t>
+          <t>411679083.0034913446571333</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>3451003.2509930324793315</t>
+          <t>32373485.7945801807895744</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.0000232421490530</t>
+          <t>0.0820316718765667</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>4.0307796824921966</t>
+          <t>-15.2559270511115427</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.0000226308172203</t>
+          <t>0.0884144364242059</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://explorer.bitcoinabc.org/</t>
+          <t>http://www.confluxscan.io/</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>thorchain</t>
+          <t>ecash</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6074,58 +6078,62 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>XEC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>eCash</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>351946316.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>19835457797583.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>21000000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>450944766.2773891139677284</t>
+          <t>404639441.9288756065764495</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>100253797.8228146072728486</t>
+          <t>2781275.8696402598020110</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>1.2812884970712099</t>
+          <t>0.0000203998035265</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-0.2109189546091215</t>
+          <t>-8.4385441722743860</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>1.3100663457095621</t>
+          <t>0.0000211856279283</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/RUNE-B1A</t>
+          <t>https://explorer.bitcoinabc.org/</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>melania-meme</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6135,52 +6143,52 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>MELANIA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Compound</t>
+          <t>Official Melania</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>8870002.4225412900000000</t>
+          <t>537313388.0109210000000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>448332338.4728200967849426</t>
+          <t>398253172.8761495620157078</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>51413667.5477083638062449</t>
+          <t>20492265.0851634653044545</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>50.5447819645996385</t>
+          <t>0.7411934669084683</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3.0797385735403104</t>
+          <t>-2.1876889910599116</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>49.3751705732528255</t>
+          <t>0.7479846570741130</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc00e94cb662c3520282e6f5717214004a7f26888</t>
+          <t>https://solscan.io/token/FUAfBo2jgks6gB4Z4LfZkqSZgzNucisEHqnNebaRxM1P</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="93">
@@ -6212,27 +6220,27 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>426354651.6857824554807000</t>
+          <t>395749493.1010352856238800</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>5780050.6314983966757167</t>
+          <t>1380100.6786890372096538</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>1.0232923413296930</t>
+          <t>0.9498370048835612</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>6.1603389256567522</t>
+          <t>-3.5749489971721565</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.9767547482116363</t>
+          <t>0.9587855596872441</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6241,13 +6249,13 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>aioz-network</t>
+          <t>ftx-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6257,58 +6265,58 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>AIOZ</t>
+          <t>FTT</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>AIOZ Network</t>
+          <t>FTX Token</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1160020060.6824455000000000</t>
+          <t>328895103.8132070000000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>423814884.1479437859095618</t>
+          <t>394146253.6186231540969961</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>18798647.9666265425297508</t>
+          <t>24166763.7533432692459199</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.3653513404747599</t>
+          <t>1.1983950172833067</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>8.1249326513938976</t>
+          <t>-12.3260162444871407</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.3418197171401411</t>
+          <t>1.2663208072733895</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x626e8036deb333b408be468f951bdb42433cbf18</t>
+          <t>https://etherscan.io/token/0x50d1c9771902476076ecfc8b2a83ad6b9355a4c9</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>reserve-rights</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6318,62 +6326,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>RSR</t>
+          <t>COMP</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Reserve Rights</t>
+          <t>Compound</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>55555276903.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>8871270.5121706700000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>413584859.7810612155058859</t>
+          <t>390838863.9798009036896009</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>14043885.5951777737472192</t>
+          <t>16727431.0989271123793998</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.0074445648161053</t>
+          <t>44.0566955368570264</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>6.7635438924386638</t>
+          <t>-9.9570321535647675</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.0070528158992651</t>
+          <t>45.4440923722843456</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8762db106b2c2a0bccb3a80d1ed41273552616e8</t>
+          <t>https://etherscan.io/token/0xc00e94cb662c3520282e6f5717214004a7f26888</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>akash-network</t>
+          <t>pudgy-penguins</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6383,62 +6387,58 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>AKT</t>
+          <t>PENGU</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Akash Network</t>
+          <t>Pudgy Penguins</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>248285794.6611410000000000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>388539008.0000000000000000</t>
-        </is>
-      </c>
+          <t>62860396090.0400000000000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>403935354.9432697262188877</t>
+          <t>354069017.4759406821693598</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>2947536.0133530199740133</t>
+          <t>29070936.6566302415092448</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>1.6268967602216564</t>
+          <t>0.0056326246651195</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>8.3245401411805895</t>
+          <t>-7.5557866133409613</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>1.5364767419977094</t>
+          <t>0.0056341033320541</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://akash.bigdipper.live/</t>
+          <t>https://solscan.io/token/2zMMhcVQEXDtdE6vsFS7S7D5oUodfJHE8vd1gnBouauv</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mina</t>
+          <t>pendle</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6448,58 +6448,58 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>PENDLE</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>Pendle</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1217643029.8400393000000000</t>
+          <t>165685749.1911133000000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>392856289.3746578776071576</t>
+          <t>349902684.7192747658840870</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>22204855.3980873952170454</t>
+          <t>3181599.7771579605422513</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.3226366675184492</t>
+          <t>2.1118453845760327</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>8.6776122247601937</t>
+          <t>-8.6357613019047867</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.3175702804158027</t>
+          <t>2.1712646288027071</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://minaexplorer.com/</t>
+          <t>https://etherscan.io/token/0x808507121b80c02388fad14726482e061b8da827</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>gnosis-gno</t>
+          <t>amp</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6509,58 +6509,54 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>GNO</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Gnosis</t>
+          <t>Amp</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2587568.9503621900000000</t>
+          <t>84231565354.4628000000000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>388945305.7520989961864370</t>
+          <t>341691931.1333040223742154</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>9818754.0634260099449827</t>
+          <t>3668890.2788218689495119</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>150.3130209139575288</t>
+          <t>0.0040565781924555</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>3.0193837357813211</t>
+          <t>-8.1323602122876040</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>147.9992822294530326</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/Gnosis</t>
-        </is>
-      </c>
+          <t>0.0044574429928796</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>gnosis-gno</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6570,54 +6566,58 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>GNO</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Amp</t>
+          <t>Gnosis</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>84231565354.4628000000000000</t>
+          <t>2587593.4019314900000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>385533902.1867443608394621</t>
+          <t>331315337.8704324982116460</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>1206909.9007864867356901</t>
+          <t>7451346.0646050980456624</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.0045770715593892</t>
+          <t>128.0399531174892505</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>3.9883476039001884</t>
+          <t>-8.0126564995794886</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.0044166662567754</t>
-        </is>
-      </c>
-      <c r="L99" t="inlineStr"/>
+          <t>137.3626869481204164</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/Gnosis</t>
+        </is>
+      </c>
       <c r="M99" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>golem-network-tokens</t>
+          <t>mina</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6627,62 +6627,58 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>MINA</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Golem</t>
+          <t>Mina</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1219355306.8400393000000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>344320986.4484203000000000</t>
+          <t>315984568.3774206284064072</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>1250344.5468313456582569</t>
+          <t>6443410.2074249001513845</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.3443209864484203</t>
+          <t>0.2591406841015807</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.0661495063686838</t>
+          <t>-7.5212717916974727</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.3398441492171418</t>
+          <t>0.2669617556208543</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Golem</t>
+          <t>https://minaexplorer.com/</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1inch</t>
+          <t>just</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6692,52 +6688,52 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1INCH</t>
+          <t>JST</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1inch Network</t>
+          <t>JUST</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>1375843001.0825440000000000</t>
+          <t>9900000000.0000000000000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>333200068.3458325736941915</t>
+          <t>308865424.2667557300000000</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>14155800.2530961725599769</t>
+          <t>17173313.8401827278902476</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.2421788445946691</t>
+          <t>0.0311985277037127</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>3.2448442313829543</t>
+          <t>-3.4775153802515943</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.2357523239509535</t>
+          <t>0.0316309933417366</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x111111111117dc0aa78b770fa6a738034120c302</t>
+          <t>https://tronscan.org/#/token20/TCFLL5dx5ZJdKnWuesXxi1VPwjLVmWZZy9</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1740800730039</v>
+        <v>1741574980778</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19834662.0000000000000000</t>
+          <t>19836950.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1636123709996.3266247461112652</t>
+          <t>1669824787615.6914756517817450</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10700047447.7969284810673110</t>
+          <t>8786812500.3413897259123377</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82488.1064268363446146</t>
+          <t>84177.4964203514892991</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-4.2591990116595081</t>
+          <t>3.9783295004825994</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82719.4974864144116376</t>
+          <t>83635.1189973814656214</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120604782.5989630500000000</t>
+          <t>120614183.5975569000000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>248740291576.6520944844486328</t>
+          <t>230804228211.9705072608577187</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7277687510.8785768068331742</t>
+          <t>4708845069.3658677911348691</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2062.4413577674385116</t>
+          <t>1913.5745177538602613</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-5.7356956244023024</t>
+          <t>2.5240017310761831</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2054.7690071519014837</t>
+          <t>1911.1198058760611960</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>142799794449.0176400000000000</t>
+          <t>143346765715.5510000000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>142990807000.9310274041573824</t>
+          <t>143495199812.1743908319319553</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>22555197962.3603230329288158</t>
+          <t>19518810874.4521973077055120</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0013376248379796</t>
+          <t>1.0010354896804434</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0028863841702052</t>
+          <t>0.1242734450909140</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.9999035615227369</t>
+          <t>0.9998232037708537</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58043299826.0000000000000000</t>
+          <t>58108919817.0000000000000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>126831255060.1922136320065668</t>
+          <t>137321383871.9790907156102578</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2237106058.8918868124710194</t>
+          <t>1452230193.5601376563302312</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1851144824708818</t>
+          <t>2.3631721998006434</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-5.8472126221501750</t>
+          <t>5.3044519943941324</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1933399449038870</t>
+          <t>2.3207713727695244</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>80324774047.9399154413330120</t>
+          <t>84854061627.1699423268906710</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>271990866.9539848579921069</t>
+          <t>273133462.0621300195452806</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>557.7844748609487164</t>
+          <t>589.2363690470093837</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-5.3034036461226850</t>
+          <t>1.7744557446525477</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>567.1147573961447505</t>
+          <t>582.9785078763111450</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>509020775.3255477000000000</t>
+          <t>509706862.6860305000000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>65143155821.2309775047697321</t>
+          <t>68112452505.1177385941283907</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1088927399.4567767714264429</t>
+          <t>1361078360.2871581786803932</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>127.9774008822493129</t>
+          <t>133.6306365313226766</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-6.8883702558781997</t>
+          <t>8.3297363691157903</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>130.1032793012697103</t>
+          <t>130.2765664686538028</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58117219269.5413800000000000</t>
+          <t>58692177034.2159960000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>58106612630.6229115184650956</t>
+          <t>58713544186.0351212906707428</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4283431433.8962649579841514</t>
+          <t>4895681314.5589179397580489</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.9998174957602621</t>
+          <t>1.0003640545111603</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0024077577050593</t>
+          <t>0.1007973858507694</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.9998901115416290</t>
+          <t>1.0000233225173454</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="9">
@@ -962,7 +962,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35224212741.2669400000000000</t>
+          <t>35230631106.5399800000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -972,27 +972,27 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26317853086.2225462843116310</t>
+          <t>26097862791.0455927676204137</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>806770429.4817662034412546</t>
+          <t>451532681.7808547450015923</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.7471523431775625</t>
+          <t>0.7407719354252771</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-6.7605344625742906</t>
+          <t>5.6862833153797178</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.7575084108650727</t>
+          <t>0.7254161814410715</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="10">
@@ -1027,33 +1027,33 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>148363886383.7052300000000000</t>
+          <t>148430926383.7052000000000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25672328318.8293161035594147</t>
+          <t>25544301254.0141576167403560</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>881975002.2321727188034392</t>
+          <t>341581158.4636383039897345</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.1730362350608315</t>
+          <t>0.1720955455602305</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-9.3698971651853592</t>
+          <t>4.2152782764282070</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.1751432938938923</t>
+          <t>0.1707477872241161</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95044220544.2187300000000000</t>
+          <t>95027519114.7610200000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22276453256.9992501987633736</t>
+          <t>21116971989.3182282196312580</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>321789828.7167851032926206</t>
+          <t>255797575.2142717537150395</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2343798826424724</t>
+          <t>0.2222195442545026</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-2.9839404505791801</t>
+          <t>-1.5020013281986349</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2376426784409589</t>
+          <t>0.2232233056846497</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9355697.1403849800000000</t>
+          <t>9340293.7393039300000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18806976895.8169401178743179</t>
+          <t>17934417009.9093641361779251</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2319723.9162444189750785</t>
+          <t>1331603.0607126161472277</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2010.2165144523956837</t>
+          <t>1920.1127406134335355</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-8.2394451664658696</t>
+          <t>3.0728447211800482</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2072.8036948579214854</t>
+          <t>1898.1271960496935002</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="13">
@@ -1210,33 +1210,33 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>129177.5065218900000000</t>
+          <t>129177.4055218900000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10641713251.5407972566082972</t>
+          <t>10838182543.4835190424947584</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>83239393.9327317006571833</t>
+          <t>30718959.4459933068702336</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82380.5439357779146314</t>
+          <t>83901.5344804004013900</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-4.2390507734212208</t>
+          <t>3.0070709988522947</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82376.2851701465185665</t>
+          <t>83989.7551647459839569</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,58 +1261,58 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>923976944.9000000000000000</t>
+          <t>657099970.4527867000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9041960516.1332640028164843</t>
+          <t>9013870518.2361383823496955</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>209140.2054783562817126</t>
+          <t>466587159.6664887485116507</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9.7859157266222217</t>
+          <t>13.7176547307177122</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-0.3283897742320692</t>
+          <t>5.4651135683797128</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>9.6845344061407695</t>
+          <t>13.9589523116620985</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1322,58 +1322,58 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>638099970.4527867000000000</t>
+          <t>923938277.9000000000000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9009804075.5878675450388756</t>
+          <t>8886443505.9156656896238120</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>279714843.5193009337679512</t>
+          <t>250137.7798131041618160</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>14.1197374906546982</t>
+          <t>9.6180055729625981</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-6.6764269198908968</t>
+          <t>-1.6071234012993300</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14.2837372984743615</t>
+          <t>9.6245166945294708</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1383,62 +1383,62 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>41903956526.0000000000000000</t>
+          <t>30731886774.0210570000000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>50000000000.0000000000000000</t>
+          <t>50001806812.0000000000000000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8737905747.2784984694874290</t>
+          <t>8521473766.1413503120491386</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>137313251.6482661194827803</t>
+          <t>115388240.8107173934500948</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.2085222129766415</t>
+          <t>0.2772844319257647</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-7.4661944440506416</t>
+          <t>1.8274454003050120</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.2106097808644851</t>
+          <t>0.2758227265490594</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://app.dragonglass.me/hedera/home</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1448,56 +1448,56 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30714492819.1940570000000000</t>
+          <t>41903956526.0000000000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50001806812.0000000000000000</t>
+          <t>50000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8218346131.7300508985088218</t>
+          <t>8167341143.4591483251446450</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>135421629.9555724409921638</t>
+          <t>112243746.4520575576448225</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2675722558763612</t>
+          <t>0.1949062050594575</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-2.6802303640236015</t>
+          <t>2.7297697074233528</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2684993387472274</t>
+          <t>0.1910983946573730</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="18">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>414197145.4935384400000000</t>
+          <t>414361715.1800606000000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1533,27 +1533,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7604985399.7821445227187646</t>
+          <t>7684868903.9345128368160885</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>124166033.2764333420351280</t>
+          <t>115915084.7591625529142742</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18.3607866025256899</t>
+          <t>18.5462812378673988</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-9.4635668843763902</t>
+          <t>0.2512470411385453</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18.7761825048868631</t>
+          <t>18.7999261387600621</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1562,13 +1562,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1578,62 +1578,62 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>589252986014260.9000000000000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>589552695333683.0000000000000000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7481823312.3871263622249697</t>
+          <t>7537308987.2256422118322241</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>463012136.6747533032297636</t>
+          <t>61993619.8223539389610341</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.3603120027352556</t>
+          <t>0.0000127912953623</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-4.7014185252176991</t>
+          <t>6.5794416720274057</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.3563808871345540</t>
+          <t>0.0000125170554406</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1643,62 +1643,62 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>75558468.3040892000000000</t>
+          <t>3169845047.4838877000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>84000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7208539118.4161121398646777</t>
+          <t>7380984118.4359738194739331</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>389224809.5626576075110395</t>
+          <t>447089840.1664318705430426</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>95.4034574841426255</t>
+          <t>2.3284999764561808</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-5.8366802606034211</t>
+          <t>7.2941019983170283</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>98.0103707562782786</t>
+          <t>2.2674968740228165</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>tontoken</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1708,58 +1708,62 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>589253499457136.6000000000000000</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>2476378413.2700000000000000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5047558527.7000000000000000</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7170818948.9398104746236536</t>
+          <t>7234943317.4745333540561819</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>132004713.3982837297285258</t>
+          <t>53374265.8579073986310158</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.0000121693277266</t>
+          <t>2.9215822907779911</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-3.0372656114090139</t>
+          <t>5.3798062966147410</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.0000119777997011</t>
+          <t>2.8369645053742196</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>https://tonscan.org/</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1769,62 +1773,62 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Litecoin</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>19840131.2500000000000000</t>
+          <t>75558468.3040892000000000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>84000000.0000000000000000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>7156927861.5144743397454856</t>
+          <t>6918709400.2687401450193209</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>102810032.9788599933643174</t>
+          <t>199858921.8129929872322988</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>360.7298647036155237</t>
+          <t>91.5676237959723413</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-4.9317126193705772</t>
+          <t>4.0175661920651673</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>368.2969816677148800</t>
+          <t>90.4394738968185209</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tontoken</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1834,56 +1838,56 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2476378413.2700000000000000</t>
+          <t>19842162.5000000000000000</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>5047558527.7000000000000000</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6645048551.2236109343274417</t>
+          <t>6601344359.9355137022946688</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>81206951.1254847614107674</t>
+          <t>88460789.0553730932771015</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2.6833736377345412</t>
+          <t>332.6927878922226195</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-9.0220809743243395</t>
+          <t>1.9398710045269774</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>2.7833946009657509</t>
+          <t>329.7548364419319130</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://tonscan.org/</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="24">
@@ -1915,27 +1919,27 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6331359181.4890104103103240</t>
+          <t>6388124708.9402178286936260</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>98371093.7131355270053512</t>
+          <t>105261321.2830976936363948</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.1591645433679754</t>
+          <t>4.1964546673828821</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-2.9569085112665325</t>
+          <t>5.2004287058447861</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>4.1479419018945704</t>
+          <t>4.1201674874434401</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1944,7 +1948,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="25">
@@ -1980,27 +1984,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>5922800801.2886368121731450</t>
+          <t>6103117530.3085241125091130</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>93320051.7049813417251358</t>
+          <t>28890101.8180727306943506</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.0760487655785850</t>
+          <t>6.2610310527654307</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-6.5240950415162136</t>
+          <t>-0.2106480610313001</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.1820874394871004</t>
+          <t>6.2466518324743774</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2009,7 +2013,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="26">
@@ -2035,28 +2039,28 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5454795947.2492290000000000</t>
+          <t>5460568000.5500310000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5453513270.1930603405390907</t>
+          <t>5460153817.4402728729258666</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>28037512.6964322717794790</t>
+          <t>10944920.0297099672502497</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.9997648533384983</t>
+          <t>0.9999241501782019</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.0267326338175892</t>
+          <t>0.0662503948712719</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
@@ -2066,7 +2070,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="27">
@@ -2098,27 +2102,27 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5362322203.3083781601576715</t>
+          <t>5362490638.1676482111957325</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>51188002.6421940646794807</t>
+          <t>50216251.6521113305554929</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.9994295841459783</t>
+          <t>0.9994609770341662</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-0.0725441089974135</t>
+          <t>0.0248797443673742</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.9994614674007876</t>
+          <t>0.9994918942853382</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2127,7 +2131,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="28">
@@ -2163,27 +2167,27 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4964076835.1912755897530660</t>
+          <t>4622853644.4907217266813840</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>31654805.4427821602884356</t>
+          <t>24634781.1984197802684221</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14.8657020656096637</t>
+          <t>13.8438560186526388</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-3.2111815552012117</t>
+          <t>11.8951288159924528</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>14.8104226016017565</t>
+          <t>13.7979061205208756</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2192,13 +2196,13 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2208,58 +2212,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>600585117.7100000000000000</t>
+          <t>18446744.0737095500000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3962016088.1666150672875933</t>
+          <t>3871735613.8184088054468180</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>58049449.2429079168748975</t>
+          <t>29614842.3187128788479135</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>6.5969268490594265</t>
+          <t>209.8872081895708608</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-7.2313579944262248</t>
+          <t>1.5973997749491656</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>6.7199711473557092</t>
+          <t>207.7829526696049610</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2269,52 +2273,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
+          <t>600585117.7100000000000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3886084190.4743423328046856</t>
+          <t>3631312780.9598342143630812</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>24475579.0044982573990038</t>
+          <t>57660860.6835629886300716</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>210.6650460886927571</t>
+          <t>6.0462916477282056</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-3.9100173014103003</t>
+          <t>2.4381873284424057</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>211.8084233430713679</t>
+          <t>5.9539590950885171</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="31">
@@ -2340,33 +2344,33 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>590280819.8744537000000000</t>
+          <t>602125242.8543874000000000</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3376540657.2618561116104564</t>
+          <t>3139495698.3225406519338593</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>67339497.7942211511990160</t>
+          <t>38069560.3329011542036004</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.7202276333152914</t>
+          <t>5.2140243837639079</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-3.7913975095326301</t>
+          <t>1.0667626354306837</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.8619104943828259</t>
+          <t>5.2101366652511975</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2375,7 +2379,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="32">
@@ -2401,33 +2405,33 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1189708905.0000000000000000</t>
+          <t>1194977992.0000000000000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3053274267.0338386247336490</t>
+          <t>3125154284.9820608265122640</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>74791228.3140834072677460</t>
+          <t>111176904.4130061369813354</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.5664044828124058</t>
+          <t>2.6152400344642170</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-10.2949270584127144</t>
+          <t>2.0370654551075937</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.6601593935244421</t>
+          <t>2.6424123322140387</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2436,13 +2440,13 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2452,58 +2456,62 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>15086720.2179590700000000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>420689899653543.5600000000000000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2825095094.3599618374446877</t>
+          <t>2981709568.9516666215609237</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>155700045.3458690038724880</t>
+          <t>362007922.4389760601310179</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>187.2570746686876930</t>
+          <t>0.0000070876661679</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-4.1246179665676920</t>
+          <t>5.1687431722994988</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>186.3511154389751268</t>
+          <t>0.0000070157658196</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2513,58 +2521,58 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>60000000.0000000000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2788919839.1201068795925334</t>
+          <t>2775807483.3513711540000000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>179542797.5849067666047202</t>
+          <t>322839.4988585766515847</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>0.8828189017051046</t>
+          <t>46.2634580558561859</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-8.4136189271714469</t>
+          <t>11.7012404993854353</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.8815156330316947</t>
+          <t>44.6524340553435401</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2574,56 +2582,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>151054757.2904190000000000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>210700000.0000000000000000</t>
-        </is>
-      </c>
+          <t>3159107529.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2744223159.1255763015321664</t>
+          <t>2764568194.4635770926179512</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>51106805.9718288711071063</t>
+          <t>91561643.7844581890313507</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>18.1670753596294385</t>
+          <t>0.8751105079790328</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-9.2079253308808813</t>
+          <t>5.2570851985355329</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>18.4892041261493614</t>
+          <t>0.8633136822917911</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="36">
@@ -2649,33 +2653,33 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>481422036.1042418000000000</t>
+          <t>481407619.8388465600000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2656543250.8942031091652658</t>
+          <t>2724692055.8218959569442736</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>29004566.6694984098116297</t>
+          <t>21046461.2433679973735776</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5.5181172685643011</t>
+          <t>5.6598440563404445</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-6.9215767979589508</t>
+          <t>4.4130450247194505</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5.5961559568415384</t>
+          <t>5.5950942707807298</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2684,13 +2688,13 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2700,58 +2704,62 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>151118931.3494495200000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>210700000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2542309995.4631143500000000</t>
+          <t>2724382311.2534618155050253</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>217016.8680476356879482</t>
+          <t>38392102.3366705275026485</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>42.3718332577185725</t>
+          <t>18.0280676082440144</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-3.1042890332102443</t>
+          <t>0.8096739844268226</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>42.1331187516861129</t>
+          <t>18.1124682856820196</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2761,56 +2769,52 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>15088662.6012986200000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2526155080.0216270880716448</t>
+          <t>2621314642.4023914904439396</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>276831181.8047165518194340</t>
+          <t>148856587.7988883123249335</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.0000060047913727</t>
+          <t>173.7274344100441062</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-8.9668193649584332</t>
+          <t>6.8258498624333248</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.0000061346145055</t>
+          <t>169.1341143052762988</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="39">
@@ -2836,7 +2840,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>199999532.8234720000000000</t>
+          <t>199999528.6931450000000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2846,27 +2850,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2252508196.7596813747105565</t>
+          <t>2425854298.7137600886135827</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>47148141.1768527248064220</t>
+          <t>309862481.3448383657156390</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>11.2625672918338257</t>
+          <t>12.1293000766801629</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-7.9657268135363414</t>
+          <t>10.6281283119271622</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11.1246373794048092</t>
+          <t>11.7225771798118396</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2875,13 +2879,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2891,62 +2895,62 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
+          <t>8456364.0000000000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>86712634466.0000000000000000</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2151870473.1575630453246561</t>
+          <t>2189128057.5277386988909236</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>29846415.5241802102811384</t>
+          <t>65416863.6902163176825370</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.0250261027232393</t>
+          <t>258.8734422415755399</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-7.1040477713067012</t>
+          <t>8.4602745582788428</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.0256925473608792</t>
+          <t>250.4284000453394200</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2956,56 +2960,56 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8447703.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2119142075.1137351520144537</t>
+          <t>2130214351.1964008523952563</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>87811316.1800941089156297</t>
+          <t>26267854.1850350994642531</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>250.8542351824792079</t>
+          <t>0.0247742435432619</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-7.9997576046892828</t>
+          <t>4.1989871594804021</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>255.6582195772951639</t>
+          <t>0.0241817895854277</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="42">
@@ -3041,27 +3045,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2078109645.1996537249107396</t>
+          <t>2099385246.3109993900533240</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>15930241.6279312762389342</t>
+          <t>6951943.9259292706728215</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.0822589763254463</t>
+          <t>0.0831011403431970</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-7.0359520075934944</t>
+          <t>2.4595721989649973</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.0861856370691734</t>
+          <t>0.0826939617634698</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3070,13 +3074,13 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3086,58 +3090,54 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>8589324396.3932110000000000</t>
+          <t>2078518049.6186200000000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1941055074.3262276570320287</t>
+          <t>2076041358.3177522239901609</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>33418076.1606126291564653</t>
+          <t>398886423.0873971674473203</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.2259846042304918</t>
+          <t>0.9988084340661260</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-7.7096954336592378</t>
+          <t>0.0482214463200198</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.2293011276072666</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
-        </is>
-      </c>
+          <t>0.9985659267190971</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3147,58 +3147,62 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>642926946.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>25859054634.3746030000000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1839804151.9516071367889922</t>
+          <t>2045406616.5099261008998614</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>74632827.3206211986485441</t>
+          <t>27802948.6094818282435845</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2.8616068487999057</t>
+          <t>0.0790982750696135</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-7.5369546028529589</t>
+          <t>11.6722592410691175</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2.8983249218741509</t>
+          <t>0.0754150298834368</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3208,62 +3212,58 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8475953510.1722380000000000</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>561379525.3556370000000000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1747963632.2158314905302153</t>
+          <t>1980971935.5418341883421769</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>50266430.8829919425631179</t>
+          <t>35580761.7010680041775054</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2062261939164779</t>
+          <t>3.5287570103075591</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-7.4648421856290259</t>
+          <t>-2.4961489497468971</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2108719666884290</t>
+          <t>3.6109724198318668</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3273,54 +3273,58 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>85831054.9461785600000000</t>
+          <t>8593960040.8218980000000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1734325592.7441443569747091</t>
+          <t>1850662621.0860166697889808</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22164768.2210662431802878</t>
+          <t>24963163.8876263874262317</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>20.2062714227580563</t>
+          <t>0.2153445690107055</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-4.8393253420006208</t>
+          <t>2.0237939100187137</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>20.1273368462633640</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>0.2145886245135782</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3330,58 +3334,58 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>555343072.2220840000000000</t>
+          <t>643910158.0000000000000000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1724918204.0652316803331245</t>
+          <t>1849446999.2247672317933202</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>49753084.4087550493921612</t>
+          <t>57544244.6014146771274235</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3.1060407347179974</t>
+          <t>2.8722128021231919</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-5.2668703867879699</t>
+          <t>4.4646206490869473</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3.1926295481683636</t>
+          <t>2.8345328513257007</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3391,62 +3395,54 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>25832738640.7616500000000000</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>28704026601.0000000000000000</t>
-        </is>
-      </c>
+          <t>85831192.4901895200000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1624857594.5570977771174046</t>
+          <t>1817521937.5556737845175941</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>38857748.8312612403466242</t>
+          <t>24343664.4354590114583886</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0.0628991612988808</t>
+          <t>21.1755410221454864</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-11.0518945824446084</t>
+          <t>5.5318487445372632</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.0647558746440783</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>https://explorer.kaspa.org/</t>
-        </is>
-      </c>
+          <t>20.8483991445915454</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3456,52 +3452,56 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4419312625.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>8497818639.1754440000000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1572936345.8567075410627625</t>
+          <t>1692674861.8900546240090998</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>52649525.4057392121079540</t>
+          <t>37506694.6917764700829684</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.3559233028590521</t>
+          <t>0.1991893371419724</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-9.2019846259226009</t>
+          <t>2.0049389411195454</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.3612117355086463</t>
+          <t>0.1987037866711225</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="50">
@@ -3533,27 +3533,27 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1529102202.7477267924569544</t>
+          <t>1676225120.8080684722487528</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>53346851.0652498774060537</t>
+          <t>56716292.6983304080045172</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.9114055181207086</t>
+          <t>4.2877422943735782</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-4.4337545574528089</t>
+          <t>9.9340909558081922</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3.8999118372472417</t>
+          <t>4.0817628728248200</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3562,13 +3562,13 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3578,58 +3578,58 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>83733347.4979964300000000</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+          <t>517716590.0562826400000000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>644168762.0000000000000000</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1462866416.9275348414201836</t>
+          <t>1643596978.1720580803686798</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>1830539.7111295085283874</t>
+          <t>37424883.3541132848766549</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>17.4705354633354206</t>
+          <t>3.1747040943644038</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-7.0007785612677871</t>
+          <t>6.9666279064350808</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>18.2382555451676677</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
-        </is>
-      </c>
+          <t>3.0939321457221374</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3639,62 +3639,58 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>122606967.8513356400000000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>200000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4419312625.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1372297767.8980397650092181</t>
+          <t>1589931289.6146131283399750</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>736388.0312253908170743</t>
+          <t>52219565.3797053041300233</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>11.1926572522533058</t>
+          <t>0.3597689108076198</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-0.9775762674079490</t>
+          <t>4.5818859863549760</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>11.2073089265334395</t>
+          <t>0.3550140518692204</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3704,62 +3700,58 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2630547141.0000000000000000</t>
-        </is>
-      </c>
+          <t>250000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1357027231.7413410480000000</t>
+          <t>1483088160.3457976250000000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>76386003.9226664172316185</t>
+          <t>39588271.5800779663334333</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>0.5385028697386274</t>
+          <t>5.9323526413831905</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-9.1253829292695228</t>
+          <t>4.1399825176868501</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.5365952860585707</t>
+          <t>5.9341688792926754</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3769,62 +3761,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>2803634835.5265927000000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3000000000.0000000000000000</t>
+          <t>3175000000.0000000000000000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1339602423.6772298104636127</t>
+          <t>1477240028.5340083023382222</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>36127424.4253243480013238</t>
+          <t>119245327.9638553092451638</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.4978248512748615</t>
+          <t>0.5269017240815335</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-8.9595726412651043</t>
+          <t>9.2746867462809255</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.5152880822654090</t>
+          <t>0.5198997989631328</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3834,58 +3826,58 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2803634835.5265927000000000</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3175000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>83733347.4979964300000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1260076555.4922645871508084</t>
+          <t>1447435600.3188436817166769</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>359676.1023667608730309</t>
+          <t>12885226.9527392775923470</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.4494438931650636</t>
+          <t>17.2862502643104994</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-10.2787959876137019</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr"/>
+          <t>-0.5720287374109895</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>17.3302343212211991</t>
+        </is>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4e15361fd6b4bb609fa63c81a2be19d873717870</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3895,58 +3887,62 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>XDC Network</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>15692654414.5500000000000000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>2690911111.1000000000000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1098300806.0109271491732946</t>
+          <t>1424294873.2470763366122836</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>2132428.1122287720201974</t>
+          <t>20183274.6183996636243891</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.0699882108531364</t>
+          <t>0.5292983730944751</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-6.7442129490682153</t>
+          <t>5.4287603639813390</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.0717697318614908</t>
+          <t>0.5196952352170031</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3956,62 +3952,62 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>852195.0179722100000000</t>
+          <t>122561753.8513356400000000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1005577.0000000000000000</t>
+          <t>200000000.0000000000000000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1027167468.4337496527192310</t>
+          <t>1358017854.8168693493796364</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>37109508.1345933525269935</t>
+          <t>582371.6710070141796337</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>1205.3197293712006751</t>
+          <t>11.0802743281897813</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-12.0249779205429515</t>
+          <t>1.3750734835648236</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1273.6148244186718255</t>
+          <t>11.0404538655205605</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4021,62 +4017,62 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>967975236.3214871727912688</t>
+          <t>1303581799.5341589000000000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>81761671.1619741388134397</t>
+          <t>44311359.8698167491572031</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>9.7803989859398983</t>
+          <t>0.5172943648945075</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-12.2104999229907434</t>
+          <t>4.0992523797875846</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10.0716848774117598</t>
+          <t>0.5094795373893830</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4086,62 +4082,54 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1516227294.5036400000000000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>1818000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>3223437500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>952841853.6774260951258952</t>
+          <t>1131952450.0040127978125000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>12091388.7294566192990382</t>
+          <t>111586255.7463579611905814</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.6284294295001155</t>
+          <t>0.3511631449358062</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-8.1853005125723558</t>
+          <t>3.2906202889685381</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.6430901288744574</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>0.3494023791129575</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4151,62 +4139,58 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
+          <t>2400000000.0000000000000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>14881364.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>915336081.2292492250614810</t>
+          <t>1093029836.5506828000000000</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>13806431.4928419876920711</t>
+          <t>46412606.8835478732149654</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>75.8184333354413245</t>
+          <t>0.4554290985627845</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-10.5770045011098555</t>
+          <t>1.9188707578038705</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>78.3464217000606164</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
-        </is>
-      </c>
+          <t>0.4535494506138580</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4216,58 +4200,58 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>XDC Network</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>897602695.8719100000000000</t>
+          <t>15692654414.5500000000000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>909341696.7598637330678749</t>
+          <t>1066483123.7798679927328344</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>8598866.7915120115113630</t>
+          <t>21050820.5874290326730167</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1.0130781702661340</t>
+          <t>0.0679606582549247</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-3.4641264728801333</t>
+          <t>2.2884816603928886</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>1.0256074231264108</t>
+          <t>0.0675299627842678</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4277,62 +4261,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>847988.2148229200000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>904255904.6757770000000000</t>
+          <t>995779670.4248834587697121</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>22727193.6252791746735730</t>
+          <t>30658964.4252862362137645</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.9042559046757770</t>
+          <t>1174.2847990320547214</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-9.7040963068607450</t>
+          <t>3.1721031915208267</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.9311133285391960</t>
+          <t>1166.0642178082701093</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4342,58 +4326,62 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>9548531509.1654740000000000</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>98970935.4100000000000000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>894091156.9864477545808938</t>
+          <t>988597322.8342956621974258</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>15072594.9206629259717456</t>
+          <t>60843009.4261788126406768</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.0936365090410211</t>
+          <t>9.9887640622865935</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-6.8920542394632570</t>
+          <t>7.6683982497270393</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.0941511211026450</t>
+          <t>9.7971679968795398</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4403,58 +4391,58 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1551425752.4039000000000000</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>1768317543.3900000000000000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>768572140.5820264671822041</t>
+          <t>979124102.7380430104014314</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>39031859.7823741410031286</t>
+          <t>9764913.1425954775060599</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4953973075354337</t>
+          <t>0.5537037770156299</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-6.9572589371329853</t>
+          <t>7.2207800664251902</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4995670777642650</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>https://bloks.io/</t>
-        </is>
-      </c>
+          <t>0.5334683395044759</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4464,58 +4452,62 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1033747407.3894870000000000</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr"/>
+          <t>1516958061.5283200000000000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>711868583.4541790519216073</t>
+          <t>974045807.1656329600092143</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>6114952.0251534783671210</t>
+          <t>9442987.3192313352129831</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.6886291354789023</t>
+          <t>0.6421046381363316</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-6.3402363880866206</t>
+          <t>4.5990658558476442</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.7046237483512103</t>
+          <t>0.6382442328864766</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4525,58 +4517,54 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>1106042482.4370298000000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>702536273.9261886602198019</t>
+          <t>965339036.9578093868026403</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>809138.1557322527827423</t>
+          <t>46723838.6524929136820458</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.0872719917048790</t>
+          <t>0.8727865812448745</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-5.7237019569928971</t>
+          <t>3.6466142246258782</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1.1063196811480821</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
-        </is>
-      </c>
+          <t>0.8622539104698175</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4586,58 +4574,54 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2469357126.2233224000000000</t>
+          <t>4657499999.0000000000000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>677897900.4404595350977190</t>
+          <t>954117004.9721038069911251</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>20061694.5042549402554171</t>
+          <t>62961300.6497027124591555</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.2745240424082556</t>
+          <t>0.2048560397588749</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-8.0893742800604330</t>
+          <t>7.5537701965143813</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.2826244634809218</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
-        </is>
-      </c>
+          <t>0.2001066755405891</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4647,58 +4631,58 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3669672848.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>658863000.4114798785247808</t>
+          <t>916063774.7212929967530376</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>16232865.7468512048522990</t>
+          <t>6964832.0242225853290625</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.1795427079475396</t>
+          <t>0.0150214617814851</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-7.3976358473777216</t>
+          <t>6.0000370878551466</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.1809654502051734</t>
+          <t>0.0149973874300307</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4708,58 +4692,62 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>19835500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>12072738.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>14881364.0000000000000000</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>646946927.5695741134556500</t>
+          <t>916025904.2805326018280780</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11064679.1751193300338817</t>
+          <t>9139066.3008434128268660</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>32.6156097688273103</t>
+          <t>75.8755722422314310</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-7.7487857484709491</t>
+          <t>1.8289753405296716</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>33.2173423220562238</t>
+          <t>75.9602840151390049</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4769,58 +4757,58 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1568120578.7790742000000000</t>
+          <t>9548531509.1654740000000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>625191335.0574912528344368</t>
+          <t>900775900.5445309583639539</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>9666630.0309091312892127</t>
+          <t>9196532.7166412064291860</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.3986883046610230</t>
+          <t>0.0943365898389602</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-7.0468940100744534</t>
+          <t>6.0855219874952710</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.4048391376876125</t>
+          <t>0.0926867831433961</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4830,58 +4818,62 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>37870158415.5621400000000000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>616710576.8964661688494703</t>
+          <t>892421605.0569863000000000</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>29835017.0389037531874784</t>
+          <t>15463695.2603886424430409</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.0162848692136191</t>
+          <t>0.8924216050569863</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-6.7974951623862970</t>
+          <t>3.0795381903771343</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.0165544887882865</t>
+          <t>0.8810671743303429</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4891,62 +4883,58 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>93880083810.9700000000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>897146051.8587132000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>596698742.1152153807093228</t>
+          <t>859038811.5712079670906707</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>6768857.9071447405710172</t>
+          <t>34735454.0783473016602855</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.0063559672924524</t>
+          <t>0.9575239280064217</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-12.3167489686779403</t>
+          <t>6.2901609432381250</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.0064730130921827</t>
+          <t>0.9336412686858604</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4956,58 +4944,54 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Neo</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>70538831.0000000000000000</t>
+          <t>77795920373892.7800000000000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>568383133.4972211277986976</t>
+          <t>850803292.0848640636725242</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>12747898.3979645404200849</t>
+          <t>38225226.3784643888015315</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>8.0577339522003296</t>
+          <t>0.0000109363484357</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-7.3104070387720030</t>
+          <t>4.9009032476187049</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>8.2034381163573563</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>https://neotracker.io</t>
-        </is>
-      </c>
+          <t>0.0000108934402425</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5017,58 +5001,62 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1942255184.1130493000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>1552455928.2889000000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>510589984.2771030656316448</t>
+          <t>779759987.9612569587138614</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>13976219.8483049994923221</t>
+          <t>20157480.5940945544047661</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.2628851185228110</t>
+          <t>0.5022751201837336</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-4.0731537140809298</t>
+          <t>1.1313417834318379</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.2636647016960536</t>
+          <t>0.5035027999567287</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/decentraland</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5078,62 +5066,54 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1292866760.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>760806601.3822220000000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>501557641.6466746629299880</t>
+          <t>760337563.6813745481604125</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>20657450.2439996626873216</t>
+          <t>15216071.7356168245480674</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.3879422514093213</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>-7.0781553582106867</t>
-        </is>
-      </c>
+          <t>0.9993834994333707</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.3906241322272354</t>
+          <t>0.9991157221690430</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>frax</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5143,58 +5123,58 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>497136308.5928249400000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>496078787.0737909719093683</t>
+          <t>735143004.8050792519776624</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>5615073.2877815023345631</t>
+          <t>1293177.2322067299114328</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.9978727735215572</t>
+          <t>2982.0342230577114276</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-0.0004388009494497</t>
+          <t>0.2091477357690029</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.9670629455241869</t>
+          <t>2871.1836402329370814</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x853d955acef822db058eb8505911ed77f175b99e</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5204,58 +5184,58 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>159302369.0003128300000000</t>
+          <t>1034564245.4683760000000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>495724639.7997782148223712</t>
+          <t>733850321.8437107958246413</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>9792640.9161914158973172</t>
+          <t>7378022.5565994594661844</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>3.1118472556977777</t>
+          <t>0.7093327698672559</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-7.9032289403860840</t>
+          <t>4.8803654884070964</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>3.1777363372497471</t>
+          <t>0.6928179704758892</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5265,58 +5245,62 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>290847965.9593330000000000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>43504899554.1979200000000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>494708184.1619792085303940</t>
+          <t>723210192.1985700245640900</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>18335201.8834987257290281</t>
+          <t>24947050.8140278592096713</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.7009167746118960</t>
+          <t>0.0166236492811023</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-10.4467517369864390</t>
+          <t>2.4899942445082852</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>1.7602237126589504</t>
+          <t>0.0165375614366232</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>trueusd</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5326,58 +5310,58 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>495516083.0000000000000000</t>
+          <t>2469357126.2233224000000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>494284645.5540900011701264</t>
+          <t>703511440.4848477057966432</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>736339.9912205081935619</t>
+          <t>15508528.6309778343516316</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.9975148385932208</t>
+          <t>0.2848965963707365</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.0296118739252114</t>
+          <t>3.9629870065178612</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.9973974853888772</t>
+          <t>0.2807592789714320</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8dd5fbce2f6a956c3022ba3663759011dd51e73e</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5387,62 +5371,58 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>646145839.5746847000000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>484588741.7041162796251143</t>
+          <t>698001983.1224048704728294</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>15312768.8324398686912346</t>
+          <t>1534507.6810119296949894</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>30.5025619476745083</t>
+          <t>1.0802545499354351</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-3.2581369955819848</t>
+          <t>2.6154543858899921</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>29.8585109305562499</t>
+          <t>1.0597688963945071</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5452,62 +5432,58 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>179230182.9132615300000000</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>223000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>986061142857000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>460725321.1294838407564469</t>
+          <t>688562589.8744317862802000</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>2170112.6663657950200995</t>
+          <t>8073560.8475342087265572</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2.5705788703705777</t>
+          <t>0.0000006982960386</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-15.0620856471774882</t>
+          <t>1.6954636090319618</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>2.5777064152101212</t>
+          <t>0.0000006914965537</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5517,58 +5493,58 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>998841015.1905990000000000</t>
+          <t>304471682.9000000000000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>451893455.6154194379208593</t>
+          <t>679394855.4814896565110043</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>137128854.0804709055045319</t>
+          <t>12808442.1718515008742740</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.4524178009742512</t>
+          <t>2.2313893003462939</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-12.2510199388758219</t>
+          <t>3.9177390239902924</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.4742114727735581</t>
+          <t>2.2194709699776678</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kava</t>
+          <t>jasmy</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5578,58 +5554,58 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>JASMY</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>JasmyCoin</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1082853486.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr"/>
+          <t>49444999677.1695800000000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>451336246.0006320172526274</t>
+          <t>677578431.3068579878400350</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>8305742.4566680234633118</t>
+          <t>37800037.8712067265166239</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.4168026901477159</t>
+          <t>0.0137036795577070</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.2025792854993852</t>
+          <t>6.5657736959083414</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.4243513753130322</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/kava</t>
-        </is>
-      </c>
+          <t>0.0135509293047367</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>elrond-egld</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5639,62 +5615,58 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MultiversX</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>24184559.1898415400000000</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>31415926.0000000000000000</t>
-        </is>
-      </c>
+          <t>19837743.7500000000000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>449707210.7753183475067996</t>
+          <t>674991534.6603016552584056</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>7669704.9653536559316365</t>
+          <t>21033118.4837053115164260</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>18.5948070107563900</t>
+          <t>34.0256202099748191</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-6.4118564385211939</t>
+          <t>0.8976116585902468</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>18.9562218804740379</t>
+          <t>33.8581728240024016</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://explorer.elrond.com/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>thorchain</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5704,58 +5676,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>351819870.0000000000000000</t>
+          <t>3669672848.0000000000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>448534583.4145680257416350</t>
+          <t>668746240.6573547166820800</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>75377849.5740535534805373</t>
+          <t>7218554.4700961232585765</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.2748983831259105</t>
+          <t>0.1822359290207100</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-0.7661316865908127</t>
+          <t>3.1514286299714737</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>1.2338688715486558</t>
+          <t>0.1802893036316010</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/RUNE-B1A</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5765,62 +5737,54 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>289277945.0352875600000000</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>445637874.4389474339343094</t>
+          <t>661863522.8483397590080000</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>21187161.4438209179900237</t>
+          <t>59687711.2729970207194706</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.5405179761788833</t>
+          <t>6.1580156573161496</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-8.4026357758041894</t>
+          <t>4.0143473718509886</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.5813557073760243</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
-        </is>
-      </c>
+          <t>6.0789016368571069</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>polygon</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5830,58 +5794,58 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1913783718.0000000000000000</t>
+          <t>5966455361.8200000000000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>432389825.7212355436587588</t>
+          <t>657736042.8677779258652105</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>7037891.7471411565798539</t>
+          <t>7593924.0786662253768522</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.2259345304562966</t>
+          <t>0.1102389950114607</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-7.1760605953999027</t>
+          <t>2.4678490444297224</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.2322281128213795</t>
+          <t>0.1091778587874826</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x7D1AfA7B718fb893dB30A3aBc0Cfc608AaCfeBB0</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>arweave</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5891,62 +5855,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>65652466.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>66000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1569592535.0126963000000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>427426505.7001995840842442</t>
+          <t>632381426.8701544316860438</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>16883965.4326950938604552</t>
+          <t>6363133.1591745536807179</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>6.5104409893788237</t>
+          <t>0.4028952819051469</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-8.1779099774560777</t>
+          <t>2.4456903385757525</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>6.5998684537681850</t>
+          <t>0.4009399478312590</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://viewblock.io/arweave</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>chiliz</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5956,58 +5916,58 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9454344021.0000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>416208453.5992045798364013</t>
+          <t>630278203.3773608578827168</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>16041595.2784405312494368</t>
+          <t>10073771.3233333491380185</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.0440229859072953</t>
+          <t>2996.0286553329911662</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-7.3003230493169030</t>
+          <t>-0.2471349447051154</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.0447825990091396</t>
+          <t>3004.0943183476320168</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3506424f91fd33084466f402d5d97f05f8e3b4af</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>conflux-network</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -6017,58 +5977,62 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Conflux</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5018538249.7500000000000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>35599404.0400000000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>411679083.0034913446571333</t>
+          <t>602535520.5747511551791261</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>32373485.7945801807895744</t>
+          <t>24977536.5805236017243766</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.0820316718765667</t>
+          <t>16.9254384117704223</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-15.2559270511115427</t>
+          <t>2.6760069864731577</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.0884144364242059</t>
+          <t>16.7272775629761227</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>http://www.confluxscan.io/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ecash</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6078,62 +6042,62 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>eCash</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>19835457797583.0000000000000000</t>
+          <t>9626637864609.9200000000000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>21000000000000.0000000000000000</t>
+          <t>0.0000000000000000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>404639441.9288756065764495</t>
+          <t>594038241.7370942885514361</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>2781275.8696402598020110</t>
+          <t>46045046.1145411142768916</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0000203998035265</t>
+          <t>0.0000617077582113</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-8.4385441722743860</t>
+          <t>3.3229291659541132</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0000211856279283</t>
+          <t>0.0000610354889471</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://explorer.bitcoinabc.org/</t>
+          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>melania-meme</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6143,58 +6107,58 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MELANIA</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Official Melania</t>
+          <t>Neo</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>537313388.0109210000000000</t>
+          <t>70538831.0000000000000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>398253172.8761495620157078</t>
+          <t>565811783.3159561875109004</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>20492265.0851634653044545</t>
+          <t>11172706.6244197247824602</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.7411934669084683</t>
+          <t>8.0212809780751284</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-2.1876889910599116</t>
+          <t>3.9986098922195408</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.7479846570741130</t>
+          <t>7.9394301015735024</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/FUAfBo2jgks6gB4Z4LfZkqSZgzNucisEHqnNebaRxM1P</t>
+          <t>https://neotracker.io</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>trust-wallet-token</t>
+          <t>pyth-network</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6204,58 +6168,58 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>PYTH</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Trust Wallet Token</t>
+          <t>Pyth Network</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>416649900.0000000000000000</t>
+          <t>3624987919.8500000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>395749493.1010352856238800</t>
+          <t>540148048.8234814508240205</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>1380100.6786890372096538</t>
+          <t>10235829.5632369118010623</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.9498370048835612</t>
+          <t>0.1490068548547970</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-3.5749489971721565</t>
+          <t>5.3692254251538706</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.9587855596872441</t>
+          <t>0.1467746547468933</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/TWT-8C2</t>
+          <t>https://solscan.io/token/HZ1JovNiVvGrGNiiYvEozEVgZ58xaU3RKwX8eACQBCt3</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ftx-token</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6265,58 +6229,62 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FTX Token</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>328895103.8132070000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>1298870270.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>394146253.6186231540969961</t>
+          <t>533864590.3429603082650470</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>24166763.7533432692459199</t>
+          <t>13347483.7943921749856295</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.1983950172833067</t>
+          <t>0.4110222573213261</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-12.3260162444871407</t>
+          <t>4.0718806714001343</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>1.2663208072733895</t>
+          <t>0.4057307096492393</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x50d1c9771902476076ecfc8b2a83ad6b9355a4c9</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6326,58 +6294,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Compound</t>
+          <t>Decentraland</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>8871270.5121706700000000</t>
+          <t>1942255184.1130493000000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>390838863.9798009036896009</t>
+          <t>529185193.6496758759953628</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>16727431.0989271123793998</t>
+          <t>11655369.7731956192573601</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>44.0566955368570264</t>
+          <t>0.2724591485085075</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-9.9570321535647675</t>
+          <t>0.2760349792703812</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>45.4440923722843456</t>
+          <t>0.2760521060940579</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc00e94cb662c3520282e6f5717214004a7f26888</t>
+          <t>https://etherscan.io/token/decentraland</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pudgy-penguins</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6387,58 +6355,62 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PENGU</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>62860396090.0400000000000000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>179442876.0968398000000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>223000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>354069017.4759406821693598</t>
+          <t>528941303.8947594699310871</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>29070936.6566302415092448</t>
+          <t>1014866.2697603535966837</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.0056326246651195</t>
+          <t>2.9476862798905771</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-7.5557866133409613</t>
+          <t>5.8100437423119405</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.0056341033320541</t>
+          <t>2.8851280142476540</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/2zMMhcVQEXDtdE6vsFS7S7D5oUodfJHE8vd1gnBouauv</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pendle</t>
+          <t>telcoin</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6448,58 +6420,62 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PENDLE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Pendle</t>
+          <t>Telcoin</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>165685749.1911133000000000</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr"/>
+          <t>93880083810.9700000000000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>100000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>349902684.7192747658840870</t>
+          <t>516746956.2382550514105534</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>3181599.7771579605422513</t>
+          <t>1608099.2557861678777244</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.1118453845760327</t>
+          <t>0.0055043299415746</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-8.6357613019047867</t>
+          <t>4.7524920732457456</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.1712646288027071</t>
+          <t>0.0053681354462654</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x808507121b80c02388fad14726482e061b8da827</t>
+          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>kava</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6509,54 +6485,58 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>KAVA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Amp</t>
+          <t>Kava</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>84231565354.4628000000000000</t>
+          <t>1082853482.0000000000000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>341691931.1333040223742154</t>
+          <t>514878622.0092182848613840</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>3668890.2788218689495119</t>
+          <t>27576596.2696943962438358</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.0040565781924555</t>
+          <t>0.4754831845378120</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-8.1323602122876040</t>
+          <t>9.8504506954022292</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.0044574429928796</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr"/>
+          <t>0.4625331995922090</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/kava</t>
+        </is>
+      </c>
       <c r="M98" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>gnosis-gno</t>
+          <t>axie-infinity</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6566,58 +6546,58 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GNO</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Gnosis</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2587593.4019314900000000</t>
+          <t>159440382.3943955600000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>331315337.8704324982116460</t>
+          <t>512930382.9253980258735813</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>7451346.0646050980456624</t>
+          <t>7445337.8953529441209318</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>128.0399531174892505</t>
+          <t>3.2170669388925643</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-8.0126564995794886</t>
+          <t>1.7010518763577184</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>137.3626869481204164</t>
+          <t>3.2095923344296385</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Gnosis</t>
+          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mina</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6627,58 +6607,58 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>1219355306.8400393000000000</t>
+          <t>998840980.4853340000000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>315984568.3774206284064072</t>
+          <t>510491179.1552929963828470</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>6443410.2074249001513845</t>
+          <t>129265337.5528565676373458</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.2591406841015807</t>
+          <t>0.5110835349459198</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-7.5212717916974727</t>
+          <t>8.2354138708061997</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.2669617556208543</t>
+          <t>0.4968913761574219</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://minaexplorer.com/</t>
+          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>just</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6688,52 +6668,56 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JST</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>JUST</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>9900000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>308865424.2667557300000000</t>
+          <t>503765274.4445050478963745</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>17173313.8401827278902476</t>
+          <t>12241379.0422571809794208</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>0.0311985277037127</t>
+          <t>31.7096336922600845</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-3.4775153802515943</t>
+          <t>4.2988918541855678</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.0316309933417366</t>
+          <t>30.9652631357075472</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token20/TCFLL5dx5ZJdKnWuesXxi1VPwjLVmWZZy9</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19836950.0000000000000000</t>
+          <t>19843837.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1669824787615.6914756517817450</t>
+          <t>1642276830732.3343898119010200</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8786812500.3413897259123377</t>
+          <t>6738130970.0692786122850334</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>84177.4964203514892991</t>
+          <t>82760.0443771199284600</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>3.9783295004825994</t>
+          <t>-1.9546515718639237</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>83635.1189973814656214</t>
+          <t>83044.7423588388349783</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120614183.5975569000000000</t>
+          <t>120651811.6664275200000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>230804228211.9705072608577187</t>
+          <t>220315687990.1300878538114379</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4708845069.3658677911348691</t>
+          <t>5501487637.2453879317505486</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1913.5745177538602613</t>
+          <t>1826.0454190215443003</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2.5240017310761831</t>
+          <t>-4.1478159230515445</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1911.1198058760611960</t>
+          <t>1849.3130341222672511</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>143346765715.5510000000000000</t>
+          <t>144182349120.7869600000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>143495199812.1743908319319553</t>
+          <t>144637948666.0738495664826784</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>19518810874.4521973077055120</t>
+          <t>21638531272.9750786477180664</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0010354896804434</t>
+          <t>1.0031598843274860</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1242734450909140</t>
+          <t>0.1796221437668190</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.9998232037708537</t>
+          <t>1.0006083137050021</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58108919817.0000000000000000</t>
+          <t>58205697378.0000000000000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>137321383871.9790907156102578</t>
+          <t>124193731580.8581745338545244</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1452230193.5601376563302312</t>
+          <t>1621712633.5440607255362063</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.3631721998006434</t>
+          <t>2.1337040388729998</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>5.3044519943941324</t>
+          <t>-3.5851445388090037</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.3207713727695244</t>
+          <t>2.1267684827593523</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>84854061627.1699423268906710</t>
+          <t>86866258453.5594316722066230</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>273133462.0621300195452806</t>
+          <t>315523338.8965768603557037</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>589.2363690470093837</t>
+          <t>603.2092953755001181</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1.7744557446525477</t>
+          <t>-3.0879797833860777</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>582.9785078763111450</t>
+          <t>606.7164538032187854</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>509706862.6860305000000000</t>
+          <t>512024735.6993850000000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>68112452505.1177385941283907</t>
+          <t>63804909548.4776716514651909</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1361078360.2871581786803932</t>
+          <t>1297320343.9542991207427065</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>133.6306365313226766</t>
+          <t>124.6129436721943678</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>8.3297363691157903</t>
+          <t>-4.1021292154476293</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>130.2765664686538028</t>
+          <t>126.1880406361023251</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>58692177034.2159960000000000</t>
+          <t>60249163069.5058300000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>58713544186.0351212906707428</t>
+          <t>60284062493.2111222388677802</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4895681314.5589179397580489</t>
+          <t>3911457565.7241444185843300</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0003640545111603</t>
+          <t>1.0005792515933380</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.1007973858507694</t>
+          <t>0.0353966867897044</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0000233225173454</t>
+          <t>1.0014512039136398</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>cardano</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -952,62 +952,58 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADA</t>
+          <t>DOGE</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Dogecoin</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>35230631106.5399800000000000</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>45000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>148636156383.7052300000000000</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26097862791.0455927676204137</t>
+          <t>25180363309.6744831424998855</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>451532681.7808547450015923</t>
+          <t>587431862.6889677725776096</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.7407719354252771</t>
+          <t>0.1694094083317871</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>5.6862833153797178</t>
+          <t>-6.5831107597578234</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.7254161814410715</t>
+          <t>0.1726923547804482</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>https://cardanoexplorer.com/</t>
+          <t>http://dogechain.info/chain/Dogecoin</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1017,52 +1013,56 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DOGE</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>148430926383.7052000000000000</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
+          <t>35242104181.1897300000000000</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>45000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>25544301254.0141576167403560</t>
+          <t>23680282911.5580111396478428</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>341581158.4636383039897345</t>
+          <t>325216277.4983057960445134</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.1720955455602305</t>
+          <t>0.6719315847263520</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>4.2152782764282070</t>
+          <t>-5.1886529448304301</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.1707477872241161</t>
+          <t>0.6786383343146972</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>http://dogechain.info/chain/Dogecoin</t>
+          <t>https://cardanoexplorer.com/</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95027519114.7610200000000000</t>
+          <t>94994333235.4930700000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21116971989.3182282196312580</t>
+          <t>21887355373.5168314006622070</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>255797575.2142717537150395</t>
+          <t>283548641.0543944436589109</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2222195442545026</t>
+          <t>0.2304069582683168</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.5020013281986349</t>
+          <t>-1.0613194683674034</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2232233056846497</t>
+          <t>0.2336074303263903</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9340293.7393039300000000</t>
+          <t>9370397.4741040600000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17934417009.9093641361779251</t>
+          <t>17116264453.3549580735404993</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1331603.0607126161472277</t>
+          <t>6970701.5364070646062509</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1920.1127406134335355</t>
+          <t>1826.6316344271735837</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>3.0728447211800482</t>
+          <t>-3.9460983834569113</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1898.1271960496935002</t>
+          <t>1857.0855918975613091</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="13">
@@ -1210,33 +1210,33 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>129177.4055218900000000</t>
+          <t>129077.4055218900000000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10838182543.4835190424947584</t>
+          <t>10605052376.4772475140874713</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>30718959.4459933068702336</t>
+          <t>112914807.3429569444865152</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>83901.5344804004013900</t>
+          <t>82160.4085827302762931</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>3.0070709988522947</t>
+          <t>-2.4532268988890406</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>83989.7551647459839569</t>
+          <t>82934.9081497220221341</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,58 +1261,54 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>657099970.4527867000000000</t>
+          <t>2484481290.2083545000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9013870518.2361383823496955</t>
+          <t>9080962253.2296334377752034</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>466587159.6664887485116507</t>
+          <t>89797936.8219193903854222</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>13.7176547307177122</t>
+          <t>3.6550737125768745</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>5.4651135683797128</t>
+          <t>-4.2803543453892532</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13.9589523116620985</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
-        </is>
-      </c>
+          <t>3.7269633519302995</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1322,58 +1318,58 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>923938277.9000000000000000</t>
+          <t>657099970.4527867000000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8886443505.9156656896238120</t>
+          <t>8869962097.6493870353620750</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>250137.7798131041618160</t>
+          <t>148033444.5081974820030978</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.6180055729625981</t>
+          <t>13.4986493631058576</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-1.6071234012993300</t>
+          <t>-5.5744279356877193</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.6245166945294708</t>
+          <t>13.7794253474532640</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1383,62 +1379,58 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>30731886774.0210570000000000</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>50001806812.0000000000000000</t>
-        </is>
-      </c>
+          <t>923842242.9000000000000000</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8521473766.1413503120491386</t>
+          <t>8852247791.7971535139126659</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>115388240.8107173934500948</t>
+          <t>5065218.8506716655968880</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.2772844319257647</t>
+          <t>9.5819907130565717</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>1.8274454003050120</t>
+          <t>-1.5042570051890393</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.2758227265490594</t>
+          <t>9.5465601721741580</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1448,56 +1440,56 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>Stellar</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>41903956526.0000000000000000</t>
+          <t>30787183949.8020600000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>50000000000.0000000000000000</t>
+          <t>50001806812.0000000000000000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8167341143.4591483251446450</t>
+          <t>8206864620.5955722910531571</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>112243746.4520575576448225</t>
+          <t>64188286.3882731930940632</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.1949062050594575</t>
+          <t>0.2665675637621393</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2.7297697074233528</t>
+          <t>-3.2191995483401758</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.1910983946573730</t>
+          <t>0.2679960011734401</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://app.dragonglass.me/hedera/home</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="18">
@@ -1523,7 +1515,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>414361715.1800606000000000</t>
+          <t>414842518.6643743000000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1533,27 +1525,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7684868903.9345128368160885</t>
+          <t>8111662430.8697341617804530</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>115915084.7591625529142742</t>
+          <t>129822586.3204629382012913</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18.5462812378673988</t>
+          <t>19.5535945953322664</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.2512470411385453</t>
+          <t>-4.1419417355980286</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18.7999261387600621</t>
+          <t>19.9731536815784087</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1562,7 +1554,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="19">
@@ -1588,7 +1580,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>589252986014260.9000000000000000</t>
+          <t>589250824850659.8000000000000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1598,27 +1590,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7537308987.2256422118322241</t>
+          <t>7453985058.4374016368043096</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>61993619.8223539389610341</t>
+          <t>86169843.1554561342763766</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.0000127912953623</t>
+          <t>0.0000126499357219</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>6.5794416720274057</t>
+          <t>-4.9915963333473393</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.0000125170554406</t>
+          <t>0.0000128018528277</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1627,7 +1619,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="20">
@@ -1663,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7380984118.4359738194739331</t>
+          <t>7281135341.2547985003205891</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>447089840.1664318705430426</t>
+          <t>600903513.5160155356168542</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.3284999764561808</t>
+          <t>2.2970003997622248</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>7.2941019983170283</t>
+          <t>-8.6321872385657904</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.2674968740228165</t>
+          <t>2.3723129247694218</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1692,13 +1684,13 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tontoken</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1708,56 +1700,56 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>Hedera</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2476378413.2700000000000000</t>
+          <t>42219399509.4028200000000000</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>5047558527.7000000000000000</t>
+          <t>50000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7234943317.4745333540561819</t>
+          <t>7249520690.4727379307012952</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>53374265.8579073986310158</t>
+          <t>128136656.5223963905818122</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2.9215822907779911</t>
+          <t>0.1717106537448069</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>5.3798062966147410</t>
+          <t>-5.8869693323770543</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2.8369645053742196</t>
+          <t>0.1728983354961282</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://tonscan.org/</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="22">
@@ -1793,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6918709400.2687401450193209</t>
+          <t>6447942459.4845534504239826</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>199858921.8129929872322988</t>
+          <t>202371499.2088674647393066</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91.5676237959723413</t>
+          <t>85.3371250663056768</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.0175661920651673</t>
+          <t>-2.6908646028728347</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>90.4394738968185209</t>
+          <t>86.0210756085866026</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1822,13 +1814,13 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1838,62 +1830,58 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>19842162.5000000000000000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1522267060.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6601344359.9355137022946688</t>
+          <t>6163796632.4147077597958880</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>88460789.0553730932771015</t>
+          <t>83390845.6258277825445769</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>332.6927878922226195</t>
+          <t>4.0490901986769048</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>1.9398710045269774</t>
+          <t>-5.4057620370504589</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>329.7548364419319130</t>
+          <t>4.1234983310934706</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1903,52 +1891,48 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Wrapped ETH</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
+          <t>3375317.5926469000000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6388124708.9402178286936260</t>
+          <t>6150310714.8859548383101512</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>105261321.2830976936363948</t>
+          <t>458907602.7908560594147618</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.1964546673828821</t>
+          <t>1822.1428194740409626</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>5.2004287058447861</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>4.1201674874434401</t>
-        </is>
-      </c>
+          <t>-4.2343571082122902</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="25">
@@ -1984,27 +1968,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6103117530.3085241125091130</t>
+          <t>6080143891.8064622283295659</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>28890101.8180727306943506</t>
+          <t>31569193.1041813480502856</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2610310527654307</t>
+          <t>6.2374629888469327</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.2106480610313001</t>
+          <t>-0.3261219874268728</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.2466518324743774</t>
+          <t>6.1897770671931328</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2013,13 +1997,13 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2029,54 +2013,62 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Bitcoin Cash</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5460568000.5500310000000000</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
+          <t>19848862.5000000000000000</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5460153817.4402728729258666</t>
+          <t>5996415302.3583771938821575</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>10944920.0297099672502497</t>
+          <t>50145991.2206247858396634</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>0.9999241501782019</t>
+          <t>302.1037252063375014</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.0662503948712719</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr"/>
+          <t>-1.6845817060201469</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>305.0693074417908371</t>
+        </is>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2086,58 +2078,54 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
+          <t>1200000000.0000000000000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5362490638.1676482111957325</t>
+          <t>5564729643.5016892800000000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>50216251.6521113305554929</t>
+          <t>128162231.7914895075460081</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.9994609770341662</t>
+          <t>4.6372747029180744</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.0248797443673742</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.9994918942853382</t>
-        </is>
-      </c>
+          <t>-4.0994536778401171</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2147,62 +2135,58 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
+          <t>6773781074.8199860000000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4622853644.4907217266813840</t>
+          <t>5394558898.9775256165413737</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>24634781.1984197802684221</t>
+          <t>94508756.3046675757847424</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>13.8438560186526388</t>
+          <t>0.7963881382335473</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.8951288159924528</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>13.7979061205208756</t>
-        </is>
-      </c>
+          <t>-4.1748525378591141</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2212,58 +2196,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
+          <t>5365382702.6648720000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3871735613.8184088054468180</t>
+          <t>5363423550.0232720008136197</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>29614842.3187128788479135</t>
+          <t>77398585.9815510368464489</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>209.8872081895708608</t>
+          <t>0.9996348531409275</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1.5973997749491656</t>
+          <t>0.0131504131641480</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>207.7829526696049610</t>
+          <t>0.9993482990396921</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2273,58 +2257,54 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>600585117.7100000000000000</t>
+          <t>5247283786.4901540000000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3631312780.9598342143630812</t>
+          <t>5245402824.3223392019404640</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>57660860.6835629886300716</t>
+          <t>42157230.0758602233026466</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>6.0462916477282056</t>
+          <t>0.9996415360319071</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>2.4381873284424057</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>5.9539590950885171</t>
-        </is>
-      </c>
+          <t>0.0399017562113137</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2334,58 +2314,62 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>602125242.8543874000000000</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
+          <t>333928180.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3139495698.3225406519338593</t>
+          <t>4265537516.5271337707089120</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>38069560.3329011542036004</t>
+          <t>20372639.5230821107273718</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>5.2140243837639079</t>
+          <t>12.7738171619032984</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>1.0667626354306837</t>
+          <t>-5.4517584958242026</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>5.2101366652511975</t>
+          <t>12.8837029693807511</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2395,58 +2379,58 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1194977992.0000000000000000</t>
+          <t>18446744.0737095500000000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3125154284.9820608265122640</t>
+          <t>3996412044.1427482446225142</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>111176904.4130061369813354</t>
+          <t>29343423.2659363334086565</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.6152400344642170</t>
+          <t>216.6459310203401836</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>2.0370654551075937</t>
+          <t>-0.1608927974195777</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2.6424123322140387</t>
+          <t>216.2504398956469358</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,62 +2440,58 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>628494054.7100000000000000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2981709568.9516666215609237</t>
+          <t>3743953672.9985901017986694</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>362007922.4389760601310179</t>
+          <t>62308366.2353110608557843</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.0000070876661679</t>
+          <t>5.9570232127750625</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>5.1687431722994988</t>
+          <t>-4.1153630332955628</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.0000070157658196</t>
+          <t>6.0728445767880959</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2521,58 +2501,58 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
+          <t>603958016.4496461000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2775807483.3513711540000000</t>
+          <t>3144267079.9166875649588801</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>322839.4988585766515847</t>
+          <t>49178999.8239569164878138</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>46.2634580558561859</t>
+          <t>5.2061020704720377</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>11.7012404993854353</t>
+          <t>-6.4630455834273942</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>44.6524340553435401</t>
+          <t>5.3578400782101849</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2582,58 +2562,58 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>1198166800.0000000000000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2764568194.4635770926179512</t>
+          <t>3074695573.4546550839972800</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>91561643.7844581890313507</t>
+          <t>73565751.9620961189599748</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.8751105079790328</t>
+          <t>2.5661665583244796</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>5.2570851985355329</t>
+          <t>-6.1731483629713261</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.8633136822917911</t>
+          <t>2.6362407683705698</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2643,58 +2623,62 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>481407619.8388465600000000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>420689899653543.5600000000000000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2724692055.8218959569442736</t>
+          <t>3016120032.4001124674323061</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>21046461.2433679973735776</t>
+          <t>322405478.4250871994242229</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>5.6598440563404445</t>
+          <t>0.0000071694614843</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>4.4130450247194505</t>
+          <t>-8.5531366898790991</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>5.5950942707807298</t>
+          <t>0.0000074507509335</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2704,62 +2688,58 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>151118931.3494495200000000</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>210700000.0000000000000000</t>
-        </is>
-      </c>
+          <t>60000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2724382311.2534618155050253</t>
+          <t>2891058427.1569834140000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>38392102.3366705275026485</t>
+          <t>2152628.7686387053800014</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>18.0280676082440144</t>
+          <t>48.1843071192830569</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.8096739844268226</t>
+          <t>-2.0189043819263856</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>18.1124682856820196</t>
+          <t>48.6449711354461357</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2769,58 +2749,62 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>15088662.6012986200000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr"/>
+          <t>26571560696.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2621314642.4023914904439396</t>
+          <t>2761789532.6004704510011088</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>148856587.7988883123249335</t>
+          <t>30687296.7743126929999065</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>173.7274344100441062</t>
+          <t>0.1039377989195878</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6.8258498624333248</t>
+          <t>2.9481780074821190</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>169.1341143052762988</t>
+          <t>0.1009154167014576</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2830,62 +2814,62 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>199999528.6931450000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>999999993.4500000000000000</t>
+          <t>6219316795.0000000000000000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2425854298.7137600886135827</t>
+          <t>2693091084.3050858058504938</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>309862481.3448383657156390</t>
+          <t>89110784.7888853486035917</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>12.1293000766801629</t>
+          <t>0.8003969388846803</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>10.6281283119271622</t>
+          <t>-4.0138997075551610</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>11.7225771798118396</t>
+          <t>0.8141420282944772</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2895,62 +2879,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>8456364.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>2588088088.1839030000000000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2189128057.5277386988909236</t>
+          <t>2584307908.3590404379957619</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>65416863.6902163176825370</t>
+          <t>1575702421.3029768510372503</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>258.8734422415755399</t>
+          <t>0.9985393929047001</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>8.4602745582788428</t>
+          <t>-0.0801736221960067</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>250.4284000453394200</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>https://bittensor.com/scan</t>
-        </is>
-      </c>
+          <t>0.9986698156804152</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2960,62 +2936,58 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>482075205.8843776600000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2130214351.1964008523952563</t>
+          <t>2575231672.3821737105215821</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>26267854.1850350994642531</t>
+          <t>30048534.1658013037239408</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.0247742435432619</t>
+          <t>5.3419707982240117</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4.1989871594804021</t>
+          <t>-5.0416774325089829</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.0241817895854277</t>
+          <t>5.4166783752894436</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -3025,62 +2997,58 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>25263013692.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>30263013692.0000000000000000</t>
-        </is>
-      </c>
+          <t>15093733.5954206200000000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2099385246.3109993900533240</t>
+          <t>2527770560.6517465495049223</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>6951943.9259292706728215</t>
+          <t>130492580.9391713602837238</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.0831011403431970</t>
+          <t>167.4715235081837071</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2.4595721989649973</t>
+          <t>-4.8950716141694588</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.0826939617634698</t>
+          <t>173.8869159622272818</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3090,54 +3058,58 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2078518049.6186200000000000</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2076041358.3177522239901609</t>
+          <t>2514655646.7074704921465758</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>398886423.0873971674473203</t>
+          <t>120968245.5405302322566729</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.9988084340661260</t>
+          <t>0.7960019162448302</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.0482214463200198</t>
+          <t>-6.0570057873357020</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.9985659267190971</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>0.8043753579066322</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+        </is>
+      </c>
       <c r="M43" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3147,62 +3119,62 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>25859054634.3746030000000000</t>
+          <t>151314087.6834661400000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>28704026601.0000000000000000</t>
+          <t>210700000.0000000000000000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2045406616.5099261008998614</t>
+          <t>2506338632.4158429593908971</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>27802948.6094818282435845</t>
+          <t>24803475.4375168921511254</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.0790982750696135</t>
+          <t>16.5638155097551222</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>11.6722592410691175</t>
+          <t>-3.4862867385756772</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.0754150298834368</t>
+          <t>16.8135854457573480</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3212,58 +3184,58 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>561379525.3556370000000000</t>
+          <t>10392099602.6534290000000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1980971935.5418341883421769</t>
+          <t>2101811268.7793260065387828</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>35580761.7010680041775054</t>
+          <t>41272510.1657462387536871</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>3.5287570103075591</t>
+          <t>0.2022508779883776</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-2.4961489497468971</t>
+          <t>-4.9464558603646963</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>3.6109724198318668</t>
+          <t>0.2040717464484717</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3273,58 +3245,62 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>8593960040.8218980000000000</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
+          <t>199999429.3605040000000000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>999999993.4500000000000000</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1850662621.0860166697889808</t>
+          <t>2007624216.0404274013968040</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>24963163.8876263874262317</t>
+          <t>88676169.6388604117666954</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.2153445690107055</t>
+          <t>10.0381497210256249</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>2.0237939100187137</t>
+          <t>-3.5034800915905096</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.2145886245135782</t>
+          <t>10.1201591794082393</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3334,58 +3310,62 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>643910158.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+          <t>85985041177.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>86712634466.0000000000000000</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1849446999.2247672317933202</t>
+          <t>1959036832.3391614716912014</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>57544244.6014146771274235</t>
+          <t>22757160.4782930086793579</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.8722128021231919</t>
+          <t>0.0227834610011582</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4.4646206490869473</t>
+          <t>-5.4794807363545648</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2.8345328513257007</t>
+          <t>0.0231585935657915</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3395,54 +3375,62 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>85831192.4901895200000000</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+          <t>8534124.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1817521937.5556737845175941</t>
+          <t>1956043997.5495399694629452</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>24343664.4354590114583886</t>
+          <t>69504153.9801216275404946</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>21.1755410221454864</t>
+          <t>229.2026689030461673</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>5.5318487445372632</t>
+          <t>-5.8405161075421223</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>20.8483991445915454</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+          <t>230.2406184801842890</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="M48" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3452,62 +3440,54 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8497818639.1754440000000000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1692674861.8900546240090998</t>
+          <t>1921068080.4953683129687500</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>37506694.6917764700829684</t>
+          <t>85826748.8029185289213638</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.1991893371419724</t>
+          <t>0.3634299649769541</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>2.0049389411195454</t>
+          <t>-6.1528722016873390</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.1987037866711225</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>https://algoexplorer.io/</t>
-        </is>
-      </c>
+          <t>0.3761115254978733</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3517,58 +3497,54 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
+          <t>85826625.2836886300000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1676225120.8080684722487528</t>
+          <t>1909225300.1006697026045044</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>56716292.6983304080045172</t>
+          <t>8371357.3680651630551270</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>4.2877422943735782</t>
+          <t>22.2451400575284930</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>9.9340909558081922</t>
+          <t>-2.9736444722341990</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>4.0817628728248200</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/</t>
-        </is>
-      </c>
+          <t>22.4939745414774474</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3578,58 +3554,58 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>517716590.0562826400000000</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>644168762.0000000000000000</t>
-        </is>
-      </c>
+          <t>579488884.7562950000000000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1643596978.1720580803686798</t>
+          <t>1854812579.7276626023864738</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>37424883.3541132848766549</t>
+          <t>32420868.5876664090023028</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.1747040943644038</t>
+          <t>3.2007733513434120</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6.9666279064350808</t>
+          <t>-6.7071073065479964</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3.0939321457221374</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>3.2846944568648404</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/celestia</t>
+        </is>
+      </c>
       <c r="M51" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3639,58 +3615,58 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4419312625.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr"/>
+          <t>517716590.0562826400000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>644168762.0000000000000000</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1589931289.6146131283399750</t>
+          <t>1791913807.9442281661504892</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>52219565.3797053041300233</t>
+          <t>43895960.4035756039848386</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>0.3597689108076198</t>
+          <t>3.4611867619490877</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>4.5818859863549760</t>
+          <t>-7.8890604869739984</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.3550140518692204</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
-        </is>
-      </c>
+          <t>3.6187712579667117</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3700,58 +3676,58 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>250000000.0000000000000000</t>
+          <t>646042539.0000000000000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1483088160.3457976250000000</t>
+          <t>1759276099.3916992444197489</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>39588271.5800779663334333</t>
+          <t>60728871.6159660285525038</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5.9323526413831905</t>
+          <t>2.7231582956052051</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>4.1399825176868501</t>
+          <t>-4.0189965468201196</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>5.9341688792926754</t>
+          <t>2.7791181399685364</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3761,62 +3737,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2803634835.5265927000000000</t>
+          <t>25938937607.7175750000000000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>3175000000.0000000000000000</t>
+          <t>28704026601.0000000000000000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1477240028.5340083023382222</t>
+          <t>1663046554.1000661132295953</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>119245327.9638553092451638</t>
+          <t>45114767.6245311916456593</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.5269017240815335</t>
+          <t>0.0641139039405092</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>9.2746867462809255</t>
+          <t>-8.1687095034737330</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.5198997989631328</t>
+          <t>0.0650133534219686</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3826,58 +3802,58 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>83733347.4979964300000000</t>
+          <t>390934204.0000000000000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1447435600.3188436817166769</t>
+          <t>1645421599.2988718890375268</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>12885226.9527392775923470</t>
+          <t>54137335.7538672824046803</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>17.2862502643104994</t>
+          <t>4.2089476501750967</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-0.5720287374109895</t>
+          <t>-7.3081580421229405</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>17.3302343212211991</t>
+          <t>4.3858141310301909</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3887,62 +3863,62 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>8530665694.6491230000000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>3000000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1424294873.2470763366122836</t>
+          <t>1564416325.3422081325001943</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>20183274.6183996636243891</t>
+          <t>44625472.4100937419805845</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.5292983730944751</t>
+          <t>0.1833873675677493</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>5.4287603639813390</t>
+          <t>-8.0459599019246519</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.5196952352170031</t>
+          <t>0.1882228009118393</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3952,62 +3928,58 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>122561753.8513356400000000</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>200000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4617913336.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1358017854.8168693493796364</t>
+          <t>1532111846.8262972989014288</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>582371.6710070141796337</t>
+          <t>72256852.9387394260305537</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>11.0802743281897813</t>
+          <t>0.3317757903515358</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.3750734835648236</t>
+          <t>-4.6949628035524086</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11.0404538655205605</t>
+          <t>0.3347457808490293</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4017,62 +3989,58 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2630547141.0000000000000000</t>
-        </is>
-      </c>
+          <t>83733353.1605750500000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1303581799.5341589000000000</t>
+          <t>1471009833.8946186504668323</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>44311359.8698167491572031</t>
+          <t>13220717.8345049584644924</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.5172943648945075</t>
+          <t>17.5677884423626287</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>4.0992523797875846</t>
+          <t>-4.6712299247686292</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.5094795373893830</t>
+          <t>18.0306465294782016</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4082,54 +4050,62 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3223437500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr"/>
+          <t>2880000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3175000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1131952450.0040127978125000</t>
+          <t>1396749109.6659824640000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>111586255.7463579611905814</t>
+          <t>93429676.3567482015335452</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.3511631449358062</t>
+          <t>0.4849823297451328</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3.2906202889685381</t>
+          <t>-10.5088259865655151</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.3494023791129575</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr"/>
+          <t>0.5028413180145808</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>sonicscan.org</t>
+        </is>
+      </c>
       <c r="M59" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4139,58 +4115,58 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2400000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>258701717.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1093029836.5506828000000000</t>
+          <t>1355378390.4160754294409327</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>46412606.8835478732149654</t>
+          <t>34248273.1339873409458228</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.4554290985627845</t>
+          <t>5.2391549856473331</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.9188707578038705</t>
+          <t>-3.9373782802503067</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.4535494506138580</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr"/>
+          <t>5.3046904681602489</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>www.storyscan.xyz</t>
+        </is>
+      </c>
       <c r="M60" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4200,58 +4176,62 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>XDC Network</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>15692654414.5500000000000000</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>122543917.8513356400000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>200000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1066483123.7798679927328344</t>
+          <t>1354300696.2258215326062472</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>21050820.5874290326730167</t>
+          <t>638155.6177684378551772</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>0.0679606582549247</t>
+          <t>11.0515537610670625</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2.2884816603928886</t>
+          <t>-0.9648178577301260</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.0675299627842678</t>
+          <t>11.0779473885241439</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4261,62 +4241,62 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>847988.2148229200000000</t>
+          <t>2690911111.1000000000000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1000000.0000000000000000</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>995779670.4248834587697121</t>
+          <t>1276622302.3534521323596707</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>30658964.4252862362137645</t>
+          <t>25887501.6302859689123556</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1174.2847990320547214</t>
+          <t>0.4744200940296352</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>3.1721031915208267</t>
+          <t>-4.8879280183415012</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>1166.0642178082701093</t>
+          <t>0.4723689064591215</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4326,62 +4306,58 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1620705846.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>988597322.8342956621974258</t>
+          <t>1238722561.7362119139422342</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>60843009.4261788126406768</t>
+          <t>56353053.5764173030149113</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>9.9887640622865935</t>
+          <t>0.7643105408630777</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>7.6683982497270393</t>
+          <t>-8.4556177401871675</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>9.7971679968795398</t>
+          <t>0.7867260737979288</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4391,58 +4367,62 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2000000000.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>979124102.7380430104014314</t>
+          <t>1183404746.0039250600000000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>9764913.1425954775060599</t>
+          <t>54920270.0702769761137439</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.5537037770156299</t>
+          <t>0.4696050579380655</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>7.2207800664251902</t>
+          <t>-7.7219336645800228</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.5334683395044759</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr"/>
+          <t>0.4831587145785492</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+        </is>
+      </c>
       <c r="M64" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4452,62 +4432,58 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1516958061.5283200000000000</t>
+          <t>2450000000.0000000000000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1818000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>974045807.1656329600092143</t>
+          <t>1089956532.9898834400000000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>9442987.3192313352129831</t>
+          <t>76197939.5246974808601961</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.6421046381363316</t>
+          <t>0.4448802175468912</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>4.5990658558476442</t>
+          <t>-7.8991191975409341</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.6382442328864766</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>0.4746995954653084</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4517,54 +4493,62 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1106042482.4370298000000000</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr"/>
+          <t>848074.4183746700000000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>965339036.9578093868026403</t>
+          <t>1088805017.1662230584976032</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>46723838.6524929136820458</t>
+          <t>38937342.1059252261307533</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.8727865812448745</t>
+          <t>1283.8555126481847417</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>3.6466142246258782</t>
+          <t>-11.8179873141884518</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.8622539104698175</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>1377.3787792446152030</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/Maker</t>
+        </is>
+      </c>
       <c r="M66" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4574,54 +4558,58 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>XDC Network</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4657499999.0000000000000000</t>
+          <t>15692654414.5500000000000000</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>954117004.9721038069911251</t>
+          <t>1070235050.6933275986867364</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>62961300.6497027124591555</t>
+          <t>8142955.2672438648674953</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.2048560397588749</t>
+          <t>0.0681997463540025</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>7.5537701965143813</t>
+          <t>-2.0919419480048241</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.2001066755405891</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr"/>
+          <t>0.0688021891602972</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+        </is>
+      </c>
       <c r="M67" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4631,58 +4619,58 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>1768317543.3900000000000000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>916063774.7212929967530376</t>
+          <t>969945715.5151663799052235</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>6964832.0242225853290625</t>
+          <t>10262888.1457316179330239</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.0150214617814851</t>
+          <t>0.5485133137658671</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>6.0000370878551466</t>
+          <t>-5.5249213522150777</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.0149973874300307</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>https://flare-explorer.flare.network/</t>
-        </is>
-      </c>
+          <t>0.5622747964606907</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4692,62 +4680,54 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>1582884.5398480400000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>916025904.2805326018280780</t>
+          <t>955777804.7163516257798949</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>9139066.3008434128268660</t>
+          <t>11301114.4577377831404109</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>75.8755722422314310</t>
+          <t>603.8202917871117481</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1.8289753405296716</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>75.9602840151390049</t>
-        </is>
-      </c>
+          <t>-3.1811863644928955</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4757,58 +4737,62 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9548531509.1654740000000000</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>1519143324.9652000000000000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>900775900.5445309583639539</t>
+          <t>945439887.7417553660275009</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>9196532.7166412064291860</t>
+          <t>18885875.9414001822354664</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.0943365898389602</t>
+          <t>0.6223506842340983</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>6.0855219874952710</t>
+          <t>-5.6649086294751152</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.0926867831433961</t>
+          <t>0.6292294061095763</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4818,62 +4802,54 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1212147111.2468452000000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>892421605.0569863000000000</t>
+          <t>938162826.3570093276582644</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>15463695.2603886424430409</t>
+          <t>72317537.6205415119018028</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.8924216050569863</t>
+          <t>0.7739677945459865</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>3.0795381903771343</t>
+          <t>-8.3048885828177748</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.8810671743303429</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>https://explorer.thetatoken.org/</t>
-        </is>
-      </c>
+          <t>0.8001925716231685</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4883,52 +4859,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>897146051.8587132000000000</t>
+          <t>900657124.0838901000000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>859038811.5712079670906707</t>
+          <t>898582440.8637155838094735</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>34735454.0783473016602855</t>
+          <t>22221876.2554632308956546</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.9575239280064217</t>
+          <t>0.9976964783104505</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>6.2901609432381250</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0.9336412686858604</t>
-        </is>
-      </c>
+          <t>0.0011156652422023</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="73">
@@ -4954,44 +4926,44 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>77795920373892.7800000000000000</t>
+          <t>77894175221082.5500000000000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>850803292.0848640636725242</t>
+          <t>879367556.4720158196439198</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>38225226.3784643888015315</t>
+          <t>53492670.7642846965889532</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000109363484357</t>
+          <t>0.0000112892594854</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>4.9009032476187049</t>
+          <t>-8.3636623837188955</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.0000108934402425</t>
+          <t>0.0000115616252007</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -5001,62 +4973,54 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1552455928.2889000000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>779759987.9612569587138614</t>
+          <t>877503390.8380560797029018</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>20157480.5940945544047661</t>
+          <t>48230289.1594706576314658</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.5022751201837336</t>
+          <t>0.1797293094238838</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1.1313417834318379</t>
+          <t>-6.4512737260460375</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.5035027999567287</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>https://bloks.io/</t>
-        </is>
-      </c>
+          <t>0.1821464847958657</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5066,54 +5030,58 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>760806601.3822220000000000</t>
+          <t>9775189789.3182130000000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>760337563.6813745481604125</t>
+          <t>866682483.2987570627533135</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>15216071.7356168245480674</t>
+          <t>10742740.4332538394652245</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.9993834994333707</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr"/>
+          <t>0.0886614482151354</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-6.8743387485876290</t>
+        </is>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.9991157221690430</t>
+          <t>0.0913646475318233</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5123,58 +5091,62 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>98970935.4100000000000000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>735143004.8050792519776624</t>
+          <t>863736757.2105519742915436</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>1293177.2322067299114328</t>
+          <t>45775295.8093810811401494</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2982.0342230577114276</t>
+          <t>8.7271758484691478</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.2091477357690029</t>
+          <t>-5.6229271758846421</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>2871.1836402329370814</t>
+          <t>8.9110532991196106</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5184,58 +5156,62 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1034564245.4683760000000000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>1555580489.8912000000000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>733850321.8437107958246413</t>
+          <t>846394498.1122892877531639</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>7378022.5565994594661844</t>
+          <t>59388903.7026077457520198</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.7093327698672559</t>
+          <t>0.5441020272576751</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>4.8803654884070964</t>
+          <t>-4.1799061255695576</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.6928179704758892</t>
+          <t>0.5619135177794020</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5245,62 +5221,62 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>43504899554.1979200000000000</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>50000000000.0000000000000000</t>
+          <t>14881364.0000000000000000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>723210192.1985700245640900</t>
+          <t>837544565.9016666718752774</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>24947050.8140278592096713</t>
+          <t>10675463.9206836976571386</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.0166236492811023</t>
+          <t>69.3748647491287123</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>2.4899942445082852</t>
+          <t>-3.1347310576675061</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.0165375614366232</t>
+          <t>69.3781264400720656</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5310,58 +5286,62 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2469357126.2233224000000000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr"/>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>703511440.4848477057966432</t>
+          <t>830700432.0442866000000000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15508528.6309778343516316</t>
+          <t>9397271.3350656093382241</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.2848965963707365</t>
+          <t>0.8307004320442866</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>3.9629870065178612</t>
+          <t>-6.8389242356599970</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.2807592789714320</t>
+          <t>0.8517306820074946</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5371,58 +5351,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>698001983.1224048704728294</t>
+          <t>825838935.7071435265531241</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>1534507.6810119296949894</t>
+          <t>3994703.7731995951026983</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.0802545499354351</t>
+          <t>2.1626335449853718</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>2.6154543858899921</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>1.0597688963945071</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
-        </is>
-      </c>
+          <t>-4.2490424005815022</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5432,58 +5408,58 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>688562589.8744317862802000</t>
+          <t>805593933.4842965288967364</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>8073560.8475342087265572</t>
+          <t>11999002.6133810408858173</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.0000006982960386</t>
+          <t>0.0132099956544099</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1.6954636090319618</t>
+          <t>-3.8769049079181192</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.0000006914965537</t>
+          <t>0.0133742920755036</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5493,58 +5469,58 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>304471682.9000000000000000</t>
+          <t>802871349.4263150000000000</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>679394855.4814896565110043</t>
+          <t>801475978.0584303065416922</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>12808442.1718515008742740</t>
+          <t>8939006.0810610567663604</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>2.2313893003462939</t>
+          <t>0.9982620237116672</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>3.9177390239902924</t>
+          <t>-0.1806435559488069</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>2.2194709699776678</t>
+          <t>0.9985215089226389</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>jasmy</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5554,58 +5530,54 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>JASMY</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>JasmyCoin</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>49444999677.1695800000000000</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>677578431.3068579878400350</t>
+          <t>791207013.5010093493960000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>37800037.8712067265166239</t>
+          <t>148966341.3839507739103852</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.0137036795577070</t>
+          <t>7.3614348111370427</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>6.5657736959083414</t>
+          <t>-16.6633003211165513</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.0135509293047367</t>
+          <t>8.0864170633587263</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5615,58 +5587,58 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>19837743.7500000000000000</t>
+          <t>897877243.8587132000000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>674991534.6603016552584056</t>
+          <t>781449503.6739119553681474</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>21033118.4837053115164260</t>
+          <t>39392005.7579894052301206</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>34.0256202099748191</t>
+          <t>0.8703300022568320</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.8976116585902468</t>
+          <t>-7.1232729560979133</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>33.8581728240024016</t>
+          <t>0.9045673142712821</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5676,58 +5648,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>3669672848.0000000000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>668746240.6573547166820800</t>
+          <t>767648058.8995042616996928</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>7218554.4700961232585765</t>
+          <t>6505929.2955044483643827</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.1822359290207100</t>
+          <t>3113.8877306043397872</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>3.1514286299714737</t>
+          <t>0.2324938147597639</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.1802893036316010</t>
+          <t>3111.8197180447126622</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5737,54 +5709,58 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>661863522.8483397590080000</t>
+          <t>695207449.5693101908256164</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>59687711.2729970207194706</t>
+          <t>3344034.5389671337725542</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>6.1580156573161496</t>
+          <t>1.0759296229887041</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>4.0143473718509886</t>
+          <t>-3.8727989786403779</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>6.0789016368571069</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr"/>
+          <t>1.0883141746803229</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+        </is>
+      </c>
       <c r="M86" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5794,58 +5770,58 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>310048982.3000000000000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>657736042.8677779258652105</t>
+          <t>680466704.6965870601872505</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>7593924.0786662253768522</t>
+          <t>13341133.9542752778044346</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.1102389950114607</t>
+          <t>2.1947071061119463</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>2.4678490444297224</t>
+          <t>-1.5749669422183704</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.1091778587874826</t>
+          <t>2.1652630825696802</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5855,58 +5831,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1569592535.0126963000000000</t>
+          <t>1036827531.6780720000000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>632381426.8701544316860438</t>
+          <t>673099222.5390466155562326</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>6363133.1591745536807179</t>
+          <t>9733887.5883731963745640</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.4028952819051469</t>
+          <t>0.6491911161441259</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>2.4456903385757525</t>
+          <t>-4.1852471680886808</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.4009399478312590</t>
+          <t>0.6637110068922031</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5916,58 +5892,62 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr"/>
+          <t>43744189534.5928200000000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>630278203.3773608578827168</t>
+          <t>670480474.9964383622693059</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>10073771.3233333491380185</t>
+          <t>38156480.3793952565705838</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2996.0286553329911662</t>
+          <t>0.0153273036288905</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-0.2471349447051154</t>
+          <t>-7.8666062818849727</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>3004.0943183476320168</t>
+          <t>0.0156240585593196</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5977,62 +5957,58 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>2481357126.2233224000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>602535520.5747511551791261</t>
+          <t>667527677.0504419528455423</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>24977536.5805236017243766</t>
+          <t>15313112.4445538185821614</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>16.9254384117704223</t>
+          <t>0.2690171720934153</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2.6760069864731577</t>
+          <t>-4.0506877420015184</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>16.7272775629761227</t>
+          <t>0.2726459687979406</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>floki-inu</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6042,62 +6018,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>FLOKI</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>9626637864609.9200000000000000</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>0.0000000000000000</t>
-        </is>
-      </c>
+          <t>986061142857000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>594038241.7370942885514361</t>
+          <t>663160189.2517588379211000</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>46045046.1145411142768916</t>
+          <t>1117956.4923917130911966</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0000617077582113</t>
+          <t>0.0000006725345523</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>3.3229291659541132</t>
+          <t>-1.0369176348312984</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0000610354889471</t>
+          <t>0.0000006787313542</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6107,58 +6079,58 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Neo</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>70538831.0000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>565811783.3159561875109004</t>
+          <t>656029891.6018939970333274</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>11172706.6244197247824602</t>
+          <t>46961060.1468940123415554</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>8.0212809780751284</t>
+          <t>3118.4393549740026085</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>3.9986098922195408</t>
+          <t>0.7794311876670654</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>7.9394301015735024</t>
+          <t>3104.1064416028487498</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://neotracker.io</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>pyth-network</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6168,52 +6140,52 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>PYTH</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Pyth Network</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3624987919.8500000000000000</t>
+          <t>3688810566.0000000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>540148048.8234814508240205</t>
+          <t>637997008.7857012979970624</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10235829.5632369118010623</t>
+          <t>10752417.7391426953071054</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.1490068548547970</t>
+          <t>0.1729546685498464</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>5.3692254251538706</t>
+          <t>-5.8786070124222296</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.1467746547468933</t>
+          <t>0.1753388064911254</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/HZ1JovNiVvGrGNiiYvEozEVgZ58xaU3RKwX8eACQBCt3</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="94">
@@ -6239,7 +6211,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1298870270.0000000000000000</t>
+          <t>1307447846.0000000000000000</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -6249,27 +6221,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>533864590.3429603082650470</t>
+          <t>637312770.9953671654822282</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>13347483.7943921749856295</t>
+          <t>43863980.4958921333897647</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.4110222573213261</t>
+          <t>0.4874479490292167</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>4.0718806714001343</t>
+          <t>-4.7869320647319512</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.4057307096492393</t>
+          <t>0.4891359202111243</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6278,13 +6250,13 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6294,58 +6266,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1942255184.1130493000000000</t>
+          <t>19844465.6250000000000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>529185193.6496758759953628</t>
+          <t>617727453.2532327684595247</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>11655369.7731956192573601</t>
+          <t>8021229.0329227161314426</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.2724591485085075</t>
+          <t>31.1284498623647251</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>0.2760349792703812</t>
+          <t>-5.5089276973914030</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.2760521060940579</t>
+          <t>32.1680266069767518</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/decentraland</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6355,62 +6327,58 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>179442876.0968398000000000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>223000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5966455361.8200000000000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>528941303.8947594699310871</t>
+          <t>610361810.1630304523995784</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>1014866.2697603535966837</t>
+          <t>5943755.8034542716035440</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2.9476862798905771</t>
+          <t>0.1022988982820189</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>5.8100437423119405</t>
+          <t>-3.8361449759440496</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>2.8851280142476540</t>
+          <t>0.1035489193639471</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6420,62 +6388,62 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>93880083810.9700000000000000</t>
+          <t>301822670.3599872600000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>100000000000.0000000000000000</t>
+          <t>450000000.0000000000000000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>516746956.2382550514105534</t>
+          <t>600168847.8462108434084566</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>1608099.2557861678777244</t>
+          <t>60071163.6820132203548264</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.0055043299415746</t>
+          <t>1.9884816708114827</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>4.7524920732457456</t>
+          <t>-7.3181694702050256</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.0053681354462654</t>
+          <t>2.0125416468468761</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>kava</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6485,58 +6453,58 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1082853482.0000000000000000</t>
+          <t>1572540589.3190167000000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>514878622.0092182848613840</t>
+          <t>592840899.7288378814639338</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>27576596.2696943962438358</t>
+          <t>7816060.2957314757030214</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.4754831845378120</t>
+          <t>0.3769956106414815</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>9.8504506954022292</t>
+          <t>-4.3467710389223881</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.4625331995922090</t>
+          <t>0.3841858896809982</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/kava</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6546,58 +6514,62 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>159440382.3943955600000000</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>512930382.9253980258735813</t>
+          <t>575645728.9507641333462936</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>7445337.8953529441209318</t>
+          <t>10347820.0593351208372001</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3.2170669388925643</t>
+          <t>36.2341672352677816</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>1.7010518763577184</t>
+          <t>-2.0297922489031671</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>3.2095923344296385</t>
+          <t>36.0665276317425307</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6607,58 +6579,62 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>998840980.4853340000000000</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr"/>
+          <t>179760925.5581076000000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>223000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>510491179.1552929963828470</t>
+          <t>567468878.4366171013410829</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>129265337.5528565676373458</t>
+          <t>3683151.0475988545770633</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>0.5110835349459198</t>
+          <t>3.1567977115982481</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>8.2354138708061997</t>
+          <t>1.3916145539516959</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.4968913761574219</t>
+          <t>3.1252861785399789</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6668,56 +6644,56 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>35599404.0400000000000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>503765274.4445050478963745</t>
+          <t>561547096.6227401567937691</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>12241379.0422571809794208</t>
+          <t>32019059.5569617085401784</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>31.7096336922600845</t>
+          <t>15.7740589137890567</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>4.2988918541855678</t>
+          <t>-5.8845118311693865</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>30.9652631357075472</t>
+          <t>16.1924942120804199</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1741997851766</v>
+        <v>1743296428778</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1642276830732.3343898119010200</t>
+          <t>1645600371530.6442755914265066</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6738130970.0692786122850334</t>
+          <t>6787931376.1628427247731435</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82760.0443771199284600</t>
+          <t>82927.5291633691748018</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-1.9546515718639237</t>
+          <t>-1.8009940896074362</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>83044.7423588388349783</t>
+          <t>82979.2555203909947156</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="3">
@@ -594,27 +594,27 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>220315687990.1300878538114379</t>
+          <t>221238742768.5913530967335473</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5501487637.2453879317505486</t>
+          <t>5548289274.7091994530292840</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1826.0454190215443003</t>
+          <t>1833.6959861014094902</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-4.1478159230515445</t>
+          <t>-3.7907520723792152</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1849.3130341222672511</t>
+          <t>1846.8058948327428276</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="4">
@@ -655,27 +655,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144637948666.0738495664826784</t>
+          <t>144656039999.9366479492830614</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21638531272.9750786477180664</t>
+          <t>21803680461.6579213945873683</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0031598843274860</t>
+          <t>1.0032853596992851</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1796221437668190</t>
+          <t>0.1751871928315050</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0006083137050021</t>
+          <t>1.0005749640165395</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="5">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>124193731580.8581745338545244</t>
+          <t>124997297363.8779204833653026</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1621712633.5440607255362063</t>
+          <t>1638145769.1721286801968047</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1337040388729998</t>
+          <t>2.1475096596149217</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-3.5851445388090037</t>
+          <t>-2.9692829302731786</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1267684827593523</t>
+          <t>2.1234850546499362</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>86866258453.5594316722066230</t>
+          <t>87163354463.4157238705464440</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>315523338.8965768603557037</t>
+          <t>316941868.5504552792170383</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>603.2092953755001181</t>
+          <t>605.2723642581100068</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-3.0879797833860777</t>
+          <t>-2.6306758946870764</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>606.7164538032187854</t>
+          <t>606.1983101043918549</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="7">
@@ -846,27 +846,27 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>63804909548.4776716514651909</t>
+          <t>64106576736.5184495031453656</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1297320343.9542991207427065</t>
+          <t>1311190636.5569144336939894</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>124.6129436721943678</t>
+          <t>125.2021089351356679</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-4.1021292154476293</t>
+          <t>-3.6044688822377920</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>126.1880406361023251</t>
+          <t>125.9657787729131898</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="8">
@@ -907,27 +907,27 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60284062493.2111222388677802</t>
+          <t>60326188982.8522269574726117</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3911457565.7241444185843300</t>
+          <t>3938548447.2261661835216679</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0005792515933380</t>
+          <t>1.0012784561547774</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0353966867897044</t>
+          <t>0.1009394973542220</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0014512039136398</t>
+          <t>1.0014767974539042</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="9">
@@ -968,27 +968,27 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25180363309.6744831424998855</t>
+          <t>25323753239.1835317661563318</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>587431862.6889677725776096</t>
+          <t>594437659.1801780086268755</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1694094083317871</t>
+          <t>0.1703741125665958</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-6.5831107597578234</t>
+          <t>-6.0686260074544599</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1726923547804482</t>
+          <t>0.1722242722826475</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="10">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23680282911.5580111396478428</t>
+          <t>23771977841.4471850239419746</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>325216277.4983057960445134</t>
+          <t>327578924.8543985455292427</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6719315847263520</t>
+          <t>0.6745334421358229</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-5.1886529448304301</t>
+          <t>-4.9541273660256890</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6786383343146972</t>
+          <t>0.6776034453413297</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="11">
@@ -1094,27 +1094,27 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21887355373.5168314006622070</t>
+          <t>21875136033.2702502834964841</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>283548641.0543944436589109</t>
+          <t>284280223.9630108460337031</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2304069582683168</t>
+          <t>0.2302783259612055</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.0613194683674034</t>
+          <t>-1.0282408493613735</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2336074303263903</t>
+          <t>0.2334863945424018</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="12">
@@ -1155,27 +1155,27 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17116264453.3549580735404993</t>
+          <t>17108030022.0500621826818085</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6970701.5364070646062509</t>
+          <t>6966864.2798131010344101</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1826.6316344271735837</t>
+          <t>1825.7528636676991339</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-3.9460983834569113</t>
+          <t>-4.0384262889465598</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1857.0855918975613091</t>
+          <t>1856.6007047467115695</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10605052376.4772475140874713</t>
+          <t>10622166943.4478589432961556</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>112914807.3429569444865152</t>
+          <t>113069494.8774586400333772</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82160.4085827302762931</t>
+          <t>82293.0000839416095287</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-2.4532268988890406</t>
+          <t>-2.3633857735699158</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82934.9081497220221341</t>
+          <t>82858.5756787920442054</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="14">
@@ -1277,32 +1277,32 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9080962253.2296334377752034</t>
+          <t>9118365895.6041472765326977</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>89797936.8219193903854222</t>
+          <t>90060417.1979437715978933</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.6550737125768745</t>
+          <t>3.6701286226387559</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-4.2803543453892532</t>
+          <t>-3.8339416539194979</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.7269633519302995</t>
+          <t>3.7189384458816226</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="15">
@@ -1334,27 +1334,27 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8869962097.6493870353620750</t>
+          <t>8908742037.0967770360407129</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>148033444.5081974820030978</t>
+          <t>149729896.9923917064241619</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13.4986493631058576</t>
+          <t>13.5576661660143526</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-5.5744279356877193</t>
+          <t>-5.1055243658124749</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.7794253474532640</t>
+          <t>13.7457180531963252</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="16">
@@ -1395,27 +1395,27 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8852247791.7971535139126659</t>
+          <t>8861972999.7187600514796678</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5065218.8506716655968880</t>
+          <t>5077252.4701464625415234</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.5819907130565717</t>
+          <t>9.5925176271442827</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-1.5042570051890393</t>
+          <t>-1.3438852814405950</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.5465601721741580</t>
+          <t>9.5461364621487550</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="17">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8206864620.5955722910531571</t>
+          <t>8236068214.6058648044301618</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>64188286.3882731930940632</t>
+          <t>64409490.9602687408891295</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2665675637621393</t>
+          <t>0.2675161271012842</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-3.2191995483401758</t>
+          <t>-2.9103961096761259</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2679960011734401</t>
+          <t>0.2676030983765726</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="18">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8111662430.8697341617804530</t>
+          <t>8167767101.3844922988942224</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>129822586.3204629382012913</t>
+          <t>131347962.3695596230835735</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19.5535945953322664</t>
+          <t>19.6888378936696513</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-4.1419417355980286</t>
+          <t>-3.5448335168692977</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19.9731536815784087</t>
+          <t>19.9396176946555383</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="19">
@@ -1590,27 +1590,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7453985058.4374016368043096</t>
+          <t>7487771074.9913127067659214</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>86169843.1554561342763766</t>
+          <t>86865024.1398232121926783</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.0000126499357219</t>
+          <t>0.0000127072729629</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-4.9915963333473393</t>
+          <t>-4.6386686334144398</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.0000128018528277</t>
+          <t>0.0000127713982102</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="20">
@@ -1655,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7281135341.2547985003205891</t>
+          <t>7319371445.2538029592242559</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>600903513.5160155356168542</t>
+          <t>603811213.5792201639459010</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.2970003997622248</t>
+          <t>2.3090628518462328</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-8.6321872385657904</t>
+          <t>-8.3801118580093186</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.3723129247694218</t>
+          <t>2.3572283973579266</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7249520690.4727379307012952</t>
+          <t>7291815763.0727263280639646</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>128136656.5223963905818122</t>
+          <t>129297238.4542242752037435</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1717106537448069</t>
+          <t>0.1727124461220426</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-5.8869693323770543</t>
+          <t>-5.5434628231165468</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1728983354961282</t>
+          <t>0.1726025041526711</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6447942459.4845534504239826</t>
+          <t>6469254257.0149880701896458</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>202371499.2088674647393066</t>
+          <t>203624267.8348365291774100</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>85.3371250663056768</t>
+          <t>85.6191821011924101</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-2.6908646028728347</t>
+          <t>-2.3575808053747788</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>86.0210756085866026</t>
+          <t>85.9439078687093424</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="23">
@@ -1846,27 +1846,27 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6163796632.4147077597958880</t>
+          <t>6211954278.5391776717943300</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>83390845.6258277825445769</t>
+          <t>84990974.2955041219007478</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.0490901986769048</t>
+          <t>4.0807256767016805</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-5.4057620370504589</t>
+          <t>-4.6917572972211935</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.1234983310934706</t>
+          <t>4.1159123674808479</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="24">
@@ -1907,22 +1907,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6150310714.8859548383101512</t>
+          <t>6144102402.9310631778808316</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>458907602.7908560594147618</t>
+          <t>458398419.5947099863037350</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1822.1428194740409626</t>
+          <t>1820.3034927190071803</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-4.2343571082122902</t>
+          <t>-4.5104850991144580</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="25">
@@ -1968,27 +1968,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6080143891.8064622283295659</t>
+          <t>6104196066.7293727320696468</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31569193.1041813480502856</t>
+          <t>31935081.2685878052710320</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2374629888469327</t>
+          <t>6.2621374954955497</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.3261219874268728</t>
+          <t>0.2400808515054984</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.1897770671931328</t>
+          <t>6.1878268643898281</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="26">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5996415302.3583771938821575</t>
+          <t>6023188746.3479994497551575</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>50145991.2206247858396634</t>
+          <t>50523838.6870920845421259</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>302.1037252063375014</t>
+          <t>303.4525906130892614</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-1.6845817060201469</t>
+          <t>-1.5342009668764545</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>305.0693074417908371</t>
+          <t>304.8505496213330562</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="27">
@@ -2094,22 +2094,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5564729643.5016892800000000</t>
+          <t>5577893743.8175652400000000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>128162231.7914895075460081</t>
+          <t>128223484.9942608692832941</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.6372747029180744</t>
+          <t>4.6482447865146377</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-4.0994536778401171</t>
+          <t>-4.0729111636287373</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="28">
@@ -2155,22 +2155,22 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5394558898.9775256165413737</t>
+          <t>5406233793.7494721118674033</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>94508756.3046675757847424</t>
+          <t>94983084.9193920878098903</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.7963881382335473</t>
+          <t>0.7981116800254935</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-4.1748525378591141</t>
+          <t>-4.0535733621508638</t>
         </is>
       </c>
       <c r="K28" t="inlineStr"/>
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="29">
@@ -2212,27 +2212,27 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5363423550.0232720008136197</t>
+          <t>5364422326.3378411111389745</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>77398585.9815510368464489</t>
+          <t>76516309.8357458628932869</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9996348531409275</t>
+          <t>0.9998210050652018</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0131504131641480</t>
+          <t>0.0317284179221477</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.9993482990396921</t>
+          <t>0.9993785585610450</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="30">
@@ -2273,22 +2273,22 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5245402824.3223392019404640</t>
+          <t>5245728803.7280329393707867</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>42157230.0758602233026466</t>
+          <t>42153539.5057779115581172</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.9996415360319071</t>
+          <t>0.9997036594883386</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.0399017562113137</t>
+          <t>0.0325274575496051</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="31">
@@ -2334,27 +2334,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4265537516.5271337707089120</t>
+          <t>4298824719.0012374183297740</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20372639.5230821107273718</t>
+          <t>20604134.1364157196968593</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.7738171619032984</t>
+          <t>12.8735008797437743</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-5.4517584958242026</t>
+          <t>-4.6147180575070059</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12.8837029693807511</t>
+          <t>12.8537775548344583</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="32">
@@ -2395,27 +2395,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3996412044.1427482446225142</t>
+          <t>3993800282.9340974800817414</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29343423.2659363334086565</t>
+          <t>29365008.4789742421566112</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>216.6459310203401836</t>
+          <t>216.5043471615185573</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-0.1608927974195777</t>
+          <t>-0.2779796124097036</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>216.2504398956469358</t>
+          <t>216.1808981338184985</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="33">
@@ -2456,27 +2456,27 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3743953672.9985901017986694</t>
+          <t>3769326792.3955632119224379</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>62308366.2353110608557843</t>
+          <t>61876197.0485251321800817</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.9570232127750625</t>
+          <t>5.9973945085841864</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-4.1153630332955628</t>
+          <t>-3.4168810101982324</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.0728445767880959</t>
+          <t>6.0572853260288021</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="34">
@@ -2517,27 +2517,27 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3144267079.9166875649588801</t>
+          <t>3154710197.9810056551877096</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>49178999.8239569164878138</t>
+          <t>49438667.3789587457457948</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.2061020704720377</t>
+          <t>5.2233932029347008</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-6.4630455834273942</t>
+          <t>-6.2991264733658025</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.3578400782101849</t>
+          <t>5.3491377834569602</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="35">
@@ -2578,27 +2578,27 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3074695573.4546550839972800</t>
+          <t>3097008436.6592812081353600</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>73565751.9620961189599748</t>
+          <t>74241312.1412922275313487</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.5661665583244796</t>
+          <t>2.5847890599700152</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-6.1731483629713261</t>
+          <t>-5.5714181963339703</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.6362407683705698</t>
+          <t>2.6312731741156523</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="36">
@@ -2643,27 +2643,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3016120032.4001124674323061</t>
+          <t>3029773532.5168219759114819</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>322405478.4250871994242229</t>
+          <t>324447816.0335298952280498</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0000071694614843</t>
+          <t>0.0000072019165067</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-8.5531366898790991</t>
+          <t>-8.1783750551832437</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0000074507509335</t>
+          <t>0.0000074251425768</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="37">
@@ -2704,27 +2704,27 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2891058427.1569834140000000</t>
+          <t>2891620175.4399099420000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2152628.7686387053800014</t>
+          <t>2172852.5769088583279429</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48.1843071192830569</t>
+          <t>48.1936695906651657</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-2.0189043819263856</t>
+          <t>-2.0309749332122079</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48.6449711354461357</t>
+          <t>48.2209627780203238</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="38">
@@ -2769,27 +2769,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2761789532.6004704510011088</t>
+          <t>2790157658.1501046850958512</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>30687296.7743126929999065</t>
+          <t>31308438.8177280376136383</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.1039377989195878</t>
+          <t>0.1050054112391722</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>2.9481780074821190</t>
+          <t>4.4072716750636409</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.1009154167014576</t>
+          <t>0.1014797713652044</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="39">
@@ -2834,27 +2834,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2693091084.3050858058504938</t>
+          <t>2699961505.2057555335563040</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>89110784.7888853486035917</t>
+          <t>89062690.9020856337598402</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.8003969388846803</t>
+          <t>0.8024388541729500</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-4.0138997075551610</t>
+          <t>-3.8786963710640158</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8141420282944772</t>
+          <t>0.8128771008483150</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="40">
@@ -2895,32 +2895,32 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2584307908.3590404379957619</t>
+          <t>2584061240.9943523653083949</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1575702421.3029768510372503</t>
+          <t>1580817680.8818198947735466</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.9985393929047001</t>
+          <t>0.9984440841840216</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-0.0801736221960067</t>
+          <t>-0.0794863613942713</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.9986698156804152</t>
+          <t>0.9986678437559490</t>
         </is>
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="41">
@@ -2952,27 +2952,27 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2575231672.3821737105215821</t>
+          <t>2581685391.1439520595162100</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>30048534.1658013037239408</t>
+          <t>30285562.2896538722392984</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.3419707982240117</t>
+          <t>5.3553581674207719</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-5.0416774325089829</t>
+          <t>-4.7779118293248823</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5.4166783752894436</t>
+          <t>5.4028287789997180</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="42">
@@ -3013,27 +3013,27 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2527770560.6517465495049223</t>
+          <t>2549908349.0321047639046086</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>130492580.9391713602837238</t>
+          <t>132152343.3703900258897286</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>167.4715235081837071</t>
+          <t>168.9382108748584928</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-4.8950716141694588</t>
+          <t>-3.9756145765020624</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>173.8869159622272818</t>
+          <t>173.3192129933888652</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="43">
@@ -3074,27 +3074,27 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2514655646.7074704921465758</t>
+          <t>2531820394.5145716138260667</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>120968245.5405302322566729</t>
+          <t>121732495.5327970613200271</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.7960019162448302</t>
+          <t>0.8014353330087523</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-6.0570057873357020</t>
+          <t>-5.4380962513170565</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.8043753579066322</t>
+          <t>0.8029862515558480</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3103,7 +3103,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="44">
@@ -3139,27 +3139,27 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2506338632.4158429593908971</t>
+          <t>2516755433.8775290546824364</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>24803475.4375168921511254</t>
+          <t>24964659.9946078151663381</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16.5638155097551222</t>
+          <t>16.6326577545266533</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-3.4862867385756772</t>
+          <t>-3.0426756135880773</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>16.8135854457573480</t>
+          <t>16.7947860510500625</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="45">
@@ -3200,27 +3200,27 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2101811268.7793260065387828</t>
+          <t>2109448878.9105546162727262</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>41272510.1657462387536871</t>
+          <t>41496019.7833358615592533</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2022508779883776</t>
+          <t>0.2029858218806858</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-4.9464558603646963</t>
+          <t>-4.5356682257785474</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2040717464484717</t>
+          <t>0.2036532869851435</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="46">
@@ -3265,27 +3265,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2007624216.0404274013968040</t>
+          <t>2017932366.9006062675018450</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>88676169.6388604117666954</t>
+          <t>89731895.7149255101135995</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.0381497210256249</t>
+          <t>10.0896906223828891</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-3.5034800915905096</t>
+          <t>-3.3515954640505875</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.1201591794082393</t>
+          <t>10.1080301364509111</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="47">
@@ -3330,27 +3330,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1959036832.3391614716912014</t>
+          <t>1972372076.7056276660095994</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22757160.4782930086793579</t>
+          <t>23020385.9044152673676558</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.0227834610011582</t>
+          <t>0.0229385489581322</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-5.4794807363545648</t>
+          <t>-4.9357830294772238</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0231585935657915</t>
+          <t>0.0231168750144423</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="48">
@@ -3395,27 +3395,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1956043997.5495399694629452</t>
+          <t>1968864590.6431538780648340</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>69504153.9801216275404946</t>
+          <t>69873874.3706417972833377</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>229.2026689030461673</t>
+          <t>230.7049429611233535</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-5.8405161075421223</t>
+          <t>-5.4724882889183235</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>230.2406184801842890</t>
+          <t>229.9681160090976073</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="49">
@@ -3456,32 +3456,32 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1921068080.4953683129687500</t>
+          <t>1931516772.0549792309375000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>85826748.8029185289213638</t>
+          <t>86603642.7883759417364614</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.3634299649769541</t>
+          <t>0.3654066609858666</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-6.1528722016873390</t>
+          <t>-5.8402562178233348</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.3761115254978733</t>
+          <t>0.3755070902972269</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="50">
@@ -3513,32 +3513,32 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1909225300.1006697026045044</t>
+          <t>1914050754.4524487211698307</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8371357.3680651630551270</t>
+          <t>8402986.1709214515875124</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22.2451400575284930</t>
+          <t>22.3013633371439866</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-2.9736444722341990</t>
+          <t>-2.6536743547826964</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>22.4939745414774474</t>
+          <t>22.4608051815367804</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="51">
@@ -3570,27 +3570,27 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1854812579.7276626023864738</t>
+          <t>1861481627.6244087027573087</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>32420868.5876664090023028</t>
+          <t>32496108.2163664427118694</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.2007733513434120</t>
+          <t>3.2122818514582171</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-6.7071073065479964</t>
+          <t>-6.5084650787542356</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3.2846944568648404</t>
+          <t>3.2737717671686061</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3599,7 +3599,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="52">
@@ -3635,32 +3635,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1791913807.9442281661504892</t>
+          <t>1801854633.9552019550775493</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>43895960.4035756039848386</t>
+          <t>44847856.3374500889358521</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.4611867619490877</t>
+          <t>3.4803880512295666</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-7.8890604869739984</t>
+          <t>-7.6787500923704659</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.6187712579667117</t>
+          <t>3.5969444001129779</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="53">
@@ -3692,27 +3692,27 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1759276099.3916992444197489</t>
+          <t>1767555384.7792514227107219</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>60728871.6159660285525038</t>
+          <t>60914112.0147459322625667</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.7231582956052051</t>
+          <t>2.7359736829640121</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-4.0189965468201196</t>
+          <t>-3.5856788413242423</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.7791181399685364</t>
+          <t>2.7746113191325839</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="54">
@@ -3757,27 +3757,27 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1663046554.1000661132295953</t>
+          <t>1667781804.2086878000182569</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>45114767.6245311916456593</t>
+          <t>45257356.0444050468173256</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.0641139039405092</t>
+          <t>0.0642964576819243</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-8.1687095034737330</t>
+          <t>-8.0148524623789621</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.0650133534219686</t>
+          <t>0.0649115868391312</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="55">
@@ -3818,27 +3818,27 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1645421599.2988718890375268</t>
+          <t>1654706339.0678902770221032</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>54137335.7538672824046803</t>
+          <t>54558054.1345065810949299</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.2089476501750967</t>
+          <t>4.2326977842744358</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-7.3081580421229405</t>
+          <t>-6.7166949566535948</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>4.3858141310301909</t>
+          <t>4.3758918958773279</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="56">
@@ -3883,27 +3883,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1564416325.3422081325001943</t>
+          <t>1572698970.0981830710708801</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>44625472.4100937419805845</t>
+          <t>44950777.3495961162902724</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1833873675677493</t>
+          <t>0.1843582935250483</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-8.0459599019246519</t>
+          <t>-7.5229382701776611</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1882228009118393</t>
+          <t>0.1877839629998194</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="57">
@@ -3944,27 +3944,27 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1532111846.8262972989014288</t>
+          <t>1541312353.2150975275048328</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>72256852.9387394260305537</t>
+          <t>73495471.4248479304045222</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3317757903515358</t>
+          <t>0.3337681418140623</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-4.6949628035524086</t>
+          <t>-4.0890266565674433</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3347457808490293</t>
+          <t>0.3342787286153585</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="58">
@@ -4005,27 +4005,27 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1471009833.8946186504668323</t>
+          <t>1467334025.4275592598641476</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>13220717.8345049584644924</t>
+          <t>12408498.7972102824056527</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.5677884423626287</t>
+          <t>17.5238894662878224</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-4.6712299247686292</t>
+          <t>-4.9109615521263812</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>18.0306465294782016</t>
+          <t>18.0010427894502002</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="59">
@@ -4070,27 +4070,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1396749109.6659824640000000</t>
+          <t>1410827960.6605581120000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>93429676.3567482015335452</t>
+          <t>94586902.3715917514983483</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.4849823297451328</t>
+          <t>0.4898708196738049</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-10.5088259865655151</t>
+          <t>-9.4752875696239887</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.5028413180145808</t>
+          <t>0.5009069681711168</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="60">
@@ -4131,27 +4131,27 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1355378390.4160754294409327</t>
+          <t>1369938502.8672657170340568</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>34248273.1339873409458228</t>
+          <t>34551655.5949595036837470</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.2391549856473331</t>
+          <t>5.2954364538186104</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-3.9373782802503067</t>
+          <t>-3.2903236864656875</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5.3046904681602489</t>
+          <t>5.2936643932589780</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="61">
@@ -4196,27 +4196,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1354300696.2258215326062472</t>
+          <t>1356745023.4707309026682201</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>638155.6177684378551772</t>
+          <t>641288.7701626320564898</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11.0515537610670625</t>
+          <t>11.0715003017666565</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-0.9648178577301260</t>
+          <t>-0.8619525572045405</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.0779473885241439</t>
+          <t>11.0742446459175479</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="62">
@@ -4261,27 +4261,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1276622302.3534521323596707</t>
+          <t>1283915640.4706094607607447</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>25887501.6302859689123556</t>
+          <t>26160665.6484985250518837</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.4744200940296352</t>
+          <t>0.4771304541329743</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-4.8879280183415012</t>
+          <t>-4.4314894483614882</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.4723689064591215</t>
+          <t>0.4716476797971150</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="63">
@@ -4322,27 +4322,27 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1238722561.7362119139422342</t>
+          <t>1246676762.6033562908945136</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>56353053.5764173030149113</t>
+          <t>57286716.0317907658068210</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7643105408630777</t>
+          <t>0.7692184030064616</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-8.4556177401871675</t>
+          <t>-7.9611169433862505</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7867260737979288</t>
+          <t>0.7850005165233475</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="64">
@@ -4387,27 +4387,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1183404746.0039250600000000</t>
+          <t>1191234770.1155109600000000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>54920270.0702769761137439</t>
+          <t>55509764.4224532928073038</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4696050579380655</t>
+          <t>0.4727122103632980</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-7.7219336645800228</t>
+          <t>-7.2162166198989094</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4831587145785492</t>
+          <t>0.4819306928483113</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="65">
@@ -4452,32 +4452,32 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1089956532.9898834400000000</t>
+          <t>1099987973.7117743500000000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>76197939.5246974808601961</t>
+          <t>77037706.2000971402886798</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.4448802175468912</t>
+          <t>0.4489746831476630</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-7.8991191975409341</t>
+          <t>-7.2204360308916088</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.4746995954653084</t>
+          <t>0.4732417511268104</t>
         </is>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="66">
@@ -4513,27 +4513,27 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1088805017.1662230584976032</t>
+          <t>1097148630.1213933849797655</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>38937342.1059252261307533</t>
+          <t>38646153.4805548113045795</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1283.8555126481847417</t>
+          <t>1293.6938154838731654</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-11.8179873141884518</t>
+          <t>-11.1144035836948587</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1377.3787792446152030</t>
+          <t>1365.6651917439821381</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="67">
@@ -4574,27 +4574,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1070235050.6933275986867364</t>
+          <t>1070156987.8680359581709838</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8142955.2672438648674953</t>
+          <t>8141779.5059726454296845</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0681997463540025</t>
+          <t>0.0681947718721061</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-2.0919419480048241</t>
+          <t>-2.0651457844343615</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0688021891602972</t>
+          <t>0.0687431017553435</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="68">
@@ -4639,32 +4639,32 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>969945715.5151663799052235</t>
+          <t>976331197.3122773245312771</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10262888.1457316179330239</t>
+          <t>10365674.7558606008508500</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5485133137658671</t>
+          <t>0.5521243630488310</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-5.5249213522150777</t>
+          <t>-5.1890695643545925</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.5622747964606907</t>
+          <t>0.5607393093750623</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="69">
@@ -4696,22 +4696,22 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>955777804.7163516257798949</t>
+          <t>961915715.5932057785932830</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11301114.4577377831404109</t>
+          <t>11373689.1011417572887887</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>603.8202917871117481</t>
+          <t>607.6979661988179893</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-3.1811863644928955</t>
+          <t>-2.8200482113556925</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="70">
@@ -4757,27 +4757,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>945439887.7417553660275009</t>
+          <t>951874736.5640840923995073</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>18885875.9414001822354664</t>
+          <t>19027774.4947739669366454</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6223506842340983</t>
+          <t>0.6265865247348464</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-5.6649086294751152</t>
+          <t>-4.9451531823475113</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.6292294061095763</t>
+          <t>0.6265622914257434</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4786,7 +4786,7 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="71">
@@ -4818,32 +4818,32 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>938162826.3570093276582644</t>
+          <t>944028010.9010396970519914</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>72317537.6205415119018028</t>
+          <t>72832124.2538959299504867</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.7739677945459865</t>
+          <t>0.7788064684079382</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-8.3048885828177748</t>
+          <t>-7.7303289068561315</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.8001925716231685</t>
+          <t>0.7984820503301564</t>
         </is>
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="72">
@@ -4875,22 +4875,22 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>898582440.8637155838094735</t>
+          <t>898582459.0946837021955001</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>22221876.2554632308956546</t>
+          <t>22220725.7004632324523059</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.9976964783104505</t>
+          <t>0.9976964985523024</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.0011156652422023</t>
+          <t>-0.0022846510775210</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -4900,7 +4900,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="73">
@@ -4932,32 +4932,32 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>879367556.4720158196439198</t>
+          <t>885191982.2847630618795874</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>53492670.7642846965889532</t>
+          <t>53794434.8022967652647113</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000112892594854</t>
+          <t>0.0000113640330586</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-8.3636623837188955</t>
+          <t>-7.8580759643105981</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.0000115616252007</t>
+          <t>0.0000115118747924</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="74">
@@ -4989,32 +4989,32 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>877503390.8380560797029018</t>
+          <t>882390168.3221567905715871</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>48230289.1594706576314658</t>
+          <t>48755190.3846543971820610</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.1797293094238838</t>
+          <t>0.1807302139807161</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-6.4512737260460375</t>
+          <t>-6.0159833187340152</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.1821464847958657</t>
+          <t>0.1817410755645439</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="75">
@@ -5046,27 +5046,27 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>866682483.2987570627533135</t>
+          <t>873887205.0400928502751168</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10742740.4332538394652245</t>
+          <t>10822210.6118117108048251</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.0886614482151354</t>
+          <t>0.0893984898375097</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-6.8743387485876290</t>
+          <t>-6.0181161393629331</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.0913646475318233</t>
+          <t>0.0911073638691793</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5075,7 +5075,7 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="76">
@@ -5111,27 +5111,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>863736757.2105519742915436</t>
+          <t>868354716.6944952243536303</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>45775295.8093810811401494</t>
+          <t>46150998.9003946191166332</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>8.7271758484691478</t>
+          <t>8.7738356023131703</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-5.6229271758846421</t>
+          <t>-4.9565324226529550</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8.9110532991196106</t>
+          <t>8.8736290555783592</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="77">
@@ -5176,27 +5176,27 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>846394498.1122892877531639</t>
+          <t>851562953.7912270973863332</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>59388903.7026077457520198</t>
+          <t>59410841.5595608581575820</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.5441020272576751</t>
+          <t>0.5474245526509444</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-4.1799061255695576</t>
+          <t>-3.7220613813275818</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.5619135177794020</t>
+          <t>0.5606892622302187</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5205,7 +5205,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="78">
@@ -5241,27 +5241,27 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>837544565.9016666718752774</t>
+          <t>840759571.2912169595663004</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>10675463.9206836976571386</t>
+          <t>10711992.1584636375171202</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>69.3748647491287123</t>
+          <t>69.6411676697710958</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-3.1347310576675061</t>
+          <t>-2.7173357483851560</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>69.3781264400720656</t>
+          <t>69.2811401687994097</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="79">
@@ -5306,27 +5306,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>830700432.0442866000000000</t>
+          <t>836039972.3196338000000000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9397271.3350656093382241</t>
+          <t>9499187.3052904765952585</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.8307004320442866</t>
+          <t>0.8360399723196338</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-6.8389242356599970</t>
+          <t>-6.1939983740360331</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.8517306820074946</t>
+          <t>0.8496616412330231</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5335,7 +5335,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="80">
@@ -5371,28 +5371,28 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>825838935.7071435265531241</t>
+          <t>830198277.1416908051489310</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>3994703.7731995951026983</t>
+          <t>4020821.1437301738903098</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.1626335449853718</t>
+          <t>2.1740494005629778</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-4.2490424005815022</t>
+          <t>-4.2437009454162382</t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="81">
@@ -5424,27 +5424,27 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>805593933.4842965288967364</t>
+          <t>806973804.9338775850067293</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>11999002.6133810408858173</t>
+          <t>12040100.9838446369146222</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.0132099956544099</t>
+          <t>0.0132326225574872</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-3.8769049079181192</t>
+          <t>-3.6887098513259874</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.0133742920755036</t>
+          <t>0.0133463487595621</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="82">
@@ -5485,27 +5485,27 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>801475978.0584303065416922</t>
+          <t>801516669.7799929918057961</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>8939006.0810610567663604</t>
+          <t>8947105.4518134354357686</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.9982620237116672</t>
+          <t>0.9983127064537924</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-0.1806435559488069</t>
+          <t>-0.1815774802922565</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.9985215089226389</t>
+          <t>0.9984617540967416</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="83">
@@ -5546,32 +5546,32 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>791207013.5010093493960000</t>
+          <t>795127890.3225529802920000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>148966341.3839507739103852</t>
+          <t>147650655.9995572899750983</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7.3614348111370427</t>
+          <t>7.3979148708834479</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-16.6633003211165513</t>
+          <t>-16.4256168129871732</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>8.0864170633587263</t>
+          <t>8.0151963427271458</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="84">
@@ -5603,27 +5603,27 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>781449503.6739119553681474</t>
+          <t>788485386.8367231244493098</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>39392005.7579894052301206</t>
+          <t>39861790.5905127886669281</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.8703300022568320</t>
+          <t>0.8781661326532031</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-7.1232729560979133</t>
+          <t>-6.4430708967681380</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.9045673142712821</t>
+          <t>0.9024296962588342</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="85">
@@ -5664,27 +5664,27 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>767648058.8995042616996928</t>
+          <t>767629346.5031013806052952</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6505929.2955044483643827</t>
+          <t>6521254.6511759625828904</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3113.8877306043397872</t>
+          <t>3113.8118256360491498</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.2324938147597639</t>
+          <t>0.2405160745701050</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3111.8197180447126622</t>
+          <t>3111.9726842137706695</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="86">
@@ -5725,27 +5725,27 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>695207449.5693101908256164</t>
+          <t>696775670.0897274689012979</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3344034.5389671337725542</t>
+          <t>3354281.4765150424480164</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.0759296229887041</t>
+          <t>1.0783566610107233</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-3.8727989786403779</t>
+          <t>-3.6690439802786020</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.0883141746803229</t>
+          <t>1.0872846051811889</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="87">
@@ -5786,27 +5786,27 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>680466704.6965870601872505</t>
+          <t>684048671.4149622103839897</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13341133.9542752778044346</t>
+          <t>13501738.8825533788555203</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.1947071061119463</t>
+          <t>2.2062600120166955</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-1.5749669422183704</t>
+          <t>-1.0572592606431501</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.1652630825696802</t>
+          <t>2.1638107184053501</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5815,13 +5815,13 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5831,58 +5831,62 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>1036827531.6780720000000000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr"/>
+          <t>43744189534.5928200000000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>673099222.5390466155562326</t>
+          <t>675934600.2598317924475358</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>9733887.5883731963745640</t>
+          <t>38670584.4551439913864919</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.6491911161441259</t>
+          <t>0.0154519859083297</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-4.1852471680886808</t>
+          <t>-7.2448445296643593</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.6637110068922031</t>
+          <t>0.0155755438700855</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5892,56 +5896,52 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>43744189534.5928200000000000</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1036827531.6780720000000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>670480474.9964383622693059</t>
+          <t>673831428.5401824338962507</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>38156480.3793952565705838</t>
+          <t>9784674.5781892348970444</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.0153273036288905</t>
+          <t>0.6498973145992834</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-7.8666062818849727</t>
+          <t>-4.0837261451111769</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.0156240585593196</t>
+          <t>0.6629573109917954</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="90">
@@ -5973,27 +5973,27 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>667527677.0504419528455423</t>
+          <t>670010329.3811026259130289</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>15313112.4445538185821614</t>
+          <t>15437541.0003241915126376</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.2690171720934153</t>
+          <t>0.2700176940676300</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-4.0506877420015184</t>
+          <t>-3.6949553997828084</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.2726459687979406</t>
+          <t>0.2719935528067818</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="91">
@@ -6034,27 +6034,27 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>663160189.2517588379211000</t>
+          <t>663315970.4451091582092000</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1117956.4923917130911966</t>
+          <t>1119582.5506941898859089</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0000006725345523</t>
+          <t>0.0000006726925356</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-1.0369176348312984</t>
+          <t>-1.1446210686205828</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0000006787313542</t>
+          <t>0.0000006785067114</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="92">
@@ -6095,27 +6095,27 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>656029891.6018939970333274</t>
+          <t>656440612.0699848713241346</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>46961060.1468940123415554</t>
+          <t>47179474.3602999591058587</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3118.4393549740026085</t>
+          <t>3120.3917155112038202</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.7794311876670654</t>
+          <t>0.8938231713416683</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3104.1064416028487498</t>
+          <t>3106.2132606304694097</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="93">
@@ -6156,27 +6156,27 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>637997008.7857012979970624</t>
+          <t>643333898.4821957136702312</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>10752417.7391426953071054</t>
+          <t>11074007.9250574728216734</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.1729546685498464</t>
+          <t>0.1744014464748732</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-5.8786070124222296</t>
+          <t>-5.0420554757971498</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.1753388064911254</t>
+          <t>0.1749882961790816</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="94">
@@ -6221,27 +6221,27 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>637312770.9953671654822282</t>
+          <t>642893675.9930117469782132</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>43863980.4958921333897647</t>
+          <t>44371785.7632005035311824</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.4874479490292167</t>
+          <t>0.4917164978778142</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-4.7869320647319512</t>
+          <t>-4.3281372022399099</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.4891359202111243</t>
+          <t>0.4883480961803173</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="95">
@@ -6282,27 +6282,27 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>617727453.2532327684595247</t>
+          <t>618550480.8274129470079088</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>8021229.0329227161314426</t>
+          <t>8035242.4952367962671806</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>31.1284498623647251</t>
+          <t>31.1699237720044652</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-5.5089276973914030</t>
+          <t>-5.3607716789000495</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>32.1680266069767518</t>
+          <t>32.1134346834240365</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="96">
@@ -6343,27 +6343,27 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>610361810.1630304523995784</t>
+          <t>612140479.4307130801030151</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>5943755.8034542716035440</t>
+          <t>5963499.4733320285565362</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.1022988982820189</t>
+          <t>0.1025970098339907</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-3.8361449759440496</t>
+          <t>-3.5021706427026627</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.1035489193639471</t>
+          <t>0.1034965879236058</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="97">
@@ -6408,27 +6408,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>600168847.8462108434084566</t>
+          <t>603786260.1301708746558791</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>60071163.6820132203548264</t>
+          <t>60670783.5947500538798113</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.9884816708114827</t>
+          <t>2.0004668947167828</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-7.3181694702050256</t>
+          <t>-6.4646268247626904</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.0125416468468761</t>
+          <t>2.0085547104487743</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="98">
@@ -6469,27 +6469,27 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>592840899.7288378814639338</t>
+          <t>594222462.9006889619505658</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>7816060.2957314757030214</t>
+          <t>7847665.1969374822440106</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3769956106414815</t>
+          <t>0.3778741654980206</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-4.3467710389223881</t>
+          <t>-4.1565532281742545</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.3841858896809982</t>
+          <t>0.3832745655695799</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="99">
@@ -6534,27 +6534,27 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>575645728.9507641333462936</t>
+          <t>579262544.1824133479025006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>10347820.0593351208372001</t>
+          <t>10442760.8739948745103446</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>36.2341672352677816</t>
+          <t>36.4618285925430486</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-2.0297922489031671</t>
+          <t>-1.7440984590406621</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>36.0665276317425307</t>
+          <t>36.0338364089196340</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6563,7 +6563,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="100">
@@ -6599,27 +6599,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>567468878.4366171013410829</t>
+          <t>572038782.6309731994196095</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>3683151.0475988545770633</t>
+          <t>3766781.3204107295429499</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3.1567977115982481</t>
+          <t>3.1822198336760457</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1.3916145539516959</t>
+          <t>1.8314948230235200</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>3.1252861785399789</t>
+          <t>3.1281213582511125</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
     <row r="101">
@@ -6664,27 +6664,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>561547096.6227401567937691</t>
+          <t>565351361.5889217448536238</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>32019059.5569617085401784</t>
+          <t>32715960.2208523061170783</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15.7740589137890567</t>
+          <t>15.8809220781809960</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-5.8845118311693865</t>
+          <t>-5.2729660719649166</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>16.1924942120804199</t>
+          <t>16.1609566383691538</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743296428778</v>
+        <v>1743297089423</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19843837.0000000000000000</t>
+          <t>19844090.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1645600371530.6442755914265066</t>
+          <t>1645408213162.3085423711777190</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>6787931376.1628427247731435</t>
+          <t>5718748127.1528516033442327</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82927.5291633691748018</t>
+          <t>82916.7884827325688591</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-1.8009940896074362</t>
+          <t>0.4401747280786942</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82979.2555203909947156</t>
+          <t>82791.3842202897238302</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120651811.6664275200000000</t>
+          <t>120654453.5456346000000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>221238742768.5913530967335473</t>
+          <t>219447239944.2114512478497129</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5548289274.7091994530292840</t>
+          <t>4766428019.3459411165197428</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1833.6959861014094902</t>
+          <t>1818.8076237170217083</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-3.7907520723792152</t>
+          <t>-1.3563933435731850</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1846.8058948327428276</t>
+          <t>1825.8535093424786455</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="4">
@@ -655,27 +655,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144656039999.9366479492830614</t>
+          <t>144472528344.4947595458365958</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21803680461.6579213945873683</t>
+          <t>18307782667.4688571644720034</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0032853596992851</t>
+          <t>1.0020125849348224</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1751871928315050</t>
+          <t>0.0086347766169269</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0005749640165395</t>
+          <t>1.0002823425646397</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="5">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>124997297363.8779204833653026</t>
+          <t>125128539404.0488101244391484</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1638145769.1721286801968047</t>
+          <t>1238750853.4358423662315195</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1475096596149217</t>
+          <t>2.1497644567582078</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-2.9692829302731786</t>
+          <t>1.5159096818527332</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1234850546499362</t>
+          <t>2.1515863032611537</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87163354463.4157238705464440</t>
+          <t>87075359850.5724607777222570</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>316941868.5504552792170383</t>
+          <t>255971674.4396049080707602</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>605.2723642581100068</t>
+          <t>604.6613195400000179</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-2.6306758946870764</t>
+          <t>-0.2590069306687397</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>606.1983101043918549</t>
+          <t>605.3547296331083335</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>512024735.6993850000000000</t>
+          <t>512293807.5507926300000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64106576736.5184495031453656</t>
+          <t>64173621326.0654427258974176</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1311190636.5569144336939894</t>
+          <t>1030343021.0930431740770552</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125.2021089351356679</t>
+          <t>125.2672204508401971</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-3.6044688822377920</t>
+          <t>-0.7470015985162058</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>125.9657787729131898</t>
+          <t>124.9818949943009180</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60249163069.5058300000000000</t>
+          <t>60242525341.8881500000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60326188982.8522269574726117</t>
+          <t>60263652571.4768036023903822</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3938548447.2261661835216679</t>
+          <t>3212131486.3803947144172163</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0012784561547774</t>
+          <t>1.0003507029207151</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.1009394973542220</t>
+          <t>-0.0270781050692053</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0014767974539042</t>
+          <t>1.0015822519802545</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="9">
@@ -962,33 +962,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148636156383.7052300000000000</t>
+          <t>148644126383.7052300000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25323753239.1835317661563318</t>
+          <t>25192339632.7758404781160303</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>594437659.1801780086268755</t>
+          <t>441209058.9153757065191887</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1703741125665958</t>
+          <t>0.1694808953819348</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-6.0686260074544599</t>
+          <t>-0.7349720309518281</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1722242722826475</t>
+          <t>0.1695603448885122</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="10">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23771977841.4471850239419746</t>
+          <t>23723258891.0099981885348963</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>327578924.8543985455292427</t>
+          <t>229640964.0885899315699713</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6745334421358229</t>
+          <t>0.6731510345988975</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-4.9541273660256890</t>
+          <t>0.0674625960801444</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6776034453413297</t>
+          <t>0.6739562499198983</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94994333235.4930700000000000</t>
+          <t>94994605853.7637200000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21875136033.2702502834964841</t>
+          <t>21915590545.0177149452066276</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>284280223.9630108460337031</t>
+          <t>237089279.7413524358328388</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2302783259612055</t>
+          <t>0.2307035262481634</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.0282408493613735</t>
+          <t>-1.6395153608264012</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2334863945424018</t>
+          <t>0.2320953549970309</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9370397.4741040600000000</t>
+          <t>9367578.0451454800000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17108030022.0500621826818085</t>
+          <t>17013824733.8718290823942758</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6966864.2798131010344101</t>
+          <t>6260068.3419517004753704</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1825.7528636676991339</t>
+          <t>1816.2458483800763078</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-4.0384262889465598</t>
+          <t>-1.4069402425700687</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1856.6007047467115695</t>
+          <t>1832.9886302838556275</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10622166943.4478589432961556</t>
+          <t>10598806295.6447535423859155</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>113069494.8774586400333772</t>
+          <t>107738586.7663614385666362</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82293.0000839416095287</t>
+          <t>82112.0183876590350267</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-2.3633857735699158</t>
+          <t>-0.3333061838342018</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82858.5756787920442054</t>
+          <t>82981.7007507780351351</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="14">
@@ -1271,38 +1271,38 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2484481290.2083545000000000</t>
+          <t>2484528578.6548066000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9118365895.6041472765326977</t>
+          <t>9472862912.8328174480942813</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>90060417.1979437715978933</t>
+          <t>116254527.9634560824456334</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.6701286226387559</t>
+          <t>3.8127405714776245</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-3.8339416539194979</t>
+          <t>3.1863733089884897</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.7189384458816226</t>
+          <t>3.7655672859094817</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="15">
@@ -1334,27 +1334,27 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8908742037.0967770360407129</t>
+          <t>8958597212.6335910550156019</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>149729896.9923917064241619</t>
+          <t>135506293.4273732830841045</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13.5576661660143526</t>
+          <t>13.6335376890376460</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-5.1055243658124749</t>
+          <t>-0.4597095166511734</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.7457180531963252</t>
+          <t>13.6120301627217862</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="16">
@@ -1389,33 +1389,33 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>923842242.9000000000000000</t>
+          <t>923836969.9000000000000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8861972999.7187600514796678</t>
+          <t>8901839290.0928122997258208</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5077252.4701464625415234</t>
+          <t>5023166.8719188923953401</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.5925176271442827</t>
+          <t>9.6357253283080724</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-1.3438852814405950</t>
+          <t>0.1144331361562571</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.5461364621487550</t>
+          <t>9.5406858729989225</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30787183949.8020600000000000</t>
+          <t>30787178407.4941640000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8236068214.6058648044301618</t>
+          <t>8265176800.0094639130424089</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>64409490.9602687408891295</t>
+          <t>53000727.5913387874859268</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2675161271012842</t>
+          <t>0.2684616527897720</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-2.9103961096761259</t>
+          <t>0.2747258630171079</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2676030983765726</t>
+          <t>0.2676661239757318</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="18">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>414842518.6643743000000000</t>
+          <t>414844783.0787661700000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1525,27 +1525,27 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8167767101.3844922988942224</t>
+          <t>8051635600.1507045998396600</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>131347962.3695596230835735</t>
+          <t>123599458.8422985216381119</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19.6888378936696513</t>
+          <t>19.4087907780726472</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-3.5448335168692977</t>
+          <t>-3.2203503693808117</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19.9396176946555383</t>
+          <t>19.6268932847541679</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1554,13 +1554,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1570,62 +1570,62 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>589250824850659.8000000000000000</t>
+          <t>3169845047.4838877000000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>589552695333683.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7487771074.9913127067659214</t>
+          <t>7482713340.3192561276521836</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>86865024.1398232121926783</t>
+          <t>553534546.1655287625586681</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.0000127072729629</t>
+          <t>2.3605927823692116</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-4.6386686334144398</t>
+          <t>2.1734251276508148</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.0000127713982102</t>
+          <t>2.3524045340857563</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1635,56 +1635,56 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Shiba Inu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>589250822785832.4000000000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>589552695333683.0000000000000000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7319371445.2538029592242559</t>
+          <t>7426139533.0259675745838750</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>603811213.5792201639459010</t>
+          <t>76263835.4800202510386686</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.3090628518462328</t>
+          <t>0.0000126026799554</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-8.3801118580093186</t>
+          <t>-1.4675099067605612</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.3572283973579266</t>
+          <t>0.0000126341033021</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7291815763.0727263280639646</t>
+          <t>7199344865.4500467226974255</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>129297238.4542242752037435</t>
+          <t>92383783.2716593654552800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1727124461220426</t>
+          <t>0.1705221994890443</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-5.5434628231165468</t>
+          <t>0.6388590766725307</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1726025041526711</t>
+          <t>0.1711704604492137</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6469254257.0149880701896458</t>
+          <t>6524123028.5938966723779963</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>203624267.8348365291774100</t>
+          <t>167438391.2111418247739044</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>85.6191821011924101</t>
+          <t>86.3453584360287149</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-2.3575808053747788</t>
+          <t>-0.0174456870136912</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>85.9439078687093424</t>
+          <t>85.7283558199608457</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="23">
@@ -1846,27 +1846,27 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6211954278.5391776717943300</t>
+          <t>6207093548.6842221570056020</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>84990974.2955041219007478</t>
+          <t>71649168.2635192180916581</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.0807256767016805</t>
+          <t>4.0775325905588617</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-4.6917572972211935</t>
+          <t>-0.2311142956699293</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.1159123674808479</t>
+          <t>4.0858309047599400</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1875,7 +1875,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="24">
@@ -1907,22 +1907,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6144102402.9310631778808316</t>
+          <t>6155101635.7528262072104602</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>458398419.5947099863037350</t>
+          <t>460014715.1470925548562794</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1820.3034927190071803</t>
+          <t>1823.5622180151762763</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-4.5104850991144580</t>
+          <t>-0.9902239768077678</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="25">
@@ -1968,27 +1968,27 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6104196066.7293727320696468</t>
+          <t>6075993196.3036925716925741</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>31935081.2685878052710320</t>
+          <t>33764378.2456257441561601</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2621374954955497</t>
+          <t>6.2332048972561419</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.2400808515054984</t>
+          <t>-0.1291820518119847</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.1878268643898281</t>
+          <t>6.2202983241111179</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="26">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19848862.5000000000000000</t>
+          <t>19849115.6250000000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6023188746.3479994497551575</t>
+          <t>6056506018.1945628304810350</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>50523838.6870920845421259</t>
+          <t>46157023.4297446612042914</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>303.4525906130892614</t>
+          <t>305.1272476123007536</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-1.5342009668764545</t>
+          <t>-0.5820802661752306</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>304.8505496213330562</t>
+          <t>304.8533220603252699</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="27">
@@ -2094,22 +2094,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5577893743.8175652400000000</t>
+          <t>5500491881.5415703600000000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>128223484.9942608692832941</t>
+          <t>80862790.7038795745418300</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.6482447865146377</t>
+          <t>4.5837432346179753</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-4.0729111636287373</t>
+          <t>-0.5105971018137577</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2135,58 +2135,58 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6773781074.8199860000000000</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5365382702.6648720000000000</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5406233793.7494721118674033</t>
+          <t>5361791683.7172770712587038</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>94983084.9193920878098903</t>
+          <t>63905023.0946243851125382</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.7981116800254935</t>
+          <t>0.9993307059073696</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-4.0535733621508638</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
+          <t>-0.0221042281542629</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.9994919559425325</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2196,58 +2196,54 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
+          <t>5247255782.7102750000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5364422326.3378411111389745</t>
+          <t>5246902513.3316238460008273</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>76516309.8357458628932869</t>
+          <t>35500615.2659193357231184</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9998210050652018</t>
+          <t>0.9999326754034337</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0317284179221477</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>0.9993785585610450</t>
-        </is>
-      </c>
+          <t>0.0317504921038749</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2257,48 +2253,52 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5247283786.4901540000000000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
+          <t>6773814332.2604940000000000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>100000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5245728803.7280329393707867</t>
+          <t>5167207446.9047400375356706</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>42153539.5057779115581172</t>
+          <t>85907964.9047621484009899</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.9997036594883386</t>
+          <t>0.7628209445150806</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.0325274575496051</t>
+          <t>-2.8679910503264232</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="31">
@@ -2334,27 +2334,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4298824719.0012374183297740</t>
+          <t>4201769039.5293132697724700</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20604134.1364157196968593</t>
+          <t>16980719.6435836138813222</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.8735008797437743</t>
+          <t>12.5828525149608915</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-4.6147180575070059</t>
+          <t>-2.4782546046548454</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12.8537775548344583</t>
+          <t>12.7101163257018110</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="32">
@@ -2395,27 +2395,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3993800282.9340974800817414</t>
+          <t>4008181468.8650203385339444</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>29365008.4789742421566112</t>
+          <t>30438828.4203221909345126</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>216.5043471615185573</t>
+          <t>217.2839528129797841</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-0.2779796124097036</t>
+          <t>0.4734842786752440</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>216.1808981338184985</t>
+          <t>215.9741347888256585</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="33">
@@ -2456,27 +2456,27 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3769326792.3955632119224379</t>
+          <t>3749159627.7413234019014864</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>61876197.0485251321800817</t>
+          <t>53749643.6972073128682960</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.9973945085841864</t>
+          <t>5.9653064331233209</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-3.4168810101982324</t>
+          <t>-0.7379963201913656</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.0572853260288021</t>
+          <t>5.9756400520575151</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="34">
@@ -2511,33 +2511,33 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>603958016.4496461000000000</t>
+          <t>604031596.5939680000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3154710197.9810056551877096</t>
+          <t>3195108080.1067342020275697</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>49438667.3789587457457948</t>
+          <t>42262851.0206306254879862</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.2233932029347008</t>
+          <t>5.2896373271256143</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-6.2991264733658025</t>
+          <t>-0.5549697913016573</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.3491377834569602</t>
+          <t>5.2571858525231541</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="35">
@@ -2572,33 +2572,33 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1198166800.0000000000000000</t>
+          <t>1198396448.0000000000000000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3097008436.6592812081353600</t>
+          <t>3160198965.9692502467403296</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>74241312.1412922275313487</t>
+          <t>91849522.0372693899869315</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.5847890599700152</t>
+          <t>2.6370229745284177</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-5.5714181963339703</t>
+          <t>1.7930386790045982</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.6312731741156523</t>
+          <t>2.6389980224807920</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="36">
@@ -2643,27 +2643,27 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3029773532.5168219759114819</t>
+          <t>2967439521.6201030865441585</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>324447816.0335298952280498</t>
+          <t>299995079.3028432586465927</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0000072019165067</t>
+          <t>0.0000070537455833</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-8.1783750551832437</t>
+          <t>-3.8524858332079654</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0000074251425768</t>
+          <t>0.0000071753556832</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="37">
@@ -2704,27 +2704,27 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2891620175.4399099420000000</t>
+          <t>2912819056.6660053240000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2172852.5769088583279429</t>
+          <t>2096408.2641717460396120</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48.1936695906651657</t>
+          <t>48.5469842777667554</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-2.0309749332122079</t>
+          <t>0.0806682787645802</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48.2209627780203238</t>
+          <t>48.4143920352894095</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="38">
@@ -2769,27 +2769,27 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2790157658.1501046850958512</t>
+          <t>2769337703.7960085895384152</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>31308438.8177280376136383</t>
+          <t>42910391.4781205954730584</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.1050054112391722</t>
+          <t>0.1042218684660437</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>4.4072716750636409</t>
+          <t>3.4326572548626916</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.1014797713652044</t>
+          <t>0.1050045024148143</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2798,7 +2798,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="39">
@@ -2834,27 +2834,27 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2699961505.2057555335563040</t>
+          <t>2699772651.6693683250662620</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>89062690.9020856337598402</t>
+          <t>64145981.9112379831937131</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.8024388541729500</t>
+          <t>0.8023827261818461</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-3.8786963710640158</t>
+          <t>-0.4899709235006019</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8128771008483150</t>
+          <t>0.8078779220109429</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2863,13 +2863,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2879,54 +2879,58 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2588088088.1839030000000000</t>
+          <t>482076932.8747825000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2584061240.9943523653083949</t>
+          <t>2591823755.8688453073314074</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>1580817680.8818198947735466</t>
+          <t>30484427.3277550327387497</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.9984440841840216</t>
+          <t>5.3763695773887212</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-0.0794863613942713</t>
+          <t>-0.7841230571003332</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.9986678437559490</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>5.3609082582608700</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://www.dfinityexplorer.org/#/</t>
+        </is>
+      </c>
       <c r="M40" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2936,58 +2940,54 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>482075205.8843776600000000</t>
+          <t>2588088088.1678160000000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2581685391.1439520595162100</t>
+          <t>2583960590.5102734226441160</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>30285562.2896538722392984</t>
+          <t>1029775613.1339066283103287</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>5.3553581674207719</t>
+          <t>0.9984051942913332</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-4.7779118293248823</t>
+          <t>-0.0191701432646542</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>5.4028287789997180</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>0.9986211944078144</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2997,58 +2997,58 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>15093733.5954206200000000</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2549908349.0321047639046086</t>
+          <t>2527930536.2107285663304451</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>132152343.3703900258897286</t>
+          <t>80384786.5269370643010838</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>168.9382108748584928</t>
+          <t>0.8002040174336619</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-3.9756145765020624</t>
+          <t>0.7139311027876482</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>173.3192129933888652</t>
+          <t>0.7984788449640853</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3058,58 +3058,62 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Ethereum Classic</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr"/>
+          <t>151321540.2914661500000000</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>210700000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2531820394.5145716138260667</t>
+          <t>2518538271.2183289311813451</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>121732495.5327970613200271</t>
+          <t>22073494.2213449666324360</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>0.8014353330087523</t>
+          <t>16.6436203753099326</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-5.4380962513170565</t>
+          <t>-0.3173136843331806</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.8029862515558480</t>
+          <t>16.6754770189594099</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3119,56 +3123,52 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>151314087.6834661400000000</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>210700000.0000000000000000</t>
-        </is>
-      </c>
+          <t>15093850.1019675900000000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2516755433.8775290546824364</t>
+          <t>2480477522.3127977983604312</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>24964659.9946078151663381</t>
+          <t>122123189.4238789141187412</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>16.6326577545266533</t>
+          <t>164.3369654233845895</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-3.0426756135880773</t>
+          <t>-4.9327191687546952</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>16.7947860510500625</t>
+          <t>167.2506526747946012</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="45">
@@ -3200,27 +3200,27 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2109448878.9105546162727262</t>
+          <t>2125677493.8637828266678834</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>41496019.7833358615592533</t>
+          <t>34975271.9187835691712683</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2029858218806858</t>
+          <t>0.2045474519240588</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-4.5356682257785474</t>
+          <t>0.6511130688052530</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2036532869851435</t>
+          <t>0.2027933698041628</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="46">
@@ -3255,7 +3255,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199999429.3605040000000000</t>
+          <t>199999429.1037350000000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -3265,27 +3265,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2017932366.9006062675018450</t>
+          <t>2035525360.1065975143096493</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>89731895.7149255101135995</t>
+          <t>67817765.5761678811151084</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.0896906223828891</t>
+          <t>10.1776558524615507</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-3.3515954640505875</t>
+          <t>1.3879574760923528</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.1080301364509111</t>
+          <t>10.0967196223397926</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="47">
@@ -3330,27 +3330,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1972372076.7056276660095994</t>
+          <t>1964184580.0370603932843252</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>23020385.9044152673676558</t>
+          <t>19322183.1930679260967015</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.0229385489581322</t>
+          <t>0.0228433289459476</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-4.9357830294772238</t>
+          <t>-0.3931565804151255</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0231168750144423</t>
+          <t>0.0229436351790824</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3359,7 +3359,7 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="48">
@@ -3395,27 +3395,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1968864590.6431538780648340</t>
+          <t>1945000796.7737817470563632</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>69873874.3706417972833377</t>
+          <t>51460517.5329617147339260</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>230.7049429611233535</t>
+          <t>227.9086637098056868</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-5.4724882889183235</t>
+          <t>1.1762684817015759</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>229.9681160090976073</t>
+          <t>228.5842286857285730</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="49">
@@ -3456,38 +3456,38 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1931516772.0549792309375000</t>
+          <t>1944153476.2849278632812500</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>86603642.7883759417364614</t>
+          <t>73281963.4625906797015883</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.3654066609858666</t>
+          <t>0.3677972878576275</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-5.8402562178233348</t>
+          <t>-1.3720548504417159</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.3755070902972269</t>
+          <t>0.3672500959010286</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3497,54 +3497,58 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>85826625.2836886300000000</t>
+          <t>579488884.7562950000000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1914050754.4524487211698307</t>
+          <t>1914708485.3858905839257909</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>8402986.1709214515875124</t>
+          <t>31978362.7783752390274434</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>22.3013633371439866</t>
+          <t>3.3041332383642257</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-2.6536743547826964</t>
+          <t>2.2076198209492110</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>22.4608051815367804</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>3.2433517837001646</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://www.mintscan.io/celestia</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3554,52 +3558,48 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>579488884.7562950000000000</t>
+          <t>85826628.2767399300000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1861481627.6244087027573087</t>
+          <t>1912748173.4635396020805350</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>32496108.2163664427118694</t>
+          <t>6706613.9145861226422360</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.2122818514582171</t>
+          <t>22.2861856730065422</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-6.5084650787542356</t>
+          <t>-0.1531652724035264</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>3.2737717671686061</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>22.3755988290727650</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="52">
@@ -3635,32 +3635,32 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1801854633.9552019550775493</t>
+          <t>1827864130.9687097878394158</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>44847856.3374500889358521</t>
+          <t>43162292.1663150888734513</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.4803880512295666</t>
+          <t>3.5306269222896581</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-7.6787500923704659</t>
+          <t>-1.7941184139372928</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.5969444001129779</t>
+          <t>3.5267289726832598</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="53">
@@ -3686,33 +3686,33 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>646042539.0000000000000000</t>
+          <t>646143249.0000000000000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1767555384.7792514227107219</t>
+          <t>1783390606.6825216231768563</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>60914112.0147459322625667</t>
+          <t>49786355.0285187274391112</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.7359736829640121</t>
+          <t>2.7600545381269187</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-3.5856788413242423</t>
+          <t>-0.7617960895567618</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.7746113191325839</t>
+          <t>2.7500620240074429</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3721,13 +3721,13 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3737,62 +3737,58 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>25938937607.7175750000000000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>28704026601.0000000000000000</t>
-        </is>
-      </c>
+          <t>390934204.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1667781804.2086878000182569</t>
+          <t>1683788927.3133535968270408</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>45257356.0444050468173256</t>
+          <t>49927884.3509615151012786</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.0642964576819243</t>
+          <t>4.3070903238575502</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-8.0148524623789621</t>
+          <t>-1.5298393453193274</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.0649115868391312</t>
+          <t>4.2962353386074610</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3802,52 +3798,56 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+          <t>25942485466.1023500000000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1654706339.0678902770221032</t>
+          <t>1673393918.4620271640847856</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>54558054.1345065810949299</t>
+          <t>35402740.1732224496289226</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>4.2326977842744358</t>
+          <t>0.0645039936766491</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-6.7166949566535948</t>
+          <t>-0.3671223566536879</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>4.3758918958773279</t>
+          <t>0.0646049766080422</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="56">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8530665694.6491230000000000</t>
+          <t>8530769996.2217810000000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3883,27 +3883,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1572698970.0981830710708801</t>
+          <t>1558994329.6481137488808930</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>44950777.3495961162902724</t>
+          <t>27980041.6214093816160169</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1843582935250483</t>
+          <t>0.1827495443363942</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-7.5229382701776611</t>
+          <t>-1.0203728446262883</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1877839629998194</t>
+          <t>0.1836149137983526</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="57">
@@ -3944,27 +3944,27 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1541312353.2150975275048328</t>
+          <t>1540384598.0423855366826552</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>73495471.4248479304045222</t>
+          <t>59515724.3116629749732891</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3337681418140623</t>
+          <t>0.3335672382662457</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-4.0890266565674433</t>
+          <t>-0.0389081905929188</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3342787286153585</t>
+          <t>0.3322395408090533</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="58">
@@ -4005,27 +4005,27 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1467334025.4275592598641476</t>
+          <t>1474887064.7361723171876779</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>12408498.7972102824056527</t>
+          <t>6225800.8013229874533078</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.5238894662878224</t>
+          <t>17.6140929398562179</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-4.9109615521263812</t>
+          <t>1.0213558646834610</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>18.0010427894502002</t>
+          <t>17.5865542395612954</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="59">
@@ -4070,27 +4070,27 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1410827960.6605581120000000</t>
+          <t>1409566141.7837159040000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>94586902.3715917514983483</t>
+          <t>77462959.7294485471590406</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.4898708196738049</t>
+          <t>0.4894326881193458</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-9.4752875696239887</t>
+          <t>-1.0935322904672742</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.5009069681711168</t>
+          <t>0.4903278303471255</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="60">
@@ -4125,33 +4125,33 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>258701717.0000000000000000</t>
+          <t>258745395.0000000000000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1369938502.8672657170340568</t>
+          <t>1367199664.4673207316714155</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>34551655.5949595036837470</t>
+          <t>36619597.7304532896495680</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.2954364538186104</t>
+          <t>5.2839574766821289</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>-3.2903236864656875</t>
+          <t>0.7542216654266165</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5.2936643932589780</t>
+          <t>5.3208366696182104</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="61">
@@ -4196,27 +4196,27 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1356745023.4707309026682201</t>
+          <t>1358654517.0417458659000833</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>641288.7701626320564898</t>
+          <t>494999.2220712987180253</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11.0715003017666565</t>
+          <t>11.0870824179948276</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-0.8619525572045405</t>
+          <t>0.3335320410502523</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.0742446459175479</t>
+          <t>11.0659419516174151</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4225,7 +4225,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="62">
@@ -4261,27 +4261,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1283915640.4706094607607447</t>
+          <t>1300386060.1236361107200213</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>26160665.6484985250518837</t>
+          <t>29010225.6029017856891408</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.4771304541329743</t>
+          <t>0.4832512135980812</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-4.4314894483614882</t>
+          <t>4.5601149346556208</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.4716476797971150</t>
+          <t>0.4759175240221405</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="63">
@@ -4322,27 +4322,27 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1246676762.6033562908945136</t>
+          <t>1220425171.5658997786197620</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>57286716.0317907658068210</t>
+          <t>54594539.0719619644818378</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7692184030064616</t>
+          <t>0.7530207746075470</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-7.9611169433862505</t>
+          <t>-3.3070664844461663</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7850005165233475</t>
+          <t>0.7640222375971435</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="64">
@@ -4387,27 +4387,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1191234770.1155109600000000</t>
+          <t>1193721337.8999644400000000</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>55509764.4224532928073038</t>
+          <t>54021847.3893154828041537</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4727122103632980</t>
+          <t>0.4736989436110970</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-7.2162166198989094</t>
+          <t>-0.6745263403410042</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4819306928483113</t>
+          <t>0.4728618706686799</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4416,13 +4416,13 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4432,58 +4432,62 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
+          <t>848074.4183746700000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1099987973.7117743500000000</t>
+          <t>1083807750.8223584676369527</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>77037706.2000971402886798</t>
+          <t>27725609.6423535942061477</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.4489746831476630</t>
+          <t>1277.9630269941052040</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-7.2204360308916088</t>
+          <t>-4.8141648310024183</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.4732417511268104</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr"/>
+          <t>1305.9867566995401660</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/Maker</t>
+        </is>
+      </c>
       <c r="M65" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4493,56 +4497,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>848074.4183746700000000</t>
+          <t>2450000000.0000000000000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1000000.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1097148630.1213933849797655</t>
+          <t>1069253786.7841127550000000</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>38646153.4805548113045795</t>
+          <t>43209029.2762086072382175</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1293.6938154838731654</t>
+          <t>0.4364301170547399</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-11.1144035836948587</t>
+          <t>-3.8391408654979894</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>1365.6651917439821381</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/Maker</t>
-        </is>
-      </c>
+          <t>0.4495629172750414</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="67">
@@ -4574,27 +4574,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1070156987.8680359581709838</t>
+          <t>1043799394.3845735966682584</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>8141779.5059726454296845</t>
+          <t>7730999.0898683165671155</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0681947718721061</t>
+          <t>0.0665151584181181</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-2.0651457844343615</t>
+          <t>-3.4844309226849261</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0687431017553435</t>
+          <t>0.0679297363148188</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="68">
@@ -4639,38 +4639,38 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>976331197.3122773245312771</t>
+          <t>971463395.1974062978635984</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>10365674.7558606008508500</t>
+          <t>9721440.9856041665907245</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5521243630488310</t>
+          <t>0.5493715757267423</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-5.1890695643545925</t>
+          <t>-1.9424160333784621</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.5607393093750623</t>
+          <t>0.5506830042304253</t>
         </is>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4680,48 +4680,48 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WBNB</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
+          <t>1214526120.0344640000000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>961915715.5932057785932830</t>
+          <t>954345596.6503831522625351</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>11373689.1011417572887887</t>
+          <t>63445489.8588118133857743</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>607.6979661988179893</t>
+          <t>0.7857760989309165</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-2.8200482113556925</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
-        </is>
-      </c>
+          <t>-0.0855752846678216</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.7847652286707520</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="70">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1519143324.9652000000000000</t>
+          <t>1519229293.8326400000000000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -4757,27 +4757,27 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>951874736.5640840923995073</t>
+          <t>951776872.6014462734626158</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>19027774.4947739669366454</t>
+          <t>14007124.9344268512894152</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6265865247348464</t>
+          <t>0.6264866511363459</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-4.9451531823475113</t>
+          <t>-0.9162540514067228</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.6265622914257434</t>
+          <t>0.6192038847170982</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4786,13 +4786,13 @@
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4802,54 +4802,54 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1212147111.2468452000000000</t>
+          <t>1582884.5398480400000000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>944028010.9010396970519914</t>
+          <t>950892872.4217079056947832</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>72832124.2538959299504867</t>
+          <t>11243355.0300678220063358</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.7788064684079382</t>
+          <t>600.7341966414022050</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-7.7303289068561315</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>0.7984820503301564</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr"/>
+          <t>-0.9314445701494050</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="M71" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4859,54 +4859,62 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>900657124.0838901000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>1555708008.4996000000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>898582459.0946837021955001</t>
+          <t>939381108.3260441224465711</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>22220725.7004632324523059</t>
+          <t>131003662.0506341024543419</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.9976964985523024</t>
+          <t>0.6038286768427892</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-0.0022846510775210</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>8.9905049361011250</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.5883888384081505</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4916,54 +4924,54 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>77894175221082.5500000000000000</t>
+          <t>899129894.3078742000000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>885191982.2847630618795874</t>
+          <t>897098518.1013240661011999</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>53794434.8022967652647113</t>
+          <t>20088895.7235329895452453</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000113640330586</t>
+          <t>0.9977407311008007</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-7.8580759643105981</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>0.0000115118747924</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr"/>
+          <t>-0.0023119135026575</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+        </is>
+      </c>
       <c r="M73" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4973,48 +4981,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
+          <t>77894175221082.5500000000000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>882390168.3221567905715871</t>
+          <t>885864781.8351067450829436</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>48755190.3846543971820610</t>
+          <t>44949292.4845418969420259</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.1807302139807161</t>
+          <t>0.0000113726704124</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-6.0159833187340152</t>
+          <t>-0.0180219692934258</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.1817410755645439</t>
+          <t>0.0000113374521846</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="75">
@@ -5046,27 +5054,27 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>873887205.0400928502751168</t>
+          <t>876926157.9498841890478749</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>10822210.6118117108048251</t>
+          <t>8041436.3793050719421586</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.0893984898375097</t>
+          <t>0.0897093741246989</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-6.0181161393629331</t>
+          <t>-0.4753013880346093</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.0911073638691793</t>
+          <t>0.0894557249361637</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -5075,13 +5083,13 @@
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5091,62 +5099,54 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>868354716.6944952243536303</t>
+          <t>872215392.1541441497312826</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>46150998.9003946191166332</t>
+          <t>33186784.3344792876540820</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>8.7738356023131703</t>
+          <t>0.1786462271684566</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-4.9565324226529550</t>
+          <t>-0.7946211490562297</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8.8736290555783592</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
-        </is>
-      </c>
+          <t>0.1793161245785532</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5156,62 +5156,62 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1555580489.8912000000000000</t>
+          <t>98970935.4100000000000000</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2100000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>851562953.7912270973863332</t>
+          <t>870536980.8628373050907274</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>59410841.5595608581575820</t>
+          <t>45836680.4466174893752513</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.5474245526509444</t>
+          <t>8.7958851480641705</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-3.7220613813275818</t>
+          <t>-0.0935746096683801</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.5606892622302187</t>
+          <t>8.7784719504925445</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5221,62 +5221,54 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
+          <t>381867255.1445740000000000</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>14881364.0000000000000000</t>
+          <t>580000000.0000000000000000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>840759571.2912169595663004</t>
+          <t>864185142.9753558143632849</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>10711992.1584636375171202</t>
+          <t>3932386.2238494675215569</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>69.6411676697710958</t>
+          <t>2.2630511816159190</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-2.7173357483851560</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>69.2811401687994097</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
-        </is>
-      </c>
+          <t>1.0074385785197137</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5286,62 +5278,62 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>12072738.0000000000000000</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>14881364.0000000000000000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>836039972.3196338000000000</t>
+          <t>843429263.2225833415663452</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9499187.3052904765952585</t>
+          <t>9068450.5338910730989055</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.8360399723196338</t>
+          <t>69.8623015941026254</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-6.1939983740360331</t>
+          <t>0.6280314888356847</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.8496616412330231</t>
+          <t>69.5468348416527607</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5351,48 +5343,56 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>580000000.0000000000000000</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>830198277.1416908051489310</t>
+          <t>828708154.0332393000000000</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>4020821.1437301738903098</t>
+          <t>9744910.2870855192982737</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2.1740494005629778</t>
+          <t>0.8287081540332393</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-4.2437009454162382</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+          <t>-2.8372982437670743</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.8331764878724043</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>https://explorer.thetatoken.org/</t>
+        </is>
+      </c>
       <c r="M80" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="81">
@@ -5424,27 +5424,27 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>806973804.9338775850067293</t>
+          <t>811028179.4564724563828983</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>12040100.9838446369146222</t>
+          <t>7970869.9670327943081028</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.0132326225574872</t>
+          <t>0.0132991055181932</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-3.6887098513259874</t>
+          <t>-0.4677425020187143</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.0133463487595621</t>
+          <t>0.0134506247341788</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="82">
@@ -5485,27 +5485,27 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>801516669.7799929918057961</t>
+          <t>801668858.5420229872356842</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>8947105.4518134354357686</t>
+          <t>7516012.0992107581547545</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.9983127064537924</t>
+          <t>0.9985022620558683</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-0.1815774802922565</t>
+          <t>0.0137574419923531</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.9984617540967416</t>
+          <t>0.9984522729690971</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="83">
@@ -5546,32 +5546,32 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>795127890.3225529802920000</t>
+          <t>796326003.0156102897520000</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>147650655.9995572899750983</t>
+          <t>89026323.6212763599313706</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7.3979148708834479</t>
+          <t>7.4090621791552874</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-16.4256168129871732</t>
+          <t>-6.2214689875130021</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>8.0151963427271458</t>
+          <t>7.5401675251296157</t>
         </is>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="84">
@@ -5603,27 +5603,27 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>788485386.8367231244493098</t>
+          <t>780317062.5935810025694505</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>39861790.5905127886669281</t>
+          <t>27353309.9746118470821043</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.8781661326532031</t>
+          <t>0.8690687596002477</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-6.4430708967681380</t>
+          <t>-1.9000742496713360</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.9024296962588342</t>
+          <t>0.8710360125130018</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="85">
@@ -5664,27 +5664,27 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>767629346.5031013806052952</t>
+          <t>765659590.4938563644343640</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6521254.6511759625828904</t>
+          <t>6025169.3466185929079873</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3113.8118256360491498</t>
+          <t>3105.8217069894061610</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.2405160745701050</t>
+          <t>-0.3050607673322401</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3111.9726842137706695</t>
+          <t>3103.7279418698772412</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5693,7 +5693,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="86">
@@ -5725,27 +5725,27 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>696775670.0897274689012979</t>
+          <t>704079373.1665961097102343</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3354281.4765150424480164</t>
+          <t>3188781.0245416753786795</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.0783566610107233</t>
+          <t>1.0896601510737038</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-3.6690439802786020</t>
+          <t>0.4984862122315703</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.0872846051811889</t>
+          <t>1.0763968553549678</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="87">
@@ -5780,33 +5780,33 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>310048982.3000000000000000</t>
+          <t>310420802.2000000000000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>684048671.4149622103839897</t>
+          <t>685468164.5941109403155227</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13501738.8825533788555203</t>
+          <t>13202182.7411278524653010</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.2062600120166955</t>
+          <t>2.2081901719733103</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-1.0572592606431501</t>
+          <t>4.0431098061899553</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.1638107184053501</t>
+          <t>2.1777362786129459</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5815,7 +5815,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="88">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>43744189534.5928200000000000</t>
+          <t>43759808799.6019300000000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5851,27 +5851,27 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>675934600.2598317924475358</t>
+          <t>680364927.7310300235442452</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>38670584.4551439913864919</t>
+          <t>34356457.6636185121780994</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0154519859083297</t>
+          <t>0.0155477125333605</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-7.2448445296643593</t>
+          <t>0.1932679511775867</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.0155755438700855</t>
+          <t>0.0153649025618433</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5880,7 +5880,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="89">
@@ -5906,33 +5906,33 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1036827531.6780720000000000</t>
+          <t>1036876078.8643710000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>673831428.5401824338962507</t>
+          <t>678818981.6070353497686342</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>9784674.5781892348970444</t>
+          <t>4993012.6869089878637055</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.6498973145992834</t>
+          <t>0.6546770587575958</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-4.0837261451111769</t>
+          <t>-0.5271791681415639</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.6629573109917954</t>
+          <t>0.6547043856052576</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="90">
@@ -5973,27 +5973,27 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>670010329.3811026259130289</t>
+          <t>673989427.5158484127737979</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>15437541.0003241915126376</t>
+          <t>13243734.2601066921811856</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.2700176940676300</t>
+          <t>0.2716212915879926</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-3.6949553997828084</t>
+          <t>0.1578686978249370</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.2719935528067818</t>
+          <t>0.2707712609779487</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="91">
@@ -6034,27 +6034,27 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>663315970.4451091582092000</t>
+          <t>662896208.4566578475943000</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>1119582.5506941898859089</t>
+          <t>964178.7937731921564321</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0000006726925356</t>
+          <t>0.0000006722668399</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-1.1446210686205828</t>
+          <t>-0.3983042931841228</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0000006785067114</t>
+          <t>0.0000006754789241</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -6063,7 +6063,7 @@
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="92">
@@ -6095,27 +6095,27 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>656440612.0699848713241346</t>
+          <t>658968358.7340295753568244</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>47179474.3602999591058587</t>
+          <t>43893164.4126756440356279</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3120.3917155112038202</t>
+          <t>3132.4073641538494446</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.8938231713416683</t>
+          <t>0.7502458435500204</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3106.2132606304694097</t>
+          <t>3120.1892375105473421</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="93">
@@ -6156,27 +6156,27 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>643333898.4821957136702312</t>
+          <t>637384765.0071368569770990</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>11074007.9250574728216734</t>
+          <t>8655888.5717021311668541</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.1744014464748732</t>
+          <t>0.1727886953268765</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-5.0420554757971498</t>
+          <t>-0.5656167906202642</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.1749882961790816</t>
+          <t>0.1734645905410681</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -6185,13 +6185,13 @@
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6201,62 +6201,58 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1307447846.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>19844753.1250000000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>642893675.9930117469782132</t>
+          <t>633674877.0049848252132959</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>44371785.7632005035311824</t>
+          <t>6808570.8239188279123292</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>0.4917164978778142</t>
+          <t>31.9316079677854307</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-4.3281372022399099</t>
+          <t>-0.3146607037735575</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.4883480961803173</t>
+          <t>31.9246053866936951</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6266,52 +6262,56 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>19844465.6250000000000000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr"/>
+          <t>1307661214.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>618550480.8274129470079088</t>
+          <t>627354773.7188190044687594</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>8035242.4952367962671806</t>
+          <t>37143185.2960708810971040</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>31.1699237720044652</t>
+          <t>0.4797532931330171</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-5.3607716789000495</t>
+          <t>-1.5518680076327210</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>32.1134346834240365</t>
+          <t>0.4827899417720555</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="96">
@@ -6343,27 +6343,27 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>612140479.4307130801030151</t>
+          <t>615611382.4723362714061124</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>5963499.4733320285565362</t>
+          <t>4330615.3316225324456004</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.1025970098339907</t>
+          <t>0.1031787460292925</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-3.5021706427026627</t>
+          <t>0.0930973003800359</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.1034965879236058</t>
+          <t>0.1030482548852833</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="97">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>301822670.3599872600000000</t>
+          <t>301835405.9816226000000000</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -6408,27 +6408,27 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>603786260.1301708746558791</t>
+          <t>602971122.7621005997221797</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>60670783.5947500538798113</t>
+          <t>41263298.8620870778775242</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2.0004668947167828</t>
+          <t>1.9976818849370269</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-6.4646268247626904</t>
+          <t>-0.2616449056017938</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.0085547104487743</t>
+          <t>2.0071109066769971</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="98">
@@ -6469,27 +6469,27 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>594222462.9006889619505658</t>
+          <t>601698908.4465558868337893</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>7847665.1969374822440106</t>
+          <t>7453219.8795418599666173</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3778741654980206</t>
+          <t>0.3826285391508524</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-4.1565532281742545</t>
+          <t>-0.0570429224120130</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.3832745655695799</t>
+          <t>0.3822625240252177</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6498,13 +6498,13 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6514,62 +6514,62 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Helium</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>179760925.5581076000000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>223000000.0000000000000000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>579262544.1824133479025006</t>
+          <t>577243810.8613764417435043</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>10442760.8739948745103446</t>
+          <t>4658879.2649954974917703</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>36.4618285925430486</t>
+          <t>3.2111751153327410</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-1.7440984590406621</t>
+          <t>3.5839280481133219</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>36.0338364089196340</t>
+          <t>3.2038076719185671</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6579,56 +6579,56 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>15886821.0000000000000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>572038782.6309731994196095</t>
+          <t>575776967.8990471133680497</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>3766781.3204107295429499</t>
+          <t>7555036.1863348790657646</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>3.1822198336760457</t>
+          <t>36.2424281043417757</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>1.8314948230235200</t>
+          <t>0.6166750864665108</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>3.1281213582511125</t>
+          <t>36.0653319432336121</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="101">
@@ -6664,27 +6664,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>565351361.5889217448536238</t>
+          <t>569792890.0385989300074013</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>32715960.2208523061170783</t>
+          <t>23906502.0200030915198407</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>15.8809220781809960</t>
+          <t>16.0056862018917924</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-5.2729660719649166</t>
+          <t>-0.1551305279985365</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>16.1609566383691538</t>
+          <t>15.9187589996166714</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6693,7 +6693,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743297089423</v>
+        <v>1743348443776</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19844090.0000000000000000</t>
+          <t>19845709.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1645408213162.3085423711777190</t>
+          <t>1639528365133.9163638203900608</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5718748127.1528516033442327</t>
+          <t>19458216229.5456414394492114</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82916.7884827325688591</t>
+          <t>82613.7461319178046912</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.4401747280786942</t>
+          <t>-3.1628347666684062</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>82791.3842202897238302</t>
+          <t>85489.6147972477784752</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120654453.5456346000000000</t>
+          <t>120661946.5561551900000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>219447239944.2114512478497129</t>
+          <t>217027307344.3245594599292001</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4766428019.3459411165197428</t>
+          <t>11636134272.0186499412096684</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1818.8076237170217083</t>
+          <t>1798.6392026530222873</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-1.3563933435731850</t>
+          <t>-5.8128233499921034</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1825.8535093424786455</t>
+          <t>1873.2456393693564074</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>144182349120.7869600000000000</t>
+          <t>144034280963.4801300000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144472528344.4947595458365958</t>
+          <t>143983896070.6564411925055732</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18307782667.4688571644720034</t>
+          <t>43598985117.6059918216113714</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0020125849348224</t>
+          <t>0.9996501881879324</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.0086347766169269</t>
+          <t>-0.1791141347037187</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0002823425646397</t>
+          <t>1.0000019205852120</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="5">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>125128539404.0488101244391484</t>
+          <t>118253432675.7566953179994092</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1238750853.4358423662315195</t>
+          <t>2728488359.6339809127217026</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.1497644567582078</t>
+          <t>2.0316470380518614</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1.5159096818527332</t>
+          <t>-5.0619477140029728</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1515863032611537</t>
+          <t>2.1152672622832497</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>87075359850.5724607777222570</t>
+          <t>85410795869.5067094539521990</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>255971674.4396049080707602</t>
+          <t>796407551.4510289898261441</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>604.6613195400000179</t>
+          <t>593.1023956954452053</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-0.2590069306687397</t>
+          <t>-3.0230767448718937</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>605.3547296331083335</t>
+          <t>602.8583017048006535</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="7">
@@ -840,33 +840,33 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>512293807.5507926300000000</t>
+          <t>512503882.2685171400000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>64173621326.0654427258974176</t>
+          <t>60990505066.9203193802891438</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1030343021.0930431740770552</t>
+          <t>3399476275.7070297759686405</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>125.2672204508401971</t>
+          <t>119.0049620638101768</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.7470015985162058</t>
+          <t>-6.1037229736098863</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>124.9818949943009180</t>
+          <t>127.4142239609940486</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="8">
@@ -901,33 +901,33 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60242525341.8881500000000000</t>
+          <t>60649816501.5563100000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60263652571.4768036023903822</t>
+          <t>60710455106.5109587982371554</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>3212131486.3803947144172163</t>
+          <t>9129723236.7032403484076338</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0003507029207151</t>
+          <t>1.0009998151429377</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-0.0270781050692053</t>
+          <t>0.0486903374337158</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1.0015822519802545</t>
+          <t>0.9998996377116921</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="9">
@@ -962,33 +962,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148644126383.7052300000000000</t>
+          <t>148690796383.7052300000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>25192339632.7758404781160303</t>
+          <t>24483399831.0141073155431614</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>441209058.9153757065191887</t>
+          <t>1210105392.5286672876453773</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1694808953819348</t>
+          <t>0.1646598204224643</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-0.7349720309518281</t>
+          <t>-5.4882550554326527</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1695603448885122</t>
+          <t>0.1720568712245129</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="10">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>35242104181.1897300000000000</t>
+          <t>35268011575.2034400000000000</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>23723258891.0099981885348963</t>
+          <t>22667528163.2964461512383906</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>229640964.0885899315699713</t>
+          <t>517803627.6003990983828801</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6731510345988975</t>
+          <t>0.6427220348094062</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.0674625960801444</t>
+          <t>-5.2060276235180228</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6739562499198983</t>
+          <t>0.6759852171243840</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94994605853.7637200000000000</t>
+          <t>94985541388.8610000000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21915590545.0177149452066276</t>
+          <t>22176014805.1385299003679272</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>237089279.7413524358328388</t>
+          <t>360646827.6859809727443618</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2307035262481634</t>
+          <t>0.2334672675534081</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.6395153608264012</t>
+          <t>-1.8727489217053303</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2320953549970309</t>
+          <t>0.2377132718794603</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9367578.0451454800000000</t>
+          <t>9378159.5971089000000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17013824733.8718290823942758</t>
+          <t>16879794298.3193979325661683</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>6260068.3419517004753704</t>
+          <t>8071686.4153063919370985</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1816.2458483800763078</t>
+          <t>1799.9047812667959549</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-1.4069402425700687</t>
+          <t>-5.4622963409834103</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1832.9886302838556275</t>
+          <t>1844.0080514456342142</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10598806295.6447535423859155</t>
+          <t>10636821595.3958774212415626</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>107738586.7663614385666362</t>
+          <t>213724793.3121699395638608</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82112.0183876590350267</t>
+          <t>82406.5339118704116958</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-0.3333061838342018</t>
+          <t>-3.0002000033702729</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>82981.7007507780351351</t>
+          <t>85698.1361722102547623</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="14">
@@ -1271,44 +1271,44 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2484528578.6548066000000000</t>
+          <t>2461769440.3709480000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9472862912.8328174480942813</t>
+          <t>9468226533.4435585777858962</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>116254527.9634560824456334</t>
+          <t>140650888.8277464455053983</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.8127405714776245</t>
+          <t>3.8461061292632072</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>3.1863733089884897</t>
+          <t>-5.3580700174231220</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>3.7655672859094817</t>
+          <t>4.0123636773992744</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1318,58 +1318,58 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>657099970.4527867000000000</t>
+          <t>923812201.9000000000000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8958597212.6335910550156019</t>
+          <t>8620721841.2095968245155606</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>135506293.4273732830841045</t>
+          <t>7357546.9469304407649398</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>13.6335376890376460</t>
+          <t>9.3316821573469161</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-0.4597095166511734</t>
+          <t>0.2364827018646868</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13.6120301627217862</t>
+          <t>9.3964343831286980</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1379,52 +1379,52 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Chainlink</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>923836969.9000000000000000</t>
+          <t>657099970.4527867000000000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8901839290.0928122997258208</t>
+          <t>8497966177.6312458352909623</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>5023166.8719188923953401</t>
+          <t>396218714.0103962650431128</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>9.6357253283080724</t>
+          <t>12.9325316690785536</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.1144331361562571</t>
+          <t>-7.8461798737260019</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.5406858729989225</t>
+          <t>13.7044583216541372</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30787178407.4941640000000000</t>
+          <t>30777463547.8369900000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>8265176800.0094639130424089</t>
+          <t>7968470554.0416372273890169</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>53000727.5913387874859268</t>
+          <t>130780348.6522674576119439</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2684616527897720</t>
+          <t>0.2589060187385602</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.2747258630171079</t>
+          <t>-5.2678902333234423</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2676661239757318</t>
+          <t>0.2683813600779731</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1505,62 +1505,62 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>414844783.0787661700000000</t>
+          <t>3249982900.4588876000000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>8051635600.1507045998396600</t>
+          <t>7499759647.1855119643336329</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>123599458.8422985216381119</t>
+          <t>950035602.4219981002297306</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>19.4087907780726472</t>
+          <t>2.3076304943409299</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-3.2203503693808117</t>
+          <t>-4.1171062432708843</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19.6268932847541679</t>
+          <t>2.4224505829713471</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1570,56 +1570,56 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>414902635.8846379500000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7482713340.3192561276521836</t>
+          <t>7491642400.8230887572607880</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>553534546.1655287625586681</t>
+          <t>277512231.3143471307445411</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.3605927823692116</t>
+          <t>18.0563866142949994</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>2.1734251276508148</t>
+          <t>-8.7534014630204907</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2.3524045340857563</t>
+          <t>19.2499854787668663</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="20">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>589250822785832.4000000000000000</t>
+          <t>589250687620781.9000000000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1655,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7426139533.0259675745838750</t>
+          <t>7130582238.9540358711338977</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>76263835.4800202510386686</t>
+          <t>179160700.8397060222354770</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000126026799554</t>
+          <t>0.0000121011012609</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-1.4675099067605612</t>
+          <t>-4.6446322852393388</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0000126341033021</t>
+          <t>0.0000124948779869</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>7199344865.4500467226974255</t>
+          <t>6808477142.7080958908682695</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>92383783.2716593654552800</t>
+          <t>209158732.5758688610324274</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1705221994890443</t>
+          <t>0.1612641871230726</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.6388590766725307</t>
+          <t>-5.4250989677994772</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1711704604492137</t>
+          <t>0.1681223451443682</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6524123028.5938966723779963</t>
+          <t>6198760373.1887302767069865</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>167438391.2111418247739044</t>
+          <t>380928653.6802415128300928</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>86.3453584360287149</t>
+          <t>82.0392540018344358</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-0.0174456870136912</t>
+          <t>-3.1120106443969554</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>85.7283558199608457</t>
+          <t>84.1515138951764924</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1830,52 +1830,56 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>974778351.8199997000000000</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>888888888.0000000000000000</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6207093548.6842221570056020</t>
+          <t>6115177710.7716410903668150</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>71649168.2635192180916581</t>
+          <t>66493161.4444789245971631</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.0775325905588617</t>
+          <t>6.2734032812218788</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>-0.2311142956699293</t>
+          <t>0.0254139703045069</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.0858309047599400</t>
+          <t>6.2704437178114203</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="24">
@@ -1907,22 +1911,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6155101635.7528262072104602</t>
+          <t>6073976288.7544976426358435</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>460014715.1470925548562794</t>
+          <t>762771151.4494678994956100</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1823.5622180151762763</t>
+          <t>1799.5273398825053161</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-0.9902239768077678</t>
+          <t>-5.6317579925124591</t>
         </is>
       </c>
       <c r="K24" t="inlineStr"/>
@@ -1932,13 +1936,13 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1948,56 +1952,52 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>974778351.8199997000000000</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>888888888.0000000000000000</t>
-        </is>
-      </c>
+          <t>1522267060.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6075993196.3036925716925741</t>
+          <t>6042437419.1218366691808060</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>33764378.2456257441561601</t>
+          <t>166647428.8715563193443385</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>6.2332048972561419</t>
+          <t>3.9693675163159851</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-0.1291820518119847</t>
+          <t>-5.0415919660323063</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>6.2202983241111179</t>
+          <t>4.1158577979662966</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="26">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19849115.6250000000000000</t>
+          <t>19850634.3750000000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>6056506018.1945628304810350</t>
+          <t>5858474421.0476621134331709</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>46157023.4297446612042914</t>
+          <t>130848701.8898557187146055</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>305.1272476123007536</t>
+          <t>295.1278186064349449</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.5820802661752306</t>
+          <t>-4.5078665697049352</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>304.8533220603252699</t>
+          <t>306.7222238186456356</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="27">
@@ -2094,22 +2094,22 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5500491881.5415703600000000</t>
+          <t>5394449264.1331698000000000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>80862790.7038795745418300</t>
+          <t>102975348.7022755820955434</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.5837432346179753</t>
+          <t>4.4953743867776415</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-0.5105971018137577</t>
+          <t>-3.4101445289085451</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="28">
@@ -2151,27 +2151,27 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5361791683.7172770712587038</t>
+          <t>5362386872.3288495786416072</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>63905023.0946243851125382</t>
+          <t>133002634.1544961595481004</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.9993307059073696</t>
+          <t>0.9994416371576748</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-0.0221042281542629</t>
+          <t>0.0095395436657100</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.9994919559425325</t>
+          <t>0.9997016026331541</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2180,7 +2180,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="29">
@@ -2206,28 +2206,28 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5247255782.7102750000000000</t>
+          <t>5260950968.3606940000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5246902513.3316238460008273</t>
+          <t>5258656650.5632453057372292</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>35500615.2659193357231184</t>
+          <t>60069868.1299716304320200</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9999326754034337</t>
+          <t>0.9995638967534108</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0317504921038749</t>
+          <t>-0.0444959274790329</t>
         </is>
       </c>
       <c r="K29" t="inlineStr"/>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="30">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6773814332.2604940000000000</t>
+          <t>6794101040.3435950000000000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2273,32 +2273,36 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5167207446.9047400375356706</t>
+          <t>4455351871.3219725265542810</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>85907964.9047621484009899</t>
+          <t>102747781.7607115563507776</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.7628209445150806</t>
+          <t>0.6557676791772667</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-2.8679910503264232</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
+          <t>-7.5039702654128606</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0.9351907533812549</t>
+        </is>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="31">
@@ -2334,27 +2338,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4201769039.5293132697724700</t>
+          <t>3964069991.4073236859226340</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>16980719.6435836138813222</t>
+          <t>37118853.2559679305528862</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>12.5828525149608915</t>
+          <t>11.8710256541012013</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-2.4782546046548454</t>
+          <t>-10.7806163563423888</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>12.7101163257018110</t>
+          <t>13.4484816344568361</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2363,7 +2367,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="32">
@@ -2395,27 +2399,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>4008181468.8650203385339444</t>
+          <t>3940688577.4320656390714480</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>30438828.4203221909345126</t>
+          <t>57335102.3512962392179541</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>217.2839528129797841</t>
+          <t>213.6251558370328950</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.4734842786752440</t>
+          <t>-1.5889283298217285</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>215.9741347888256585</t>
+          <t>217.6563196354219532</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2424,7 +2428,7 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="33">
@@ -2456,27 +2460,27 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3749159627.7413234019014864</t>
+          <t>3686577654.5253241757063987</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>53749643.6972073128682960</t>
+          <t>105605019.3122833394463062</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.9653064331233209</t>
+          <t>5.8657319459074063</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-0.7379963201913656</t>
+          <t>-6.6959358538966475</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>5.9756400520575151</t>
+          <t>6.1462011634614081</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2485,7 +2489,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="34">
@@ -2511,33 +2515,33 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>604031596.5939680000000000</t>
+          <t>604422794.1445550000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3195108080.1067342020275697</t>
+          <t>3083077512.1173559555761016</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>42262851.0206306254879862</t>
+          <t>90399090.1278228038966968</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.2896373271256143</t>
+          <t>5.1008624128427572</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-0.5549697913016573</t>
+          <t>-5.6826857093927840</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.2571858525231541</t>
+          <t>5.3176288143448584</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2546,13 +2550,13 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2562,58 +2566,62 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NEAR</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1198396448.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>420689899653543.5600000000000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3160198965.9692502467403296</t>
+          <t>2977160679.5246615899631975</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>91849522.0372693899869315</t>
+          <t>857327383.0086401416757517</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.6370229745284177</t>
+          <t>0.0000070768532403</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>1.7930386790045982</t>
+          <t>-8.5660771845192507</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2.6389980224807920</t>
+          <t>0.0000075063694375</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2623,56 +2631,52 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>NEAR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Near Protocol</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1199000741.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2967439521.6201030865441585</t>
+          <t>2931520640.8788716785323770</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>299995079.3028432586465927</t>
+          <t>139662458.0853478439029399</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.0000070537455833</t>
+          <t>2.4449698324905970</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-3.8524858332079654</t>
+          <t>-7.7882160390105607</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.0000071753556832</t>
+          <t>2.6074781249355288</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="37">
@@ -2704,27 +2708,27 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2912819056.6660053240000000</t>
+          <t>2830881507.0770885580000000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2096408.2641717460396120</t>
+          <t>3206733.7162890332652155</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>48.5469842777667554</t>
+          <t>47.1813584512848093</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.0806682787645802</t>
+          <t>-2.2987073394795198</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>48.4143920352894095</t>
+          <t>47.4443804865248700</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2733,13 +2737,13 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2749,62 +2753,62 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>30263013692.0000000000000000</t>
+          <t>6219316795.0000000000000000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2769337703.7960085895384152</t>
+          <t>2612596235.7873673888388406</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>42910391.4781205954730584</t>
+          <t>163771963.7224363736647524</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.1042218684660437</t>
+          <t>0.7764735629821558</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>3.4326572548626916</t>
+          <t>-3.1730253716360998</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.1050045024148143</t>
+          <t>0.7933856661937006</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2814,62 +2818,62 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>26571560696.0000000000000000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>6219316795.0000000000000000</t>
+          <t>30263013692.0000000000000000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2699772651.6693683250662620</t>
+          <t>2550846518.8007343851500840</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>64145981.9112379831937131</t>
+          <t>55193668.3841560111077771</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.8023827261818461</t>
+          <t>0.0959991228209915</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-0.4899709235006019</t>
+          <t>-7.4693275075352338</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.8078779220109429</t>
+          <t>0.1040418566991901</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2879,58 +2883,54 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>482076932.8747825000000000</t>
+          <t>2601315490.1633330000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2591823755.8688453073314074</t>
+          <t>2550174963.2981185647281197</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>30484427.3277550327387497</t>
+          <t>4154241194.4448362813623991</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>5.3763695773887212</t>
+          <t>0.9803405134599789</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-0.7841230571003332</t>
+          <t>-1.6489834919923842</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>5.3609082582608700</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
-        </is>
-      </c>
+          <t>0.9719757358097704</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2940,54 +2940,58 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2588088088.1678160000000000</t>
+          <t>3159107529.0000000000000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2583960590.5102734226441160</t>
+          <t>2500019195.7044406479302317</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>1029775613.1339066283103287</t>
+          <t>263172550.7415073121089838</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.9984051942913332</t>
+          <t>0.7913688194386373</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-0.0191701432646542</t>
+          <t>-3.7995093954652752</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.9986211944078144</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>0.8327282311500948</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+        </is>
+      </c>
       <c r="M41" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2997,52 +3001,52 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Internet Computer</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>482284285.8834832000000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2527930536.2107285663304451</t>
+          <t>2448383745.1292949514632636</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>80384786.5269370643010838</t>
+          <t>43870906.8417242857482617</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>0.8002040174336619</t>
+          <t>5.0766400996129673</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.7139311027876482</t>
+          <t>-6.7178131807568690</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.7984788449640853</t>
+          <t>5.2690743408126849</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="43">
@@ -3068,7 +3072,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>151321540.2914661500000000</t>
+          <t>151367967.6932335000000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3078,27 +3082,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2518538271.2183289311813451</t>
+          <t>2431759469.2586970275553424</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22073494.2213449666324360</t>
+          <t>65186288.1192406088512800</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.6436203753099326</t>
+          <t>16.0652184627791784</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-0.3173136843331806</t>
+          <t>-4.8755047414270330</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>16.6754770189594099</t>
+          <t>16.6257494928156630</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3107,7 +3111,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="44">
@@ -3133,33 +3137,33 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15093850.1019675900000000</t>
+          <t>15096506.1791544500000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2480477522.3127977983604312</t>
+          <t>2285253833.8380163259613990</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>122123189.4238789141187412</t>
+          <t>206391229.1568676625257128</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>164.3369654233845895</t>
+          <t>151.3763387845022953</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-4.9327191687546952</t>
+          <t>-9.0352510515365737</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>167.2506526747946012</t>
+          <t>160.3489168614322072</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -3168,7 +3172,7 @@
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="45">
@@ -3200,27 +3204,27 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2125677493.8637828266678834</t>
+          <t>1935203355.7648310045366262</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>34975271.9187835691712683</t>
+          <t>77650619.5158777693562095</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.2045474519240588</t>
+          <t>0.1862187074564521</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.6511130688052530</t>
+          <t>-7.8997778522315448</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.2027933698041628</t>
+          <t>0.1951577902823479</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3229,13 +3233,13 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3245,56 +3249,48 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>199999429.1037350000000000</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>999999993.4500000000000000</t>
-        </is>
-      </c>
+          <t>85828689.4334172500000000</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2035525360.1065975143096493</t>
+          <t>1910046998.5735125875969763</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>67817765.5761678811151084</t>
+          <t>13883428.0420554409853859</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10.1776558524615507</t>
+          <t>22.2541787738149842</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>1.3879574760923528</t>
+          <t>-2.8458740608634457</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>10.0967196223397926</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
-        </is>
-      </c>
+          <t>22.6910890554908084</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="47">
@@ -3330,27 +3326,27 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1964184580.0370603932843252</t>
+          <t>1854343290.8184810349814860</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>19322183.1930679260967015</t>
+          <t>33884662.2773940979962017</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.0228433289459476</t>
+          <t>0.0215658824539180</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-0.3931565804151255</t>
+          <t>-8.0999492923305970</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0229436351790824</t>
+          <t>0.0228479790826884</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3359,13 +3355,13 @@
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3375,62 +3371,62 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>Trump Official</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>199999427.4807580000000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>999999993.4500000000000000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1945000796.7737817470563632</t>
+          <t>1846478192.7079247970659443</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>51460517.5329617147339260</t>
+          <t>207761439.6382333439878011</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>227.9086637098056868</t>
+          <t>9.2324173922226601</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.1762684817015759</t>
+          <t>-11.3681183178219074</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>228.5842286857285730</t>
+          <t>10.0932972430703360</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3440,54 +3436,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr"/>
+          <t>8546962.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1944153476.2849278632812500</t>
+          <t>1820962687.4574987517508122</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>73281963.4625906797015883</t>
+          <t>99570571.7360041446653135</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.3677972878576275</t>
+          <t>213.0537947234934181</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-1.3720548504417159</t>
+          <t>-7.8414740427921809</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.3672500959010286</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr"/>
+          <t>225.0489583384513708</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="M49" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3497,58 +3501,54 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>579488884.7562950000000000</t>
+          <t>5285937500.0000000000000000</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1914708485.3858905839257909</t>
+          <t>1776662918.4867195342187500</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>31978362.7783752390274434</t>
+          <t>184509737.1108449178466866</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>3.3041332383642257</t>
+          <t>0.3361112231248893</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>2.2076198209492110</t>
+          <t>-9.3467411087448984</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3.2433517837001646</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>0.3624869361772366</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3558,48 +3558,52 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>85826628.2767399300000000</t>
+          <t>647135072.0000000000000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1912748173.4635396020805350</t>
+          <t>1748026602.9330236208759968</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>6706613.9145861226422360</t>
+          <t>123753603.4866047602595904</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>22.2861856730065422</t>
+          <t>2.7011773562676319</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-0.1531652724035264</t>
+          <t>-4.9468487430302695</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>22.3755988290727650</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr"/>
+          <t>2.7798948251427674</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>https://protocol.ai</t>
+        </is>
+      </c>
       <c r="M51" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="52">
@@ -3635,38 +3639,38 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1827864130.9687097878394158</t>
+          <t>1717476317.1171532249850971</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>43162292.1663150888734513</t>
+          <t>108154873.7611594389851843</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.5306269222896581</t>
+          <t>3.3174063765861566</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-1.7941184139372928</t>
+          <t>-10.2381629158107651</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.5267289726832598</t>
+          <t>3.6053468367994682</t>
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3676,52 +3680,52 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>646143249.0000000000000000</t>
+          <t>584318047.2631370000000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1783390606.6825216231768563</t>
+          <t>1705606928.6166119198616331</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>49786355.0285187274391112</t>
+          <t>60623724.6674142093011038</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.7600545381269187</t>
+          <t>2.9189701338259759</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-0.7617960895567618</t>
+          <t>-7.3445814527942792</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2.7500620240074429</t>
+          <t>3.0898473649933640</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="54">
@@ -3753,27 +3757,27 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1683788927.3133535968270408</t>
+          <t>1639056684.2491185255400192</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>49927884.3509615151012786</t>
+          <t>72092326.3966271802284503</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.3070903238575502</t>
+          <t>4.1926663553059648</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-1.5298393453193274</t>
+          <t>-4.3180250220139154</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.2962353386074610</t>
+          <t>4.3829559389031905</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3782,7 +3786,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="55">
@@ -3808,7 +3812,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25942485466.1023500000000000</t>
+          <t>25960683651.3743060000000000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3818,27 +3822,27 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1673393918.4620271640847856</t>
+          <t>1634301649.7139061808185894</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>35402740.1732224496289226</t>
+          <t>77007554.6986966632875837</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.0645039936766491</t>
+          <t>0.0629529511495507</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-0.3671223566536879</t>
+          <t>-8.4592922362994137</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.0646049766080422</t>
+          <t>0.0662283556835476</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3847,7 +3851,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="56">
@@ -3873,7 +3877,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8530769996.2217810000000000</t>
+          <t>8537381523.8178040000000000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3883,27 +3887,27 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1558994329.6481137488808930</t>
+          <t>1509418092.4102449442979540</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>27980041.6214093816160169</t>
+          <t>80245498.9281074805544185</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1827495443363942</t>
+          <t>0.1768010587554547</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-1.0203728446262883</t>
+          <t>-6.4953478540050034</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1836149137983526</t>
+          <t>0.1874739495398206</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3912,7 +3916,7 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="57">
@@ -3944,27 +3948,27 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1540384598.0423855366826552</t>
+          <t>1419970173.1042036744717304</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>59515724.3116629749732891</t>
+          <t>126219617.4180657172976422</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3335672382662457</t>
+          <t>0.3074917326911489</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-0.0389081905929188</t>
+          <t>-7.9595727501672659</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3322395408090533</t>
+          <t>0.3241460492829289</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3973,13 +3977,13 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3989,58 +3993,62 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr"/>
+          <t>2880000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3175000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1474887064.7361723171876779</t>
+          <t>1354992622.0879253760000000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>6225800.8013229874533078</t>
+          <t>156344674.3284973092926316</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>17.6140929398562179</t>
+          <t>0.4704835493360852</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>1.0213558646834610</t>
+          <t>-7.1762786400131172</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>17.5865542395612954</t>
+          <t>0.4920631421067934</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4050,62 +4058,62 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
+          <t>125043917.8513356400000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>3175000000.0000000000000000</t>
+          <t>200000000.0000000000000000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1409566141.7837159040000000</t>
+          <t>1332707105.0086010272566361</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>77462959.7294485471590406</t>
+          <t>1441370.8174864626168103</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.4894326881193458</t>
+          <t>10.6579122592196186</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-1.0935322904672742</t>
+          <t>-2.2828393116175665</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.4903278303471255</t>
+          <t>10.8387379787541175</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4115,58 +4123,62 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>258745395.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>1556419102.7764000000000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1367199664.4673207316714155</t>
+          <t>1243476602.1285557600427900</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>36619597.7304532896495680</t>
+          <t>618718409.6060721840420099</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>5.2839574766821289</t>
+          <t>0.7989342972663305</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>0.7542216654266165</t>
+          <t>16.0624682909018043</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>5.3208366696182104</t>
+          <t>0.7970777844200969</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4176,62 +4188,58 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>122543917.8513356400000000</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>200000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>83733353.1605750500000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1358654517.0417458659000833</t>
+          <t>1216907074.7788359174843804</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>494999.2220712987180253</t>
+          <t>36808371.9064981839231130</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>11.0870824179948276</t>
+          <t>14.5331224517568173</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.3335320410502523</t>
+          <t>5.9017033886042926</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>11.0659419516174151</t>
+          <t>14.4202611910292096</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4241,62 +4249,58 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1620705846.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1300386060.1236361107200213</t>
+          <t>1142899077.5028045893197086</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>29010225.6029017856891408</t>
+          <t>103082744.9633326257767066</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.4832512135980812</t>
+          <t>0.7051860029526941</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>4.5601149346556208</t>
+          <t>-6.9114623991494667</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.4759175240221405</t>
+          <t>0.7286243291874472</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4306,58 +4310,58 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1620705846.0000000000000000</t>
+          <t>258992823.0000000000000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1220425171.5658997786197620</t>
+          <t>1123963831.0916701307984247</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>54594539.0719619644818378</t>
+          <t>130031223.4069393101389382</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.7530207746075470</t>
+          <t>4.3397489477601089</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-3.3070664844461663</t>
+          <t>-5.4763290187399412</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.7640222375971435</t>
+          <t>4.3462690165955788</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4367,62 +4371,62 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>Maker</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
+          <t>848074.4183746700000000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2630547141.0000000000000000</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1193721337.8999644400000000</t>
+          <t>1087845997.6339652208908309</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>54021847.3893154828041537</t>
+          <t>43115763.7509896925444992</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0.4736989436110970</t>
+          <t>1282.7246926264043497</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-0.6745263403410042</t>
+          <t>-7.3986419941740069</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.4728618706686799</t>
+          <t>1365.3799953183783240</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -4432,62 +4436,62 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>Artificial Superintelligence Alliance</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>848074.4183746700000000</t>
+          <t>2520000000.0000000000000000</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1000000.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1083807750.8223584676369527</t>
+          <t>1087206379.6654579680000000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>27725609.6423535942061477</t>
+          <t>83558730.9392813577121923</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>1277.9630269941052040</t>
+          <t>0.4314311030418484</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-4.8141648310024183</t>
+          <t>-7.9187968116349472</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>1305.9867566995401660</t>
+          <t>0.4564764069373379</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4497,52 +4501,56 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
+          <t>2690911111.1000000000000000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1069253786.7841127550000000</t>
+          <t>1025229816.1535280338290957</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>43209029.2762086072382175</t>
+          <t>83981899.1227985655499860</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.4364301170547399</t>
+          <t>0.3809972807813897</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-3.8391408654979894</t>
+          <t>-10.5641287729592898</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.4495629172750414</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr"/>
+          <t>0.4053061703516297</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+        </is>
+      </c>
       <c r="M66" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="67">
@@ -4574,27 +4582,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1043799394.3845735966682584</t>
+          <t>1019376585.6228169645603527</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>7730999.0898683165671155</t>
+          <t>25689817.8851877974107425</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0665151584181181</t>
+          <t>0.0649588373447940</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-3.4844309226849261</t>
+          <t>-5.9025355115616639</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0679297363148188</t>
+          <t>0.0674141123623088</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4603,13 +4611,13 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4619,58 +4627,54 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1582884.5398480400000000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>971463395.1974062978635984</t>
+          <t>936777558.5390565155380626</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9721440.9856041665907245</t>
+          <t>9414724.4848437618451299</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.5493715757267423</t>
+          <t>591.8167339160372281</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-1.9424160333784621</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>0.5506830042304253</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr"/>
+          <t>-4.0818789090862495</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="M68" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4680,54 +4684,58 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1214526120.0344640000000000</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr"/>
+          <t>2450000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>954345596.6503831522625351</t>
+          <t>931613473.4540863250000000</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>63445489.8588118133857743</t>
+          <t>87621597.7575643036404251</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.7857760989309165</t>
+          <t>0.3802503973281985</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-0.0855752846678216</t>
+          <t>-8.2466937147805865</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.7847652286707520</t>
+          <t>0.4028765948446518</t>
         </is>
       </c>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4737,62 +4745,54 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1519229293.8326400000000000</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1818000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1223649706.2148200000000000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>951776872.6014462734626158</t>
+          <t>885343051.8002103041850480</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>14007124.9344268512894152</t>
+          <t>124472712.5707123873700160</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.6264866511363459</t>
+          <t>0.7235265511883205</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-0.9162540514067228</t>
+          <t>-10.1422839818522630</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.6192038847170982</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>0.7755519829311916</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4802,54 +4802,62 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>WBNB</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>1519731982.9897600000000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>950892872.4217079056947832</t>
+          <t>877228249.2018610885136464</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>11243355.0300678220063358</t>
+          <t>29027972.6136404733712690</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>600.7341966414022050</t>
+          <t>0.5772256286112338</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-0.9314445701494050</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
+          <t>-6.5859868875346503</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.6097112379450383</t>
+        </is>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4859,62 +4867,54 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1555708008.4996000000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>872045271.8289261000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>939381108.3260441224465711</t>
+          <t>870092925.1567833806837731</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>131003662.0506341024543419</t>
+          <t>10624202.7569959444520966</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.6038286768427892</t>
+          <t>0.9977611865631149</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>8.9905049361011250</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>0.5883888384081505</t>
-        </is>
-      </c>
+          <t>-0.0108396743382976</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4924,54 +4924,54 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Bonk</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>899129894.3078742000000000</t>
+          <t>77894175221082.5500000000000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>897098518.1013240661011999</t>
+          <t>866119281.4611833164217169</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>20088895.7235329895452453</t>
+          <t>169405501.2888672741883050</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.9977407311008007</t>
+          <t>0.0000111191790529</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-0.0023119135026575</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
-        </is>
-      </c>
+          <t>-11.4749154618247779</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.0000121616345354</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4981,54 +4981,58 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>BONK</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bonk</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>77894175221082.5500000000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr"/>
+          <t>1768317543.3900000000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>885864781.8351067450829436</t>
+          <t>849353385.9087651851556859</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>44949292.4845418969420259</t>
+          <t>20185722.7658891000569318</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.0000113726704124</t>
+          <t>0.4803172309654802</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-0.0180219692934258</t>
+          <t>-9.1954707409468489</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.0000113374521846</t>
+          <t>0.5115406053816249</t>
         </is>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5038,58 +5042,54 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr"/>
+          <t>381867255.1445740000000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>876926157.9498841890478749</t>
+          <t>833596261.6203269385324318</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>8041436.3793050719421586</t>
+          <t>24615531.4703343116913003</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0.0897093741246989</t>
+          <t>2.1829477400588575</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-0.4753013880346093</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>0.0894557249361637</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
-        </is>
-      </c>
+          <t>-2.2479168644182340</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5099,54 +5099,62 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr"/>
+          <t>98970935.4100000000000000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>872215392.1541441497312826</t>
+          <t>827402248.4369071694139660</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>33186784.3344792876540820</t>
+          <t>57879859.3146569757984006</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0.1786462271684566</t>
+          <t>8.3600528277244780</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-0.7946211490562297</t>
+          <t>-6.8152605416300164</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.1793161245785532</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr"/>
+          <t>8.7692319180133027</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+        </is>
+      </c>
       <c r="M76" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5156,62 +5164,58 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>9775189789.3182130000000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>870536980.8628373050907274</t>
+          <t>811294638.1934762401311477</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>45836680.4466174893752513</t>
+          <t>17460462.0733826995460028</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>8.7958851480641705</t>
+          <t>0.0829952825141067</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-0.0935746096683801</t>
+          <t>-8.0821536033222311</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>8.7784719504925445</t>
+          <t>0.0871543507481238</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5221,48 +5225,48 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>580000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4882361111.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>864185142.9753558143632849</t>
+          <t>806429664.2882833109594735</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>3932386.2238494675215569</t>
+          <t>86287909.4374265123692679</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2.2630511816159190</t>
+          <t>0.1651720644897385</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1.0074385785197137</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr"/>
+          <t>-6.5828626829290493</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.1703634202729550</t>
+        </is>
+      </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="79">
@@ -5298,27 +5302,27 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>843429263.2225833415663452</t>
+          <t>800796059.1185056497732000</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>9068450.5338910730989055</t>
+          <t>20273237.4194841482056515</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>69.8623015941026254</t>
+          <t>66.3309399341314000</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>0.6280314888356847</t>
+          <t>-5.9802822581433515</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>69.5468348416527607</t>
+          <t>68.9443660004974792</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -5327,13 +5331,13 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5343,62 +5347,58 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>60983663777.0100000000000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>828708154.0332393000000000</t>
+          <t>790584621.3156201573696335</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9744910.2870855192982737</t>
+          <t>9619412.2731852816857456</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.8287081540332393</t>
+          <t>0.0129638754438637</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-2.8372982437670743</t>
+          <t>-4.9341465224229093</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.8331764878724043</t>
+          <t>0.0132479430176268</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5408,58 +5408,58 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>811028179.4564724563828983</t>
+          <t>781997690.0747723539614636</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>7970869.9670327943081028</t>
+          <t>18621606.6065739577873459</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.0132991055181932</t>
+          <t>3172.0955772045413589</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-0.4677425020187143</t>
+          <t>1.1437602519634530</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.0134506247341788</t>
+          <t>3141.4673740374267675</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -5469,58 +5469,62 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Theta Network</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr"/>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>801668858.5420229872356842</t>
+          <t>774262814.1280753000000000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>7516012.0992107581547545</t>
+          <t>19909220.0106427608639568</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.9985022620558683</t>
+          <t>0.7742628141280753</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>0.0137574419923531</t>
+          <t>-7.3938295331720834</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.9984522729690971</t>
+          <t>0.8156109411025807</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5530,48 +5534,52 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
+          <t>739265391.6749380000000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>796326003.0156102897520000</t>
+          <t>737713939.0131667917627150</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>89026323.6212763599313706</t>
+          <t>10969382.0682096050446169</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>7.4090621791552874</t>
+          <t>0.9979013589987540</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-6.2214689875130021</t>
+          <t>-0.0982497072724397</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>7.5401675251296157</t>
-        </is>
-      </c>
-      <c r="L83" t="inlineStr"/>
+          <t>0.9984498018536391</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+        </is>
+      </c>
       <c r="M83" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="84">
@@ -5603,27 +5611,27 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>780317062.5935810025694505</t>
+          <t>736136852.8863330286299283</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>27353309.9746118470821043</t>
+          <t>48053255.8477282294296853</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.8690687596002477</t>
+          <t>0.8198635814877261</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-1.9000742496713360</t>
+          <t>-9.0610562952471996</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.8710360125130018</t>
+          <t>0.8705865640083251</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5632,13 +5640,13 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5648,58 +5656,54 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>107480000.0000000000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>765659590.4938563644343640</t>
+          <t>706996649.3430440123880000</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>6025169.3466185929079873</t>
+          <t>141240952.2475507283641030</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>3105.8217069894061610</t>
+          <t>6.5779368193435431</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-0.3050607673322401</t>
+          <t>-8.3849481472067474</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>3103.7279418698772412</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
-        </is>
-      </c>
+          <t>7.0510273432518136</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5709,58 +5713,58 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>1037550271.7864680000000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>704079373.1665961097102343</t>
+          <t>671528079.5623715789365613</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3188781.0245416753786795</t>
+          <t>12713086.5731050814114186</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.0896601510737038</t>
+          <t>0.6472246192043548</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.4984862122315703</t>
+          <t>-2.5139151873065757</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>1.0763968553549678</t>
+          <t>0.6575912659797805</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5770,58 +5774,58 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>310420802.2000000000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>685468164.5941109403155227</t>
+          <t>670432227.1842362931085152</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>13202182.7411278524653010</t>
+          <t>5769068.5985052661045676</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2.2081901719733103</t>
+          <t>1.0375865418022930</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>4.0431098061899553</t>
+          <t>-4.6042503838213610</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>2.1777362786129459</t>
+          <t>1.0619929025767455</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5831,62 +5835,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>43759808799.6019300000000000</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>210371.2200000000000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>680364927.7310300235442452</t>
+          <t>667778818.3984549713671582</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>34356457.6636185121780994</t>
+          <t>46514267.2703735747854131</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.0155477125333605</t>
+          <t>3174.2879011608858444</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.1932679511775867</t>
+          <t>1.2723864042311192</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.0153649025618433</t>
+          <t>3139.8683777354961234</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5896,58 +5896,58 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1036876078.8643710000000000</t>
+          <t>311886262.1000000000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>678818981.6070353497686342</t>
+          <t>654917431.1518687489678679</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>4993012.6869089878637055</t>
+          <t>31753863.8763193247194051</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>0.6546770587575958</t>
+          <t>2.0998598230719209</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-0.5271791681415639</t>
+          <t>-8.6572526742083192</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.6547043856052576</t>
+          <t>2.2484393911852824</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5957,58 +5957,62 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>1308683113.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>673989427.5158484127737979</t>
+          <t>646436402.9773983232964636</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>13243734.2601066921811856</t>
+          <t>113413935.9443063035529039</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.2716212915879926</t>
+          <t>0.4939594593648572</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>0.1578686978249370</t>
+          <t>-8.7797686202355787</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.2707712609779487</t>
+          <t>0.5232457457379790</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6018,58 +6022,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>662896208.4566578475943000</t>
+          <t>640375514.1572475514619660</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>964178.7937731921564321</t>
+          <t>30344471.8133608117336663</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0000006722668399</t>
+          <t>0.2580747073404595</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-0.3983042931841228</t>
+          <t>-6.6672235511530756</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0000006754789241</t>
+          <t>0.2698282551248925</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6079,58 +6083,62 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr"/>
+          <t>43804947221.8090800000000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>658968358.7340295753568244</t>
+          <t>634539418.3257243828895352</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>43893164.4126756440356279</t>
+          <t>50670420.2457224819013234</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>3132.4073641538494446</t>
+          <t>0.0144855651831446</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>0.7502458435500204</t>
+          <t>-8.9431272680423651</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>3120.1892375105473421</t>
+          <t>0.0154744640979484</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6140,58 +6148,58 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>637384765.0071368569770990</t>
+          <t>623368561.8335109456522000</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>8655888.5717021311668541</t>
+          <t>3084385.4201997190508947</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.1727886953268765</t>
+          <t>0.0000006321804346</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-0.5656167906202642</t>
+          <t>-4.6883713407360239</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.1734645905410681</t>
+          <t>0.0000006598273811</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6201,58 +6209,62 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>19844753.1250000000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>633674877.0049848252132959</t>
+          <t>620064789.6743512306799280</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>6808570.8239188279123292</t>
+          <t>16863800.7017040504103890</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>31.9316079677854307</t>
+          <t>39.0301363422141680</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-0.3146607037735575</t>
+          <t>-4.5464870864694444</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>31.9246053866936951</t>
+          <t>40.3079752594235728</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6262,62 +6274,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1307661214.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>5966455361.8200000000000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>627354773.7188190044687594</t>
+          <t>614087519.9211075097684709</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>37143185.2960708810971040</t>
+          <t>13233301.6841600413415433</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.4797532931330171</t>
+          <t>0.1029233410260170</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-1.5518680076327210</t>
+          <t>-1.8573669227130817</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.4827899417720555</t>
+          <t>0.1058577877482666</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6327,58 +6335,58 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>19846218.7500000000000000</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>615611382.4723362714061124</t>
+          <t>607687878.8539023315164531</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>4330615.3316225324456004</t>
+          <t>21336112.5626587131841748</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>0.1031787460292925</t>
+          <t>30.6198317427042535</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>0.0930973003800359</t>
+          <t>-5.4555709152411104</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.1030482548852833</t>
+          <t>31.7530084077214476</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6388,56 +6396,52 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>301835405.9816226000000000</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>3707948285.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>602971122.7621005997221797</t>
+          <t>601775482.3818354606028220</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>41263298.8620870778775242</t>
+          <t>24872663.8319693326911068</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>1.9976818849370269</t>
+          <t>0.1622933860259692</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-0.2616449056017938</t>
+          <t>-7.1585723747440809</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>2.0071109066769971</t>
+          <t>0.1719086823078441</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="98">
@@ -6463,33 +6467,33 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
+          <t>1574016688.1911110000000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>601698908.4465558868337893</t>
+          <t>580342144.3433431183256138</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>7453219.8795418599666173</t>
+          <t>14874825.8639792560475810</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3826285391508524</t>
+          <t>0.3687013922389114</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-0.0570429224120130</t>
+          <t>-5.8234384992185777</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.3822625240252177</t>
+          <t>0.3842730029677338</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6498,13 +6502,13 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6514,62 +6518,62 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>Raydium</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>290814662.0678040000000000</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>555000000.0000000000000000</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>577243810.8613764417435043</t>
+          <t>551352890.8105441114184460</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>4658879.2649954974917703</t>
+          <t>120346457.7353365418867770</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>3.2111751153327410</t>
+          <t>1.8958909667422309</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>3.5839280481133219</t>
+          <t>5.0350585373941399</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>3.2038076719185671</t>
+          <t>1.8977556250994675</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6579,62 +6583,62 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Ethereum Name Service</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>35599404.0400000000000000</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>575776967.8990471133680497</t>
+          <t>537733564.0469310436815616</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>7555036.1863348790657646</t>
+          <t>54278468.8067641983260407</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>36.2424281043417757</t>
+          <t>15.1051282612126291</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>0.6166750864665108</t>
+          <t>-7.7821197490110293</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>36.0653319432336121</t>
+          <t>16.0574548650094182</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6644,56 +6648,56 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>295394509.7510309000000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>450000000.0000000000000000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>569792890.0385989300074013</t>
+          <t>534180343.4006736428446227</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>23906502.0200030915198407</t>
+          <t>51409028.9650064445307765</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>16.0056862018917924</t>
+          <t>1.8083624636453129</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-0.1551305279985365</t>
+          <t>-5.2921268982566718</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>15.9187589996166714</t>
+          <t>1.8795228995008039</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19845709.0000000000000000</t>
+          <t>19846231.0000000000000000</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -533,27 +533,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1639528365133.9163638203900608</t>
+          <t>1645455068329.5992655856772274</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>19458216229.5456414394492114</t>
+          <t>14252713672.2124541925028697</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82613.7461319178046912</t>
+          <t>82910.2043773248061854</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-3.1628347666684062</t>
+          <t>-0.9832242352240397</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>85489.6147972477784752</t>
+          <t>82471.9205073768376651</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="3">
@@ -588,33 +588,33 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>120661946.5561551900000000</t>
+          <t>120666956.0999141600000000</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>217027307344.3245594599292001</t>
+          <t>217347221316.2245667294943836</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11636134272.0186499412096684</t>
+          <t>8379047521.1587873299235214</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1798.6392026530222873</t>
+          <t>1801.2157457279158390</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-5.8128233499921034</t>
+          <t>-1.4300611569390545</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1873.2456393693564074</t>
+          <t>1795.7617376157696000</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="4">
@@ -649,33 +649,33 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>144034280963.4801300000000000</t>
+          <t>144086679997.8651000000000000</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>143983896070.6564411925055732</t>
+          <t>144232177004.9568880200639706</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>43598985117.6059918216113714</t>
+          <t>33326605272.6960059283315126</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.9996501881879324</t>
+          <t>1.0010097880462923</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>-0.1791141347037187</t>
+          <t>0.1253355354126054</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1.0000019205852120</t>
+          <t>1.0001868471948924</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="5">
@@ -710,7 +710,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>58205697378.0000000000000000</t>
+          <t>58274974538.0000000000000000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -720,27 +720,27 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>118253432675.7566953179994092</t>
+          <t>119781574734.2608914102939664</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2728488359.6339809127217026</t>
+          <t>2176951429.4426916881320363</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.0316470380518614</t>
+          <t>2.0554547759802728</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-5.0619477140029728</t>
+          <t>-0.0556294469190710</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2.1152672622832497</t>
+          <t>2.0309811165343918</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="6">
@@ -785,27 +785,27 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>85410795869.5067094539521990</t>
+          <t>85245710974.6838895745453480</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>796407551.4510289898261441</t>
+          <t>657429420.0399308376276231</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>593.1023956954452053</t>
+          <t>591.9560271876263756</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-3.0230767448718937</t>
+          <t>-1.9265868886641345</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>602.8583017048006535</t>
+          <t>595.3109061114759520</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -830,58 +830,58 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>512503882.2685171400000000</t>
+          <t>60870184064.3102700000000000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>60990505066.9203193802891438</t>
+          <t>60787223223.3547225953715602</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3399476275.7070297759686405</t>
+          <t>7313590304.8258103819825408</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>119.0049620638101768</t>
+          <t>0.9986370857550242</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-6.1037229736098863</t>
+          <t>-0.1630551898069191</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>127.4142239609940486</t>
+          <t>1.0002670739122327</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/</t>
+          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -891,52 +891,52 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60649816501.5563100000000000</t>
+          <t>514450631.2156934000000000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>60710455106.5109587982371554</t>
+          <t>59430679232.1768655839925762</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9129723236.7032403484076338</t>
+          <t>2525427124.3548797980585805</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1.0009998151429377</t>
+          <t>115.5226092185693154</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.0486903374337158</t>
+          <t>-3.5943849126880925</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.9998996377116921</t>
+          <t>116.3585335323666143</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+          <t>https://explorer.solana.com/</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="9">
@@ -962,33 +962,33 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>148690796383.7052300000000000</t>
+          <t>148705696383.7052600000000000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24483399831.0141073155431614</t>
+          <t>24022255961.9878813635512270</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1210105392.5286672876453773</t>
+          <t>777704463.3575495629039487</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1646598204224643</t>
+          <t>0.1615422713868557</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-5.4882550554326527</t>
+          <t>-2.8513004288431612</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.1720568712245129</t>
+          <t>0.1604062953038440</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="10">
@@ -1033,27 +1033,27 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22667528163.2964461512383906</t>
+          <t>22833704989.2943970887606578</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>517803627.6003990983828801</t>
+          <t>386661232.3456318468502065</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6427220348094062</t>
+          <t>0.6474338634205431</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-5.2060276235180228</t>
+          <t>-0.9594468516662389</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.6759852171243840</t>
+          <t>0.6375039400318576</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="11">
@@ -1088,33 +1088,33 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94985541388.8610000000000000</t>
+          <t>94982643679.6072200000000000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22176014805.1385299003679272</t>
+          <t>22679918094.5092607670833901</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>360646827.6859809727443618</t>
+          <t>265942595.2094364353669026</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2334672675534081</t>
+          <t>0.2387796045245121</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>-1.8727489217053303</t>
+          <t>1.1641083435300922</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.2377132718794603</t>
+          <t>0.2355714971535056</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="12">
@@ -1149,33 +1149,33 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9378159.5971089000000000</t>
+          <t>9374205.4626198300000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16879794298.3193979325661683</t>
+          <t>16853468197.5788653671317378</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8071686.4153063919370985</t>
+          <t>8591236.6291930149298285</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1799.9047812667959549</t>
+          <t>1797.8556438498190561</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-5.4622963409834103</t>
+          <t>-1.7737999948330256</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1844.0080514456342142</t>
+          <t>1791.5633657393500718</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="13">
@@ -1216,27 +1216,27 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10636821595.3958774212415626</t>
+          <t>10659287443.1468571077809319</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>213724793.3121699395638608</t>
+          <t>171204770.0022461998485067</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82406.5339118704116958</t>
+          <t>82580.5833333020327761</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-3.0002000033702729</t>
+          <t>-1.1179921874324288</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>85698.1361722102547623</t>
+          <t>81707.8264179078211265</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1245,13 +1245,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1261,54 +1261,58 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>UNUS SED LEO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2461769440.3709480000000000</t>
+          <t>923803780.9000000000000000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>9468226533.4435585777858962</t>
+          <t>8801225034.9594423175688165</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>140650888.8277464455053983</t>
+          <t>4465538.0329942770265210</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.8461061292632072</t>
+          <t>9.5271584907186672</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>-5.3580700174231220</t>
+          <t>1.7788413091981314</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>4.0123636773992744</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr"/>
+          <t>9.1889617386864285</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>https://eospark.com/account/bitfinexleo1</t>
+        </is>
+      </c>
       <c r="M14" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1318,52 +1322,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>Toncoin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>923812201.9000000000000000</t>
+          <t>2473007671.3828063000000000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8620721841.2095968245155606</t>
+          <t>8694959472.1163698981801967</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>7357546.9469304407649398</t>
+          <t>127467371.1532184587890645</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>9.3316821573469161</t>
+          <t>3.5159452082307932</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.2364827018646868</t>
+          <t>-8.1337986575944765</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>9.3964343831286980</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
-        </is>
-      </c>
+          <t>3.6351280362429740</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="16">
@@ -1395,27 +1395,27 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8497966177.6312458352909623</t>
+          <t>8388795396.3038237658811401</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>396218714.0103962650431128</t>
+          <t>301182209.8381416242378517</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.9325316690785536</t>
+          <t>12.7663913765258147</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-7.8461798737260019</t>
+          <t>-3.2780481309741452</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13.7044583216541372</t>
+          <t>12.7491556932505381</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="17">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>30777463547.8369900000000000</t>
+          <t>30778563460.8500250000000000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1460,27 +1460,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7968470554.0416372273890169</t>
+          <t>7982481164.9355166817492093</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>130780348.6522674576119439</t>
+          <t>79689196.5923534822481579</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2589060187385602</t>
+          <t>0.2593519731708447</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-5.2678902333234423</t>
+          <t>-1.4114712543208727</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.2683813600779731</t>
+          <t>0.2587349637042250</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1489,13 +1489,13 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1505,62 +1505,62 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>Avalanche</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3249982900.4588876000000000</t>
+          <t>414932590.3611275000000000</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7499759647.1855119643336329</t>
+          <t>7507349560.3925563510019458</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>950035602.4219981002297306</t>
+          <t>158483046.5322474038847181</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2.3076304943409299</t>
+          <t>18.0929378284282248</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-4.1171062432708843</t>
+          <t>-2.8486146445546264</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2.4224505829713471</t>
+          <t>18.2088465726499597</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://avascan.info/</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1570,56 +1570,56 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>Sui</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>414902635.8846379500000000</t>
+          <t>3249982900.4588876000000000</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7491642400.8230887572607880</t>
+          <t>7190619044.4238470876965061</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>277512231.3143471307445411</t>
+          <t>842236546.6902476662336096</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>18.0563866142949994</t>
+          <t>2.2125098084080854</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-8.7534014630204907</t>
+          <t>-8.1333190494953562</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19.2499854787668663</t>
+          <t>2.2788888697682509</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="20">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>589250687620781.9000000000000000</t>
+          <t>589250651184905.6000000000000000</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1655,27 +1655,27 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7130582238.9540358711338977</t>
+          <t>7149207058.8357847212975309</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>179160700.8397060222354770</t>
+          <t>91280763.4448927842202984</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000121011012609</t>
+          <t>0.0000121327096448</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-4.6446322852393388</t>
+          <t>-1.6902029334514603</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.0000124948779869</t>
+          <t>0.0000121774413298</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="21">
@@ -1720,27 +1720,27 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6808477142.7080958908682695</t>
+          <t>6769945155.0978177477284540</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>209158732.5758688610324274</t>
+          <t>175839960.8016949767774971</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1612641871230726</t>
+          <t>0.1603515264017448</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-5.4250989677994772</t>
+          <t>-2.7680135819386622</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.1681223451443682</t>
+          <t>0.1608280285671282</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="22">
@@ -1785,27 +1785,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6198760373.1887302767069865</t>
+          <t>6276792885.9557257081554631</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>380928653.6802415128300928</t>
+          <t>265371587.7937274785184891</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>82.0392540018344358</t>
+          <t>83.0719974456658976</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-3.1120106443969554</t>
+          <t>-0.4287740138796887</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>84.1515138951764924</t>
+          <t>82.7151791969137098</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="23">
@@ -1850,27 +1850,27 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6115177710.7716410903668150</t>
+          <t>6196028586.1268496819595810</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>66493161.4444789245971631</t>
+          <t>58026177.5172255242431497</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.2734032812218788</t>
+          <t>6.3563461114604173</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.0254139703045069</t>
+          <t>0.6184479485832027</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>6.2704437178114203</t>
+          <t>6.3087267224164030</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1879,13 +1879,13 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1895,54 +1895,58 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wrapped ETH</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3375317.5926469000000000</t>
+          <t>1522267060.0000000000000000</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6073976288.7544976426358435</t>
+          <t>6122622118.2422885134599200</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>762771151.4494678994956100</t>
+          <t>118856607.5639930199991943</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1799.5273398825053161</t>
+          <t>4.0220420444769320</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-5.6317579925124591</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>-1.1203218922842832</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>3.9832083294338184</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1952,52 +1956,48 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Wrapped ETH</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
+          <t>3375317.5926469000000000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6042437419.1218366691808060</t>
+          <t>6087581874.8754121847077226</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>166647428.8715563193443385</t>
+          <t>351634607.8866502859387254</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.9693675163159851</t>
+          <t>1803.5582453447214326</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-5.0415919660323063</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>4.1158577979662966</t>
-        </is>
-      </c>
+          <t>-1.3914962654890207</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="26">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>19850634.3750000000000000</t>
+          <t>19851131.2500000000000000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2033,27 +2033,27 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5858474421.0476621134331709</t>
+          <t>5981333587.6287151181585756</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>130848701.8898557187146055</t>
+          <t>120834301.9356933888359876</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>295.1278186064349449</t>
+          <t>301.3094574964696341</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-4.5078665697049352</t>
+          <t>-0.0132785752305981</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>306.7222238186456356</t>
+          <t>300.0563088431246310</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2078,54 +2078,50 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BTCB</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
+          <t>Bitcoin BEP2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1200000000.0000000000000000</t>
+          <t>65207.7183961800000000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5394449264.1331698000000000</t>
+          <t>5406915597.2907756128391827</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>102975348.7022755820955434</t>
+          <t>1329194.1241418783688954</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>4.4953743867776415</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>-3.4101445289085451</t>
-        </is>
-      </c>
+          <t>82918.3374342311547867</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2135,58 +2131,58 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>Bitget Token</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
+          <t>1200000000.0000000000000000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5362386872.3288495786416072</t>
+          <t>5384848075.6187163600000000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>133002634.1544961595481004</t>
+          <t>130350448.3864484400789379</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.9994416371576748</t>
+          <t>4.4873733963489303</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0095395436657100</t>
+          <t>-1.5873271680681067</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.9997016026331541</t>
+          <t>4.4079120914958401</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2196,54 +2192,58 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>Dai</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5260950968.3606940000000000</t>
+          <t>5365382702.6648720000000000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5258656650.5632453057372292</t>
+          <t>5364447321.7372434799786098</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>60069868.1299716304320200</t>
+          <t>92780679.4785596128052943</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9995638967534108</t>
+          <t>0.9998256637076114</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>-0.0444959274790329</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
+          <t>0.0381235476159860</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>0.9999976015001149</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2253,56 +2253,48 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PI</t>
+          <t>USDE</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Pi</t>
+          <t>Ethena USDe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6794101040.3435950000000000</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5252116023.5953940000000000</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4455351871.3219725265542810</t>
+          <t>5249076389.4218363704248283</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>102747781.7607115563507776</t>
+          <t>72089375.1765701550600838</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.6557676791772667</t>
+          <t>0.9994212553264433</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-7.5039702654128606</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>0.9351907533812549</t>
-        </is>
-      </c>
+          <t>-0.0344723059474687</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="31">
@@ -2338,27 +2330,27 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3964069991.4073236859226340</t>
+          <t>3945453821.5850907161325560</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>37118853.2559679305528862</t>
+          <t>35642009.8340302874955906</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11.8710256541012013</t>
+          <t>11.8152766309961942</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-10.7806163563423888</t>
+          <t>-5.2760517372774409</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13.4484816344568361</t>
+          <t>11.6722781626710580</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2367,7 +2359,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="32">
@@ -2399,27 +2391,27 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3940688577.4320656390714480</t>
+          <t>3931065257.5209289524726976</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>57335102.3512962392179541</t>
+          <t>52449805.9964736199339554</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>213.6251558370328950</t>
+          <t>213.1034746193240246</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-1.5889283298217285</t>
+          <t>-1.6267773945583563</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>217.6563196354219532</t>
+          <t>212.8114129604266611</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2428,13 +2420,13 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2444,58 +2436,62 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Pi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>628494054.7100000000000000</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr"/>
+          <t>6794101040.3435950000000000</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>100000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3686577654.5253241757063987</t>
+          <t>3826504636.5530106227650924</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>105605019.3122833394463062</t>
+          <t>170035690.4299406351485049</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>5.8657319459074063</t>
+          <t>0.5632098512858582</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-6.6959358538966475</t>
+          <t>-16.1413980545509194</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6.1462011634614081</t>
+          <t>0.8041652307723401</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2505,58 +2501,58 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>604422794.1445550000000000</t>
+          <t>628494054.7100000000000000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3083077512.1173559555761016</t>
+          <t>3670315024.7961939013706965</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>90399090.1278228038966968</t>
+          <t>71898587.6493934357782973</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.1008624128427572</t>
+          <t>5.8398563952840449</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-5.6826857093927840</t>
+          <t>-2.5122002575022589</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>5.3176288143448584</t>
+          <t>5.8558845994839085</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2566,56 +2562,52 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>APT</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>Aptos</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>604472162.4773237000000000</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2977160679.5246615899631975</t>
+          <t>3027303615.5497629508098800</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>857327383.0086401416757517</t>
+          <t>80939686.9357720727199153</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0.0000070768532403</t>
+          <t>5.0081770567281167</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-8.5660771845192507</t>
+          <t>-4.3204878749971619</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.0000075063694375</t>
+          <t>5.0811383199261371</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="36">
@@ -2641,33 +2633,33 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1199000741.0000000000000000</t>
+          <t>1199263060.0000000000000000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2931520640.8788716785323770</t>
+          <t>2981082309.7863528502957960</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>139662458.0853478439029399</t>
+          <t>109715147.7172333156271118</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.4449698324905970</t>
+          <t>2.4857618059096666</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-7.7882160390105607</t>
+          <t>-1.7554486237511743</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2.6074781249355288</t>
+          <t>2.4574715279756189</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2676,13 +2668,13 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2692,58 +2684,62 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>Pepe</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr"/>
+          <t>420689899653543.5600000000000000</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2830881507.0770885580000000</t>
+          <t>2828676423.3981642566396693</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>3206733.7162890332652155</t>
+          <t>607419249.1765057180816109</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>47.1813584512848093</t>
+          <t>0.0000067238990661</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-2.2987073394795198</t>
+          <t>-6.5457352085975612</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>47.4443804865248700</t>
+          <t>0.0000067452907851</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2753,62 +2749,58 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6219316795.0000000000000000</t>
-        </is>
-      </c>
+          <t>60000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2612596235.7873673888388406</t>
+          <t>2810953916.1080981760000000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>163771963.7224363736647524</t>
+          <t>4838111.6212121572964562</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>0.7764735629821558</t>
+          <t>46.8492319351349696</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-3.1730253716360998</t>
+          <t>-2.2656185688436360</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.7933856661937006</t>
+          <t>46.0982003373340057</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2818,62 +2810,58 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Ondo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>30263013692.0000000000000000</t>
-        </is>
-      </c>
+          <t>3159107529.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2550846518.8007343851500840</t>
+          <t>2591081900.3136380337320388</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>55193668.3841560111077771</t>
+          <t>197769450.8406272525045978</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.0959991228209915</t>
+          <t>0.8201942721252772</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>-7.4693275075352338</t>
+          <t>0.5615920374035312</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.1040418566991901</t>
+          <t>0.8025796211358725</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2883,54 +2871,62 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2601315490.1633330000000000</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr"/>
+          <t>26571560696.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2550174963.2981185647281197</t>
+          <t>2510011282.6102546951871568</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>4154241194.4448362813623991</t>
+          <t>28741091.0056590555977305</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.9803405134599789</t>
+          <t>0.0944623204984758</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-1.6489834919923842</t>
+          <t>-4.9539519934704238</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.9719757358097704</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr"/>
+          <t>0.0958199441211254</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+        </is>
+      </c>
       <c r="M40" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2940,52 +2936,56 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr"/>
+          <t>3364694382.8368406000000000</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6219316795.0000000000000000</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2500019195.7044406479302317</t>
+          <t>2503052193.5362013959995912</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>263172550.7415073121089838</t>
+          <t>202166274.9902645203872328</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.7913688194386373</t>
+          <t>0.7439166559388459</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-3.7995093954652752</t>
+          <t>-4.6470941090765420</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.8327282311500948</t>
+          <t>0.7534957552303403</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="42">
@@ -3011,33 +3011,33 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>482284285.8834832000000000</t>
+          <t>482976259.2016464000000000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2448383745.1292949514632636</t>
+          <t>2477431953.2822203202517431</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>43870906.8417242857482617</t>
+          <t>41030111.0364930004124715</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5.0766400996129673</t>
+          <t>5.1295108322247221</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-6.7178131807568690</t>
+          <t>-1.4617360140317006</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>5.2690743408126849</t>
+          <t>5.0968555141327041</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="43">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>151367967.6932335000000000</t>
+          <t>151382010.9572335000000000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3082,27 +3082,27 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2431759469.2586970275553424</t>
+          <t>2439870589.5435319001136557</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>65186288.1192406088512800</t>
+          <t>59310036.8617622743681386</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.0652184627791784</t>
+          <t>16.1173086162319034</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-4.8755047414270330</t>
+          <t>-1.8650824448783151</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>16.6257494928156630</t>
+          <t>16.1336781416935530</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3111,13 +3111,13 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3127,58 +3127,54 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>First Digital USD</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>15096506.1791544500000000</t>
+          <t>2364076402.9933310000000000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2285253833.8380163259613990</t>
+          <t>2351176923.7007802703935634</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>206391229.1568676625257128</t>
+          <t>1893500302.2904696800425210</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>151.3763387845022953</t>
+          <t>0.9945435438227725</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>-9.0352510515365737</t>
+          <t>0.8580311781834178</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>160.3489168614322072</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
-        </is>
-      </c>
+          <t>0.9929297843495151</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3188,58 +3184,58 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10392099602.6534290000000000</t>
+          <t>15096908.2563389300000000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1935203355.7648310045366262</t>
+          <t>2251930389.4196288082844043</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>77650619.5158777693562095</t>
+          <t>104199265.6277882619335571</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>0.1862187074564521</t>
+          <t>149.1650045945057847</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-7.8997778522315448</t>
+          <t>-3.7016343946005368</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.1951577902823479</t>
+          <t>151.1010997107186653</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3249,54 +3245,58 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>POL (prev. MATIC)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>85828689.4334172500000000</t>
+          <t>10392099602.6534290000000000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1910046998.5735125875969763</t>
+          <t>1976558181.2927872590491727</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>13883428.0420554409853859</t>
+          <t>47652838.3938715098582422</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>22.2541787738149842</t>
+          <t>0.1901981559903554</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-2.8458740608634457</t>
+          <t>-0.0105678979593152</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22.6910890554908084</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr"/>
+          <t>0.1859933339740156</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+        </is>
+      </c>
       <c r="M46" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3306,56 +3306,48 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>GateToken</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>85828710.2959600400000000</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1854343290.8184810349814860</t>
+          <t>1891153862.6581085632833988</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>33884662.2773940979962017</t>
+          <t>10814573.0847137838726145</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>0.0215658824539180</t>
+          <t>22.0340473034828444</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-8.0999492923305970</t>
+          <t>-1.8118169079963734</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.0228479790826884</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>https://explore.veforge.com/</t>
-        </is>
-      </c>
+          <t>21.8849981713833054</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="48">
@@ -3381,7 +3373,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>199999427.4807580000000000</t>
+          <t>199999426.9845430000000000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -3391,27 +3383,27 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1846478192.7079247970659443</t>
+          <t>1888555568.3313755237197186</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>207761439.6382333439878011</t>
+          <t>164532598.2746133836744254</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>9.2324173922226601</t>
+          <t>9.4428048960226919</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>-11.3681183178219074</t>
+          <t>1.0263810760099959</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>10.0932972430703360</t>
+          <t>9.2218496157055197</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3420,13 +3412,13 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3436,62 +3428,62 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>VeChain</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>8546962.0000000000000000</t>
+          <t>85985041177.0000000000000000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1820962687.4574987517508122</t>
+          <t>1864437882.2039439415450287</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>99570571.7360041446653135</t>
+          <t>24633194.0345852211574999</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>213.0537947234934181</t>
+          <t>0.0216832818439431</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-7.8414740427921809</t>
+          <t>-1.7818459669162015</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>225.0489583384513708</t>
+          <t>0.0215746159394813</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3501,54 +3493,62 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ENA</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ethena</t>
+          <t>Bittensor</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>8554006.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1776662918.4867195342187500</t>
+          <t>1846463934.5908563527578930</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>184509737.1108449178466866</t>
+          <t>75299193.5459967496151823</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>0.3361112231248893</t>
+          <t>215.8595556971618155</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-9.3467411087448984</t>
+          <t>-0.8799862493909068</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.3624869361772366</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr"/>
+          <t>209.1094002906920709</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>https://bittensor.com/scan</t>
+        </is>
+      </c>
       <c r="M50" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3558,58 +3558,58 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>Cosmos</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>647135072.0000000000000000</t>
+          <t>390934204.0000000000000000</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1748026602.9330236208759968</t>
+          <t>1830111374.6743614844948848</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>123753603.4866047602595904</t>
+          <t>88316241.2324245990545934</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2.7011773562676319</t>
+          <t>4.6813795159104612</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>-4.9468487430302695</t>
+          <t>6.1799530151030785</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2.7798948251427674</t>
+          <t>4.4863295071236357</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3619,58 +3619,58 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>RENDER</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>Filecoin</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>517716590.0562826400000000</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>644168762.0000000000000000</t>
-        </is>
-      </c>
+          <t>647135072.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1717476317.1171532249850971</t>
+          <t>1758385592.3633098857439712</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>108154873.7611594389851843</t>
+          <t>77907897.4627414221989308</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.3174063765861566</t>
+          <t>2.7171848172730621</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-10.2381629158107651</t>
+          <t>-1.9730046521347320</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>3.6053468367994682</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr"/>
+          <t>2.6954786122629730</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>https://protocol.ai</t>
+        </is>
+      </c>
       <c r="M52" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3680,58 +3680,58 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>Render</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>584318047.2631370000000000</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr"/>
+          <t>517716590.0562826400000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>644168762.0000000000000000</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1705606928.6166119198616331</t>
+          <t>1695536295.2475520112760005</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>60623724.6674142093011038</t>
+          <t>66891504.1421125543793080</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2.9189701338259759</t>
+          <t>3.2750279357731704</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-7.3445814527942792</t>
+          <t>-3.5611224793036427</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>3.0898473649933640</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>https://www.mintscan.io/celestia</t>
-        </is>
-      </c>
+          <t>3.2556410698820642</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3741,58 +3741,62 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ATOM</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>Kaspa</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+          <t>25966463752.8537860000000000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1639056684.2491185255400192</t>
+          <t>1672752758.8473860593874924</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>72092326.3966271802284503</t>
+          <t>59998500.4242105122261160</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>4.1926663553059648</t>
+          <t>0.0644197367330600</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-4.3180250220139154</t>
+          <t>-0.1438115918113060</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>4.3829559389031905</t>
+          <t>0.0632990459714779</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3802,62 +3806,58 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>Celestia</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>25960683651.3743060000000000</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>28704026601.0000000000000000</t>
-        </is>
-      </c>
+          <t>585525337.8898470000000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1634301649.7139061808185894</t>
+          <t>1662776684.1225518784643402</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>77007554.6986966632875837</t>
+          <t>73854421.5516319550080369</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>0.0629529511495507</t>
+          <t>2.8398031246862364</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-8.4592922362994137</t>
+          <t>-3.3826312258638682</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.0662283556835476</t>
+          <t>2.7985228289103692</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3867,62 +3867,54 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>Ethena</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>8537381523.8178040000000000</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5285937500.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1509418092.4102449442979540</t>
+          <t>1655459686.5222439840625000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>80245498.9281074805544185</t>
+          <t>158421608.3451164890246385</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.1768010587554547</t>
+          <t>0.3131818502436406</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-6.4953478540050034</t>
+          <t>-7.2316039006806107</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.1874739495398206</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>https://algoexplorer.io/</t>
-        </is>
-      </c>
+          <t>0.3124894893270447</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3932,58 +3924,62 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>Algorand</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4617913336.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>8535611719.9373470000000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1419970173.1042036744717304</t>
+          <t>1536756629.7092086460476275</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>126219617.4180657172976422</t>
+          <t>50083736.0938727905801870</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.3074917326911489</t>
+          <t>0.1800405969872876</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-7.9595727501672659</t>
+          <t>-0.2703286499111477</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.3241460492829289</t>
+          <t>0.1763102660009111</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3993,62 +3989,58 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>Arbitrum</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3175000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>4617913336.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1354992622.0879253760000000</t>
+          <t>1428742696.0100173953016360</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>156344674.3284973092926316</t>
+          <t>83816986.1302136674680714</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.4704835493360852</t>
+          <t>0.3093914051768635</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-7.1762786400131172</t>
+          <t>-1.6321276522673720</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.4920631421067934</t>
+          <t>0.3055241213400205</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4058,56 +4050,56 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>Sonic (prev. FTM)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>125043917.8513356400000000</t>
+          <t>2880000000.0000000000000000</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>200000000.0000000000000000</t>
+          <t>3175000000.0000000000000000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1332707105.0086010272566361</t>
+          <t>1386303176.0274963840000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>1441370.8174864626168103</t>
+          <t>103745700.6901038423020574</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>10.6579122592196186</t>
+          <t>0.4813552694539918</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>-2.2828393116175665</t>
+          <t>0.3246189886181707</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>10.8387379787541175</t>
+          <t>0.4637408903545136</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="60">
@@ -4133,7 +4125,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>1556419102.7764000000000000</t>
+          <t>1556643195.5878000000000000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -4143,27 +4135,27 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1243476602.1285557600427900</t>
+          <t>1324481806.3972389523680883</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>618718409.6060721840420099</t>
+          <t>415040297.8732620811570894</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.7989342972663305</t>
+          <t>0.8508576725555305</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>16.0624682909018043</t>
+          <t>1.2838107193078891</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.7970777844200969</t>
+          <t>0.8241222227342993</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4172,13 +4164,13 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4188,58 +4180,62 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>KuCoin Token</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr"/>
+          <t>125043917.8513356400000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>200000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1216907074.7788359174843804</t>
+          <t>1285356232.0280051652167502</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>36808371.9064981839231130</t>
+          <t>1217508.4870785889144231</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>14.5331224517568173</t>
+          <t>10.2792383197410813</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>5.9017033886042926</t>
+          <t>-4.2130390636290026</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14.4202611910292096</t>
+          <t>10.4330506121526672</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4249,58 +4245,58 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Optimism</t>
+          <t>DeXe</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1620705846.0000000000000000</t>
+          <t>83733353.1605750500000000</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1142899077.5028045893197086</t>
+          <t>1250463475.4180495718381997</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>103082744.9633326257767066</t>
+          <t>14858363.7724513116261852</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>0.7051860029526941</t>
+          <t>14.9338755492096651</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-6.9114623991494667</t>
+          <t>-0.1185698548443233</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.7286243291874472</t>
+          <t>14.9944257213348782</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4310,52 +4306,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>Optimism</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>258992823.0000000000000000</t>
+          <t>1620705846.0000000000000000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1123963831.0916701307984247</t>
+          <t>1133837952.1196439457377750</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>130031223.4069393101389382</t>
+          <t>75173817.3236268780459462</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>4.3397489477601089</t>
+          <t>0.6995951516544625</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-5.4763290187399412</t>
+          <t>-1.9455330180055803</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>4.3462690165955788</t>
+          <t>0.6885122818490065</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="64">
@@ -4391,27 +4387,27 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1087845997.6339652208908309</t>
+          <t>1092145367.2434469050895972</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>43115763.7509896925444992</t>
+          <t>27377109.1597253223052899</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1282.7246926264043497</t>
+          <t>1287.7942590657757938</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-7.3986419941740069</t>
+          <t>-1.6619337811471385</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>1365.3799953183783240</t>
+          <t>1281.4308950865423352</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4420,7 +4416,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="65">
@@ -4456,27 +4452,27 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1087206379.6654579680000000</t>
+          <t>1089463831.6675974840000000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>83558730.9392813577121923</t>
+          <t>66269380.3585075310707269</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.4314311030418484</t>
+          <t>0.4323269173284117</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-7.9187968116349472</t>
+          <t>-2.8460927903403177</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.4564764069373379</t>
+          <t>0.4293153537259046</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4485,13 +4481,13 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -4501,56 +4497,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>Story</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>3000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>259071202.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1025229816.1535280338290957</t>
+          <t>1086778652.2427116101393964</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>83981899.1227985655499860</t>
+          <t>42801485.1673118420547645</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>0.3809972807813897</t>
+          <t>4.1949033464657782</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-10.5641287729592898</t>
+          <t>-6.2759372036950413</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.4053061703516297</t>
+          <t>4.2978799271148325</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="67">
@@ -4582,27 +4574,27 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1019376585.6228169645603527</t>
+          <t>1047134886.0160403564185750</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>25689817.8851877974107425</t>
+          <t>26877605.1628252547783744</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0649588373447940</t>
+          <t>0.0667277095610512</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>-5.9025355115616639</t>
+          <t>0.6577119765427367</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.0674141123623088</t>
+          <t>0.0657912389006506</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4611,13 +4603,13 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4627,54 +4619,62 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>WBNB</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
+          <t>Jupiter</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr"/>
+          <t>2690911111.1000000000000000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>936777558.5390565155380626</t>
+          <t>1036395025.0006292534635125</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>9414724.4848437618451299</t>
+          <t>38088685.2996268537645216</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>591.8167339160372281</t>
+          <t>0.3851465106838732</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-4.0818789090862495</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
+          <t>-0.2820149391063747</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.3763142390885347</t>
+        </is>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4684,58 +4684,54 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>WBNB</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>Wrapped BNB</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1582884.5398480400000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>931613473.4540863250000000</t>
+          <t>955007735.6765999015904933</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>87621597.7575643036404251</t>
+          <t>10242295.5810794068557694</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>0.3802503973281985</t>
+          <t>603.3337944966488238</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>-8.2466937147805865</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>0.4028765948446518</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr"/>
+          <t>0.4177536786911600</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+        </is>
+      </c>
       <c r="M69" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4745,54 +4741,58 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
+          <t>Movement</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1223649706.2148200000000000</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr"/>
+          <t>2450000000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>885343051.8002103041850480</t>
+          <t>954913424.4212535000000000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>124472712.5707123873700160</t>
+          <t>53696732.1536843564784601</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.7235265511883205</t>
+          <t>0.3897605813964300</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-10.1422839818522630</t>
+          <t>-0.0847266140628771</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.7755519829311916</t>
+          <t>0.3874908428413564</t>
         </is>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4802,62 +4802,54 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>Worldcoin</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1519731982.9897600000000000</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1818000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1226340536.3054771000000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>877228249.2018610885136464</t>
+          <t>929076727.5117803100476926</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>29027972.6136404733712690</t>
+          <t>89294132.2884662480858444</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.5772256286112338</t>
+          <t>0.7576009273172640</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>-6.5859868875346503</t>
+          <t>1.0517345237154449</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.6097112379450383</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>https://explorer.stacks.co/</t>
-        </is>
-      </c>
+          <t>0.7389761511357680</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4867,48 +4859,56 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>Stacks</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>872045271.8289261000000000</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr"/>
+          <t>1519909933.8523700000000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>870092925.1567833806837731</t>
+          <t>883431904.5986800963852935</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>10624202.7569959444520966</t>
+          <t>17268145.2069761681380964</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.9977611865631149</t>
+          <t>0.5812396411934291</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-0.0108396743382976</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
+          <t>-1.8861973383475203</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.5781984474027450</t>
+        </is>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="73">
@@ -4940,38 +4940,38 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>866119281.4611833164217169</t>
+          <t>848821198.1726248356767202</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>169405501.2888672741883050</t>
+          <t>70618971.6876836585416902</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000111191790529</t>
+          <t>0.0000108971074636</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-11.4749154618247779</t>
+          <t>-4.3928386196638694</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.0000121616345354</t>
+          <t>0.0000109112235835</t>
         </is>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4981,52 +4981,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>IMX</t>
+          <t>USD0</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>Usual USD</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>845594423.8423951000000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>849353385.9087651851556859</t>
+          <t>843387801.7890285170377857</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>20185722.7658891000569318</t>
+          <t>34169057.3130459655853384</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.4803172309654802</t>
+          <t>0.9973904486700141</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-9.1954707409468489</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>0.5115406053816249</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr"/>
+          <t>-0.0319071344452438</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+        </is>
+      </c>
       <c r="M74" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="75">
@@ -5062,28 +5058,28 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>833596261.6203269385324318</t>
+          <t>830544470.6809146211840202</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>24615531.4703343116913003</t>
+          <t>11380600.4153233454801915</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.1829477400588575</t>
+          <t>2.1749559814089651</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-2.2479168644182340</t>
+          <t>-0.3909122075854143</t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="76">
@@ -5119,27 +5115,27 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>827402248.4369071694139660</t>
+          <t>826459057.6476560271217835</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>57879859.3146569757984006</t>
+          <t>40676004.1288185040561525</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>8.3600528277244780</t>
+          <t>8.3505228502079086</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-6.8152605416300164</t>
+          <t>-3.0698359480976452</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>8.7692319180133027</t>
+          <t>8.3614104004802462</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -5148,13 +5144,13 @@
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5164,58 +5160,62 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>Quant</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr"/>
+          <t>12072738.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>14881364.0000000000000000</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>811294638.1934762401311477</t>
+          <t>823170158.1293001718060332</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>17460462.0733826995460028</t>
+          <t>17204987.5687517588634413</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>0.0829952825141067</t>
+          <t>68.1842145608809014</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>-8.0821536033222311</t>
+          <t>2.9243173801804411</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.0871543507481238</t>
+          <t>67.4345225777939089</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5225,54 +5225,58 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>SEI</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sei</t>
+          <t>Immutable X</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr"/>
+          <t>1768317543.3900000000000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>806429664.2882833109594735</t>
+          <t>818662663.1281989025653463</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>86287909.4374265123692679</t>
+          <t>28983972.4538818394898974</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.1651720644897385</t>
+          <t>0.4629613420894756</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-6.5828626829290493</t>
+          <t>-4.8336034833534104</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.1703634202729550</t>
+          <t>0.4693974301488583</t>
         </is>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5282,62 +5286,58 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>The Graph</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>9775189789.3182130000000000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>800796059.1185056497732000</t>
+          <t>803987176.0545630485060602</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>20273237.4194841482056515</t>
+          <t>15552392.4943102005626263</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>66.3309399341314000</t>
+          <t>0.0822477305691922</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-5.9802822581433515</t>
+          <t>-2.7865119540698699</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>68.9443660004974792</t>
+          <t>0.0823187111796653</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -5347,58 +5347,54 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Flare</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>4882361111.0000000000000000</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>790584621.3156201573696335</t>
+          <t>802491995.0196371269009773</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>9619412.2731852816857456</t>
+          <t>52797208.4306133316994457</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.0129638754438637</t>
+          <t>0.1643655552662043</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-4.9341465224229093</t>
+          <t>-1.6543761944768193</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.0132479430176268</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>https://flare-explorer.flare.network/</t>
-        </is>
-      </c>
+          <t>0.1623764884374243</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -5408,52 +5404,52 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
+          <t>Flare</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>60983663777.0100000000000000</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>781997690.0747723539614636</t>
+          <t>793778552.6324068776723810</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>18621606.6065739577873459</t>
+          <t>12437019.2329901384782136</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>3172.0955772045413589</t>
+          <t>0.0130162489996485</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1.1437602519634530</t>
+          <t>-2.8782479111850467</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>3141.4673740374267675</t>
+          <t>0.0131699390999529</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="82">
@@ -5489,27 +5485,27 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>774262814.1280753000000000</t>
+          <t>779391668.7351255000000000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>19909220.0106427608639568</t>
+          <t>15632203.6550627106860665</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.7742628141280753</t>
+          <t>0.7793916687351255</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-7.3938295331720834</t>
+          <t>-2.7504531653023376</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.8156109411025807</t>
+          <t>0.7820274086110005</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5518,13 +5514,13 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -5534,58 +5530,58 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
+          <t>Tether Gold</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>739265391.6749380000000000</t>
+          <t>246524.0000000000000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>737713939.0131667917627150</t>
+          <t>770886899.9651258436738276</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>10969382.0682096050446169</t>
+          <t>24308559.4793368765594522</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>0.9979013589987540</t>
+          <t>3127.0257661125320199</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-0.0982497072724397</t>
+          <t>-1.6082279739440959</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.9984498018536391</t>
+          <t>3138.6613499294444889</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -5595,58 +5591,58 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>PayPal USD</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>758451321.5044110000000000</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>736136852.8863330286299283</t>
+          <t>758382202.9796824650388213</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>48053255.8477282294296853</t>
+          <t>14954437.1756035032809470</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.8198635814877261</t>
+          <t>0.9999088688716483</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>-9.0610562952471996</t>
+          <t>0.1654347863220956</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.8705865640083251</t>
+          <t>0.9987240307708662</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5656,54 +5652,58 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Lido DAO</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
+          <t>897877243.8587132000000000</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>706996649.3430440123880000</t>
+          <t>745884760.9490639139416343</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>141240952.2475507283641030</t>
+          <t>34490788.6110410580013880</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>6.5779368193435431</t>
+          <t>0.8307201970545026</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-8.3849481472067474</t>
+          <t>-0.8197655482719808</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>7.0510273432518136</t>
-        </is>
-      </c>
-      <c r="L85" t="inlineStr"/>
+          <t>0.8159793681766345</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+        </is>
+      </c>
       <c r="M85" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5713,58 +5713,58 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Nexo</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1037550271.7864680000000000</t>
+          <t>646145839.5746847000000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>671528079.5623715789365613</t>
+          <t>682184567.3456370513336014</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>12713086.5731050814114186</t>
+          <t>4806153.0068617116091884</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>0.6472246192043548</t>
+          <t>1.0557749126647233</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>-2.5139151873065757</t>
+          <t>2.5283314133446925</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.6575912659797805</t>
+          <t>1.0383886464522431</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5774,58 +5774,62 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>Curve DAO Token</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr"/>
+          <t>1310525529.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>670432227.1842362931085152</t>
+          <t>675509751.8659340313728280</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>5769068.5985052661045676</t>
+          <t>132012358.0597956189250134</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1.0375865418022930</t>
+          <t>0.5154495177071320</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-4.6042503838213610</t>
+          <t>-0.6085269845072800</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>1.0619929025767455</t>
+          <t>0.5146555420974264</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5835,58 +5839,58 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>1037633158.1063990000000000</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>667778818.3984549713671582</t>
+          <t>672914491.5901415866193458</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>46514267.2703735747854131</t>
+          <t>16183826.1063839972132625</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>3174.2879011608858444</t>
+          <t>0.6485090480513932</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1.2723864042311192</t>
+          <t>-2.1328030697565219</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>3139.8683777354961234</t>
+          <t>0.6516303674777812</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5896,58 +5900,58 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jito</t>
+          <t>PAX Gold</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>311886262.1000000000000000</t>
+          <t>210371.2200000000000000</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>654917431.1518687489678679</t>
+          <t>656348326.5746476493830675</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>31753863.8763193247194051</t>
+          <t>64848201.3449101426939176</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2.0998598230719209</t>
+          <t>3119.9530362311329914</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-8.6572526742083192</t>
+          <t>-2.0033390057143209</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>2.2484393911852824</t>
+          <t>3124.0185888936910372</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5957,62 +5961,58 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1308683113.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>5966455361.8200000000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>646436402.9773983232964636</t>
+          <t>653018119.2961474721230375</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>113413935.9443063035529039</t>
+          <t>16597249.8267698957944514</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.4939594593648572</t>
+          <t>0.1094482535602096</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>-8.7797686202355787</t>
+          <t>2.6764054814543138</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.5232457457379790</t>
+          <t>0.1055254130447434</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6022,58 +6022,62 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr"/>
+          <t>43820741411.3010250000000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>640375514.1572475514619660</t>
+          <t>652003869.6162956703616295</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>30344471.8133608117336663</t>
+          <t>38541874.3043773216343586</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.2580747073404595</t>
+          <t>0.0148788872259507</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-6.6672235511530756</t>
+          <t>-2.2005684470047900</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.2698282551248925</t>
+          <t>0.0147510890254554</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6083,62 +6087,54 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>43804947221.8090800000000000</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>107480000.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>634539418.3257243828895352</t>
+          <t>648724459.8652016836080000</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>50670420.2457224819013234</t>
+          <t>123360041.1774451695888953</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>0.0144855651831446</t>
+          <t>6.0357690720617946</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-8.9431272680423651</t>
+          <t>-9.8721102499256620</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.0154744640979484</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
-        </is>
-      </c>
+          <t>6.2048016707670206</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6148,58 +6144,58 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>623368561.8335109456522000</t>
+          <t>647815934.4841283707008478</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>3084385.4201997190508947</t>
+          <t>17802608.3525453530411660</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.0000006321804346</t>
+          <t>0.2610732359473454</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-4.6883713407360239</t>
+          <t>-1.0201531679179380</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.0000006598273811</t>
+          <t>0.2593811432076112</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -6209,62 +6205,58 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>Jito</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>312629902.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>620064789.6743512306799280</t>
+          <t>619303950.9717766106440208</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>16863800.7017040504103890</t>
+          <t>21943095.2134035006710925</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>39.0301363422141680</t>
+          <t>1.9809491894725304</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-4.5464870864694444</t>
+          <t>-7.7774810791092004</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>40.3079752594235728</t>
+          <t>2.0208981849400029</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6274,58 +6266,58 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>BitTorrent [New]</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>986061142857000.0000000000000000</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>614087519.9211075097684709</t>
+          <t>618835633.1392488023673000</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>13233301.6841600413415433</t>
+          <t>2672549.1326792809207219</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.1029233410260170</t>
+          <t>0.0000006275834289</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-1.8573669227130817</t>
+          <t>-1.8310341347316349</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.1058577877482666</t>
+          <t>0.0000006310559119</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6335,52 +6327,56 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>Zcash</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>19846218.7500000000000000</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr"/>
+          <t>15886821.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>607687878.8539023315164531</t>
+          <t>617493289.6408389060971121</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>21336112.5626587131841748</t>
+          <t>17589606.8243598094679950</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>30.6198317427042535</t>
+          <t>38.8682726167078301</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-5.4555709152411104</t>
+          <t>-1.8112299388711173</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>31.7530084077214476</t>
+          <t>38.8955809649987461</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="97">
@@ -6412,27 +6408,27 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>601775482.3818354606028220</t>
+          <t>607985183.6533705999136590</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>24872663.8319693326911068</t>
+          <t>16218542.8556078441813787</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.1622933860259692</t>
+          <t>0.1639680861011174</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-7.1585723747440809</t>
+          <t>-1.2739294506006745</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.1719086823078441</t>
+          <t>0.1607559931311421</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -6441,13 +6437,13 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -6457,58 +6453,58 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>Bitcoin SV</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1574016688.1911110000000000</t>
+          <t>19846700.0000000000000000</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>580342144.3433431183256138</t>
+          <t>605766754.4992813057534400</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>14874825.8639792560475810</t>
+          <t>16101837.0371350344721654</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>0.3687013922389114</t>
+          <t>30.5222910861393232</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-5.8234384992185777</t>
+          <t>-1.9670209388980627</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.3842730029677338</t>
+          <t>30.4896504190209719</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6518,56 +6514,52 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>Flow</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>290814662.0678040000000000</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>555000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>1574016688.1911110000000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>551352890.8105441114184460</t>
+          <t>581279954.3286801295908312</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>120346457.7353365418867770</t>
+          <t>11313506.3634687906192407</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>1.8958909667422309</t>
+          <t>0.3692971991273471</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>5.0350585373941399</t>
+          <t>-1.7643886359324710</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>1.8977556250994675</t>
+          <t>0.3687950927488156</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="100">
@@ -6603,27 +6595,27 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>537733564.0469310436815616</t>
+          <t>536484366.6070729441759991</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>54278468.8067641983260407</t>
+          <t>35032077.5752526558564601</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15.1051282612126291</t>
+          <t>15.0700378580571582</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-7.7821197490110293</t>
+          <t>-2.2666965909155138</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>16.0574548650094182</t>
+          <t>15.0677372032107380</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6632,7 +6624,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="101">
@@ -6658,7 +6650,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>295394509.7510309000000000</t>
+          <t>295589394.8793980500000000</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -6668,27 +6660,27 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>534180343.4006736428446227</t>
+          <t>534145750.3932221898737808</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>51409028.9650064445307765</t>
+          <t>33374111.7189775186268324</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.8083624636453129</t>
+          <t>1.8070531610620074</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-5.2921268982566718</t>
+          <t>-3.2757015022105498</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>1.8795228995008039</t>
+          <t>1.8055525629095766</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6697,7 +6689,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/request_api_xlsx.xlsx
+++ b/src/static/xlsx/request_api_xlsx.xlsx
@@ -533,22 +533,22 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1645455068329.5992655856772274</t>
+          <t>1646598735231.4176555601107457</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>14252713672.2124541925028697</t>
+          <t>14107744433.5487372994975383</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82910.2043773248061854</t>
+          <t>82967.8307801323916647</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-0.9832242352240397</t>
+          <t>-0.6584580127744259</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="3">
@@ -594,22 +594,22 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>217347221316.2245667294943836</t>
+          <t>216950970985.5372583544136332</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>8379047521.1587873299235214</t>
+          <t>8429271203.0232382946532389</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1801.2157457279158390</t>
+          <t>1797.9319110850728821</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-1.4300611569390545</t>
+          <t>-1.5231721691024611</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="4">
@@ -655,22 +655,22 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>144232177004.9568880200639706</t>
+          <t>144167887216.4139357237081852</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>33326605272.6960059283315126</t>
+          <t>33173819266.9312528915376412</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.0010097880462923</t>
+          <t>1.0005635997619630</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.1253355354126054</t>
+          <t>0.1359647693297703</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -684,7 +684,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="5">
@@ -720,22 +720,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>119781574734.2608914102939664</t>
+          <t>120175935170.5373517570103590</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2176951429.4426916881320363</t>
+          <t>2186391430.9425050887051214</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.0554547759802728</t>
+          <t>2.0622220107908055</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>-0.0556294469190710</t>
+          <t>0.5147830737195366</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="6">
@@ -785,22 +785,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>85245710974.6838895745453480</t>
+          <t>85330557169.3414286826389230</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>657429420.0399308376276231</t>
+          <t>657356042.5261410581236945</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>591.9560271876263756</t>
+          <t>592.5452089275309281</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>-1.9265868886641345</t>
+          <t>-1.6281628802940821</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="7">
@@ -846,22 +846,22 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>60787223223.3547225953715602</t>
+          <t>60828634979.1779012410637890</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>7313590304.8258103819825408</t>
+          <t>7498615302.2969488428907364</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.9986370857550242</t>
+          <t>0.9993174148267981</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>-0.1630551898069191</t>
+          <t>-0.0841522242964103</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -875,7 +875,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="8">
@@ -907,22 +907,22 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>59430679232.1768655839925762</t>
+          <t>59533179397.0587727506519853</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2525427124.3548797980585805</t>
+          <t>2528339967.6952689082204056</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>115.5226092185693154</t>
+          <t>115.7218512034410027</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>-3.5943849126880925</t>
+          <t>-3.2714322803600456</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="9">
@@ -968,22 +968,22 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>24022255961.9878813635512270</t>
+          <t>24087585742.2322830972219214</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>777704463.3575495629039487</t>
+          <t>780279456.2710433474657387</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.1615422713868557</t>
+          <t>0.1619815940344282</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>-2.8513004288431612</t>
+          <t>-2.1955292965518464</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -997,7 +997,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="10">
@@ -1033,22 +1033,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>22833704989.2943970887606578</t>
+          <t>22907170408.5941774907529644</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>386661232.3456318468502065</t>
+          <t>384736081.6159793843990332</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.6474338634205431</t>
+          <t>0.6495169244160043</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>-0.9594468516662389</t>
+          <t>-0.4898134003728241</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="11">
@@ -1094,22 +1094,22 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>22679918094.5092607670833901</t>
+          <t>22706495702.7365528909879955</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>265942595.2094364353669026</t>
+          <t>265911906.2840598313997664</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.2387796045245121</t>
+          <t>0.2390594199433895</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>1.1641083435300922</t>
+          <t>1.1845657510460256</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1123,7 +1123,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="12">
@@ -1149,28 +1149,28 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9374205.4626198300000000</t>
+          <t>9374253.7377973000000000</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>16853468197.5788653671317378</t>
+          <t>16837482100.9049889149705051</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>8591236.6291930149298285</t>
+          <t>8256950.4200978353169496</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>1797.8556438498190561</t>
+          <t>1796.1410659299423701</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>-1.7737999948330256</t>
+          <t>-1.6719394783319372</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="13">
@@ -1216,22 +1216,22 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10659287443.1468571077809319</t>
+          <t>10657415753.5244127571042975</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>171204770.0022461998485067</t>
+          <t>170500205.5803994682783192</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>82580.5833333020327761</t>
+          <t>82566.0828123558867500</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>-1.1179921874324288</t>
+          <t>-0.8782277859281230</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1245,7 +1245,7 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="14">
@@ -1277,22 +1277,22 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>8801225034.9594423175688165</t>
+          <t>8800913359.1490232894629156</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4465538.0329942770265210</t>
+          <t>4483217.5144805763233896</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>9.5271584907186672</t>
+          <t>9.5268211075894107</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1.7788413091981314</t>
+          <t>1.8176283432783825</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1306,7 +1306,7 @@
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="15">
@@ -1338,22 +1338,22 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>8694959472.1163698981801967</t>
+          <t>8721616735.1763754465551640</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>127467371.1532184587890645</t>
+          <t>127568567.0513075555603984</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3.5159452082307932</t>
+          <t>3.5267244966933720</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>-8.1337986575944765</t>
+          <t>-7.6157562428790223</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="16">
@@ -1395,22 +1395,22 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>8388795396.3038237658811401</t>
+          <t>8403976328.9421660143103259</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>301182209.8381416242378517</t>
+          <t>302391632.4867341921337386</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>12.7663913765258147</t>
+          <t>12.7894943035094844</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>-3.2780481309741452</t>
+          <t>-2.8400876426498982</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="17">
@@ -1460,22 +1460,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>7982481164.9355166817492093</t>
+          <t>8010382263.9049245571826471</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>79689196.5923534822481579</t>
+          <t>79422563.7671512995473797</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.2593519731708447</t>
+          <t>0.2602584839313257</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>-1.4114712543208727</t>
+          <t>-1.1248447236893661</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1489,7 +1489,7 @@
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="18">
@@ -1525,22 +1525,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>7507349560.3925563510019458</t>
+          <t>7513765081.3762506735836999</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>158483046.5322474038847181</t>
+          <t>158501147.7565453705015643</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>18.0929378284282248</t>
+          <t>18.1083994266076079</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>-2.8486146445546264</t>
+          <t>-2.4695118058672556</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="19">
@@ -1590,22 +1590,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>7190619044.4238470876965061</t>
+          <t>7195598533.8461975636321232</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>842236546.6902476662336096</t>
+          <t>844287187.0155004536733605</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.2125098084080854</t>
+          <t>2.2140419670608732</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>-8.1333190494953562</t>
+          <t>-7.9242829197045426</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1619,7 +1619,7 @@
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="20">
@@ -1655,22 +1655,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>7149207058.8357847212975309</t>
+          <t>7159684628.4904682665514976</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>91280763.4448927842202984</t>
+          <t>91504699.1216735698717030</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.0000121327096448</t>
+          <t>0.0000121504908210</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>-1.6902029334514603</t>
+          <t>-1.3656182362490318</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1684,7 +1684,7 @@
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="21">
@@ -1720,22 +1720,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6769945155.0978177477284540</t>
+          <t>6774138057.5371038507094400</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>175839960.8016949767774971</t>
+          <t>176713312.0481497619040502</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.1603515264017448</t>
+          <t>0.1604508386252252</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>-2.7680135819386622</t>
+          <t>-2.8467990367368325</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="22">
@@ -1785,22 +1785,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6276792885.9557257081554631</t>
+          <t>6297023774.2108115588006025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>265371587.7937274785184891</t>
+          <t>265851298.8778181830532060</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>83.0719974456658976</t>
+          <t>83.3397488798753039</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>-0.4287740138796887</t>
+          <t>0.4241671606118922</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="23">
@@ -1850,22 +1850,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6196028586.1268496819595810</t>
+          <t>6191043531.2720759898321142</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>58026177.5172255242431497</t>
+          <t>57813788.5772455225256476</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.3563461114604173</t>
+          <t>6.3512320721042230</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.6184479485832027</t>
+          <t>0.7872214547649776</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1879,7 +1879,7 @@
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="24">
@@ -1911,22 +1911,22 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6122622118.2422885134599200</t>
+          <t>6129985585.6601058144715400</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>118856607.5639930199991943</t>
+          <t>119167701.4329620690970135</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>4.0220420444769320</t>
+          <t>4.0268792163578090</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>-1.1203218922842832</t>
+          <t>-0.7529575919474723</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="25">
@@ -1972,22 +1972,22 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6087581874.8754121847077226</t>
+          <t>6085601183.0953938021861940</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>351634607.8866502859387254</t>
+          <t>558404759.1658270045613629</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>1803.5582453447214326</t>
+          <t>1802.9714289265173198</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>-1.3914962654890207</t>
+          <t>-1.1629677105344697</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="26">
@@ -2033,22 +2033,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>5981333587.6287151181585756</t>
+          <t>5987629528.9591080505915631</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>120834301.9356933888359876</t>
+          <t>121146470.5067753206009679</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>301.3094574964696341</t>
+          <t>301.6266153073320721</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>-0.0132785752305981</t>
+          <t>0.0708561274590550</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="27">
@@ -2094,17 +2094,17 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>5406915597.2907756128391827</t>
+          <t>5400664667.5638883963226625</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1329194.1241418783688954</t>
+          <t>1346011.7282522833694576</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>82918.3374342311547867</t>
+          <t>82822.4756270612015957</t>
         </is>
       </c>
       <c r="J27" t="inlineStr"/>
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="28">
@@ -2147,22 +2147,22 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>5384848075.6187163600000000</t>
+          <t>5381097135.2567788800000000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>130350448.3864484400789379</t>
+          <t>129282352.1191770751131378</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>4.4873733963489303</t>
+          <t>4.4842476127139824</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>-1.5873271680681067</t>
+          <t>-1.3658463542392778</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="29">
@@ -2208,22 +2208,22 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>5364447321.7372434799786098</t>
+          <t>5364279939.3158649213656587</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>92780679.4785596128052943</t>
+          <t>101899902.2106589546687036</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.9998256637076114</t>
+          <t>0.9997944669727922</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.0381235476159860</t>
+          <t>0.0123305690847124</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="30">
@@ -2269,22 +2269,22 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>5249076389.4218363704248283</t>
+          <t>5248524751.1490268153809021</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>72089375.1765701550600838</t>
+          <t>71705499.7888796652127581</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.9994212553264433</t>
+          <t>0.9993162237029355</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>-0.0344723059474687</t>
+          <t>-0.0329036455533856</t>
         </is>
       </c>
       <c r="K30" t="inlineStr"/>
@@ -2294,13 +2294,13 @@
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2310,62 +2310,58 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>HYPE</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>Monero</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>18446744.0737095500000000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>3945453821.5850907161325560</t>
+          <t>3952889456.8075462831054052</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>35642009.8340302874955906</t>
+          <t>52411103.9753237195279812</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11.8152766309961942</t>
+          <t>214.2865668332893800</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>-5.2760517372774409</t>
+          <t>-1.1587139948888021</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>11.6722781626710580</t>
+          <t>212.8114129604266611</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2375,52 +2371,56 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>Hyperliquid</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr"/>
+          <t>333928180.0000000000000000</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3931065257.5209289524726976</t>
+          <t>3942293145.2542964658008880</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>52449805.9964736199339554</t>
+          <t>35541700.0315276496263249</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>213.1034746193240246</t>
+          <t>11.8058114929213116</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>-1.6267773945583563</t>
+          <t>-4.6102315661837332</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>212.8114129604266611</t>
+          <t>11.6722781626710580</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="33">
@@ -2456,22 +2456,22 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3826504636.5530106227650924</t>
+          <t>3802060652.4647453956969459</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>170035690.4299406351485049</t>
+          <t>169550326.6105340780557599</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.5632098512858582</t>
+          <t>0.5596120266519418</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>-16.1413980545509194</t>
+          <t>-16.4681648139967202</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2485,7 +2485,7 @@
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="34">
@@ -2517,22 +2517,22 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3670315024.7961939013706965</t>
+          <t>3681192143.8715771423409358</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>71898587.6493934357782973</t>
+          <t>75539850.0136883477030018</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>5.8398563952840449</t>
+          <t>5.8571630332607592</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>-2.5122002575022589</t>
+          <t>-2.1869819647474573</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="35">
@@ -2578,22 +2578,22 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3027303615.5497629508098800</t>
+          <t>3036171573.9697298132323825</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>80939686.9357720727199153</t>
+          <t>81314282.6156492071114709</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>5.0081770567281167</t>
+          <t>5.0228476387175719</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>-4.3204878749971619</t>
+          <t>-3.9055784857896435</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="36">
@@ -2639,22 +2639,22 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2981082309.7863528502957960</t>
+          <t>2987845446.3240379935071800</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>109715147.7172333156271118</t>
+          <t>109819404.9594711715920248</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2.4857618059096666</t>
+          <t>2.4914012162803030</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>-1.7554486237511743</t>
+          <t>-1.3287586179365620</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2668,7 +2668,7 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="37">
@@ -2704,22 +2704,22 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2828676423.3981642566396693</t>
+          <t>2833157119.9600222180294698</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>607419249.1765057180816109</t>
+          <t>611384905.9612847775544383</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.0000067238990661</t>
+          <t>0.0000067345498960</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>-6.5457352085975612</t>
+          <t>-6.2115299955400866</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2733,7 +2733,7 @@
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="38">
@@ -2765,22 +2765,22 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2810953916.1080981760000000</t>
+          <t>2811123801.9637554000000000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>4838111.6212121572964562</t>
+          <t>4840287.9698501034419489</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>46.8492319351349696</t>
+          <t>46.8520633660625900</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>-2.2656185688436360</t>
+          <t>-2.1533392946614040</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2794,7 +2794,7 @@
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="39">
@@ -2826,22 +2826,22 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>2591081900.3136380337320388</t>
+          <t>2586208908.0815043077868057</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>197769450.8406272525045978</t>
+          <t>199688328.0412174709617483</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.8201942721252772</t>
+          <t>0.8186517503252433</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.5615920374035312</t>
+          <t>0.8229652787207277</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2855,13 +2855,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2871,62 +2871,62 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>3364694382.8368406000000000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>30263013692.0000000000000000</t>
+          <t>6219316795.0000000000000000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2510011282.6102546951871568</t>
+          <t>2509934872.1439089485557214</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>28741091.0056590555977305</t>
+          <t>202445426.6152854905733741</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0.0944623204984758</t>
+          <t>0.7459622142643853</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>-4.9539519934704238</t>
+          <t>-4.5530854739201280</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.0958199441211254</t>
+          <t>0.7534957552303403</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2936,56 +2936,56 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>Cronos</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>26571560696.0000000000000000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>6219316795.0000000000000000</t>
+          <t>30263013692.0000000000000000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2503052193.5362013959995912</t>
+          <t>2508854481.3057636050072304</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>202166274.9902645203872328</t>
+          <t>28814881.3587210015192319</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>0.7439166559388459</t>
+          <t>0.0944187851819874</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>-4.6470941090765420</t>
+          <t>-4.5710223235279669</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.7534957552303403</t>
+          <t>0.0958199441211254</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="42">
@@ -3017,22 +3017,22 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2477431953.2822203202517431</t>
+          <t>2478927769.4636907398465175</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>41030111.0364930004124715</t>
+          <t>41018972.8535994602136315</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>5.1295108322247221</t>
+          <t>5.1326079123668040</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>-1.4617360140317006</t>
+          <t>-1.1780785772298716</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="43">
@@ -3082,22 +3082,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2439870589.5435319001136557</t>
+          <t>2444652886.9936785230495987</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>59310036.8617622743681386</t>
+          <t>59069037.6710519772405463</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>16.1173086162319034</t>
+          <t>16.1488995392214101</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>-1.8650824448783151</t>
+          <t>-1.4379167923701255</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="44">
@@ -3143,22 +3143,22 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>2351176923.7007802703935634</t>
+          <t>2351184089.4835901028825070</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1893500302.2904696800425210</t>
+          <t>1892247179.1454555293047897</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>0.9945435438227725</t>
+          <t>0.9945465749358113</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.8580311781834178</t>
+          <t>0.8997218006979488</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="45">
@@ -3200,22 +3200,22 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2251930389.4196288082844043</t>
+          <t>2254443603.5797690295654075</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>104199265.6277882619335571</t>
+          <t>104008944.5786416341199872</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>149.1650045945057847</t>
+          <t>149.3314767037262250</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>-3.7016343946005368</t>
+          <t>-3.1510586715056725</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3229,7 +3229,7 @@
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="46">
@@ -3261,22 +3261,22 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1976558181.2927872590491727</t>
+          <t>1978702466.4974132276563342</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>47652838.3938715098582422</t>
+          <t>47581495.4844204009663190</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>0.1901981559903554</t>
+          <t>0.1904044940054451</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>-0.0105678979593152</t>
+          <t>0.2955885086611611</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="47">
@@ -3322,22 +3322,22 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1891153862.6581085632833988</t>
+          <t>1895039081.1834381490670340</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>10814573.0847137838726145</t>
+          <t>11240339.5406891433155644</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>22.0340473034828444</t>
+          <t>22.0793144234469255</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>-1.8118169079963734</t>
+          <t>-1.3623007047734748</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="48">
@@ -3383,22 +3383,22 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1888555568.3313755237197186</t>
+          <t>1886540877.2310673694817112</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>164532598.2746133836744254</t>
+          <t>164079928.1031789463497087</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>9.4428048960226919</t>
+          <t>9.4327314116598399</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>1.0263810760099959</t>
+          <t>1.1201679276021422</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="49">
@@ -3448,22 +3448,22 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1864437882.2039439415450287</t>
+          <t>1866661757.1126123683275779</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>24633194.0345852211574999</t>
+          <t>24724746.3160975274985289</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0.0216832818439431</t>
+          <t>0.0217091453532027</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>-1.7818459669162015</t>
+          <t>-1.3963637836476234</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -3477,7 +3477,7 @@
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="50">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>1846463934.5908563527578930</t>
+          <t>1846890920.0091283971794894</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>75299193.5459967496151823</t>
+          <t>75111682.2965089278534251</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>215.8595556971618155</t>
+          <t>215.9094721244208149</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>-0.8799862493909068</t>
+          <t>-0.1928029677414954</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="51">
@@ -3574,22 +3574,22 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1830111374.6743614844948848</t>
+          <t>1840368304.4637836433565548</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>88316241.2324245990545934</t>
+          <t>90182599.7838709976415224</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>4.6813795159104612</t>
+          <t>4.7076164879750037</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>6.1799530151030785</t>
+          <t>7.3193416806454768</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3603,7 +3603,7 @@
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="52">
@@ -3635,22 +3635,22 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1758385592.3633098857439712</t>
+          <t>1761381396.9875407784884192</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>77907897.4627414221989308</t>
+          <t>78186334.1232598345053741</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2.7171848172730621</t>
+          <t>2.7218141516328461</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>-1.9730046521347320</t>
+          <t>-1.5355013915598845</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="53">
@@ -3700,22 +3700,22 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1695536295.2475520112760005</t>
+          <t>1698217304.8902541213970344</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>66891504.1421125543793080</t>
+          <t>67020751.5936169865681002</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>3.2750279357731704</t>
+          <t>3.2802064633579454</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>-3.5611224793036427</t>
+          <t>-3.4583958305676183</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3725,7 +3725,7 @@
       </c>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="54">
@@ -3761,22 +3761,22 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1672752758.8473860593874924</t>
+          <t>1676857733.5362311702967958</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>59998500.4242105122261160</t>
+          <t>61816173.5177214367916986</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>0.0644197367330600</t>
+          <t>0.0645778242850623</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>-0.1438115918113060</t>
+          <t>0.3842634072787630</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="55">
@@ -3822,22 +3822,22 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1662776684.1225518784643402</t>
+          <t>1665964719.8561010302087161</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>73854421.5516319550080369</t>
+          <t>74166541.7648208040880573</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2.8398031246862364</t>
+          <t>2.8452478689650039</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>-3.3826312258638682</t>
+          <t>-3.3934022897352474</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="56">
@@ -3883,22 +3883,22 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>1655459686.5222439840625000</t>
+          <t>1655783569.0386505017187500</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>158421608.3451164890246385</t>
+          <t>158120965.8952818102618221</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>0.3131818502436406</t>
+          <t>0.3132431227267917</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>-7.2316039006806107</t>
+          <t>-6.9850933516220862</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="57">
@@ -3944,22 +3944,22 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1536756629.7092086460476275</t>
+          <t>1540096770.4092576404858002</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>50083736.0938727905801870</t>
+          <t>50246179.2362305518353860</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0.1800405969872876</t>
+          <t>0.1804319152442143</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>-0.2703286499111477</t>
+          <t>0.2262622641024256</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3973,7 +3973,7 @@
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="58">
@@ -4005,22 +4005,22 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>1428742696.0100173953016360</t>
+          <t>1433271486.0716778570028416</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>83816986.1302136674680714</t>
+          <t>84119862.2897901540444957</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>0.3093914051768635</t>
+          <t>0.3103721057080656</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>-1.6321276522673720</t>
+          <t>-1.2169761003649427</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="59">
@@ -4070,22 +4070,22 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1386303176.0274963840000000</t>
+          <t>1386990752.0484044160000000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>103745700.6901038423020574</t>
+          <t>103957074.7922123178227966</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>0.4813552694539918</t>
+          <t>0.4815940111279182</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.3246189886181707</t>
+          <t>0.4118091644636182</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4099,7 +4099,7 @@
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="60">
@@ -4135,22 +4135,22 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>1324481806.3972389523680883</t>
+          <t>1313792591.4572050517162866</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>415040297.8732620811570894</t>
+          <t>411480169.5327688272940057</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>0.8508576725555305</t>
+          <t>0.8439908356526797</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>1.2838107193078891</t>
+          <t>1.1584790881047615</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="61">
@@ -4200,22 +4200,22 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1285356232.0280051652167502</t>
+          <t>1286879157.8244512983101644</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>1217508.4870785889144231</t>
+          <t>1216683.8478476683150634</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>10.2792383197410813</t>
+          <t>10.2914174470638251</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>-4.2130390636290026</t>
+          <t>-4.0079556186839857</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4229,7 +4229,7 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="62">
@@ -4261,22 +4261,22 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1250463475.4180495718381997</t>
+          <t>1246753450.8607514475177250</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>14858363.7724513116261852</t>
+          <t>14051487.1943232396351376</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>14.9338755492096651</t>
+          <t>14.8895679415806785</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>-0.1185698548443233</t>
+          <t>0.1438644579979632</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="63">
@@ -4322,22 +4322,22 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1133837952.1196439457377750</t>
+          <t>1137944283.3194703470188398</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>75173817.3236268780459462</t>
+          <t>75984848.1485445226531706</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0.6995951516544625</t>
+          <t>0.7021288200619413</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>-1.9455330180055803</t>
+          <t>-1.5492140857089737</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -4351,7 +4351,7 @@
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="64">
@@ -4387,22 +4387,22 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1092145367.2434469050895972</t>
+          <t>1094048852.5650818558300958</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>27377109.1597253223052899</t>
+          <t>27391612.0352656818782917</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>1287.7942590657757938</t>
+          <t>1290.0387381826945307</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>-1.6619337811471385</t>
+          <t>-1.3244828136826361</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="65">
@@ -4452,22 +4452,22 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1089463831.6675974840000000</t>
+          <t>1091583832.1332979160000000</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>66269380.3585075310707269</t>
+          <t>66373735.2136700482166548</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0.4323269173284117</t>
+          <t>0.4331681873544833</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>-2.8460927903403177</t>
+          <t>-2.6589095829883427</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="66">
@@ -4513,22 +4513,22 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1086778652.2427116101393964</t>
+          <t>1088034541.0222869014034406</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>42801485.1673118420547645</t>
+          <t>42945306.7501838997507070</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.1949033464657782</t>
+          <t>4.1997510052170403</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>-6.2759372036950413</t>
+          <t>-6.1248582303232437</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="67">
@@ -4574,22 +4574,22 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>1047134886.0160403564185750</t>
+          <t>1051758568.4141322761822017</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>26877605.1628252547783744</t>
+          <t>26774304.0203154293227605</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>0.0667277095610512</t>
+          <t>0.0670223494782984</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>0.6577119765427367</t>
+          <t>1.0672449256191073</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
@@ -4603,7 +4603,7 @@
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="68">
@@ -4639,22 +4639,22 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>1036395025.0006292534635125</t>
+          <t>1042373555.0230205985995807</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>38088685.2996268537645216</t>
+          <t>38680484.6788474708396478</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0.3851465106838732</t>
+          <t>0.3873682600377370</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>-0.2820149391063747</t>
+          <t>0.3180912794744213</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="69">
@@ -4700,22 +4700,22 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>955007735.6765999015904933</t>
+          <t>957543131.8998387807931264</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>10242295.5810794068557694</t>
+          <t>10186945.6783871940236598</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>603.3337944966488238</t>
+          <t>604.9355513900999925</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>0.4177536786911600</t>
+          <t>0.7006399519626387</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="70">
@@ -4761,22 +4761,22 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>954913424.4212535000000000</t>
+          <t>952334860.6572150000000000</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>53696732.1536843564784601</t>
+          <t>55411526.0531663502709599</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>0.3897605813964300</t>
+          <t>0.3887081063907000</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>-0.0847266140628771</t>
+          <t>-0.3716086341973139</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="71">
@@ -4818,22 +4818,22 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>929076727.5117803100476926</t>
+          <t>931258904.8206107643242157</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>89294132.2884662480858444</t>
+          <t>89368347.8981107374230367</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>0.7576009273172640</t>
+          <t>0.7593803493001698</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>1.0517345237154449</t>
+          <t>1.0750359440900059</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="72">
@@ -4879,22 +4879,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>883431904.5986800963852935</t>
+          <t>882723897.8018026329625323</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>17268145.2069761681380964</t>
+          <t>17325440.3843143952461725</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.5812396411934291</t>
+          <t>0.5807738196463043</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>-1.8861973383475203</t>
+          <t>-1.7076812381720911</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="73">
@@ -4940,22 +4940,22 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>848821198.1726248356767202</t>
+          <t>850694144.3058497282851060</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>70618971.6876836585416902</t>
+          <t>70722790.8920751870940426</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>0.0000108971074636</t>
+          <t>0.0000109211522157</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>-4.3928386196638694</t>
+          <t>-3.4641243435017865</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="74">
@@ -4997,22 +4997,22 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>843387801.7890285170377857</t>
+          <t>843406096.0131915001247042</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>34169057.3130459655853384</t>
+          <t>35783766.2059505662231641</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>0.9973904486700141</t>
+          <t>0.9974120834202527</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>-0.0319071344452438</t>
+          <t>-0.0218304230811462</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -5022,13 +5022,13 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5038,54 +5038,62 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>Injective</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
+          <t>98970935.4100000000000000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>580000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>830544470.6809146211840202</t>
+          <t>830844404.7240243661642174</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>11380600.4153233454801915</t>
+          <t>40893045.2541616524901596</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2.1749559814089651</t>
+          <t>8.3948322937652668</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>-0.3909122075854143</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+          <t>-2.5457482852296340</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>8.3614104004802462</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+        </is>
+      </c>
       <c r="M75" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -5095,56 +5103,48 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
+          <t>381867255.1445740000000000</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>580000000.0000000000000000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>826459057.6476560271217835</t>
+          <t>829706005.3515067594787129</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>40676004.1288185040561525</t>
+          <t>11371099.5499306253247517</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>8.3505228502079086</t>
+          <t>2.1727602829872965</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>-3.0698359480976452</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>8.3614104004802462</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
-        </is>
-      </c>
+          <t>-0.0100549939920092</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="77">
@@ -5180,22 +5180,22 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>823170158.1293001718060332</t>
+          <t>824480212.1478501328031298</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>17204987.5687517588634413</t>
+          <t>17256895.8435715450166077</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>68.1842145608809014</t>
+          <t>68.2927279750335121</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>2.9243173801804411</t>
+          <t>3.1645064765662396</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="78">
@@ -5245,22 +5245,22 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>818662663.1281989025653463</t>
+          <t>820486481.2163348111835391</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>28983972.4538818394898974</t>
+          <t>29026307.4803121108599059</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>0.4629613420894756</t>
+          <t>0.4639927281631779</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>-4.8336034833534104</t>
+          <t>-4.2863644192920492</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="79">
@@ -5302,22 +5302,22 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>803987176.0545630485060602</t>
+          <t>805832036.9772431458822123</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>15552392.4943102005626263</t>
+          <t>15634287.7746708463339979</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>0.0822477305691922</t>
+          <t>0.0824364594800821</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>-2.7865119540698699</t>
+          <t>-2.3674338764187370</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="80">
@@ -5363,22 +5363,22 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>802491995.0196371269009773</t>
+          <t>805652785.9603587347946142</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>52797208.4306133316994457</t>
+          <t>52955581.1809358244898300</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>0.1643655552662043</t>
+          <t>0.1650129450984722</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>-1.6543761944768193</t>
+          <t>-1.1814929107549454</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="81">
@@ -5420,22 +5420,22 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>793778552.6324068776723810</t>
+          <t>794664818.6886671899783775</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>12437019.2329901384782136</t>
+          <t>12503437.4748789439404435</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>0.0130162489996485</t>
+          <t>0.0130307818433868</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>-2.8782479111850467</t>
+          <t>-2.5842915104229424</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -5449,7 +5449,7 @@
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="82">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>779391668.7351255000000000</t>
+          <t>781445825.7020720000000000</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>15632203.6550627106860665</t>
+          <t>15637816.4455605503415205</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>0.7793916687351255</t>
+          <t>0.7814458257020720</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>-2.7504531653023376</t>
+          <t>-2.2104380703571172</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -5514,7 +5514,7 @@
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="83">
@@ -5546,22 +5546,22 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>770886899.9651258436738276</t>
+          <t>770838100.0799953919811408</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>24308559.4793368765594522</t>
+          <t>24303703.9123136784376243</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>3127.0257661125320199</t>
+          <t>3126.8278142493038892</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>-1.6082279739440959</t>
+          <t>-1.5897845419771162</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -5575,7 +5575,7 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="84">
@@ -5607,22 +5607,22 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>758382202.9796824650388213</t>
+          <t>757701482.3358722284106586</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>14954437.1756035032809470</t>
+          <t>12273241.2468689477276832</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>0.9999088688716483</t>
+          <t>0.9990113549185313</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>0.1654347863220956</t>
+          <t>0.0843922814205772</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="85">
@@ -5668,22 +5668,22 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>745884760.9490639139416343</t>
+          <t>747448705.8206317034801854</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>34490788.6110410580013880</t>
+          <t>34517947.8388192935350071</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>0.8307201970545026</t>
+          <t>0.8324620218777341</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>-0.8197655482719808</t>
+          <t>-0.5589479244175191</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -5697,7 +5697,7 @@
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="86">
@@ -5729,22 +5729,22 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>682184567.3456370513336014</t>
+          <t>681698637.0396735972849331</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>4806153.0068617116091884</t>
+          <t>4848342.3244381389688564</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>1.0557749126647233</t>
+          <t>1.0550228683487167</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>2.5283314133446925</t>
+          <t>2.3611966714394049</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -5758,7 +5758,7 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="87">
@@ -5794,22 +5794,22 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>675509751.8659340313728280</t>
+          <t>680596986.3471101206560885</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>132012358.0597956189250134</t>
+          <t>133595216.7874590158148924</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>0.5154495177071320</t>
+          <t>0.5193313455453565</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>-0.6085269845072800</t>
+          <t>0.2679589568154061</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="88">
@@ -5855,22 +5855,22 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>672914491.5901415866193458</t>
+          <t>674734612.2559656642228200</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>16183826.1063839972132625</t>
+          <t>15915363.7764453577646496</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>0.6485090480513932</t>
+          <t>0.6502631560919898</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>-2.1328030697565219</t>
+          <t>-1.7796822610272517</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="89">
@@ -5916,22 +5916,22 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>656348326.5746476493830675</t>
+          <t>656166222.6006479022637211</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>64848201.3449101426939176</t>
+          <t>64831240.4926066190644227</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>3119.9530362311329914</t>
+          <t>3119.0874046395124878</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>-2.0033390057143209</t>
+          <t>-1.9457003872914036</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5945,13 +5945,13 @@
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5961,58 +5961,62 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Kaia</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr"/>
+          <t>43820741411.3010250000000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>653018119.2961474721230375</t>
+          <t>652769598.9738291579601674</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>16597249.8267698957944514</t>
+          <t>38555764.7102195238163805</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>0.1094482535602096</t>
+          <t>0.0148963613565307</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>2.6764054814543138</t>
+          <t>-2.0327309594723901</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.1055254130447434</t>
+          <t>0.0147510890254554</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6022,62 +6026,58 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Kaia</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>43820741411.3010250000000000</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>5966455361.8200000000000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>652003869.6162956703616295</t>
+          <t>651584475.9770766238772026</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>38541874.3043773216343586</t>
+          <t>19872443.8151863316923861</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>0.0148788872259507</t>
+          <t>0.1092079696341377</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>-2.2005684470047900</t>
+          <t>3.3240191578449399</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.0147510890254554</t>
+          <t>0.1055254130447434</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -6087,54 +6087,58 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>The Sandbox</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
+          <t>2481357126.2233224000000000</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>648724459.8652016836080000</t>
+          <t>649486304.2182580630035218</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>123360041.1774451695888953</t>
+          <t>17853658.6862658394565185</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>6.0357690720617946</t>
+          <t>0.2617464037539771</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>-9.8721102499256620</t>
+          <t>-0.5784651789606240</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>6.2048016707670206</t>
-        </is>
-      </c>
-      <c r="L92" t="inlineStr"/>
+          <t>0.2593811432076112</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+        </is>
+      </c>
       <c r="M92" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6144,52 +6148,48 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>107480000.0000000000000000</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>647815934.4841283707008478</t>
+          <t>647760253.0012007007920000</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>17802608.3525453530411660</t>
+          <t>123635761.0832332122206347</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>0.2610732359473454</t>
+          <t>6.0267980368552354</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>-1.0201531679179380</t>
+          <t>-9.5806897959868415</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.2593811432076112</t>
-        </is>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
-        </is>
-      </c>
+          <t>6.2048016707670206</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="94">
@@ -6221,22 +6221,22 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>619303950.9717766106440208</t>
+          <t>619351409.6742075138651330</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>21943095.2134035006710925</t>
+          <t>22053999.3385977705524155</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>1.9809491894725304</t>
+          <t>1.9811009942171415</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>-7.7774810791092004</t>
+          <t>-7.2663620090071869</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -6250,7 +6250,7 @@
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="95">
@@ -6282,22 +6282,22 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>618835633.1392488023673000</t>
+          <t>618858681.5296141704567000</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>2672549.1326792809207219</t>
+          <t>2671118.5764150783937267</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>0.0000006275834289</t>
+          <t>0.0000006276068031</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>-1.8310341347316349</t>
+          <t>-1.7055780971628424</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -6311,7 +6311,7 @@
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="96">
@@ -6347,22 +6347,22 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>617493289.6408389060971121</t>
+          <t>617379057.8575049525170428</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>17589606.8243598094679950</t>
+          <t>17613058.5504906196007210</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>38.8682726167078301</t>
+          <t>38.8610822679694668</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>-1.8112299388711173</t>
+          <t>-1.2714238876313818</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -6376,7 +6376,7 @@
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="97">
@@ -6408,22 +6408,22 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>607985183.6533705999136590</t>
+          <t>608853422.7302325856381615</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>16218542.8556078441813787</t>
+          <t>16249884.7244877094723798</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>0.1639680861011174</t>
+          <t>0.1642022423002139</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>-1.2739294506006745</t>
+          <t>-0.9270615597615771</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="98">
@@ -6469,22 +6469,22 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>605766754.4992813057534400</t>
+          <t>606575928.6660298065856700</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>16101837.0371350344721654</t>
+          <t>15853700.5768905162754702</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>30.5222910861393232</t>
+          <t>30.5630623058760301</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>-1.9670209388980627</t>
+          <t>-1.7795371847024244</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -6498,7 +6498,7 @@
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="99">
@@ -6530,22 +6530,22 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>581279954.3286801295908312</t>
+          <t>582062382.8490387064067282</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>11313506.3634687906192407</t>
+          <t>10918914.9153837308907115</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>0.3692971991273471</t>
+          <t>0.3697942894861906</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>-1.7643886359324710</t>
+          <t>-1.5371326448427121</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -6559,7 +6559,7 @@
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="100">
@@ -6595,22 +6595,22 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>536484366.6070729441759991</t>
+          <t>536249794.0901753498956485</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>35032077.5752526558564601</t>
+          <t>34961162.0794652682697580</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>15.0700378580571582</t>
+          <t>15.0634486321073635</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>-2.2666965909155138</t>
+          <t>-1.8654871566810764</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="101">
@@ -6660,22 +6660,22 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>534145750.3932221898737808</t>
+          <t>534658843.8775095175659538</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>33374111.7189775186268324</t>
+          <t>33385706.4827202708985786</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.8070531610620074</t>
+          <t>1.8087889929056927</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>-3.2757015022105498</t>
+          <t>-2.9384986638576015</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -6689,7 +6689,7 @@
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
   </sheetData>
